--- a/examples/USA OGD/traffic_violations/profile.xlsx
+++ b/examples/USA OGD/traffic_violations/profile.xlsx
@@ -435,20 +435,40 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -507,18 +527,32 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>12/31/2015</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>03/17/2015</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>1281</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>8262660</v>
       </c>
-      <c r="S2" t="n">
+      <c r="W2" t="n">
         <v>1504</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['01/01/2012', '01/01/2013', '01/01/2014', '01/01/2015', '01/01/2016', '01/02/2012', '01/02/2013', '01/02/2014', '01/02/2015', '01/02/2016', '01/03/2012', '01/03/2013', '01/03/2014', '01/03/2015', '01/03/2016', '01/04/2012', '01/04/2013', '01/04/2014', '01/04/2015', '01/04/2016', '01/05/2012', '01/05/2013', '01/05/2014', '01/05/2015', '01/05/2016', '01/06/2012', '01/06/2013', '01/06/2014', '01/06/2015', '01/06/2016', '01/07/2012', '01/07/2013', '01/07/2014', '01/07/2015', '01/07/2016', '01/08/2012', '01/08/2013', '01/08/2014', '01/08/2015', '01/08/2016', '01/09/2012', '01/09/2013', '01/09/2014', '01/09/2015', '01/09/2016', '01/10/2012', '01/10/2013', '01/10/2014', '01/10/2015', '01/10/2016', '01/11/2012', '01/11/2013', '01/11/2014', '01/11/2015', '01/11/2016', '01/12/2012', '01/12/2013', '01/12/2014', '01/12/2015', '01/12/2016', '01/13/2012', '01/13/2013', '01/13/2014', '01/13/2015', '01/13/2016', '01/14/2012', '01/14/2013', '01/14/2014', '01/14/2015', '01/14/2016', '01/15/2012', '01/15/2013', '01/15/2014', '01/15/2015', '01/15/2016', '01/16/2012', '01/16/2013', '01/16/2014', '01/16/2015', '01/17/2012', '01/17/2013', '01/17/2014', '01/17/2015', '01/17/2016', '01/18/2012', '01/18/2013', '01/18/2014', '01/18/2015', '01/18/2016', '01/19/2012', '01/19/2013', '01/19/2014', '01/19/2015', '01/19/2016', '01/20/2012', '01/20/2013', '01/20/2014', '01/20/2015', '01/20/2016', '01/21/2012', '01/21/2013', '01/21/2014', '01/21/2015', '01/21/2016', '01/22/2012', '01/22/2013', '01/22/2014', '01/22/2015', '01/22/2016', '01/23/2012', '01/23/2013', '01/23/2014', '01/23/2015', '01/24/2012', '01/24/2013', '01/24/2014', '01/24/2015', '01/24/2016', '01/25/2012', '01/25/2013', '01/25/2014', '01/25/2015', '01/25/2016', '01/26/2012', '01/26/2013', '01/26/2014', '01/26/2015', '01/26/2016', '01/27/2012', '01/27/2013', '01/27/2014', '01/27/2015', '01/27/2016', '01/28/2012', '01/28/2013', '01/28/2014', '01/28/2015', '01/28/2016', '01/29/2012', '01/29/2013', '01/29/2014', '01/29/2015', '01/29/2016', '01/30/2012', '01/30/2013', '01/30/2014', '01/30/2015', '01/30/2016', '01/31/2012', '01/31/2013', '01/31/2014', '01/31/2015', '01/31/2016', '02/01/2012', '02/01/2013', '02/01/2014', '02/01/2015', '02/01/2016', '02/02/2012', '02/02/2013', '02/02/2014', '02/02/2015', '02/02/2016', '02/03/2012', '02/03/2013', '02/03/2014', '02/03/2015', '02/03/2016', '02/04/2012', '02/04/2013', '02/04/2014', '02/04/2015', '02/04/2016', '02/05/2012', '02/05/2013', '02/05/2014', '02/05/2015', '02/05/2016', '02/06/2012', '02/06/2013', '02/06/2014', '02/06/2015', '02/06/2016', '02/07/2012', '02/07/2013', '02/07/2014', '02/07/2015', '02/07/2016', '02/08/2012', '02/08/2013', '02/08/2014', '02/08/2015', '02/08/2016', '02/09/2012', '02/09/2013', '02/09/2014', '02/09/2015', '02/09/2016', '02/10/2012', '02/10/2013', '02/10/2014', '02/10/2015', '02/10/2016', '02/11/2012', '02/11/2013', '02/11/2014', '02/11/2015', '02/11/2016', '02/12/2012', '02/12/2013', '02/12/2014', '02/12/2015', '02/12/2016', '02/13/2012', '02/13/2013', '02/13/2014', '02/13/2015', '02/13/2016', '02/14/2012', '02/14/2013', '02/14/2014', '02/14/2015', '02/14/2016', '02/15/2012', '02/15/2013', '02/15/2014', '02/15/2015', '02/16/2012', '02/16/2013', '02/16/2014', '02/16/2015', '02/17/2012', '02/17/2013', '02/17/2014', '02/17/2015', '02/18/2012', '02/18/2013', '02/18/2014', '02/18/2015', '02/19/2012', '02/19/2013', '02/19/2014', '02/19/2015', '02/20/2012', '02/20/2013', '02/20/2014', '02/20/2015', '02/21/2012', '02/21/2013', '02/21/2014', '02/21/2015', '02/22/2012', '02/22/2013', '02/22/2014', '02/22/2015', '02/23/2012', '02/23/2013', '02/23/2014', '02/23/2015', '02/24/2012', '02/24/2013', '02/24/2014', '02/24/2015', '02/25/2012', '02/25/2013', '02/25/2014', '02/25/2015', '02/26/2012', '02/26/2013', '02/26/2014', '02/26/2015', '02/27/2012', '02/27/2013', '02/27/2014', '02/27/2015', '02/28/2012', '02/28/2013', '02/28/2014', '02/28/2015', '02/29/2012', '03/01/2012', '03/01/2013', '03/01/2014', '03/01/2015', '03/02/2012', '03/02/2013', '03/02/2014', '03/02/2015', '03/03/2012', '03/03/2013', '03/03/2014', '03/03/2015', '03/04/2012', '03/04/2013', '03/04/2014', '03/04/2015', '03/05/2012', '03/05/2013', '03/05/2014', '03/05/2015', '03/06/2012', '03/06/2013', '03/06/2014', '03/06/2015', '03/07/2012', '03/07/2013', '03/07/2014', '03/07/2015', '03/08/2012', '03/08/2013', '03/08/2014', '03/08/2015', '03/09/2012', '03/09/2013', '03/09/2014', '03/09/2015', '03/10/2012', '03/10/2013', '03/10/2014', '03/10/2015', '03/11/2012', '03/11/2013', '03/11/2014', '03/11/2015', '03/12/2012', '03/12/2013', '03/12/2014', '03/12/2015', '03/13/2012', '03/13/2013', '03/13/2014', '03/13/2015', '03/14/2012', '03/14/2013', '03/14/2014', '03/14/2015', '03/15/2012', '03/15/2013', '03/15/2014', '03/15/2015', '03/16/2012', '03/16/2013', '03/16/2014', '03/16/2015', '03/17/2012', '03/17/2013', '03/17/2014', '03/17/2015', '03/18/2012', '03/18/2013', '03/18/2014', '03/18/2015', '03/19/2012', '03/19/2013', '03/19/2014', '03/19/2015', '03/20/2012', '03/20/2013', '03/20/2014', '03/20/2015', '03/21/2012', '03/21/2013', '03/21/2014', '03/21/2015', '03/22/2012', '03/22/2013', '03/22/2014', '03/22/2015', '03/23/2012', '03/23/2013', '03/23/2014', '03/23/2015', '03/24/2012', '03/24/2013', '03/24/2014', '03/24/2015', '03/25/2012', '03/25/2013', '03/25/2014', '03/25/2015', '03/26/2012', '03/26/2013', '03/26/2014', '03/26/2015', '03/27/2012', '03/27/2013', '03/27/2014', '03/27/2015', '03/28/2012', '03/28/2013', '03/28/2014', '03/28/2015', '03/29/2012', '03/29/2013', '03/29/2014', '03/29/2015', '03/30/2012', '03/30/2013', '03/30/2014', '03/30/2015', '03/31/2012', '03/31/2013', '03/31/2014', '03/31/2015', '04/01/2012', '04/01/2013', '04/01/2014', '04/01/2015', '04/02/2012', '04/02/2013', '04/02/2014', '04/02/2015', '04/03/2012', '04/03/2013', '04/03/2014', '04/03/2015', '04/04/2012', '04/04/2013', '04/04/2014', '04/04/2015', '04/05/2012', '04/05/2013', '04/05/2014', '04/05/2015', '04/06/2012', '04/06/2013', '04/06/2014', '04/06/2015', '04/07/2012', '04/07/2013', '04/07/2014', '04/07/2015', '04/08/2012', '04/08/2013', '04/08/2014', '04/08/2015', '04/09/2012', '04/09/2013', '04/09/2014', '04/09/2015', '04/10/2012', '04/10/2013', '04/10/2014', '04/10/2015', '04/11/2012', '04/11/2013', '04/11/2014', '04/11/2015', '04/12/2012', '04/12/2013', '04/12/2014', '04/12/2015', '04/13/2012', '04/13/2013', '04/13/2014', '04/13/2015', '04/14/2012', '04/14/2013', '04/14/2014', '04/14/2015', '04/15/2012', '04/15/2013', '04/15/2014', '04/15/2015', '04/16/2012', '04/16/2013', '04/16/2014', '04/16/2015', '04/17/2012', '04/17/2013', '04/17/2014', '04/17/2015', '04/18/2012', '04/18/2013', '04/18/2014', '04/18/2015', '04/19/2012', '04/19/2013', '04/19/2014', '04/19/2015', '04/20/2012', '04/20/2013', '04/20/2014', '04/20/2015', '04/21/2012', '04/21/2013', '04/21/2014', '04/21/2015', '04/22/2012', '04/22/2013', '04/22/2014', '04/22/2015', '04/23/2012', '04/23/2013', '04/23/2014', '04/23/2015', '04/24/2012', '04/24/2013', '04/24/2014', '04/24/2015', '04/25/2012', '04/25/2013', '04/25/2014', '04/25/2015', '04/26/2012', '04/26/2013', '04/26/2014', '04/26/2015', '04/27/2012', '04/27/2013', '04/27/2014', '04/27/2015', '04/28/2012', '04/28/2013', '04/28/2014', '04/28/2015', '04/29/2012', '04/29/2013', '04/29/2014', '04/29/2015', '04/30/2012', '04/30/2013', '04/30/2014', '04/30/2015', '05/01/2012', '05/01/2013', '05/01/2014', '05/01/2015', '05/02/2012', '05/02/2013', '05/02/2014', '05/02/2015', '05/03/2012', '05/03/2013', '05/03/2014', '05/03/2015', '05/04/2012', '05/04/2013', '05/04/2014', '05/04/2015', '05/05/2012', '05/05/2013', '05/05/2014', '05/05/2015', '05/06/2012', '05/06/2013', '05/06/2014', '05/06/2015', '05/07/2012', '05/07/2013', '05/07/2014', '05/07/2015', '05/08/2012', '05/08/2013', '05/08/2014', '05/08/2015', '05/09/2012', '05/09/2013', '05/09/2014', '05/09/2015', '05/10/2012', '05/10/2013', '05/10/2014', '05/10/2015', '05/11/2012', '05/11/2013', '05/11/2014', '05/11/2015', '05/12/2012', '05/12/2013', '05/12/2014', '05/12/2015', '05/13/2012', '05/13/2013', '05/13/2014', '05/13/2015', '05/14/2012', '05/14/2013', '05/14/2014', '05/14/2015', '05/15/2012', '05/15/2013', '05/15/2014', '05/15/2015', '05/16/2012', '05/16/2013', '05/16/2014', '05/16/2015', '05/17/2012', '05/17/2013', '05/17/2014', '05/17/2015', '05/18/2012', '05/18/2013', '05/18/2014', '05/18/2015', '05/19/2012', '05/19/2013', '05/19/2014', '05/19/2015', '05/20/2012', '05/20/2013', '05/20/2014', '05/20/2015', '05/21/2012', '05/21/2013', '05/21/2014', '05/21/2015', '05/22/2012', '05/22/2013', '05/22/2014', '05/22/2015', '05/23/2012', '05/23/2013', '05/23/2014', '05/23/2015', '05/24/2012', '05/24/2013', '05/24/2014', '05/24/2015', '05/25/2012', '05/25/2013', '05/25/2014', '05/25/2015', '05/26/2012', '05/26/2013', '05/26/2014', '05/26/2015', '05/27/2012', '05/27/2013', '05/27/2014', '05/27/2015', '05/28/2012', '05/28/2013', '05/28/2014', '05/28/2015', '05/29/2012', '05/29/2013', '05/29/2014', '05/29/2015', '05/30/2012', '05/30/2013', '05/30/2014', '05/30/2015', '05/31/2012', '05/31/2013', '05/31/2014', '05/31/2015', '06/01/2012', '06/01/2013', '06/01/2014', '06/01/2015', '06/02/2012', '06/02/2013', '06/02/2014', '06/02/2015', '06/03/2012', '06/03/2013', '06/03/2014', '06/03/2015', '06/04/2012', '06/04/2013', '06/04/2014', '06/04/2015', '06/05/2012', '06/05/2013', '06/05/2014', '06/05/2015', '06/06/2012', '06/06/2013', '06/06/2014', '06/06/2015', '06/07/2012', '06/07/2013', '06/07/2014', '06/07/2015', '06/08/2012', '06/08/2013', '06/08/2014', '06/08/2015', '06/09/2012', '06/09/2013', '06/09/2014', '06/09/2015', '06/10/2012', '06/10/2013', '06/10/2014', '06/10/2015', '06/11/2012', '06/11/2013', '06/11/2014', '06/11/2015', '06/12/2012', '06/12/2013', '06/12/2014', '06/12/2015', '06/13/2012', '06/13/2013', '06/13/2014', '06/13/2015', '06/14/2012', '06/14/2013', '06/14/2014', '06/14/2015', '06/15/2012', '06/15/2013', '06/15/2014', '06/15/2015', '06/16/2012', '06/16/2013', '06/16/2014', '06/16/2015', '06/17/2012', '06/17/2013', '06/17/2014', '06/17/2015', '06/18/2012', '06/18/2013', '06/18/2014', '06/18/2015', '06/19/2012', '06/19/2013', '06/19/2014', '06/19/2015', '06/20/2012', '06/20/2013', '06/20/2014', '06/20/2015', '06/21/2012', '06/21/2013', '06/21/2014', '06/21/2015', '06/22/2012', '06/22/2013', '06/22/2014', '06/22/2015', '06/23/2012', '06/23/2013', '06/23/2014', '06/23/2015', '06/24/2012', '06/24/2013', '06/24/2014', '06/24/2015', '06/25/2012', '06/25/2013', '06/25/2014', '06/25/2015', '06/26/2012', '06/26/2013', '06/26/2014', '06/26/2015', '06/27/2012', '06/27/2013', '06/27/2014', '06/27/2015', '06/28/2012', '06/28/2013', '06/28/2014', '06/28/2015', '06/29/2012', '06/29/2013', '06/29/2014', '06/29/2015', '06/30/2012', '06/30/2013', '06/30/2014', '06/30/2015', '07/01/2012', '07/01/2013', '07/01/2014', '07/01/2015', '07/02/2012', '07/02/2013', '07/02/2014', '07/02/2015', '07/03/2012', '07/03/2013', '07/03/2014', '07/03/2015', '07/04/2012', '07/04/2013', '07/04/2014', '07/04/2015', '07/05/2012', '07/05/2013', '07/05/2014', '07/05/2015', '07/06/2012', '07/06/2013', '07/06/2014', '07/06/2015', '07/07/2012', '07/07/2013', '07/07/2014', '07/07/2015', '07/08/2012', '07/08/2013', '07/08/2014', '07/08/2015', '07/09/2012', '07/09/2013', '07/09/2014', '07/09/2015', '07/10/2012', '07/10/2013', '07/10/2014', '07/10/2015', '07/11/2012', '07/11/2013', '07/11/2014', '07/11/2015', '07/12/2012', '07/12/2013', '07/12/2014', '07/12/2015', '07/13/2012', '07/13/2013', '07/13/2014', '07/13/2015', '07/14/2012', '07/14/2013', '07/14/2014', '07/14/2015', '07/15/2012', '07/15/2013', '07/15/2014', '07/15/2015', '07/16/2012', '07/16/2013', '07/16/2014', '07/16/2015', '07/17/2012', '07/17/2013', '07/17/2014', '07/17/2015', '07/18/2012', '07/18/2013', '07/18/2014', '07/18/2015', '07/19/2012', '07/19/2013', '07/19/2014', '07/19/2015', '07/20/2012', '07/20/2013', '07/20/2014', '07/20/2015', '07/21/2012', '07/21/2013', '07/21/2014', '07/21/2015', '07/22/2012', '07/22/2013', '07/22/2014', '07/22/2015', '07/23/2012', '07/23/2013', '07/23/2014', '07/23/2015', '07/24/2012', '07/24/2013', '07/24/2014', '07/24/2015', '07/25/2012', '07/25/2013', '07/25/2014', '07/25/2015', '07/26/2012', '07/26/2013', '07/26/2014', '07/26/2015', '07/27/2012', '07/27/2013', '07/27/2014', '07/27/2015', '07/28/2012', '07/28/2013', '07/28/2014', '07/28/2015', '07/29/2012', '07/29/2013', '07/29/2014', '07/29/2015', '07/30/2012', '07/30/2013', '07/30/2014', '07/30/2015', '07/31/2012', '07/31/2013', '07/31/2014', '07/31/2015', '08/01/2012', '08/01/2013', '08/01/2014', '08/01/2015', '08/02/2012', '08/02/2013', '08/02/2014', '08/02/2015', '08/03/2012', '08/03/2013', '08/03/2014', '08/03/2015', '08/04/2012', '08/04/2013', '08/04/2014', '08/04/2015', '08/05/2012', '08/05/2013', '08/05/2014', '08/05/2015', '08/06/2012', '08/06/2013', '08/06/2014', '08/06/2015', '08/07/2012', '08/07/2013', '08/07/2014', '08/07/2015', '08/08/2012', '08/08/2013', '08/08/2014', '08/08/2015', '08/09/2012', '08/09/2013', '08/09/2014', '08/09/2015', '08/10/2012', '08/10/2013', '08/10/2014', '08/10/2015', '08/11/2012', '08/11/2013', '08/11/2014', '08/11/2015', '08/12/2012', '08/12/2013', '08/12/2014', '08/12/2015', '08/13/2012', '08/13/2013', '08/13/2014', '08/13/2015', '08/14/2012', '08/14/2013', '08/14/2014', '08/14/2015', '08/15/2012', '08/15/2013', '08/15/2014', '08/15/2015', '08/16/2012', '08/16/2013', '08/16/2014', '08/16/2015', '08/17/2012', '08/17/2013', '08/17/2014', '08/17/2015', '08/18/2012', '08/18/2013', '08/18/2014', '08/18/2015', '08/19/2012', '08/19/2013', '08/19/2014', '08/19/2015', '08/20/2012', '08/20/2013', '08/20/2014', '08/20/2015', '08/21/2012', '08/21/2013', '08/21/2014', '08/21/2015', '08/22/2012', '08/22/2013', '08/22/2014', '08/22/2015', '08/23/2012', '08/23/2013', '08/23/2014', '08/23/2015', '08/24/2012', '08/24/2013', '08/24/2014', '08/24/2015', '08/25/2012', '08/25/2013', '08/25/2014', '08/25/2015', '08/26/2012', '08/26/2013', '08/26/2014', '08/26/2015', '08/27/2012', '08/27/2013', '08/27/2014', '08/27/2015', '08/28/2012', '08/28/2013', '08/28/2014', '08/28/2015', '08/29/2012', '08/29/2013', '08/29/2014', '08/29/2015', '08/30/2012', '08/30/2013', '08/30/2014', '08/30/2015', '08/31/2012', '08/31/2013', '08/31/2014', '08/31/2015', '09/01/2012', '09/01/2013', '09/01/2014', '09/01/2015', '09/02/2012', '09/02/2013', '09/02/2014', '09/02/2015', '09/03/2012', '09/03/2013', '09/03/2014', '09/03/2015', '09/04/2012', '09/04/2013', '09/04/2014', '09/04/2015', '09/05/2012', '09/05/2013', '09/05/2014', '09/05/2015', '09/06/2012', '09/06/2013', '09/06/2014', '09/06/2015', '09/07/2012', '09/07/2013', '09/07/2014', '09/07/2015', '09/08/2012', '09/08/2013', '09/08/2014', '09/08/2015', '09/09/2012', '09/09/2013', '09/09/2014', '09/09/2015', '09/10/2012', '09/10/2013', '09/10/2014', '09/10/2015', '09/11/2012', '09/11/2013', '09/11/2014', '09/11/2015', '09/12/2012', '09/12/2013', '09/12/2014', '09/12/2015', '09/13/2012', '09/13/2013', '09/13/2014', '09/13/2015', '09/14/2012', '09/14/2013', '09/14/2014', '09/14/2015', '09/15/2012', '09/15/2013', '09/15/2014', '09/15/2015', '09/16/2012', '09/16/2013', '09/16/2014', '09/16/2015', '09/17/2012', '09/17/2013', '09/17/2014', '09/17/2015', '09/18/2012', '09/18/2013', '09/18/2014', '09/18/2015', '09/19/2012', '09/19/2013', '09/19/2014', '09/19/2015', '09/20/2012', '09/20/2013', '09/20/2014', '09/20/2015', '09/21/2012', '09/21/2013', '09/21/2014', '09/21/2015', '09/22/2012', '09/22/2013', '09/22/2014', '09/22/2015', '09/23/2012', '09/23/2013', '09/23/2014', '09/23/2015', '09/24/2012', '09/24/2013', '09/24/2014', '09/24/2015', '09/25/2012', '09/25/2013', '09/25/2014', '09/25/2015', '09/26/2012', '09/26/2013', '09/26/2014', '09/26/2015', '09/27/2012', '09/27/2013', '09/27/2014', '09/27/2015', '09/28/2012', '09/28/2013', '09/28/2014', '09/28/2015', '09/29/2012', '09/29/2013', '09/29/2014', '09/29/2015', '09/30/2012', '09/30/2013', '09/30/2014', '09/30/2015', '10/01/2012', '10/01/2013', '10/01/2014', '10/01/2015', '10/02/2012', '10/02/2013', '10/02/2014', '10/02/2015', '10/03/2012', '10/03/2013', '10/03/2014', '10/03/2015', '10/04/2012', '10/04/2013', '10/04/2014', '10/04/2015', '10/05/2012', '10/05/2013', '10/05/2014', '10/05/2015', '10/06/2012', '10/06/2013', '10/06/2014', '10/06/2015', '10/07/2012', '10/07/2013', '10/07/2014', '10/07/2015', '10/08/2012', '10/08/2013', '10/08/2014', '10/08/2015', '10/09/2012', '10/09/2013', '10/09/2014', '10/09/2015', '10/10/2012', '10/10/2013', '10/10/2014', '10/10/2015', '10/11/2012', '10/11/2013', '10/11/2014', '10/11/2015', '10/12/2012', '10/12/2013', '10/12/2014', '10/12/2015', '10/13/2012', '10/13/2013', '10/13/2014', '10/13/2015', '10/14/2012', '10/14/2013', '10/14/2014', '10/14/2015', '10/15/2012', '10/15/2013', '10/15/2014', '10/15/2015', '10/16/2012', '10/16/2013', '10/16/2014', '10/16/2015', '10/17/2012', '10/17/2013', '10/17/2014', '10/17/2015', '10/18/2012', '10/18/2013', '10/18/2014', '10/18/2015', '10/19/2012', '10/19/2013', '10/19/2014', '10/19/2015', '10/20/2012', '10/20/2013', '10/20/2014', '10/20/2015', '10/21/2012', '10/21/2013', '10/21/2014', '10/21/2015', '10/22/2012', '10/22/2013', '10/22/2014', '10/22/2015', '10/23/2012', '10/23/2013', '10/23/2014', '10/23/2015', '10/24/2012', '10/24/2013', '10/24/2014', '10/24/2015', '10/25/2012', '10/25/2013', '10/25/2014', '10/25/2015', '10/26/2012', '10/26/2013', '10/26/2014', '10/26/2015', '10/27/2012', '10/27/2013', '10/27/2014', '10/27/2015', '10/28/2012', '10/28/2013', '10/28/2014', '10/28/2015', '10/29/2012', '10/29/2013', '10/29/2014', '10/29/2015', '10/30/2012', '10/30/2013', '10/30/2014', '10/30/2015', '10/31/2012', '10/31/2013', '10/31/2014', '10/31/2015', '11/01/2012', '11/01/2013', '11/01/2014', '11/01/2015', '11/02/2012', '11/02/2013', '11/02/2014', '11/02/2015', '11/03/2012', '11/03/2013', '11/03/2014', '11/03/2015', '11/04/2012', '11/04/2013', '11/04/2014', '11/04/2015', '11/05/2012', '11/05/2013', '11/05/2014', '11/05/2015', '11/06/2012', '11/06/2013', '11/06/2014', '11/06/2015', '11/07/2012', '11/07/2013', '11/07/2014', '11/07/2015', '11/08/2012', '11/08/2013', '11/08/2014', '11/08/2015', '11/09/2012', '11/09/2013', '11/09/2014', '11/09/2015', '11/10/2012', '11/10/2013', '11/10/2014', '11/10/2015', '11/11/2012', '11/11/2013', '11/11/2014', '11/11/2015', '11/12/2012', '11/12/2013', '11/12/2014', '11/12/2015', '11/13/2012', '11/13/2013', '11/13/2014', '11/13/2015', '11/14/2012', '11/14/2013', '11/14/2014', '11/14/2015', '11/15/2012', '11/15/2013', '11/15/2014', '11/15/2015', '11/16/2012', '11/16/2013', '11/16/2014', '11/16/2015', '11/17/2012', '11/17/2013', '11/17/2014', '11/17/2015', '11/18/2012', '11/18/2013', '11/18/2014', '11/18/2015', '11/19/2012', '11/19/2013', '11/19/2014', '11/19/2015', '11/20/2012', '11/20/2013', '11/20/2014', '11/20/2015', '11/21/2012', '11/21/2013', '11/21/2014', '11/21/2015', '11/22/2012', '11/22/2013', '11/22/2014', '11/22/2015', '11/23/2012', '11/23/2013', '11/23/2014', '11/23/2015', '11/24/2012', '11/24/2013', '11/24/2014', '11/24/2015', '11/25/2012', '11/25/2013', '11/25/2014', '11/25/2015', '11/26/2012', '11/26/2013', '11/26/2014', '11/26/2015', '11/27/2012', '11/27/2013', '11/27/2014', '11/27/2015', '11/28/2012', '11/28/2013', '11/28/2014', '11/28/2015', '11/29/2012', '11/29/2013', '11/29/2014', '11/29/2015', '11/30/2012', '11/30/2013', '11/30/2014', '11/30/2015', '12/01/2012', '12/01/2013', '12/01/2014', '12/01/2015', '12/02/2012', '12/02/2013', '12/02/2014', '12/02/2015', '12/03/2012', '12/03/2013', '12/03/2014', '12/03/2015', '12/04/2012', '12/04/2013', '12/04/2014', '12/04/2015', '12/05/2012', '12/05/2013', '12/05/2014', '12/05/2015', '12/06/2012', '12/06/2013', '12/06/2014', '12/06/2015', '12/07/2012', '12/07/2013', '12/07/2014', '12/07/2015', '12/08/2012', '12/08/2013', '12/08/2014', '12/08/2015', '12/09/2012', '12/09/2013', '12/09/2014', '12/09/2015', '12/10/2012', '12/10/2013', '12/10/2014', '12/10/2015', '12/11/2012', '12/11/2013', '12/11/2014', '12/11/2015', '12/12/2012', '12/12/2013', '12/12/2014', '12/12/2015', '12/13/2012', '12/13/2013', '12/13/2014', '12/13/2015', '12/14/2012', '12/14/2013', '12/14/2014', '12/14/2015', '12/15/2012', '12/15/2013', '12/15/2014', '12/15/2015', '12/16/2012', '12/16/2013', '12/16/2014', '12/16/2015', '12/17/2012', '12/17/2013', '12/17/2014', '12/17/2015', '12/18/2012', '12/18/2013', '12/18/2014', '12/18/2015', '12/19/2012', '12/19/2013', '12/19/2014', '12/19/2015', '12/20/2012', '12/20/2013', '12/20/2014', '12/20/2015', '12/21/2012', '12/21/2013', '12/21/2014', '12/21/2015', '12/22/2012', '12/22/2013', '12/22/2014', '12/22/2015', '12/23/2012', '12/23/2013', '12/23/2014', '12/23/2015', '12/24/2012', '12/24/2013', '12/24/2014', '12/24/2015', '12/25/2012', '12/25/2013', '12/25/2014', '12/25/2015', '12/26/2012', '12/26/2013', '12/26/2014', '12/26/2015', '12/27/2012', '12/27/2013', '12/27/2014', '12/27/2015', '12/28/2012', '12/28/2013', '12/28/2014', '12/28/2015', '12/29/2012', '12/29/2013', '12/29/2014', '12/29/2015', '12/30/2012', '12/30/2013', '12/30/2014', '12/30/2015', '12/31/2012', '12/31/2013', '12/31/2014', '12/31/2015']</t>
         </is>
@@ -577,18 +611,32 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>23:59:00</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>23:20:00</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>1232</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>6610128</v>
       </c>
-      <c r="S3" t="n">
+      <c r="W3" t="n">
         <v>1440</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['00:00:00', '00:01:00', '00:02:00', '00:03:00', '00:04:00', '00:05:00', '00:06:00', '00:07:00', '00:08:00', '00:09:00', '00:10:00', '00:11:00', '00:12:00', '00:13:00', '00:14:00', '00:15:00', '00:16:00', '00:17:00', '00:18:00', '00:19:00', '00:20:00', '00:21:00', '00:22:00', '00:23:00', '00:24:00', '00:25:00', '00:26:00', '00:27:00', '00:28:00', '00:29:00', '00:30:00', '00:31:00', '00:32:00', '00:33:00', '00:34:00', '00:35:00', '00:36:00', '00:37:00', '00:38:00', '00:39:00', '00:40:00', '00:41:00', '00:42:00', '00:43:00', '00:44:00', '00:45:00', '00:46:00', '00:47:00', '00:48:00', '00:49:00', '00:50:00', '00:51:00', '00:52:00', '00:53:00', '00:54:00', '00:55:00', '00:56:00', '00:57:00', '00:58:00', '00:59:00', '01:00:00', '01:01:00', '01:02:00', '01:03:00', '01:04:00', '01:05:00', '01:06:00', '01:07:00', '01:08:00', '01:09:00', '01:10:00', '01:11:00', '01:12:00', '01:13:00', '01:14:00', '01:15:00', '01:16:00', '01:17:00', '01:18:00', '01:19:00', '01:20:00', '01:21:00', '01:22:00', '01:23:00', '01:24:00', '01:25:00', '01:26:00', '01:27:00', '01:28:00', '01:29:00', '01:30:00', '01:31:00', '01:32:00', '01:33:00', '01:34:00', '01:35:00', '01:36:00', '01:37:00', '01:38:00', '01:39:00', '01:40:00', '01:41:00', '01:42:00', '01:43:00', '01:44:00', '01:45:00', '01:46:00', '01:47:00', '01:48:00', '01:49:00', '01:50:00', '01:51:00', '01:52:00', '01:53:00', '01:54:00', '01:55:00', '01:56:00', '01:57:00', '01:58:00', '01:59:00', '02:00:00', '02:01:00', '02:02:00', '02:03:00', '02:04:00', '02:05:00', '02:06:00', '02:07:00', '02:08:00', '02:09:00', '02:10:00', '02:11:00', '02:12:00', '02:13:00', '02:14:00', '02:15:00', '02:16:00', '02:17:00', '02:18:00', '02:19:00', '02:20:00', '02:21:00', '02:22:00', '02:23:00', '02:24:00', '02:25:00', '02:26:00', '02:27:00', '02:28:00', '02:29:00', '02:30:00', '02:31:00', '02:32:00', '02:33:00', '02:34:00', '02:35:00', '02:36:00', '02:37:00', '02:38:00', '02:39:00', '02:40:00', '02:41:00', '02:42:00', '02:43:00', '02:44:00', '02:45:00', '02:46:00', '02:47:00', '02:48:00', '02:49:00', '02:50:00', '02:51:00', '02:52:00', '02:53:00', '02:54:00', '02:55:00', '02:56:00', '02:57:00', '02:58:00', '02:59:00', '03:00:00', '03:01:00', '03:02:00', '03:03:00', '03:04:00', '03:05:00', '03:06:00', '03:07:00', '03:08:00', '03:09:00', '03:10:00', '03:11:00', '03:12:00', '03:13:00', '03:14:00', '03:15:00', '03:16:00', '03:17:00', '03:18:00', '03:19:00', '03:20:00', '03:21:00', '03:22:00', '03:23:00', '03:24:00', '03:25:00', '03:26:00', '03:27:00', '03:28:00', '03:29:00', '03:30:00', '03:31:00', '03:32:00', '03:33:00', '03:34:00', '03:35:00', '03:36:00', '03:37:00', '03:38:00', '03:39:00', '03:40:00', '03:41:00', '03:42:00', '03:43:00', '03:44:00', '03:45:00', '03:46:00', '03:47:00', '03:48:00', '03:49:00', '03:50:00', '03:51:00', '03:52:00', '03:53:00', '03:54:00', '03:55:00', '03:56:00', '03:57:00', '03:58:00', '03:59:00', '04:00:00', '04:01:00', '04:02:00', '04:03:00', '04:04:00', '04:05:00', '04:06:00', '04:07:00', '04:08:00', '04:09:00', '04:10:00', '04:11:00', '04:12:00', '04:13:00', '04:14:00', '04:15:00', '04:16:00', '04:17:00', '04:18:00', '04:19:00', '04:20:00', '04:21:00', '04:22:00', '04:23:00', '04:24:00', '04:25:00', '04:26:00', '04:27:00', '04:28:00', '04:29:00', '04:30:00', '04:31:00', '04:32:00', '04:33:00', '04:34:00', '04:35:00', '04:36:00', '04:37:00', '04:38:00', '04:39:00', '04:40:00', '04:41:00', '04:42:00', '04:43:00', '04:44:00', '04:45:00', '04:46:00', '04:47:00', '04:48:00', '04:49:00', '04:50:00', '04:51:00', '04:52:00', '04:53:00', '04:54:00', '04:55:00', '04:56:00', '04:57:00', '04:58:00', '04:59:00', '05:00:00', '05:01:00', '05:02:00', '05:03:00', '05:04:00', '05:05:00', '05:06:00', '05:07:00', '05:08:00', '05:09:00', '05:10:00', '05:11:00', '05:12:00', '05:13:00', '05:14:00', '05:15:00', '05:16:00', '05:17:00', '05:18:00', '05:19:00', '05:20:00', '05:21:00', '05:22:00', '05:23:00', '05:24:00', '05:25:00', '05:26:00', '05:27:00', '05:28:00', '05:29:00', '05:30:00', '05:31:00', '05:32:00', '05:33:00', '05:34:00', '05:35:00', '05:36:00', '05:37:00', '05:38:00', '05:39:00', '05:40:00', '05:41:00', '05:42:00', '05:43:00', '05:44:00', '05:45:00', '05:46:00', '05:47:00', '05:48:00', '05:49:00', '05:50:00', '05:51:00', '05:52:00', '05:53:00', '05:54:00', '05:55:00', '05:56:00', '05:57:00', '05:58:00', '05:59:00', '06:00:00', '06:01:00', '06:02:00', '06:03:00', '06:04:00', '06:05:00', '06:06:00', '06:07:00', '06:08:00', '06:09:00', '06:10:00', '06:11:00', '06:12:00', '06:13:00', '06:14:00', '06:15:00', '06:16:00', '06:17:00', '06:18:00', '06:19:00', '06:20:00', '06:21:00', '06:22:00', '06:23:00', '06:24:00', '06:25:00', '06:26:00', '06:27:00', '06:28:00', '06:29:00', '06:30:00', '06:31:00', '06:32:00', '06:33:00', '06:34:00', '06:35:00', '06:36:00', '06:37:00', '06:38:00', '06:39:00', '06:40:00', '06:41:00', '06:42:00', '06:43:00', '06:44:00', '06:45:00', '06:46:00', '06:47:00', '06:48:00', '06:49:00', '06:50:00', '06:51:00', '06:52:00', '06:53:00', '06:54:00', '06:55:00', '06:56:00', '06:57:00', '06:58:00', '06:59:00', '07:00:00', '07:01:00', '07:02:00', '07:03:00', '07:04:00', '07:05:00', '07:06:00', '07:07:00', '07:08:00', '07:09:00', '07:10:00', '07:11:00', '07:12:00', '07:13:00', '07:14:00', '07:15:00', '07:16:00', '07:17:00', '07:18:00', '07:19:00', '07:20:00', '07:21:00', '07:22:00', '07:23:00', '07:24:00', '07:25:00', '07:26:00', '07:27:00', '07:28:00', '07:29:00', '07:30:00', '07:31:00', '07:32:00', '07:33:00', '07:34:00', '07:35:00', '07:36:00', '07:37:00', '07:38:00', '07:39:00', '07:40:00', '07:41:00', '07:42:00', '07:43:00', '07:44:00', '07:45:00', '07:46:00', '07:47:00', '07:48:00', '07:49:00', '07:50:00', '07:51:00', '07:52:00', '07:53:00', '07:54:00', '07:55:00', '07:56:00', '07:57:00', '07:58:00', '07:59:00', '08:00:00', '08:01:00', '08:02:00', '08:03:00', '08:04:00', '08:05:00', '08:06:00', '08:07:00', '08:08:00', '08:09:00', '08:10:00', '08:11:00', '08:12:00', '08:13:00', '08:14:00', '08:15:00', '08:16:00', '08:17:00', '08:18:00', '08:19:00', '08:20:00', '08:21:00', '08:22:00', '08:23:00', '08:24:00', '08:25:00', '08:26:00', '08:27:00', '08:28:00', '08:29:00', '08:30:00', '08:31:00', '08:32:00', '08:33:00', '08:34:00', '08:35:00', '08:36:00', '08:37:00', '08:38:00', '08:39:00', '08:40:00', '08:41:00', '08:42:00', '08:43:00', '08:44:00', '08:45:00', '08:46:00', '08:47:00', '08:48:00', '08:49:00', '08:50:00', '08:51:00', '08:52:00', '08:53:00', '08:54:00', '08:55:00', '08:56:00', '08:57:00', '08:58:00', '08:59:00', '09:00:00', '09:01:00', '09:02:00', '09:03:00', '09:04:00', '09:05:00', '09:06:00', '09:07:00', '09:08:00', '09:09:00', '09:10:00', '09:11:00', '09:12:00', '09:13:00', '09:14:00', '09:15:00', '09:16:00', '09:17:00', '09:18:00', '09:19:00', '09:20:00', '09:21:00', '09:22:00', '09:23:00', '09:24:00', '09:25:00', '09:26:00', '09:27:00', '09:28:00', '09:29:00', '09:30:00', '09:31:00', '09:32:00', '09:33:00', '09:34:00', '09:35:00', '09:36:00', '09:37:00', '09:38:00', '09:39:00', '09:40:00', '09:41:00', '09:42:00', '09:43:00', '09:44:00', '09:45:00', '09:46:00', '09:47:00', '09:48:00', '09:49:00', '09:50:00', '09:51:00', '09:52:00', '09:53:00', '09:54:00', '09:55:00', '09:56:00', '09:57:00', '09:58:00', '09:59:00', '10:00:00', '10:01:00', '10:02:00', '10:03:00', '10:04:00', '10:05:00', '10:06:00', '10:07:00', '10:08:00', '10:09:00', '10:10:00', '10:11:00', '10:12:00', '10:13:00', '10:14:00', '10:15:00', '10:16:00', '10:17:00', '10:18:00', '10:19:00', '10:20:00', '10:21:00', '10:22:00', '10:23:00', '10:24:00', '10:25:00', '10:26:00', '10:27:00', '10:28:00', '10:29:00', '10:30:00', '10:31:00', '10:32:00', '10:33:00', '10:34:00', '10:35:00', '10:36:00', '10:37:00', '10:38:00', '10:39:00', '10:40:00', '10:41:00', '10:42:00', '10:43:00', '10:44:00', '10:45:00', '10:46:00', '10:47:00', '10:48:00', '10:49:00', '10:50:00', '10:51:00', '10:52:00', '10:53:00', '10:54:00', '10:55:00', '10:56:00', '10:57:00', '10:58:00', '10:59:00', '11:00:00', '11:01:00', '11:02:00', '11:03:00', '11:04:00', '11:05:00', '11:06:00', '11:07:00', '11:08:00', '11:09:00', '11:10:00', '11:11:00', '11:12:00', '11:13:00', '11:14:00', '11:15:00', '11:16:00', '11:17:00', '11:18:00', '11:19:00', '11:20:00', '11:21:00', '11:22:00', '11:23:00', '11:24:00', '11:25:00', '11:26:00', '11:27:00', '11:28:00', '11:29:00', '11:30:00', '11:31:00', '11:32:00', '11:33:00', '11:34:00', '11:35:00', '11:36:00', '11:37:00', '11:38:00', '11:39:00', '11:40:00', '11:41:00', '11:42:00', '11:43:00', '11:44:00', '11:45:00', '11:46:00', '11:47:00', '11:48:00', '11:49:00', '11:50:00', '11:51:00', '11:52:00', '11:53:00', '11:54:00', '11:55:00', '11:56:00', '11:57:00', '11:58:00', '11:59:00', '12:00:00', '12:01:00', '12:02:00', '12:03:00', '12:04:00', '12:05:00', '12:06:00', '12:07:00', '12:08:00', '12:09:00', '12:10:00', '12:11:00', '12:12:00', '12:13:00', '12:14:00', '12:15:00', '12:16:00', '12:17:00', '12:18:00', '12:19:00', '12:20:00', '12:21:00', '12:22:00', '12:23:00', '12:24:00', '12:25:00', '12:26:00', '12:27:00', '12:28:00', '12:29:00', '12:30:00', '12:31:00', '12:32:00', '12:33:00', '12:34:00', '12:35:00', '12:36:00', '12:37:00', '12:38:00', '12:39:00', '12:40:00', '12:41:00', '12:42:00', '12:43:00', '12:44:00', '12:45:00', '12:46:00', '12:47:00', '12:48:00', '12:49:00', '12:50:00', '12:51:00', '12:52:00', '12:53:00', '12:54:00', '12:55:00', '12:56:00', '12:57:00', '12:58:00', '12:59:00', '13:00:00', '13:01:00', '13:02:00', '13:03:00', '13:04:00', '13:05:00', '13:06:00', '13:07:00', '13:08:00', '13:09:00', '13:10:00', '13:11:00', '13:12:00', '13:13:00', '13:14:00', '13:15:00', '13:16:00', '13:17:00', '13:18:00', '13:19:00', '13:20:00', '13:21:00', '13:22:00', '13:23:00', '13:24:00', '13:25:00', '13:26:00', '13:27:00', '13:28:00', '13:29:00', '13:30:00', '13:31:00', '13:32:00', '13:33:00', '13:34:00', '13:35:00', '13:36:00', '13:37:00', '13:38:00', '13:39:00', '13:40:00', '13:41:00', '13:42:00', '13:43:00', '13:44:00', '13:45:00', '13:46:00', '13:47:00', '13:48:00', '13:49:00', '13:50:00', '13:51:00', '13:52:00', '13:53:00', '13:54:00', '13:55:00', '13:56:00', '13:57:00', '13:58:00', '13:59:00', '14:00:00', '14:01:00', '14:02:00', '14:03:00', '14:04:00', '14:05:00', '14:06:00', '14:07:00', '14:08:00', '14:09:00', '14:10:00', '14:11:00', '14:12:00', '14:13:00', '14:14:00', '14:15:00', '14:16:00', '14:17:00', '14:18:00', '14:19:00', '14:20:00', '14:21:00', '14:22:00', '14:23:00', '14:24:00', '14:25:00', '14:26:00', '14:27:00', '14:28:00', '14:29:00', '14:30:00', '14:31:00', '14:32:00', '14:33:00', '14:34:00', '14:35:00', '14:36:00', '14:37:00', '14:38:00', '14:39:00', '14:40:00', '14:41:00', '14:42:00', '14:43:00', '14:44:00', '14:45:00', '14:46:00', '14:47:00', '14:48:00', '14:49:00', '14:50:00', '14:51:00', '14:52:00', '14:53:00', '14:54:00', '14:55:00', '14:56:00', '14:57:00', '14:58:00', '14:59:00', '15:00:00', '15:01:00', '15:02:00', '15:03:00', '15:04:00', '15:05:00', '15:06:00', '15:07:00', '15:08:00', '15:09:00', '15:10:00', '15:11:00', '15:12:00', '15:13:00', '15:14:00', '15:15:00', '15:16:00', '15:17:00', '15:18:00', '15:19:00', '15:20:00', '15:21:00', '15:22:00', '15:23:00', '15:24:00', '15:25:00', '15:26:00', '15:27:00', '15:28:00', '15:29:00', '15:30:00', '15:31:00', '15:32:00', '15:33:00', '15:34:00', '15:35:00', '15:36:00', '15:37:00', '15:38:00', '15:39:00', '15:40:00', '15:41:00', '15:42:00', '15:43:00', '15:44:00', '15:45:00', '15:46:00', '15:47:00', '15:48:00', '15:49:00', '15:50:00', '15:51:00', '15:52:00', '15:53:00', '15:54:00', '15:55:00', '15:56:00', '15:57:00', '15:58:00', '15:59:00', '16:00:00', '16:01:00', '16:02:00', '16:03:00', '16:04:00', '16:05:00', '16:06:00', '16:07:00', '16:08:00', '16:09:00', '16:10:00', '16:11:00', '16:12:00', '16:13:00', '16:14:00', '16:15:00', '16:16:00', '16:17:00', '16:18:00', '16:19:00', '16:20:00', '16:21:00', '16:22:00', '16:23:00', '16:24:00', '16:25:00', '16:26:00', '16:27:00', '16:28:00', '16:29:00', '16:30:00', '16:31:00', '16:32:00', '16:33:00', '16:34:00', '16:35:00', '16:36:00', '16:37:00', '16:38:00', '16:39:00', '16:40:00', '16:41:00', '16:42:00', '16:43:00', '16:44:00', '16:45:00', '16:46:00', '16:47:00', '16:48:00', '16:49:00', '16:50:00', '16:51:00', '16:52:00', '16:53:00', '16:54:00', '16:55:00', '16:56:00', '16:57:00', '16:58:00', '16:59:00', '17:00:00', '17:01:00', '17:02:00', '17:03:00', '17:04:00', '17:05:00', '17:06:00', '17:07:00', '17:08:00', '17:09:00', '17:10:00', '17:11:00', '17:12:00', '17:13:00', '17:14:00', '17:15:00', '17:16:00', '17:17:00', '17:18:00', '17:19:00', '17:20:00', '17:21:00', '17:22:00', '17:23:00', '17:24:00', '17:25:00', '17:26:00', '17:27:00', '17:28:00', '17:29:00', '17:30:00', '17:31:00', '17:32:00', '17:33:00', '17:34:00', '17:35:00', '17:36:00', '17:37:00', '17:38:00', '17:39:00', '17:40:00', '17:41:00', '17:42:00', '17:43:00', '17:44:00', '17:45:00', '17:46:00', '17:47:00', '17:48:00', '17:49:00', '17:50:00', '17:51:00', '17:52:00', '17:53:00', '17:54:00', '17:55:00', '17:56:00', '17:57:00', '17:58:00', '17:59:00', '18:00:00', '18:01:00', '18:02:00', '18:03:00', '18:04:00', '18:05:00', '18:06:00', '18:07:00', '18:08:00', '18:09:00', '18:10:00', '18:11:00', '18:12:00', '18:13:00', '18:14:00', '18:15:00', '18:16:00', '18:17:00', '18:18:00', '18:19:00', '18:20:00', '18:21:00', '18:22:00', '18:23:00', '18:24:00', '18:25:00', '18:26:00', '18:27:00', '18:28:00', '18:29:00', '18:30:00', '18:31:00', '18:32:00', '18:33:00', '18:34:00', '18:35:00', '18:36:00', '18:37:00', '18:38:00', '18:39:00', '18:40:00', '18:41:00', '18:42:00', '18:43:00', '18:44:00', '18:45:00', '18:46:00', '18:47:00', '18:48:00', '18:49:00', '18:50:00', '18:51:00', '18:52:00', '18:53:00', '18:54:00', '18:55:00', '18:56:00', '18:57:00', '18:58:00', '18:59:00', '19:00:00', '19:01:00', '19:02:00', '19:03:00', '19:04:00', '19:05:00', '19:06:00', '19:07:00', '19:08:00', '19:09:00', '19:10:00', '19:11:00', '19:12:00', '19:13:00', '19:14:00', '19:15:00', '19:16:00', '19:17:00', '19:18:00', '19:19:00', '19:20:00', '19:21:00', '19:22:00', '19:23:00', '19:24:00', '19:25:00', '19:26:00', '19:27:00', '19:28:00', '19:29:00', '19:30:00', '19:31:00', '19:32:00', '19:33:00', '19:34:00', '19:35:00', '19:36:00', '19:37:00', '19:38:00', '19:39:00', '19:40:00', '19:41:00', '19:42:00', '19:43:00', '19:44:00', '19:45:00', '19:46:00', '19:47:00', '19:48:00', '19:49:00', '19:50:00', '19:51:00', '19:52:00', '19:53:00', '19:54:00', '19:55:00', '19:56:00', '19:57:00', '19:58:00', '19:59:00', '20:00:00', '20:01:00', '20:02:00', '20:03:00', '20:04:00', '20:05:00', '20:06:00', '20:07:00', '20:08:00', '20:09:00', '20:10:00', '20:11:00', '20:12:00', '20:13:00', '20:14:00', '20:15:00', '20:16:00', '20:17:00', '20:18:00', '20:19:00', '20:20:00', '20:21:00', '20:22:00', '20:23:00', '20:24:00', '20:25:00', '20:26:00', '20:27:00', '20:28:00', '20:29:00', '20:30:00', '20:31:00', '20:32:00', '20:33:00', '20:34:00', '20:35:00', '20:36:00', '20:37:00', '20:38:00', '20:39:00', '20:40:00', '20:41:00', '20:42:00', '20:43:00', '20:44:00', '20:45:00', '20:46:00', '20:47:00', '20:48:00', '20:49:00', '20:50:00', '20:51:00', '20:52:00', '20:53:00', '20:54:00', '20:55:00', '20:56:00', '20:57:00', '20:58:00', '20:59:00', '21:00:00', '21:01:00', '21:02:00', '21:03:00', '21:04:00', '21:05:00', '21:06:00', '21:07:00', '21:08:00', '21:09:00', '21:10:00', '21:11:00', '21:12:00', '21:13:00', '21:14:00', '21:15:00', '21:16:00', '21:17:00', '21:18:00', '21:19:00', '21:20:00', '21:21:00', '21:22:00', '21:23:00', '21:24:00', '21:25:00', '21:26:00', '21:27:00', '21:28:00', '21:29:00', '21:30:00', '21:31:00', '21:32:00', '21:33:00', '21:34:00', '21:35:00', '21:36:00', '21:37:00', '21:38:00', '21:39:00', '21:40:00', '21:41:00', '21:42:00', '21:43:00', '21:44:00', '21:45:00', '21:46:00', '21:47:00', '21:48:00', '21:49:00', '21:50:00', '21:51:00', '21:52:00', '21:53:00', '21:54:00', '21:55:00', '21:56:00', '21:57:00', '21:58:00', '21:59:00', '22:00:00', '22:01:00', '22:02:00', '22:03:00', '22:04:00', '22:05:00', '22:06:00', '22:07:00', '22:08:00', '22:09:00', '22:10:00', '22:11:00', '22:12:00', '22:13:00', '22:14:00', '22:15:00', '22:16:00', '22:17:00', '22:18:00', '22:19:00', '22:20:00', '22:21:00', '22:22:00', '22:23:00', '22:24:00', '22:25:00', '22:26:00', '22:27:00', '22:28:00', '22:29:00', '22:30:00', '22:31:00', '22:32:00', '22:33:00', '22:34:00', '22:35:00', '22:36:00', '22:37:00', '22:38:00', '22:39:00', '22:40:00', '22:41:00', '22:42:00', '22:43:00', '22:44:00', '22:45:00', '22:46:00', '22:47:00', '22:48:00', '22:49:00', '22:50:00', '22:51:00', '22:52:00', '22:53:00', '22:54:00', '22:55:00', '22:56:00', '22:57:00', '22:58:00', '22:59:00', '23:00:00', '23:01:00', '23:02:00', '23:03:00', '23:04:00', '23:05:00', '23:06:00', '23:07:00', '23:08:00', '23:09:00', '23:10:00', '23:11:00', '23:12:00', '23:13:00', '23:14:00', '23:15:00', '23:16:00', '23:17:00', '23:18:00', '23:19:00', '23:20:00', '23:21:00', '23:22:00', '23:23:00', '23:24:00', '23:25:00', '23:26:00', '23:27:00', '23:28:00', '23:29:00', '23:30:00', '23:31:00', '23:32:00', '23:33:00', '23:34:00', '23:35:00', '23:36:00', '23:37:00', '23:38:00', '23:39:00', '23:40:00', '23:41:00', '23:42:00', '23:43:00', '23:44:00', '23:45:00', '23:46:00', '23:47:00', '23:48:00', '23:49:00', '23:50:00', '23:51:00', '23:52:00', '23:53:00', '23:54:00', '23:55:00', '23:56:00', '23:57:00', '23:58:00', '23:59:00']</t>
         </is>
@@ -647,18 +695,32 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>MCP</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
+        <v>826266</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
         <v>2478798</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
         <v>1</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['MCP']</t>
         </is>
@@ -717,18 +779,32 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Headquarters and Special Operations</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4th district, Wheaton</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>195587</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
         <v>22328965</v>
       </c>
-      <c r="S5" t="n">
+      <c r="W5" t="n">
         <v>7</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['1st district, Rockville', '2nd district, Bethesda', '3rd district, Silver Spring', '4th district, Wheaton', '5th district, Germantown', '6th district, Gaithersburg / Montgomery Village', 'Headquarters and Special Operations']</t>
         </is>
@@ -787,18 +863,32 @@
       <c r="P6" t="n">
         <v>8</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>windshield NOT SPECIFICALLY PROVIDED FOR NOT IN SAFE OPERATING CONDITION</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>DRIVER FAILURE TO OBEY PROPERLY PLACED TRAFFIC CONTROL DEVICE INSTRUCTIONS</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>64838</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>49292398</v>
       </c>
-      <c r="S6" t="n">
+      <c r="W6" t="n">
         <v>9461</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>[')', ', ATTEMPTING TO DRIVE MOTOR VEHICLE ON HIGHWAY WITHOUT REQUIRED LICENSE AND AUTHORIZATION', ', IMPROPER EXHAUST SYSTEM', ', STOPLIGHT', ', TAILLIGHT, STOPLIGHT, TURN SIGN  INOPERATIVE', ', TRAILER, POLE TRAILER W/O REQUIRED STOP LAMPS EQUIPMENT', ', USE HANDHELD PHONE WHILE OPERATING M/V', ',MODDIFYING VEHICLE REGISTRATION PLATE W/INTENT TO AVOID ID', ',MODIFYING VEHICLE REGISTRATION PLATE W/INTENT TO AVOID ID', ',STOPLIGHt INOPERATIVE', '0PERATING A MOTOR SCOOTER ON HWY. W/O REQ. LICENSE OR PERMIT', '1 0F 2 REVERSE LIGHTS INOPERATIVE', '1 0F 3 REAR CLEARANCE LIGHTS INOPERATIVE', '1 OF 1 REVERSE LIGHT INOPERATIVE', '1 OF 2 HEADLIGHTS, 3 OF 3 TOP CLEARANCE LIGHTS IN OPT', '1 OF 2 REAR BRAKE LIGHTS INOPERATIVE', '1 OF 2 REAR RIGHT CLEARANCE LIGHT INOPERATIVE', '1 OF 2 REAR STOPLIGHT AND BRAKE LIGHT INOPERATIVE', '1 OF 2 REAR TAIL LIGHT IN OPT', '1 OF 2 REVERSE LIGHT INOPERATIVE', '1 OF 2 REVERSE LIGHTS INOPERATIVE', '1 OF 2 RIGHT FRONT TURN SIGNALS INOPERATIVE', '1 OF 2 SIDE MARKER LIGHT INOPERATIVE', '1 OF 2 STOPLIGHTS,2 OF 2 REVERSE LIGHTS, RIGHT SIDE REAR ID LIGHT, MARKER LIGHT INOPERATIVE', '1 OF 3 CLEARANCE  INOPERATIVE', '1 OF 3 CLEARANCE LIGHT,  2 OF 2 REVERSE LIGHTS INOPERATIVE', '1 OF 3 FRONT AND 1 OF 3 REAR ID, RIGHT REAR SIDE MARKER LIGHT INOPERATIVE', '1 OF 3 FRONT AND REAR ID LIGHT, INOPERATIVE', '1 OF 3 FRONT ID INOPERABEL', '1 OF 3 FRONT ID LIGHT INOPERATIVE', '1 OF 3 FRONT ID LIGHT, LEFT REAR MARKER LIGHT INOPERATIVE', '1 OF 3 FRONT ID LIGHT, RIGHT REAR CLEARANCE LIGHT, RIGHT REAR MARKER LIGHT INOPERATIVE', '1 OF 3 FRONT ID LIGHT,RT.FRONT CLEARANCE LIGHT, RT. REAR SIDE MARKER LIGHT INOPERATIVE', '1 OF 3 FRONT ID LIGHTS INOPERATIVE', '1 OF 3 FRONT ID, LEFT FRONT MARKER, RIGHT REVERSE, 1 OF 3 REAR ID, RIGHT REAR MARKER LIGHTS INOP', '1 OF 3 FRONT, 1 OF 3 REAR ID LIGHTS INOPERATIVE', '1 OF 3 FRONT/ 3 OF 3 REAR ID LIGHTS INOPERATIVE', '1 OF 3 FRT ID LIGHT INOPERATIVE', '1 OF 3 FRT ID LIGHTS INOPERATIVE', '1 OF 3 FRT ID LIGHTS,FRT CLEARANCE LIGHTS INOPERATIVE', '1 OF 3 FRT, 1 OF 3 REAR ID LIGHTS INOPERATIVE', '1 OF 3 ID LIGHTS,REAR CLEARANCE LIGHTS, REAR MARKER LIGHTS INOPERATIVE', '1 OF 3 REAR  ID LIGHT INOPERATIVE', '1 OF 3 REAR ID -MIDDLE  LIGHT INOPERATIVE / MISSING', '1 OF 3 REAR ID LIGHT INOPERATIVE', '1 OF 3 REAR ID LIGHT,  INOPERATIVE', '1 OF 3 REAR ID LIGHT, REAR LEFT MARKER LIGHT INOPERATIVE', '1 OF 3 REAR ID LIGHT, RIGHT REAR CLEARANCE LIGHT INOPERATIVE', '1 OF 3 REAR ID LIGHTS IN OPT', '1 OF 3 REAR ID LIGHTS INOPERATIVE', '1 OF 3 REAR ID LIGHTS, FRT CLEARANCE LIGHTS, SIDE MARKER LIGHTS INOPERATIVE', '1 OF 3 REAR MIDDLE ID LIGHT INOPERATIVE', '1 OF 3 TRAILER ID LIGHTS BROKEN', '1 OF 3 TRAILER ID LIGHTS INOPERATIVE', '1 OF 4 SIDE MARKER LIGHTS ON BED IN OPT', '1 OF 4 TOP MARKER LIGHTS IN OPT', '1 REAR ID LIGHT, LEFT REAR SIDEMARKER INOPERATIVE', '1 of 3 REAR ID LIGHT INOPERATIVE', '1 of 3 read id lights in opt', '1 of 3 rear ID LIGHT INOPERATIVE', '16 ID LIGHT, CLEARANCE LIGHT, MARKER LIGHT INOPERATIVE', '16-303 H', '17-106', '18 Y/OLDER USING A HANDHELD TELEPHONE WHILE OPER. M/V', '1OF 3 FRONT, 1 OF 3 REAR ID LIGHT INOPERATIVE', '1OF 3 REAR ID LIGHT INOPERATIVE', '1OF2 REAR TURN SIGNAL, 1OF2 REAR TAIL LIGHT, 1OF2 REAR BRAKE LIGHT IN OPT', '1OF3 ID LAMPS, TAG LAMP INOPERATIVE', '2 0F 4 SIDE MARKER LIGHT BROKEN', '2 F 3 FRONT ID LIGHTS INOPERATIVE', '2 ID LIGHTS INOPERATIVE', '2 OF 2 BACK-UP LIGHTS AND RIGHT FRONTSIDE MARKER LIGHT INOPERATIVE', '2 OF 2 BRAKE LIGHT INOPERATIVE ON TRUCK AND TRAILER', '2 OF 2 FRT CLEARANCE LIGHTS INOPERATIVE', '2 OF 2 HIGH BEAM HEADLIGHTS INOPERATIVE', '2 OF 2 LEFT TURN SIGNALS INOPERATIVE', '2 OF 2 LICENSE PLATE LIGHTS INOPERATIVE', '2 OF 2 REAR BACK-UP LIGHTS  INOPERATIVE.', '2 OF 2 REAR CLEARANCE LIGHTS INOPERATIVE', '2 OF 2 REAR SIDE MARKER LIGHTS INOPERATIVE', '2 OF 2 REAR TURN SIGNALS INOPERATIVE', '2 OF 2 REVERSE  LIGHTS INOPERATIVE', '2 OF 2 REVERSE LIGHTS INOPERATIVE', '2 OF 2 RIGHT TURN SIGNALS INOPERATIVE', '2 OF 2 STOPLIGHT, L/R TURN SIGNAL, 2 OF 3 ID LIGHT INOPERATIVE', '2 OF 2 STOPLIGHTS INOPERATIVE', '2 OF 2 TAILLIGHTS INOPERABLE', '2 OF 2 TAILLIGHTS INOPERATIVE', '2 OF 3 FRONT ID LIGHTS INOPERATIVE', '2 OF 3 FRT, 1 OF 3 REAR ID LIGHTS INOPERATIVE', '2 OF 3 FRT. ID LIGHTS INOPERATIVE', '2 OF 3 ID LAMPS INOPERABLE', '2 OF 3 ID LIGHTS INOPERATIVE POWER UNIT', '2 OF 3 REAR ID LAMPS BROKEN LENSES', '2 OF 3 REAR ID LIGHTS IN OPT', '2 OF 3 REAR ID LIGHTS INOPERATIVE', '2 OF 3 REAR MARKER AND 2 OF 2 RIGHT REAR SIDE CLEARANCE LIGHTS INOPERATIVE', '2 OF 4 SIDE  MARKER LIGHT INOPERATIVE', '2 OF 4 SIDE MARKER LIGHTS, AND 3 OF 3 REAR ID LIGHTS  INOPERATIVE', '2 OF 8 BED MARKER LIGHTS INOPT', '2 OF 8 MARKER LIGHT INOPERATIVE', '2 OF 8 SIDE MARKER LIGHTS IN OPT', '2 OR 2 HIGH BEAM HEADLIGHTS INOPERATIVE', '2 X STOPLIGHTS INOPERATIVE', '2 of 2 BACKUP LIGHT INOPERATIVE', '2 of 3 REAR ID LIGHT INOPERATIVE', '2/2 FRONT, 2/2 REAR CLEARANCE LIGHTS INOPERATIVE', '20 % BRAKE VIOLATIONS - OOS', '20 % BRAKE VIOLATIONS - PARTS IN UNSAFE CONDITIONS', '20 % BRAKE VIOLATIONS- BRAKES OOS', '20% BRAKE VIOLATION- OUT OF SERVICE', '20% BRAKE VIOLATIONS', '20% BRAKE VIOLATIONS -OOS', '20% BRAKE VIOLATIONS- BRAKES OOS', '20% BRAKES DEFECTIVE, AXLE 1 LEFT AND RIGHT', '21-901', '26 204', '26-204', '2OF 3 READ ID LIGHTS INOPERATIVE', '3 OF 3  ID LIGHT, 2 OF 2 MARKER LIGHT INOPERATIVE', '3 OF 3 FRT ID LIGHTS INOPERATIVE', '3 OF 3 ID LIGHTS INOPERATIVE', '3 OF 3 REAR  ID LIGHT INOPERATIVE', '3 OF 3 REAR  ID LIGHTS, RIGHT REAR COMBINATION CLEARANCE LIGHT&amp; MARKER LIGHT INOPERATIVE', '3 OF 3 REAR ID LIGHT INOPERATIVE', '3 OF 3 REAR ID LIGHTS  INOPERATIVE', '3 OF 3 REAR ID LIGHTS AND 4 OF 6 TOP AND SIDE MARKER INOPT', '3 OF 3 REAR ID LIGHTS INOPERATIVE', '3 OF 3 REAR ID LIGHTS MISSING', '3 OF 3 REAR ID LIGHTS, 3 OF 3 CLEARANCE LIGHTS, 8 OF 8 MARKER LIGHTS IN OPT', '3 of 8 marker LIGHTS INOPERATIVE', '3/3 FRONT, 3/3 REAR ID LIGHTS INOPERATIVE', '3/3 REAR ID LIGHT, REAR CLEARANCE LIGHTS, REAR SIDE MARKER LIGHTS INOPERATIVE', '3/3 REAR ID LIGHT, RIGHT REAR CLEARANCE LIGHT, RIGHT REAR SIDE MARKER LIGHT INOPERATIVE', '35', '393.17b2 - Driveaway Towaway w/out required lights on rear of towed veh', '3OF 3 REAR ID LIGHTS  INOPERATIVE', '4 OF 4 HAZARD HEADLIGHTS INOPERATIVE', '4 OF 4 HAZARD LAMPS INOPERATIVE', '4 OF 4 MARKER LIGHTS INOPERATIVE', '4 OF 8 BED MARKER LIGHTS INOPT', '40', '43`30', '45', '49 IN 30', '50 IN A 35', '50 IN A POSTED 35', '55', '55/40', '58', '59', '6 OF 6 MARKER LIGHTS, 3 OF 3 REAR ID LIGHTS INOPERATIVE', '6 OF 6 SIDE AND REAR MARKER LIGHTS, 3 OF 3  REAR ID LIGHTS, TAG LIGHT INOPERATIVE', '60 IN 40 MPH ZONE', '60 IN A 35 ZONE', '70 MPH IN A 50 MPH ZONE', '8 OF 8 SIDE MKR LIGHTS, 3 OF 3 REAR ID LIGHTS INOPT', 'A DRIVER WHO IS ALSO THE CARRIER MUST COMPLY WITH BOTH DRIVER AND CARRIER RULES', 'ABANDONING VEH. ON PROPERTY OF OTHER W/O PERMISSION', 'ABANDONING VEH. ON PUBLIC PROPERTY', 'ABANDONING VEH. ON PUBLIC PROPERTY W/O PERMISSION', 'ABANDONING VEHICLE ON PROPERTY OF ANOTHER W/O PERMISSION OF THE OWNER OR LESSEE OF THE PROPERTY', 'ABS LIGHT REMANINS ON CONSTANT', 'ABS MALFUNCTION INDICATOR ILLUMINATED', 'ACCESSORIES NOT SPECIFICALLY PROVIDED FORNOT IN SAFE OPERATING CONDITION-RT WORK BOX NOT SECURE', 'ACTING AS DRIVING INSTRUCTOR W/O LICENSE', 'ACTING AS VEH. SALESMAN W/O LICENSE', 'ADVERTISING FOR THE PURPOSE OF PROMOTING THE SALE OF REGISTRATION PLATE COVERS', 'AGGRESSIVE DRIVING', 'AILURE OF DRIVER DRIVING BELOW SPEED LIMIT TO KEEP RIGHT', 'AIR LEAK AT CHAMBER-AXLE 2 LEFT SIDE', 'AIR LEAK AT REAR RELAY VALVE', 'AIR LEAKS', 'AIR LOSS RATE-UNABLE TO MAINTAIN PRESSURE DUE TO LEAK', 'ALL  REAR ID LIGHTS, REAR CLEARANCE LIGHT, REAR SIDE MARKER LIGHTS INOPERATIVE', 'ALL HAZARD, ALL REVERSE LIGHTS INOPERATIVE', 'ALL LAMPS ON TRAILER INOPERATIVE', 'ALL REAR  ID LIGHTS, ALL REAR CLEARANCE LIGHTS, ALL REAR SIDE MARKER LIGHT INOPERATIVE', 'ALL REAR ID LIGHTS, BOTH REAR CLEARANCE LIGHT, BOTH REAR MARKER LIGHT INOPERATIVE POWER UNIT', 'ALL STOPLIGHTS, &amp;  TURN SIGNALS INOPERATIVE', 'ALL TRAILER LAMPS  INOPERATIVE', 'ALL-  TAILLIGHT,  ID LIGHT, CLEARANCE LIGHT, MARKER LIGHT INOPERATIVE', 'ALLOW DRIVE', 'ALLOWING AN INDIVIDUAL TO OPERATE FOR-HIRE LIMOUSINE WITHOUT SPECIAL LIMOUSINE REG. PLATES', 'ALLOWING UNREG. VEH. TO BE DRIVEN ON HWY.', 'ALLOWING VEH. TO BE DRIVEN ON HWY. WITH CANCELLED REGISTRATION', 'ALLOWING VEH. TO BE DRIVEN ON HWY. WITH REVOKED REGISTRATION', 'ALLOWING VEH. TO BE DRIVEN ON HWY. WITH SUSPENDED REGISTRATION', 'ALLOWING VEHICLE TO BE DRIVEN ON HWY. WITH UNPAID REGISTRATION FEE', 'ALTERING CERTIFICATES', 'ANIMAL RIDING ON DIVIDED HWY POSTED ABOVE 35 MPH CONTROL ACCESS HWY', 'APPLY FOR LIC, KNOWINGLY CONCEALING MATERIAL FACT', 'APPLY FOR LIC., KNOWLINGLY MAKING FALSE STATEMENT', 'APPLY FOR LIC./MOPED PERMIT W/ALTERED NAME', 'ASD', 'ATT. TO DRIVE VEH. REQ. CLASS C LIC ON HWY W/O CLASS C LIC, APPROP. ENDORSED CLASS C LIC)', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENT TO  MISREPRESENT VEH.  ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENT TO  MISREPRESENT VEH. ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENT TO CONCEAL VEH.  ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENT TO CONCEAL VEH. OWNER ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENT TO MISREPRESENT VEH. ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENT TO MISREPRESENT VEH.ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO  MISREPRESENT  ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO  MISREPRESENT ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO  MISREPRESENT VEH ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO  MISREPRESENT VEH. ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO  MISREPRESENT VEH. OWNER', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO  MISREPRESENT VEH. OWNER ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO  MISREPRESENT Veh ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL MISREPRESENT VEH ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL VEH ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL VEH.  ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL VEH. ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL VEH. OWNER ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL, MISREPRESEN TVEH. OWNER ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL, MISREPRESENT ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL, MISREPRESENT VEH. ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL, MISREPRESENT VEH. OWNER ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO CONCEAL, MISREPRESENT VEH. OWNER)ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO MISREPRESENT ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO MISREPRESENT VEH ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO MISREPRESENT VEH.', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO MISREPRESENT VEH.  ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO MISREPRESENT VEH. ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO MISREPRESENT VEH. OWNER', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO MISREPRESENT VEH. OWNER ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO MISREPRESENT VEH.AND OWNER ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO MISREPSENT VEH. OWNER ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO MISREPresent VEH. OWNER ID', 'ATTACHING UNAUTHORIZED VEH. REG. PLATE WITH INTENTTO VEH. OWNER ID', 'ATTEMPT BY DRIV TO ELUDE POLICE IN OFFCAL POLICE VEH. BY MEANS OTHER THAN FAIL STOP &amp; FLEE BY FOOT', 'ATTEMPT BY DRIVER TO ELUDE POLICE FOR COMMISSION OF CRIME OF VIOLENCE WHICH SUBSEQUENTLY CONVICTED.', 'ATTEMPT BY DRIVER TO ELUDE POLICE IN OFFICIAL POLICE VEH. BY FLEEING ON FOOT', 'ATTEMPT BY DRIVER TO ELUDE POLICE IN OFFICIAL POLICE VEHICLE BY FAILING TO STOP', 'ATTEMPT BY DRIVER TO ELUDE UNIFORMED POLICE BY FAILING TO STOP', 'ATTEMPT BY DRIVER TO ELUDE UNIFORMED POLICE BY FLEEING ON FOOT', 'ATTEMPT BY DRIVER TO ELUDE UNIFORMED POLICE BY MEANS OTHER THAN FAIL TO STOP AND FLEEING ON FOOT', 'ATTEMPT DRIVE VEH. WHILE UNDER INFLUENCE OF ALCOHOL PER SE WHILE TRANSP. MINOR)', 'ATTEMPT DRIVE VEH. WHILE UNDER INFLUENCE OF ALCOHOL WHILE TRANSP. MINOR)', 'ATTEMPTED EVASION OF FIXED TOLL PAYMENT AT AUTHORITY HIGHWAY', 'ATTEMPTING  TO DRIVE MOTOR VEHICLE ON HIGHWAY WITHOUT REQUIRED LICENSE AND AUTHORIZATION', 'ATTEMPTING TO DRIVE MOTOR VEHICLE ON HIGHWAY WITHOUT REQUIRED LICENSE AND AUTHORIZATION', 'ATTEMPTING TO DRIVE MOTOR VEHICLE WITH ALCOHOL IN BLOOD IN VIOLATION OF RESTRICTION', 'ATTEMPTING TO DRIVE VEH. IN RACE/SPEED CONTEST ON HWY.', 'ATTEMPTING TO DRIVE VEH. NOT EQUIPPED WITH AN IGNITION INTERLOCK AS REQUIRED BY PROGRAM', 'ATTEMPTING TO DRIVE VEH. ON HWY. ON EXPIRED LIC.', 'ATTEMPTING TO DRIVE VEH. WHILE IMPAIRED BY ALCOHOL', 'ATTEMPTING TO DRIVE VEH. WHILE IMPAIRED BY ALCOHOL WHILE TRANSPORTING A MINOR', 'ATTEMPTING TO DRIVE VEH. WHILE SO FAR IMPAIRED BY ALCOHOL CANNOT DRIVE SAFELY', 'ATTEMPTING TO DRIVE VEH. WHILE SO FAR IMPAIRED BY DRUGS AND ALCOHOL CANNOT DRIVE SAFELY', 'ATTEMPTING TO DRIVE VEH. WHILE SO FAR IMPAIRED BY DRUGS AND CANNOT DRIVE SAFELY', 'ATTEMPTING TO DRIVE VEH. WHILE SO FAR IMPAIRED BY DRUGS CANNOT DRIVE SAFELY', 'ATTEMPTING TO DRIVE VEHICLE ON HIGHWAY ON EXPIRED LICENSE', 'ATTEMPTING TO DRIVE VEHICLE ON HIGHWAY WITHOUT REQUIRED LICENSE AND AUTHORIZATION', 'ATTEMPTING TO DRIVE VEHICLE WHILE UNDERTHE INFLUENCE OF ALCOHOL', 'ATTEMPTING TO DRIVE VEHICLE WHILE UNDERTHE INFLUENCE OF ALCOHOL PER SE', 'ATTEMPTING VEHICLE WHILE UNDERTHE INFLUENCE OF ALCOHOL', 'ATTEMPTING) TO DRIVE MOTOR VEHICLE ON HIGHWAY WITHOUT REQUIRED LICENSE AND AUTHORIZATION', 'ATTEND PROP. DAMAGE ACCIDENT TO EXHIBIT LIC TO PO', 'ATTENDED PROPERTY ACCIDENT TO FURNISH REQ ID &amp; LIC', 'AUDIBLE AIR LEAK AT BRAKE CHAMBER', 'AUDIBLE AIR LEAK AT BRAKE CHAMBER-AXLE 3 LEFT', 'AVOID TRAFFIC CONTROL DEVICE', 'AXEL 5 LEFT BRAKE NOT IN ADJUSTMENT NOT SPECIFICALLY PROVIDED FOR NOT IN SAFE OPERATING CONDITION', 'AXL 2 REAR TIRES TOUCHING MATE', 'AXLE 1 LEFT SIDE BRAKE LININGS ARE INADEQUATE', 'AXLE 1 LFT OUTER BRAKE PADS ARE INADEQUATE', 'AXLE 2 BOTH SIDES-DUAL TIRES CONTACTING ONE ANOTHER', 'AXLE 2 LEFT &amp; RIGHT- TIRES TOUCHING MATE', 'AXLE 2 LEFT AND RIGHT DUAL TIRES TOUCHING', 'AXLE 2 LEFT AND RIGHT SIDES BRAKE HOSE NOT SECURED AGAINST DAMAGE', 'AXLE 2 LEFT SIDE DUAL TIRES CONTACTING ONE ANOTHER', 'AXLE 2 LFT AND RT. DUAL MATE TIRES CONTACTING EACH OTHER', 'AXLE 2 LFT BRAKE ON TRUCK ARE INOPERATIVE', 'AXLE 2 LFT/RT TIRES CONTACTING MATES', 'AXLE 2 RIGHT SIDE DUAL TIRES CONTACTING ONE ANOTHER', 'AXLE 2 RIGHT TIRES CONTACTING EACH OTHER', 'AXLE 2, LEFT SIDE DUAL TIRES CONTACTING ONE ANOTHER', 'AXLE 3 HUB BEARING CAPS MISSING BOTH SIDES', 'AXLE 3 LEFT AIR BAG LEAKING', 'AXLE 3 LEFT AND RIGHT SIDES MISSING BEARING CAP ALLOWING OPEN VIEW INTO ASSEMBLY', 'AXLE 3 LEFT SIDE BRAKE INOPERATIVE', 'AXLE 3 LEFT SIDE HUB BEARING CAP MISSING', 'BACK UP LIGHT, REAR PASS SIDE MARKER LIGHT INOPERATIVE', 'BACK-UP LAMP (*)', 'BACKUP LIGHT  INOPERATIVE', 'BACKUP LIGHT INOPERATIVE', 'BEARING CAP MISSING AXLE 4 RIGHT SIDE', 'BEARING CAP PLUG MISSING AXLE 1 RIGHT SIDE', 'BEARING HUB CAP MISSING-AXLE 3 LEFT SIDE', 'BEARING HUB CAPS MISSING ON TRAILER AXLES 3 &amp; 4', 'BICYCL OPER FAIL RIDE RT OF RD WHILE TRAVELING AT SPEED LESS THAN TRAFFIC UNDR SPEC CONDS.', 'BICYCLE EQUIPPED WITH IMPROPER BRAKES', 'BICYCLE OPERATOR FAIL TO RIDE RIGHT SIDE OF ROAD', 'BICYCLE OPERATOR FAILURE TO EXERCISE CARE ON PASSING VEHICLE', 'BICYCLE OPERATOR IMPEDING TRAFFIC FLOW BY OPERATING TWO ABREAST ON ROADWAY', 'BICYCLE OPERATOR LEAVING SHOULDER WHEN UNSAFE AND W/O APPROP. SIGNAL', 'BICYCLE ]OPERATOR FAILURE TO EXERCISE CARE ON PASSING VEHICLE', 'BICYCLE, MOTOR SCOOTER OPERATOR FAILURE TO EXERCISE CARE ON PASSING VEHICLE', 'BICYCLE, MOTOR SCOOTER OPERATOR IMPEDING TRAFFIC FLOW BY OPERATING TWO ABREAST ON ROADWAY', 'BOARDING TRANSIT VEHICLE THROUGH REAR DOOR', 'BOTH  RIGHT AND LEFT REAR TIRES CONTACTING ITS MATE', 'BOTH EARS', 'BOTH RT. AND LEFT REAR TURN LIGHT , CLEARANCE LIGHT, INOPERATIVE', 'BOTH STOP LAMPS INOPERABLE', 'BOTH STOP LAMPS, FRONT CLEARANCE, TAG LAMP INOPERABLE', 'BOTH TURN SIGNALS AND STOP LAMPS, 2 OF 3 ID LAMPS INOPERATIVE', 'BRAKE  HOSE CONNECTIONS ARE  LEAKING', 'BRAKE  HOSE CONNECTIONS ARE LEAKING', 'BRAKE  HOSE INADEQUATE', 'BRAKE  HOSE INADEQUATE -LEAKING', 'BRAKE  HOSE INADEQUATE- AIR LEAK IN HOSE LEFT SIDE AXLE 2&amp;3', 'BRAKE  HOSE INADEQUATE- AXLE 3 RIGHT', 'BRAKE  HOSE INADEQUATE- AXLE 4 LEFT BRAKE CHAMBER HOSE - PLY VISIBLE', 'BRAKE  HOSE NOT SECURED AGAINST DAMAGE', 'BRAKE  HOSE NOT SECURED AGAINST DAMAGE -AXLE 4 LEFT SIDE CHAFFING', 'BRAKE  HOSE NOT SECURED AGAINST DAMAGE- AXLE 1 RIGHT', 'BRAKE  HOSES NOT SECURED AGAINST DAMAGE', 'BRAKE  NOT SECURED AGAINST DAMAGE', 'BRAKE  ON  TRUCK ARE INOPERATIVE-AXLE 1 RIGHT -', 'BRAKE  PAD ARE INADEQUATE', 'BRAKE  PADS ARE INADEQUATE', 'BRAKE  PADS ARE INADEQUATE FOR SAFE STOPPING- CONTAMINATED BY OIL AXLE 4 RIGHT', 'BRAKE  PADS ARE INADEQUATE- AXLE 1 LEFT &amp; AXLE 2 RIGHT', 'BRAKE  PADS ARE INADEQUATE- CONTAMINATED', 'BRAKE  PADS ARE INADEQUATE- CONTAMINATED W/ GREASE /OIL', 'BRAKE  PADS ARE INADEQUATE- RIGHT FRONT', 'BRAKE ARE INADEQUATE', 'BRAKE ARE INOPERATIVE', 'BRAKE CHAMBER LEAK, AXLE 1 LEFT SIDE', 'BRAKE FAILURE WARNING SYSTEM ACTIVATED', 'BRAKE FLUID LEAK AT MASTER CYLINDER', 'BRAKE HOSE CONNECTIONS ARE  LEAKING', 'BRAKE HOSE CONNECTIONS ARE  LEAKING- AXLE 2&amp;3', 'BRAKE HOSE CONNECTIONS ARE LEAKING', 'BRAKE HOSE CONNECTIONS ARE LEAKING- AXLE 3 MIDDLE', 'BRAKE HOSE INADEQUATE', 'BRAKE HOSE INADEQUATE AND NOT SECURED AGAINST DAMAGE', 'BRAKE HOSE INADEQUATE AXLE 4', 'BRAKE HOSE INADEQUATE- AXLE 6 LEFT &amp; RIGHT', 'BRAKE HOSE INADEQUATE- KINKED', 'BRAKE HOSE INADEQUATE- LEAKING BRAKE FLUID AXLE 2 LEFT', 'BRAKE HOSE INADEQUATE;AXLE 1 LEFT', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE AXLE 2 LEFT', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE AXLE 3 LEFT AND AXLE 4 LEFT &amp; RIGHT', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE)', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE, AXLES 2,3, &amp; 4', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE- AXLE 2 LEFT SIDE', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE- AXLE 2 RIGHT SIDE', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE- AXLE 3', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE- AXLE 3 &amp; 4', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE- AXLE 3 LEFT SIDE', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE- AXLE 4', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE- AXLE 4 LEFT &amp; RIGHT', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE- AXLE 4 RIGHT &amp; AXLE 2', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE- TRAILER', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE-AXLE 3 LEFT, AXLE 4 RIGHT', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE-AXLE 5 REAR', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE: AXLE 3 RIGHT SIDE CHAFFING', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE; AXLE 2 RT.', 'BRAKE HOSE NOT SECURED AGAINST DAMAGE; AXLE 3 RT, AXLE 4 LFT', 'BRAKE HOSE WITH HOLE/AUDIBLE AIR LEAK', 'BRAKE HOSES INADEQUATE AND NOT SECURED AGAINST DAMAGE', 'BRAKE HOSES NOT SECURED AGAINST DAMAGE, AXLES 3 &amp; 4', 'BRAKE HOSES NOT SECURED AGAINST DAMAGE-AXLE 2 LEFT SIDE', 'BRAKE LIGHT ARE INADEQUATE', 'BRAKE LIGHT INOPERATIVE', 'BRAKE LIGHTS', 'BRAKE LIGHTS ARE INADEQUATE', 'BRAKE LININGS &amp; PADS ARE INADEQUATE', 'BRAKE LININGS AND PADS ARE INADEQUATE, AXLE 1 RIGHT SIDE CONTAMINATED BY GREASE', 'BRAKE LININGS ARE INADEQUATE', 'BRAKE LININGS ARE INADEQUATE- AXLE 1 RIGHT CONTAMINATED', 'BRAKE LININGS ARE INADEQUATE- AXLE 2 LEFT AND RIGHT', 'BRAKE LININGS ARE INADEQUATE- FRONT PADS CRACKED', 'BRAKE LININGS ARE INADEQUATE- contaminated pads left rear', 'BRAKE LININGS ARE INADEQUATE-AXLE 2 LEFT AND RIGHT', 'BRAKE LININGS, PADS ARE INADEQUATE- FRONT STEERING AXLE BOTH SIDE CONTAMINATED', 'BRAKE ON  TRUCK IS INOPERATIVE- LEFT AXLE 4', 'BRAKE ON TRAILER  ARE INOPERATIVE', 'BRAKE ON TRAILER ARE INOPERATIVE', 'BRAKE ON TRUCK  ARE INOPERATIVE', 'BRAKE ON TRUCK  IS INOPERATIVE- AXLE 3 Right', 'BRAKE ON TRUCK ARE INOPERATIVE', 'BRAKE ON TRUCK ARE INOPERATIVE- axle 4 right', 'BRAKE ON TRUCK INOPERATIVE', 'BRAKE ON TRUCK IS  INOPERATIVE', 'BRAKE ON TRUCK IS INOPERATIVE', 'BRAKE ON TRUCK IS INOPERATIVE- RIGHT REAR', 'BRAKE ON TRUCK ISINOPERATIVE- AXLE 2 LEFT', 'BRAKE ON TRUCK TRACTOR ARE INOPERATIVE- AXLE 2 LEFT', 'BRAKE ON TRUCK TRACTOR INOPERATIVE', 'BRAKE ON TRUCK, ARE INOPERATIVE', 'BRAKE ON TRUCK, IS INOPERATIVE- BRAKE SMOKING', 'BRAKE ON TRUCK,ARE INOPERATIVE', 'BRAKE OUT OF ADJUST', 'BRAKE OUT OF ADJUSTMENT', 'BRAKE OUT OF ADJUSTMENT- FRONT LEFT', 'BRAKE OUT OF ADJUSTMENT- OOS', 'BRAKE PADS ARE INADEQUATE', 'BRAKE PADS ARE INADEQUATE- AXLE 1 LEFT CONTAMINATED', 'BRAKE PADS ARE INADEQUATE- AXLE 1 LEFT CRACKED', 'BRAKE PADS ARE INADEQUATE- AXLE 2 RIGHT CONTAMINATED', 'BRAKE PADS ARE INADEQUATE- AXLE 3 LEFT CONTAMINATED', 'BRAKE PADS ARE INADEQUATE- AXLE 4 LEFT CONTAMINATED', 'BRAKE PADS ARE INADEQUATE- CONTAMINATED AXLE 1 RIGHT', 'BRAKE PADS ARE INADEQUATE- CONTAMINATED WITH GREASE / OIL', 'BRAKE PADS ARE INADEQUATE- FRONT LEFT CONTAMINATED W/ GREASE', 'BRAKE TUBING  CONNECTIONS ARE  LEAKING- INFRONT OF AXLE 1 AT VALVE', 'BRAKE TUBING  LEAKING LT FRAME RAIL IN FRONT AXL2', 'BRAKE TUBING AND HOSE INADEQUATE', 'BRAKE TUBING CRIMPED LEFT SIDE REAR AT ABS BOX', 'BRAKE TUBING INADEQUATE', 'BRAKE TUBING INADEQUATE - AXLE 2 AIR LEAK IN TUBING', 'BRAKE TUBING INADEQUATE NOT SECURED AGAINST DAMAGE)', 'BRAKE TUBING INADEQUATE kinked', 'BRAKE TUBING INADEQUATE- LEAK IN TUBING', 'BRAKE TUBING, HOSE INADEQUATE', 'BRAKE TUBING, HOSE NOT SECURED AGAINST DAMAGE', 'BRAKE out of adjustment', 'BRAKEHOSE NOT SECURED AGAINST DAMAGE- AXLE 4 HOSES RUBBING', 'BRAKELIGHT INOPERATIVE', 'BRAKELIGHTS  INOPERATIVE', 'BRAKES - 20% OF BRAKES OUT', 'BRAKES ARE INOPERATIVE', 'BRAKES EQUAL TO/GREATER THAN 20% DEFECTIVE', 'BRAKES NOT IN SAFE OPERATING CONDITION-20% DEFECTIVE', 'BRAKES ON  COMBINATION OF VEHICLES ARE INOPERATIVE', 'BRAKES ON  TRAILER ARE INOPERATIVE', 'BRAKES ON COMBINATION OF VEHICLES ARE INOPERATIVE', 'BRAKES ON TRUCK  ARE INOPERATIVE', 'BRAKES ON TRUCK ARE INOPERATIVE', 'BRAKES ON TRUCK ARE INOPERATIVE - AXLE 1 LEFT &amp; RIGHT', 'BRAKES ON TRUCK ARE INOPERATIVE, AXLE 3 LEFT SIDE', 'BRAKES ON TRUCK ARE INOPERATIVE, PARKING', 'BRAKES ON TRUCK ARE INOPERATIVE- AXLE 2 LEFT &amp; RIGHT', 'BRAKES OUT OF ADJUSTMENT', 'BRAKES OUT OF ADJUSTMENT -AXLE 1 LEFT', 'BRAKES OUT OF ADJUSTMENT, AXLE 3 BOTH SIDES', 'BRAKES OUT OF ADJUSTMENT- OOS', 'BRAKES OUT OF ADJUSTMENT- OUT OF SERVICE', 'BRAKES OUT OF ADJUSTMENT-AXLE 1 LEFT AND RIGHT', 'BRAKES OUT OF SERVCE- 20% BRAKE CRITERIA', 'BRAKES OUT OF SERVICE', 'BRAKES OUT OF SERVICE: number of defective brakes is equal to or greater than 20 percent', 'BRAKES REQUIRED ON ALL WHEELS', 'BRAKES- 2 OF 6 OUT OF ADJUSTMENT', 'BRAKES- 20 % OF BRAKES OUT OF SERVICE', 'BRAKES- 20% BRAKE CRITERIA', 'BRAKESON COMBINATION OF VEHICLES ARE INOPERATIVE', 'BRAKLIGHT INOPERATIVE', 'BROKEN LEFT TAIL LAMP LENSE, MISSING RIGHT REAR SIDEMARKER, REAR LEFT ID LIGHT INOPERATIVE', 'BROKEN LENSE RIGHT REAR ID LAMP DISPLAYING WHITE LIGHT', 'BROKEN REAR CENTER ID LAMP AND MISSING TAG LAMP', 'BROKEN REAR ID LAMP', 'BROKEN REAR ID LAMPS', 'BUMPERS (*)', 'Back-Up Lamp', 'Back-Up Lamp (*)', 'Brake Light INOPERATIVE', 'Brake light INOPERATIVE', 'Brakes', 'Brakes OUT OF SERVICE', 'Bumpers', 'Bumpers (*)', 'CARD', 'CARD RETURN', 'CARGO MUST BE FIRMLY SECURED AND IMMOBILIZED', 'CARRIER FAILING TO COMPLY WITH RULES IN PART 396', 'CARRY PASSENGER ON MOTOR SCOOTER NOT DESIGNED AND EQUIP W/ FOOTRESTS FOR PASSENGER', 'CARRY PASSENGER ON MOTOR SCOOTER NOT DESIGNED AND EQUIP W/ATTACHED SEAT FOR PASSENGER', 'CARRY PASSENGER ON MOTOR SCOOTER NOT DESIGNED AND EQUIP W/ATTACHED SEAT, FOOTRESTS FOR PASSENGER', 'CARRY SUSP REG CARD', 'CARRYING LOOSE MATERIAL LOADED TO WITHIN SIX INCHES OF TOP OF ENCLOSURE W/O COVERING LOAD', 'CARRYING PASSENGER ON BICYCLE NOT DESIGNED AND EQUIPPED WITH SECURELY ATTACHED PASSENGER SEAT', 'CAUSE FICTITIOUS LIC.', 'CAUSE TO BE DISPLAYED SUSPENDED LIC.', 'CAUSE or PERMIT TO BE DISPLAYED FiCTITIOUS LIC.', 'CAUSING CHILD UNDER AGE 15 TO DRIVE MOTOR VEH. ON HWY.', 'CAUSING HWY. DRIVING OF TRUCK W/O ADEQUATE REAR WHEEL PROJECTILE PROTECTION-TOO SHORT', 'CAUSING STANDING VEH. TO OBSTRUCT FREE VEH. PASSAGE OF ROADWAY', 'CELL PHONE', 'CENTER ID LIGHT INOPERATIVE', 'CENTER ID LIGHT,LEFT SIDE CLEARANCE LIGHT INOPERATIVE', 'CLEAR LP COVER', 'CLEARANCE \nLAMPS (*)', 'CLEARANCE LIGHT', 'CLEARANCE LIGHT FRONT LEFT , MARKER LIGHT REAR RIGHT TAG LAMP , REVERSE LAMP INOPERATIVE', 'CLEARANCE LIGHT INOPERATIVE', 'CLEARANCE LIGHT, MARKER LIGHT INOPERATIVE', 'CLEARANCE LIGHT-right rear INOPERATIVE', 'CLEARANCE LIGHTAND MARKER LIGHT INOPERATIVE', 'CLEARANCE LIGHTINOPERATIVE', 'CLEARANCE LIGHTS  INOPERATIVE', 'CLEARANCE LIGHTand MARKER LIGHT INOPERATIVE', 'CLIMBING INTO ANY VEH. WITH MALICIOUS INTENT', 'CLIMBING INTO OR ON ANY VEH. WITH MALICIOUS INTENT', 'COMBINATION END VEH.MFR. AFTER JUNE 1, 1971, W/O ADEQUATE TAIL LAMPS', 'COMM TRUCK TRUCK PARKING BRAKE IM-OP', 'COMMERICAL DRIVER FAILURE TO NOTIFY MVA WITHIN 30 DAYS OF ADDRESS CHANGE', 'COMMERICAL DRIVER FAILURE TO NOTIFY MVA WITHIN 30 DAYS OF NAME AND ADDRESS CHANGE', 'COMMERICAL DRIVER FAILURE TO NOTIFY MVA WITHIN 30 DAYS OF NAME,ADDRESS CHANGE', 'COMPULSARY INSURANCE VIOLATION', 'COMPULSORY INSURANCE', 'CONDUCTING BUSINESS OF DEALER W/O LICENSE', 'CONDUCTING BUSINESS OF VEH. TITLE SERVICE AGENT W/O LICENSE', 'CONSUM FOOD/DRINK OR CARRY OPEN FOOD OR BEV. CON- TAINER IN TRANSIT VEH, TRANSIT FACILITY, OR TRAIN', 'COVER', 'COVERING TAG', 'CRACKED WINDSHIELD-RIGHT SIDE', 'CURR CARD', 'CURR PLATE', 'CURR PLATES', 'CURR REG', 'CURR REG CARD', 'CURR TAG', 'CURRANT', 'CURRANT CARD', 'CURRANT PLATE', 'CURRANT REG PLATE', 'CURRARNT', 'CURRENT CARD', 'CURRENT PLATE', 'CURRENT REG CARD', 'CURRENT REG PLATE', 'CURRENT REG PLATES', 'CURRENT REG TABS', 'CURRENT TAGS', 'CUT ACROSS PRIVATE PROPERTY  FOR THE PURPOSE OF AVOIDING TRAFFIC CONTROL DEVICE', 'Clearance \nLamps (*)', 'Clearance Lamps', 'DAMAGED/CRAKED WINDSHIELD', 'DASH LIGHTS (*)', 'DEALER EMPLOYEE WILLFULLY VIOLATING DEALER LIC. LAW.', 'DEALER ISSUING TEMP. REG. PLATE FOR UNAUTHORIZED REASON', 'DEALER LENDING TEMP. REG. PLATE TO ANY PERSON', 'DEALER USING TEMP. REG. PLATE ON VEH. DEALER OWNS', 'DEALER WILLFULLY VIOLATING DEALER LIC. LAW.', 'DEALER, DEALER AGENT, DEALER EMPLOYEEKNOWINGLY PERMITTING UNLICENSED PERSON TO ROAD TEST VEH.', 'DEFECTIVE BRAKES GREATER THAN 20%', 'DEFECTIVE FRONT LEFT SIDE MARKER, RIGHT FRONT SIDEMARKER AND ID LIGHT INOPERATIVE TRAILER', 'DEFECTIVE MARKER LIGHT TRAILER', 'DEPOSIT ANY REFUSE ON HWY.', 'DEPOSIT ANY REFUSE ON HWY.,', 'DEPOSIT ANY REFUSEON HWY', 'DEPOSIT ANY REFUSEON HWY.', 'DIM LIGHTED HEAD LAMPS', 'DIRECTING AND PERMITTING HWY. VEH. OPERATION CONTRARY TO LAW', 'DIRIVNG MOTOR VEHICLE ON HIGHWAY WITHOUT REQUIRED LICENSE AND AUTHORIZATION', 'DIS CURRENT REG CARD', 'DISABILITY PLACARD NOT DISPLAYED SO VISIBLE', 'DISCARDING LITTER IN TRANSIT VEHICLE', 'DISCARDING LITTER IN TRANSIT VEHICLE, TRANSIT FACILITY, OR TRAIN', 'DISCHARG ANY REFUSEON HWY.', 'DISCHARGE ANY REFUSE ON HWY.', 'DISCHARGE ANY REFUSEON HWY', 'DISCHARGE ANY REFUSEON HWY.', 'DISCHARGE ON AUTHORITY HIGHWAY', 'DISCHARGE PASSENGER ON AUTHORITY HIGHWAY', 'DISCHARGE PASSENGERS ON  HIGHWAY', 'DISCHARGE PASSENGERS ON AUTHORITY HIGHWAY', 'DISCHARGE PASSENGERS ON HIGHWAY', 'DISCHARGEANY REFUSEON HWY.', 'DISPL SUSP PLATES', 'DISPL SUSP REG CARD', 'DISPL SUSP REG PLATE', 'DISPLA SUSPENDED LIC.', 'DISPLAT CURRENT CARD', 'DISPLAT CURRENT TAGS', 'DISPLAT VCURRENT REG CARD', 'DISPLAY', 'DISPLAY  CANCELLED LIC.', 'DISPLAY  FICTITIOUS LIC.', 'DISPLAY  FRAUDULENTLY ALTERED LIC.', 'DISPLAY  REVOKED LIC.', 'DISPLAY  SUSPENDED LIC.', 'DISPLAY CANCELLED LIC.', 'DISPLAY CARD', 'DISPLAY CURR REG CARD', 'DISPLAY CURR REG PLATE', 'DISPLAY CURRANT TAGS', 'DISPLAY CURRENT CARD', 'DISPLAY CURRENT REG  PLATE', 'DISPLAY CURRENT REG CARD', 'DISPLAY CURRENT TAGS', 'DISPLAY DISPLAYED FICTITIOUS LIC.', 'DISPLAY DISPLAYED SUSPENDED LIC.', 'DISPLAY EXP REG TGS', 'DISPLAY EXPIRED DL', 'DISPLAY EXPIRED REG PLATES', 'DISPLAY EXPIRED REG. PLATES', 'DISPLAY EXPIRED REGISTRATION PLATE ISSUED BY ANY STATE', 'DISPLAY EXPIRED REGISTRATION PLATES', 'DISPLAY FICTITIOUS LIC.', 'DISPLAY FRAUDULENTLY ALTERED LIC', 'DISPLAY FRAUDULENTLY ALTERED LIC.', 'DISPLAY ID# ON TRANS VEH NOT CONTAINING HAZ MATERIAL ASSOC W/THAT NO.', 'DISPLAY LP WITH CLEAR COVER', 'DISPLAY PERMIT TO BE DISPLAYED SUSPENDED LIC.', 'DISPLAY PLACARD DESIGN,SHAPE &amp; COLOR MAY CONFUSE W/DOT PLACARDS', 'DISPLAY REG', 'DISPLAY REG CARD', 'DISPLAY REG. PLATE ISSUED TO OTHER VEHICLE', 'DISPLAY REG. PLATES ISSUED TO ANOTHER', 'DISPLAY REGCARD', 'DISPLAY REGISTRATION PLATES ISSUED TO ANOTHER', 'DISPLAY REVOKED LIC.', 'DISPLAY SPENDED LIC.', 'DISPLAY SUSP CARD', 'DISPLAY SUSP LIC', 'DISPLAY SUSP PLATES', 'DISPLAY SUSP REG CARD', 'DISPLAY SUSP REG PLATE', 'DISPLAY SUSPENDED LIC', 'DISPLAY SUSPENDED LIC.', 'DISPLAY SUSPENDED LICENSE', 'DISPLAY SUSPENDED LICENSE.', 'DISPLAY TAGS', 'DISPLAY TAGS ISSUED TO ANOTHER', 'DISPLAY TAGS ISSUED TO ANOTHER VEHICLE', 'DISPLAY TO BE DISPLAYED FRAUDULENTLY ALTERED LIC.', 'DISPLAY TO BE DISPLAYED SUSPENDED LIC.', 'DISPLAY TO BE DISPLAYED) SUSPENDED LIC', 'DISPLAY a REVOKED LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAY  SUSPENDED LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAYED  SUSPENDED LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAYED CANCELLED LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAYED FICTITIOUS LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAYED FRAUDULENTLY ALTERED LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAYED REVOKED LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAYED SUSPENDED LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAYED) FICTITIOUS LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAYED)SUSPENDED LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAYEDSUS PENDED LIC.', 'DISPLAY, CAUSE, PERMIT TO BE DISPLAYEDSUSPENDED LIC.', 'DISPLAY, SUSPENDED LIC.', 'DISPLAY, TO BE DISPLAYED SUSPENDED LIC.', 'DISPLAY,SUSPENDED LIC.', 'DISPLAYED REG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYED SUSPENDED LIC.', 'DISPLAYING   PLATE ISSUED  TO ANOTHER VEHICLE', 'DISPLAYING  PERMITTING TO BE DISPLAYED REG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING  PERMITTING TO BE DISPLAYED REG. PLATE ISSUED FOR OTHER VEHICLE  TO OTHER PERSON', 'DISPLAYING  PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING  REG. PLATE ISSUED  TO OTHER PERSON', 'DISPLAYING  REG. PLATE ISSUED FOR OTHER VEH', 'DISPLAYING  REG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING  REG. PLATE ISSUED FOR OTHER VEHICLE  TO OTHER PERSON)', 'DISPLAYING  REG. PLATE ISSUED FOR OTHER VEHICLE &amp; TO OTHER PERSON', 'DISPLAYING  REG. PLATE ISSUED FOR OTHER VEHICLE , TO OTHER PERSON)', 'DISPLAYING  REG. PLATE ISSUED FOR OTHER VEHICLE / TO OTHER PERSON', 'DISPLAYING  REG. PLATE ISSUED FOR OTHER VEHICLE AND TO OTHER PERSON', 'DISPLAYING  REG. PLATE ISSUED FOR OTHER VEHICLE)', 'DISPLAYING  REG. PLATE ISSUED FOR OTHER VEHICLE.', 'DISPLAYING  REG. PLATE ISSUED OTHER VEHICLE TO OTHER PERSON', 'DISPLAYING  REG. PLATE ISSUED TO OTHER PERSO', 'DISPLAYING  REG. PLATE ISSUED TO OTHER PERSON', 'DISPLAYING  REG. PLATE ISSUED TO OTHER PERSON)', 'DISPLAYING  REG. PLATE ISSUED TO OTHER VEH', 'DISPLAYING  REG. PLATE ISSUED VEHICLE', 'DISPLAYING  REG. PLATE ISSUEDFOR OTHER VEHICLE', 'DISPLAYING  TO BE DISPLAYED REG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING  TO BE DISPLAYED) REG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING . PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING / PERMITTING REG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING / PERMITTING TO BE DISPLAYED  REG. PLATE ISSUED FOR OTHER VEHICLE / TO OTHER PERSON', 'DISPLAYING / PERMITTING TO BE DISPLAYED REG. PLATE ISSUED', 'DISPLAYING / PERMITTING TO BE DISPLAYED REG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING / PERMITTING TO BE DISPLAYED REG. PLATE ISSUED FOR OTHER VEHICLE  TO OTHER PERSON', 'DISPLAYING / PERMITTING TO BE DISPLAYED REG. PLATE ISSUED FOR OTHER VEHICLE / TO OTHER PERSON', 'DISPLAYING / PERMITTING TO BE DISPLAYED REG. PLATE ISSUED FOR OTHER VEHICLE TO OTHER PERSON', 'DISPLAYING / PERMITTING TO BE DISPLAYED REG. PLATE/STICKER ISSUED FOR OTHER VEHICLE', 'DISPLAYING / PERMITTING TO BE DISPLAYED REG. PLATE/TABS ISSUED FOR OTHER VEHICLE / TO OTHER PERSON', 'DISPLAYING / PERMITTING TO BE DISPLAYED) REG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING / PERMITTING TO BE DISPLAYED) REG. PLATE ISSUED FOR OTHER VEHICLE / TO OTHER PERSON', 'DISPLAYING / PERMITTING TO BE DISPLAYED)REG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING AND PERMITTING TO BE DISPLAYED REG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING DISPLAYED SUSPENDED LICENSE', 'DISPLAYING EGG. PLATE ISSUED FOR OTHER VEHICLE', 'DISPLAYING EX</t>
         </is>
@@ -857,18 +947,32 @@
       <c r="P7" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>i? 1/2 MIDDLEBROOK RD AT GERMANTOWN RD</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>IS 370 @ IS 270</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>1838</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>21524108</v>
       </c>
-      <c r="S7" t="n">
+      <c r="W7" t="n">
         <v>134179</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['#2 BRIGHTON DAM RD', '#2 DEER PARK LANE', '#3 EAST DIAMOND AVE', '&amp; STANFORD ST', '( CLOPPER RD 7-11) 12861', '(8736) PINEY BRANCH @ BARRON ST', '(NORTH)NEW HAMPSHIRE AVE/ CHALMERS', '(RT355) @ HENDERSON CORNER ROAD', '011 RIDGE RD', '02 UNIVERSITY BLVD W / 7-11 PARKING LOT', '0BSERVATION @ GOLDENROD', '0BSERVATION RD/27', '0FF RAMP 495 W TO NEW HAMPSHIRE AVE', '0L495/CONNECTICUT', '1', '1 BETHESDA METRO CENTER WISCONSIN AVENUE', '1 BLK TIMBERWOOD AVE', '1 DEMOCRACY BLVD', '1 EXECUTIVE PARK COURT', '1 GOODPORT LANE', '1 N. SUMMIT DR', '1 PINEY MEETINGHOUSE CT, POTOMAC, MD', '1-270 SB PRIOR TO MONTGOMERY VILLAGE AVE', '10 BLK UNIVERSITY BLVD E', '10 BRASSIE CT', '10 E. DEER PARK DRIVE', '10 E. DEER PARK ROAD', '10 N SUMMIT AVE', '10 QUAINT ACRES DR', '10 UNIVERSITY BLVD W.', '10-400 BLOCK OF GLEN RD.', '100 ARGOSY DRIVE', '100 BLK EB RANDOLPH RD', '100 BLK EDNOR  RD', '100 BLK N. FREDERICK AVE', '100 BLK NELSON ST', '100 BLK NORMANDY DRIVE', '100 BLK OF MARKET ST', '100 BLK OF UNIVERSITY BLVD W', '100 BLK TEACHERS WAY', '100 BLK UNIVERSITY BLVD E E/B', '100 BLK UNIVERSITY BLVD E W/B', '100 BLK UNIVERSITY BLVD W', '100 BLK UNIVESITY BLVD W', '100 BLOCK EDISON PARK PL', '100 BLOCK N. FREDERICK AVE', '100 BLOCK OF KENTLANDS BLVD', '100 BLOCK OF SCHUYLER ROAD', '100 BLOCK UNIVERSITY BLVD E', '100 BLOCK UNIVERSITY BLVD WEST', '100 BRYANTS NURSERY ROAD', '100 BUREAU', '100 E FRANKLIN', '100 E FRANKLIN AVE', '100 EAST DEDER PARK', '100 EDISON PARK DR', '100 EDISON PARK DRIVE', '100 FREDERICK ROAD', '100 LAKEFOREST BLVD', '100 MONROE ST ROCKVILLE', '100 N FREDERICK AVE', '100 N FREDERICK AVE.', '100 N. FREDERICK AVE', '100 NORTH FREDERICK AVE', '100 PARK AVE', '100 ROCKVILLE PK', '100 S FREDERICK AVE', '100 SCHUYLER RD', '100 UNIV BLVD W', '100 UNIVERSITY BLVD W', '100 UNIVERSITY BLVD W (OCEANIC GAS)', '100 UNIVERSITY BLVD W. SILVER SPRING', '100 UNIVERSITY BLVD WEST', '100 WILLIAMSBURG DRIVE', '1000 BLK EDNOR RD', '1000 BLK GUDE DRIVE', '1000 BLK NB 355, SC ENTR', '1000 BLK NB RT 355', '1000 BLK NORA DR', '1000 BLK OSAGE ST', '1000 BLK QUEBEC TER', '1000 BLK ROCKVILLE PIKE', '1000 BLK ROCKVILLE PIKE ROCKVILLE', '1000 BLOCK DALE AVE', '1000 BLOCK OF HUNGERFORD DR (JACKSON PL)', '1000 BLOCK OF OLD BUCKLODGE ROAD', '1000 BLOCK OF ROCKVILLE PIKE', '1000 BLOCK OF VEIRS MILL ROAD', '1000 BLOCK ROCKVILLE PIKE', '1000 BLOCK WAYNE AVE E/B', '1000 COLESVILE RD', '1000 FIRST ST', '1000 LAMBERTON DR / 1100 N BELGRADE RD', '1000 NEW HAMPSHIRE AVE SB AT I495 E RAMP', '1000 QUEBEC TER', '1000 TWINBROOK PKWY', '1000 UNIVERSITY BLVD W', '1000 WAYNE AVE/ 8500 GEORGIA AVE', '1000 WEST SIDE DR GAITHERSBURG MD', '10000 BLK COLESVILLE RD', '10000 BLK FOREST VIEW PL', '10000 BLK GEORGIA AVE', '10000 BLK GEORGIA AVE AT BELVEDERE BLVD', '10000 BLK OAKLYN DR', '10000 BLK OAKLYN DR. EB', '10000 BLK OF DARNESTOWN ROAD', '10000 BLK OF FIELDS ROAD', '10000 BLK OF STEDWICK ROAD', '10000 BLK SORREL AVE N/B', '10000 BLK STEDWICK RD', '10000 BLK WESTLAKE DR', '10000 BLK WESTLAKE TERR NB', '10000 BLOCK  OAKLYN DRIVE', '10000 BLOCK OF GLEN RD', '10000 BLOCK OF OAKLYN DRIVE', '10000 BRUNETT AVE', '10000 COLESVILLE RD', '10000 COLESVILLE RD - REAR WOODMOOR SC', '10000 GEORGIA AVE', '10000 JOHNS DR', '10000 N270 X10 TO X11 HWY / 600 W DIAMON', '10000 OAK LYNN DR', '10000 OAKLYN DR', '10000 OAKLYN DRIVE', '10000 RIDGELINE DRIVE', '10000 STEDWICK', '10000BLK FIELDS RD', '10001 0AKLYN DR', '10001 ELTON RD', '10001 NEW HAMPSHIRE AVE', '10001 OAKLYN DRIVE', '10002 GEORGIA AVE', '10003 CONNECTICUT AVE', '10003 FIELDS RD', '10004 BISCAYNE LANE', '10005 CEDAR LANE', '10005 GEORGIA AVE', '10005 STEDWICK RD', '10005 STEDWICK ROAD', '10005 WEDGE WAY', '10006 STEDWICK RD', '10007 CONNECTICUT AVE', '10007 FIELDS RD', '10008 COLESVILLE RD', '10008 HEMSWELL LANE, POTOMAC, MD', '10009 RENFREW ROAD', '1000BLK KING ST', '1000BLK QUEBEC TER', '1001 BRIGGS CHANEY RD', '1001 JACKSON RD', '1001 ROCKVILLE PIKE', '1001 ROCKVILLE PK', '10010 DARNESTOWN RD', '10011 FISHER AVE', '10011 GLEN RD', '10011 STEDWICK RD', '10013 BLUE BANNER DR', '10016 COLEBROOK AVE', '10016 DARNESTOWN RD', '10016 RIDGELINE DR', '10016 RIDGELINE DRIVE', '1002 MILESTONE DR', '1002 MILESTONE DRIVE', '1002 QUEBEC TER', '1002 QUEBEC TERRACE', '10020 COLESVILLE ROAD', '10020 RIVER ROAD', '10022 STEDWICK RD', '10024 TRAVILAH RD', '10028 DARNESTOWN RD', '1003 ARCOLA AVENUE', '1003 FAIRLAND RD', '1003 UNIVERSITY BLVD E', '10038 DARNESTOWN RD', '1004 EAST WEST HWY / 8098 13TH ST', '10042 DARNESTOWN RD', '10048 AMHERST AVENUE', '10048 TRAFALGER SQ', '1005 LEWIS AVE', '1005 QUEBEC TERRACE', '10050 COLESVILLE RD', '10055 GLEN ROAD', '1006 NORTH NOISE', '1006 QUEBEC TERRACE', '1006 ROSEMERE AVENUE', '1007 N. NOYES DR', '1007 QUEBEC TER', '1007 QUEBEC TERRACE', '1007 UNIVERSITY BLVD E', '1008 QUEBEC TER', '1008 QUEBEC TERR', '1009 UNIVERSITY BLVD E', '100BLK ELLINGTON BLVD', '100BLK N FREDERICK AVE', '100BLK ROLLINS AVE', '100BLK UNIVERSITY BLVD E', '101 EDMONSTON LN', '101 HALPHINE RD', '101 HALPINE RD', '101 LAKEFOREST BLVD', '101 ODENDHAL AVE', '101 ORCHARD RIDGE RD', '101 ROCKVILLE PIKE', '101 SHARPSTEAD LN', '101 SHARPSTEAD ROAD', '101 SOUTHWOOD AVE', '101 UNIVERSITY BLVD @', '101 UNIVERSITY BLVD W', '101 WEST DEER PARK RD', '1010 DIXON AVE', '1010 VEIRS MILL RD', '10100 BLK CEDAR LANE, KENSINGTON, MD', '10100 BLK COLESVILLE RD', '10100 BLK COLEVILLE RD', '10100 BLK COLUMBIA PIKE', '10100 BLK CONNECTICUT AVE N/B', '10100 BLK FREAS RD', '10100 BLK LITTLE POND PL #6', '10100 BLK NB FALLS RD', '10100 BLK NEW HAMPSHIRE AVE', '10100 BLK RIDGELINE DRIVE', '10100 BLK S/B COLESVILLE RD', '10100 BLK SEVEN LOCKS ROAD, S/B', '10100 BLOCK COLUMBIA PIKE', '10100 BLOCK OF DARNESTOWN RD', '10100 COLESVILLE RD', '10100 DARNESTOWN RD', '10100 DARNESTOWN RD.', '10100 LORAIN AVE', '10100 NEW HAMPSHIRE AVE', '10100 NEW HAMPSHIRE AVE / 1600 ELTON RD', '10100 OLD GEORGETOWN RD / 6000 MANOR OAK', '10100 RIVER RD', '10101 APPLE RIDGE', '10101 APPLE RIDGE RD', '10101 COLESVILLE RD', '10101 COLESVILLE RD - REAR WOODMOOR SC', '10101 COLESVILLE RD - WOODMOOR SC', '10101 GROSVENOR PL', '10101 NEW HAMPSHIRE AVE', '10102 RIDGELINE DR', '10102 RIVER RD', '10103 COLESVILLE RD @ WOODMOOR SC', '10104 MEREDITH AVE', '10104 RIVER RD', '10104 RIVER ROAD- POTOMAC SHOPPING CNTR', '10105 COLESVILLE RD', '10105 NEW HAMPSHIRE AVE &amp; MD650', '10105 NEW HAMPSHIRE AVE (HILLENDALE)', '10105 NEW HAMPSHIRE AVENUE', '10107 BROCK DR', '10107 DARNESTOWN RD', '10109 COLESVILLE ROAD', '10109 RIDGELINE DR', '1011 BALTIMORE RD', '1011 N NOYES DRIVE', '1011 QUEBEC TERR', '1011 QUEBEC TERR.', '1011 RUATAN ST', '10110 MC KENNEY AVE', '10110 MOLECULAR DR', '10110 RIVER RD', '10110 WALKINS MILL PLACE', '10111 COLESVILLE ROAD', '101111 SUTHERLAND RD', '10112 DARMUID GREEN DRIVE', '10113 NEW HAMPSHIRE AVE', '10113 NEW HAMPSHIRE AVE @ HILLENDALE SC', '10113 NEW HAMPSHIRE AVENUE', '10115 KINROSS RD', '10115 NEW HAMPSHIRE AVE (PARKING LOT)', '10116 DARNSTOWN RD', '10117 COLESVILLE RD', '1012 QUEBEC TER', '1012 QUEBEC TERRACE', '10120 APPLE RIDGE RD', '10121 KINROSS AVE', '10121 NEW HAMPSHIRE AVE', '10121 NEW HAMPSHIRE AVE - PARKING LOT', '10121 NEW HAMPSHIRE AVE PARKING LOT', '10121 NEW HAMPSHIRE AVENUE', '10121 RIDGELINE DR', '10123 RIVER ROAD', '10125 COLESVILLE RD @ WOODMOOR SC', '10127 COLESVILLE RD @ WOODMOOR SC', '10127 FALLS RD', '10127 RIVER ROAD', '1013 UNIVERSITY BLVD E', '10130 RIDGELIE DR', '10130 RIVER RD', '10130 RIVER ROAD', '10133 DALLAS AVE', '10134 RIVER RD', '10134 RIVER ROAD', '10135 COLESVILLE RD', '10137 SHELLDRAKE CIRCLE', '10139 CEDAR LN', '10139 REPRISE DR', '10139 RIDGELINE DR', '1014 COLESVILLE RD', '1014 SOUTHER NIGHT LN', '10141 COLESVILLE RD', '10141 COLESVILLE RD / REAR PARKING LOT', '10141 COLESVILLE ROAD', '10144 COLESVILLE RD', '10144 COLESVILLE RD / UNIVERSITY BLVD E', '10145 COLESVILLE RD', '10145 NEW HAMPSHIRE AVE', '10145 POWDER MILL ROAD', '1015 RUATAN ST', '10151 COLESVILLE RD', '10151 COLESVILLE RD (REAR LOT)', '10151 COLESVILLE ROAD', '10151 COLESVILLE ROAD - PARKING LOT', '10152 SUTHERLAND RD.', '10155 NEW HAMPSHIRE AVE', '10155 NEW HAMPSHIRE AVE/ PARKING LOT', '10159 NEW HAMPSHIRE AVE', '1016 QUEBEC TER', '1016 ROBROY RD', '1016 VEIRS MILL RD', '10165 RIDGELINE DR', '10169 NEW HAMPSHIRE AVE (PARKING LOT)', '10169 NEW HAMPSHIRE AVE / POWDER MILL RD', '10180 FREDERICK RD', '1019 DEVERE DRIVE', '102 GARTH TERRACE GAITHERSBURG MD', '102 KENDRICK PLACE', '102 ODEND HAL AVE', '102 SCHUYLER RD', '102 TWELVE OAKS COURT', '102 UNIVERSITY BLVD W.', '1020 NEW HAMPSHIRE AVE', '1020 QUEBEC TERRACE', '1020 ROCKVILLE PK', '10200 BLK NEW HAMPSHIRE AVE', '10200 BLK OLD GEORGETOWN RD.', '10200 BLK WESTLAKE DR', '10200 BLOCK COLESVILLE RD', '10200 BLOCK OF DOUGLAS AVE', '10200 BLOCK OLD GEORGETOWN RD', '10200 COLESVILLE RD @ WOODMOOR', '10200 COLESVILLE RD @ WOODMOOR SC', '10200 GREEN HOLLY TERRACE', '10200 LORAIN AVE / 300 TIMBERWOOD AVE', '10200 NEW HAMPSHIRE AVE', '10200 NEW HAMPSHIRE AVE / 1700 POWDER MI', '10200 NEW HAMPSHIRE AVE @ POWDER MILL RD', '10200 NEW HAMPSHIRE AVE.', '10200 OLD GEORGETOWN RD / 6198 CHESHIRE', '10200 OLD GEORGETOWN RD AT 6198 CHESHIRE', '10200 ROCKVILLE PIK / 5200 TUCKERMAN LA', '10200 SB ROCKVILLE PIKE', '10200 SEVEN LOCKS RD / 7900 DEMOCRACY BL', '10200 WESTLAKE DR', '10201 BETHESDA CHURCH RD', '10201 CAPITAL VIEW', '10201 GEORGIA AVE', '10201 GROSEVENOR PL', '10201 RIDGE ROAD (DAMASCUS ELEM)', '10201 RIVER RD', '10201 WOODLAND DR', '10203 NEW HAMPSHIRE AVE', '10203 WOODMOOR CIR', '10204 NEW HAMPSHIRE AVE', '10206 NEW HAMPSHIRE AVE', '10207 LORAIN', '10207 NEW HAMPSHIRE AVE', '10208 SUMMIT AVE', '10208 WOODMORE CIRCLE, SILVER SPRING, MD', '10209 YEARLING DR', '1021 BRIGGS CHANEY ROAD', '1021 MC CENEY DR', '1021 QUEBEC TERRACE', '1021 UNIVERSITY BLVD E', '10210 SUMMIT AVE', '10211 DEMOCRACY BLVD', '10211 WESTLAKE DR', '10213 OLD GEORGETOWN RD', '10214 NEW HAMPSHIRE AVE', '10215 FERNWOOD RD', '10217 GARDINER', '10217 SUNDANCE CT ,', '10219 RIVER RD', '1022 QUEBEC TER', '1022 QUEBEC TERR @11TH AVE', '1022 QUEBECT TERRACE', '1022 ROCKVILLE PIKE', '1022 RUATAN STREET', '10220 RIVER ROAD', '10221 RIVER RD', '10221 RIVER ROAD', '10224 FALLS ROAD', '10225 NEW  HAMPSHIRE AVE', '10226 NEW HAMPSHIRE AVE', '10227 DOUGLAS AVE SILVER SPRING MD 20910', '10227 OLD GEORGETOWN RD.', '10228 MILLSTREAM DR', '10229 FALLS RD', '1023 QUEBEC TERR', '1023 QUEBEC TERRACE', '10230 NEW HAMPSHIRE AV.', '10230 NEW HAMPSHIRE AVE', '10230 RIDGELINE DR', '10230 WESTLAKE DR', '10232 ROCKVILLE PIKE', '10236 CAPITAL VIEW AVE', '10236 NEW HAMPHIRE AVE', '10236 NEW HAMPSHIRE AVE', '10237 RIDGELINE DR', '1024 TRAVIS LANE', '10240 METROPOLITAN', '1025 BIGGS CHANEY', '1025 QUEBEC TERRACE', '10250 BETHESDA CHURCH RD', '10250 RIVER RD', '10259 OLD GEORGETOWN RD', '1026 QUEBEC TER', '1026 QUEBEC TERRACE', '1026 RUATAN STREET', '1027 QUEBEC TER', '10275 RIDGELINE DR', '10279 RIDGELINE DR', '1028 ROCKVILLE PIKE', '1028 WINDMILL LA', '10289 BURLEIGH COTTAGE LN', '1029 EAST GUDE DR', '1029 EAST GUDE DRIVE', '1029 QUEBEC TERRACE', '10298 WASHINGTON BLVD', '103 SUMMIT AVE', '1030 HUNGERFORD DR', '1030 ROCKVILLE PIKE', '10300 BLK OAKLYN DR', '10300 BLK SB NEW HAMPSHIRE AVE', '10300 BLK WESTLAKE DR', '10300 BLOCK COLESVILLE RD', '10300 BLOCK OF MONTROSE AVE', '10300 BLOCK OF WESTLAKE DR', '10300 FALLS RD / 9998 WOODFORD RD ,MCG', '10300 GEORGIA AVE', '10300 NEW HAMPSHIRE', '10300 ROCKVILLE PIKE', '10300 WESTLAKE DR', '10300 WESTLAKE DR @ MONTG MALL', '10301 GEORGIA AVE', '10301 GEORGIA AVENUE', '10301 GROSVENOR LN', '10301 NEW HAMPSHIRE AVE', '10301 WATKINS MILL RD', '10302 COLESVILLE RD', '10302 RIDGELINE DR', '10303 OLD GEORGETOWN RD', '10304 GEORGIA AVE', '10304 NEW HAMPSHIRE AVE', '10305 GAINSBOROUGH RD', '10305 NEW HAMPSHIRE AVE', '10305 NEW HAMPSHIRE AVENUE', '10306 LORAIN AVE', '10308 COLESVILLE RD', '10308 EDGEWOOD AV.', '10308 NEW HAMPSHIRE AVE', '10309 OLD GEORGETOWN RD', '10309 RIDGELINE DR', '1031 QUEBEC TERRACE', '1031 QUEBEC TR', '10311 RIVER RD', '10311 RIVER RD (POTOMAC ELEMENTARY SCH)', '10311 RIVER ROAD', '10313 DICKENS AVE, BETHESDA, MD 20814', '10313 GEORGIA AVE @ PARKING LOT', '10313 ROYAL WOODS CT', '10313 WATKINS MILL DR', '10321 WATKINS MILL DR', '10323 OLD GEORGETOWN RD.', '10323 OLD GEORGETOWN ROAD', '10326 PARKMAN ROAD', '10326 PROCERA DR', '10326 SUMMIT AVE', '10328 PROCERA DR', '1033 QUEBEC TERR', '1033 QUEBECT TERRACE', '10335 OLD GEORGETOWN RD', '1035 QUEBEC TER', '1037 QUEBEC TERRACE', '1038 ROCKVILLE PIKE', '1038 RUATAN ST', '1039 QUEBEC TER', '104 BLK N. FREDERICK AVE', '104 CECIL STREET', '104 E SCHUYLER RD', '104 MAIN ST', '104 SCHUYLER RD', '104 SCHUYLER RD.', '1040 ROCKVILLE PIKE', '10400 AMHERST AVE, WHEATON, MD 20902', '10400 BLK  BETHESDA CHURCH RD', '10400 BLK FERNWOOD RD', '10400 BLK GEORGIA AVE', '10400 BLK NEW HAMPSHIRE AVE', '10400 BLK OF GAINSBOROUGH RD', '10400 BLK RIVER RD', '10400 BLK STEDWICK RD', '10400 BLOCK METROPOLITAN AVE', '10400 BLOCK METROPOLITAN RD', '10400 BLOCK OF MACARTHUR BLVD', '10400 BLOCK OF RIVER RD', '10400 COLESVILLE RD @ WOODMOOR SC', '10400 CONNECTICUT AVE', '10400 DEMOCRACY BLVD AT IRON GATE RD', '10400 FERNWOOD ROAD', '10400 METROPOLITAN AVE', '10400 METROPOLITAN AVE.', '10400 OLD GEORGETOWN RD', '10400 OLD GEORGETOWN RD ,MCG', '10400 OLD GEORGETOWN RD / 6200 DEMOCRACY', '10400 OLD GEORGETOWN RD /GIANT PL', '10400 OLD GEORGETOWN RD AT 6200 DEMOCRAC', '10400 OLD GEORGETOWN RD AT DEMOCRACY BLV', '10400 OLD GEORGETOWN RD@ BANK OF AMERICA', '10400 OLD GEORGETOWN ROAD', '10400 OLD GEORGETOWN ROAD (DSW SHOE)', '10400 R.T.28', '10400 ROCKVILLE PIKE', '10400 SEVEN LOCKS RD', '10401 COLESVILLE RD', '10401 GEORGIA AVE', '10401 MONTROSE AVENUE', '10401 NEW HAMPSHIRE AVE', '10401 OLD GEORGETOWN RD', '10401 STEDWICK ROAD', '10404 ROCKVILLE PIKE', '10405 BLOOM DR', '10405 NEW HAMPSHIRE AVE', '10405 RIDGE LANDING PL', '10405 RIDGE LANDING PLACE', '10408 GEORGIA AVE', '10408 NEW HAMOSHIRE AVE', '1041 RUATAN ST', '10410 HUNTLEY AVE. SILVER SPRING, MD', '10410 KENSINGTON PKWY', '10411 INWOOD AVE', '10414 OLD COLUMBIA PIKE (RT 29 NB)', '10415 MONTROSE AVE', '10415 OLD GEORGETOWN RD', '10415 OLD GEORGETOWN ROAD', '10416 MONTROSE AVE', '10416 NEW HAMPSHIRE AVE', '10417 METROPOLITAN AVE', '10417 ROYAL RD', '10420 MERCADO', '10420 RIVERWOOD DR', '10421 RIVER ROAD', '1043 QUEBEC TER', '1043 ROCKVILLE PIKE', '10431 METROPOLITAN AVE', '1044 ROCKVILLE PIKE', '10440 ROCKVILLE PIKE, BETHESDA, MD', '10441 DEMOCRACY BLVD', '10441 METROPOLITAN AVE', '10444 PARTHENON CT', '1045 QUEBEC TER', '10453 METROPOLITAN AVE', '10453 METROPOLITAN AVE KENSINGTON', '10456 SWEEPSTAKES', '1047 ROCKVILLE PIKE', '1048 QUINCE ORCHARD ROAD', '105 EDNOR', '105 HANNES', '105 UNIVERSITY BLVD WEST', '1050 BLK RUATAN ST SILVER SPRING', '1050 ROCKVILLE PIKE', '1050 RUATAN STREET', '10500 BLK BETHESDA CHURCH RD', '10500 BLK CONNECTICUT AVE', '10500 BLK DARNESTOWN RD', '10500 BLK METROPOLITAN AVE', '10500 BLK SB ROCKVILLE PIKE', '10500 BLK WESTLAKE DR', '10500 BLK WESTLAKE DR.', '10500 BLOCK GEORGIA AVE', '10500 DARNESTOWN RD', '10500 FALLS RD', '10500 METROPOLITAN', '10500 MONTROSE  AVE', '10500 NEW HAMPSHIRE AVE', '10500 OAKLYN DRIVE', '10500 OLD GEORGETOWN RD', '10500 OLD GEORGETOWN RD / 6300 ROCK SPRI', '10500 ROCKVILLE PIKE', '10500 ROCKVILLE PIKE AT TUCKERMAN LANE', '10501 BETHESDA CHURCH ROAD', '10501 METROPOLITAN AVE', '10501 NEW HAMPSHIRE AVE', '10501 NEW HAMPSHIRE AVE NB', '10501 ROCKVILLE PIKE', '10501 ROCKVILLE PIKE/TUCKERMAN LN(GARAGE', '10504 CONNECTICUT AVE', '10504 KNOWLES AVE', '10505 CASCADE PL', '10506 APPLE RIDGE RD', '10506 NEW HAMPSHIRE AVE', '10506 NEW HAMPSHIRE AVENUE', '10506 WEYMOUTH ST', '10507 ROYAL RD', '1051 ROCKVILLE PIKE', '10510 NEW HAMPSHIRE AVE', '10510 ROCKVILLE PIKE', '10514 CONNECTICUT AVENUE', '10514 NEW HAMPSHIRE AVE', '10515 AMHERST AVENUE', '10516 METROPOLITAN AVE', '1052 ROCKVILLE PIKE', '10520 CONNECTICUT AVE', '10521 NEW HAMPSHIRE AVE', '10524 CONNECTICUT AVE', '10524 CONNECTICUT AVE (7-11 PARKING LOT)', '10524 WESTLAKE DRIVE', '1053 ROCKVILLE PIKE', '1054 ROCKVILLE PIKE', '1054 RUATAN ST', '10540 CONNECTICUT AVE', '10540 METROPOLITAN AVE', '10541 CONNECTICUT AVE', '10541 CONNECTICUT AVE (SAFEWAY)', '10541 WISCONSIN AVE', '10542 METROPOLITAN AVE', '10543 ST. PAUL ST', '10548 CAMBRIDGE CT', '10550 CONNECTICUT AVE', '10556 MACARTHUR BLVD', '1056 RUATAN ST SILVER SPRING MD 20901', '10562 METROPOLITAN AVE', '10566 METROPOLITAN AVE', '10580 METROPOLITAN AVE', '10594 HOWARD AVE', '10594 METROPOLITAN AB=VE', '10594 METROPOLITAN AVE', '10598 GROSVENOR PL / 5500 TUCKERMAN LA', '106 CLAYBROOK DR', '106 N FREDERICK RD', '106 OLNEY SANDY SPRING ROAD', '106 S FREDERICK AVE', '106 UNIVERSITY BLD', '106 UNIVERSITY BLVD E LOT', '106 UNIVERSITY BLVD W', '106 UNIVERSITY BLVD W (MCDONALDS)', '106 UNIVERSITY BLVD W / COLESVILLE RD', '106 UNIVERSITY BLVD W @ MCDONALDS', '106 UNIVERSITY BLVD WEST', '106 WOODMOOR DRIVE', '1060 ROCKVILLE PIKE', '1060 RUATAN ST SILVER SPRING, MD', '10600 BLK  WESTLAKE DR', '10600 BLK NEW HAMPSHIRE AVE', '10600 BLK OF WESTLAKE DR', '10600 BLK WESTLAKE DR', '10600 BLK WESTLAKE DR. N/B', '10600 BLK WESTLAKE DR. S/B', '10600 BLK WESTLAKE DRIVE', '10600 BLOCK OF WESTLAKE DR', '10600 GEORGIA AVE', '10600 WESTLAKE DR', '10600 WESTLAKE R', '10601 MACARTHUR BLVD', '10603 INWOOD AVE, SILVER SPRING', '10603 LORAIN AVE', '10606 NEW HAMPSHIRE AVE', '10606 TENBROOK DRIVE', '10607 HUNTERS CHASE LANE', '10608 NEW HAMPSHIRE AVE', '10609 AMHERST AVE', '10609 CAVALIER DR', '10609 WHEATLEY ST', '1061 RUATAN ST SILVER SPRING, MD 20901', '10610 BLK WESTLAKE DR', '10610 S DUNMOOR DR', '10610 WESTLAKE DR', '10611 NEW HAMPSHIRE AVE', '10611 TENBROOK DR.', '10611 WESTLAKE DR', '10611 WESTLAKE DRIVE', '10611 WESTLAKE DRIVE BETHESDA MARYLAND', '10611 WESTLAKE TERR', '10612 SWEETBRIAR PARKWAY', '10613 MARGATE RD', '10614 NEW HAMPSHIE AVE', '10615 NEW HAMPSHIRE AVE', '10615 WATKINS ROAD', '10616 CONNECTICUT AVE', '10620 CONNECTICUT AVE', '10620 RIVER RD', '10625 CONNECTICUT AVE', '10625 DEMOCRACY LN', '10633 OAKLYN DRIVE', '1066 FREDERICK ROAD', '1066 ROCKVILLE PIKE', '10680 OLD GEORGETOWN RD / S270 X1 TO 495', '107 / 109', '107 / MORROW', '107 / MORROW RD', '107 @ BUDD', '107 BETWEEN PARTNERSHIP &amp; SUGARLAND RD', '107 N. SUMMIT AVE', '107 UNIVERSITY BLVD W', '107 WB @ GEORGIA AVE.', '107/28', '107/MORROW RD', '107/MORROW ROAD', '107/TOM FOX AVE', '1070 RUATAN ST SILVER SPRING MD', '10700 BLK COLESVILLE RD', '10700 BLK COLUMBIA PIKE', '10700 BLK COUMBIA PIKE, S/B', '10700 BLK GATEWOOD AVENUE', '10700 BLK NB US 29', '10700 BLK OF COLUMBIA PIKE', '10700 BLK STONEYHILL DR', '10700 BLK VENETIA MILL CIR', '10700 BLOCK COLESVILLE RD', '10700 BLOCK COLUMBIA PIKE', '10700 BLOCK COLUMBIA PK', '10700 BLOCK OF GAINSBOROUGH RD', '10700 BLOCK OF S/B COLESVILLE RD', '10700 BLOCK ROUTE 29', '10700 COLUMBIA PIKE', '10700 COLUMBIA PK', '10700 CONNECTICUT AVE', '10700 GEORGIA AVE', '10700 GEORGIA AVENUE', '10700 OLD GEORGETOWN RD / 998 N270 495 T', '10700 PLYERS MILL ROAD', '10700BLK BOSWELL LA', '10700BLK COLUMBIA PIKE', '10701 COLUMBIA PIKE', '10701 CONNECTICUT AVE', '10701 GAINSBOROUGH RD', '10701 OLD GEORGETOWN ROAD', '10701 ROCKVILLE PIKE', '10704 NEW HAMPSHIRE AVE', '10709 GEORGIA AVE', '10709 ROCK RUN DR', '1071 ROCKVILLE PIKE', '10710 FALLS ROAD', '10710 LORAIN AVE', '10711 COLUMBIA PIKE', '10711 COLUMBIA PKE', '10711 GEORGIA AVE', '10717 HILLWOOD DR', '10720 COLUMBIA PIKE', '10721 COLUMBIA PIKE', '10721 WAYFARER RD GERMANTOWN MD', '10723 COLUMBIA PIKE', '10724 SHAFTSBURY ST, KENSINGTON, MD', '10729 COLESVILLE RD', '10729 COLUMBIA PIKE', '10729 COLUMBIA PK', '10733 COLUMBIA PIKE', '10737 COLESVILLE RD', '10737 COLUMBIA PIK', '10737 COLUMBIA PIKE', "10741 COLESVILLE RD @ TRADER JOE'S", '10741 COLUMBIA PIK', '10741 COLUMBIA PIKE', '10741 COLUMBIA PIKE 0', '1075 RUATAN ST', '10750 COLUMBIA PIKE @ REAR PARKING LOT', '107500  COLUMBIA PIKE', '10753 COLESVILLE RD', '10753 COLUMBIA PIKE', '10753 COLUMBIA PIKE / HILLWOOD DR', '10755 COLUMBIA PIKE', '10772 COLUMBIA PIK / 10700 HILLWOOD DR', '10772 COLUMBIA PIK / 10700 HILLWOOD DR ,', '10772 COLUMBIA PIKE', '1078 RUATAN ST', '108  @ PRINCE PHILLIP DR', '108 &amp; 97', '108 &amp; DOCTOR BIRD', '108 &amp; GEORGIA AVE', '108 / 97', '108 / AUBURN FARM', '108 / BOWIE MILL RD', '108 / BOWIE MILL ROAD', '108 / BRIARS ROAD', '108 / BROOK ROAD', '108 / BURTFIELD DR', '108 / DOCTOR BIRD ROAD', '108 / DOMINION DR', '108 / DR BIRD RD', '108 / DR. BIRD - BROOKE RD', '108 / GEORGIA AVENUE', '108 / HEADWATERS DR', '108 / HERITAGE HILLS DRIVE', '108 / HOMELAND DR', '108 / MUNCASTER RD', '108 / OLD BALTIMORE', '108 / OLD BALTIMORE RD', '108 / OLD BALTIMORE ROAD', '108 / OLD VIC BLVD', '108 / OLNEY MILL RD', '108 / PRICE PHILIP', '108 / PRINCE PHILIPS DR', '108 / PRINCE PHILLIP', '108 / PRINCE PHILLIP DR', '108 / QUEEN ELIZABETH DR', '108 / ROCKY RD', '108 / SPARTAN', '108 / SPARTAN RD', '108 / SPARTAN ROAD', '108 / VILLAGE CENTER DR', '108 / VILLAGE MART DR', '108 / ZION RD', '108 /VILLAGE CENTER DR', '108 @  W GHOWARD CHAPEL DR', '108 @ 650', '108 @ 97', '108 @ ASHTON CLUB WAY', '108 @ AUBURN VILLAGE DR', '108 @ BENTLY ROAD', '108 @ BOWIE MILL', '108 @ BOWIE MILL RD', '108 @ BOWIE MILL ROAD', '108 @ BRIARS RD', '108 @ BRINK', '108 @ BRINK RD', '108 @ BROOKE RD', '108 @ BROOKE ROAD', '108 @ BROOKEVILLE RD', '108 @ CORNER DR', '108 @ CORNOR DRIVE', '108 @ DR BIRD', '108 @ DR. BIRD', '108 @ FIELDCREST', '108 @ FIELDCREST RD', '108 @ GELDING LA', '108 @ GELDING RD', '108 @ GEORGIA', '108 @ GEORGIA AVE', '108 @ GOLF ESTATES DR', '108 @ GRIFFITH RD', '108 @ HAWKINS CREAMERY RD', '108 @ HEADWATERS', '108 @ HEADWATERS DR', '108 @ HEADWATERS/BRIARS/OLNEYMILL RD', '108 @ HERITAGE HILLS', '108 @ HERITAGE HILLS DR', '108 @ HIDDEN GARDEN LANE', '108 @ HIDDEN GARDEN LN', '108 @ HOMELAND', '108 @ HOMELAND DR', '108 @ HOMELAND TER', '108 @ HOWARD CHAPEL DR', '108 @ MAIN ST', '108 @ MAPLE KNOLL DR', '108 @ MD 97', '108 @ MULLINEX MILL ROAD', '108 @ NEW HAMPSHIRE AVE', '108 @ NORWOOD RD', '108 @ OLD BALTIMORE', '108 @ OLD BALTIMORE RD', '108 @ OLD BALTIMORE ROAD', '108 @ OLD VIC', '108 @ OLD VIC BLV', '108 @ OLD VIC BLVD', '108 @ OLNEY MILL', '108 @ OLNEY MILL RD', '108 @ ONLEY MILLRD', '108 @ PRINCE PHILIP', '108 @ PRINCE PHILLIP', '108 @ PRINCE PHILLIP DR', '108 @ PRINCE PHILLIP DRIVE', '108 @ PRINCE PHILLIP RD', '108 @ QUEEN ELIZABETH', '108 @ QUEEN ELIZABETH DR', '108 @ ROCKY RD', '108 @ SKY MEADOW WAY', '108 @ SPARTAN', '108 @ SPARTAN RD', '108 @ SPARTAN ROAD', '108 @ SPATAN RD', '108 @ VILLAGE CENTER DR', '108 @ VOLUNTEER DRIVE', '108 @ WARFIELD', '108 @ WARFIELD RD', '108 @ WOODFIELD RD', '108 @ ZION RD', '108 @BRIARS', '108 @HOMELAND DR', '108 @SPARTAN', '108 ADN GOLF ESTATES DRIVE', '108 AND 650', '108 AND 97', '108 AND ANNAPOLIS ROCK RD', '108 AND BENTLEY', '108 AND BOWIE MILL RD', '108 AND BRINK', '108 AND BROOKE RD', '108 AND BURTFIELD DR', '108 AND DR BIRD', '108 AND DR BIRD RD', '108 AND DR.BIRD', '108 AND HEADWATERS', '108 AND HERITAGE HILLS', '108 AND HILLCREST AVE', '108 AND HILLVREST AVE', '108 AND HIPSLEY MILL RD', '108 AND HIPSLEYMILL RD', '108 AND HOMELAND DRIVE', '108 AND HOWARD CHAPEL DR', '108 AND JARL', '108 AND MEETING HOUSE ROAD', '108 AND MOUNT VERNON', '108 AND MT VERNON', '108 AND MUNCASTER ROAD', '108 AND NEW HAMPSHIRE AVE', '108 AND OLD BALTIMORE ROAD', '108 AND PRINCE PHILIP DR', '108 AND PRINCE PHILLIP', '108 AND PRINCE PHILLIP DR', '108 AND ROCKY ROAD', '108 AND SPARTAN', '108 AND SPARTAN RD', '108 AND SPARTAN ROAD', '108 AND SPARTEN', '108 AND SUNDOWN RD', '108 AND VILLAGE CENTER', '108 AND VILLAGE CENTER DR', '108 AND VILLAGE CENTER DRIVE', '108 AND WARFIELD RD', '108 AND WOODFIELD RD.', '108 AND ZION ROAD', '108 AT 650', '108 AT DR BIRD', '108 AT HERATIGE HILLS DRIVE', '108 AT OLD BALTIMORE', '108 AT OLD VIC', '108 AT OLNEY MILL ROAD', '108 AT PRINCE PHILLIP DRIVE', '108 AT QUEEN ELIZABETH DR', '108 AT RIGGS RD', '108 AT SPARTAN', '108 AT VILLAGE CENTER', '108 AT VILLAGE MART DR. OLNEY', '108 E. DEER PARK DR', '108 E/O 97 INTO SFW SC', '108 EB / GEORGIA AVE', '108 EB @ BENTLEY RD', '108 EB @ BRINK RD', '108 EB @ DR BIRD RD', '108 EB @ DR. BIRD RD', '108 EB @ GEORGIA AVE', '108 EB @ GOLF ESTATES DR', '108 EB @ HOMELAND DR', '108 EB @ MARDEN LA', '108 EB @ MEETINGHOUSE RD', '108 EB @ NEW HAMPSHIRE AVE', '108 EB @ NORWOOD RD', '108 EB @ OLD BALTIMORE RD', '108 EB @ OLNEY MILL RD', '108 EB @ PRINCE PHILLIP RD', '108 EB @ SKY MEADOW WAY', '108 EB @ SPARTAN RD', '108 EB @ VOLUNTEER DR', '108 FRANKLIN AVE', '108 IN FRONT OF SHERWOOD HS', '108 OLD BALTIMORE', '108 OLD TOWNE AVE', '108 OLDE TOWN AVE,', '108 OLDE TOWNE AV GAITHERSBURG,  MD', '108 OLDE TOWNE AVE', '108 OLDE TOWNE AVE.', '108 OLDE TOWNE AVENUE', '108 OLNEY SANDY SPRING RD/GEORGIA AVENUE', '108 OLNEY SANDY SPRING RD/SPARTAN RD', '108 ON QUEEN ELIZABETH DR', '108 ON S/B GEORGIA AVE', '108 PRIOR TO BRINK', '108 RIDGEMONT AVE', '108 SCHUYLER RD.', '108 UNIVERSITY BLVD W', '108 UNIVERSITY BLVD WEST', '108 WB / OLD BALTIMORE RD', '108 WB @ BOWIE MILL RD', '108 WB @ BROOKEVILLE RD', '108 WB @ GEORGIA AVE', '108 WB @ HEADWATERS DR', '108 WB @ MUNCASTER RD', '108 WB @ NORWOOD RD', '108 WB @ OLD BALTIMORE RD', '108 WB @ OLNEY MILL RD', '108 WB @ PRINCE PHILIP DR', '108 WB @ QUEEN ELIZABETH DR', '108 WB @ SPARTAN RD', '108 WB @ VILLAGE CENTER DRIVE', '108/  BOWIE MILL RD', '108/  GEORGIA', '108/ BOWIE MILL ROAD', '108/ DR BIRD DR', '108/ GEORGIA AVE', '108/ GEORGIA AVW', '108/ HERITAGE HILLS', '108/ HIDDEN GARDEN LA', '108/ HOMELAND DR.', '108/ NEW HAMPSHIRE AVE', '108/ NEW HAMPSHIRE RD.', '108/ OLD BALTIMORE', '108/ OLD BALTIMORE RD', '108/ OLD VIC BLVE', '108/ OLNEY MILL RD.', '108/ OLV VIC BVLD', '108/ PRINCE PHILIP DR', '108/ PRINCE PHILLIP', '108/ QUEEN ELIZABETH DR', '108/ QUEEN ELIZABETH DRIVE', '108/ SPARTAN', '108/ SPARTAN RD', '108/ SPARTAN RD.', '108/ SPARTAN ROAD', '108/ SPATRAN RD', '108/ ZION RD', '108/97', '108/ASHTON CLUB', '108/BALTIMORE', '108/BARTON MANOR LA', '108/BOWIE MILL', '108/BOWIE MILL RD', '108/BRIARS RD', '108/BRINK RD', '108/BROOKE RD', '108/BROOKE ROAD', '108/BROOKEVILLE ROAD', '108/DOCTOR BIRD RD', '108/DORSEY LANE', '108/DR BIRD', '108/DR BIRD RD', '108/DR BIRD ROAD', '108/DR. BIRDRD', '108/GEORGIA', '108/GEORGIA AVE', '108/GEORGIA AVENUE', '108/GLENDING', '108/GOLF ESTATES DR', '108/GOLF VIEW', '108/GOLF VIEW DR', '108/GRIFFITH RD', '108/HAWKINS CREAMERY', '108/HAWKINS CREAMERY RD', '108/HEADWATERS RD', '108/HERITAGE HILLS DR', '108/HERITAGE HILLS ROAD', '108/HOMELAND', '108/HOMELAND DR', '108/HOMELAND TER', '108/HOWARD CHAPEL', '108/MEETING HOUSE RD', '108/MT. OLNEY', '108/MUNCASTER', '108/NEW HAMPSHIRE AVE', '108/NEWHAMPSHIRE AVE', '108/NORWOOD RD', "108/O'HARA CIR", '108/OLD BALITMORE', '108/OLD BALTIMORE', '108/OLD BALTIMORE RD', '108/OLD BALTIMORE ROAD', '108/OLD VIC', '108/OLD VIC BLVD', '108/OLNEY MILL', '108/OLNEY MILL RD', '108/OLNEY MILL ROAD', '108/PRINCE PHILIP', '108/PRINCE PHILIP DR', '108/PRINCE PHILIP DRIVE', '108/PRINCE PHILIPS DR', '108/PRINCE PHILLIP', '108/PRINCE PHILLIP DR', '108/QUEEN ELIZABETH', '108/QUEEN ELIZABETH DR', '108/RIGGS ROAD', '108/SHERWOOD HS', '108/SPARTAN', '108/SPARTAN RD', '108/SPARTAN ROAD', '108/SUNDOWN RD', '108/SUNDOWN ROAD', '108/VILLAGE CENTER DR', '108/VOLUNTEER DRIVE', '108/WARFIELD', '108/WICKHAM', '10800 AMHERST AVE', '10800 AMHERST AVE.', '10800 BLK AMHERST SB', '10800 BLK BETHESDA CHURCH RD', '10800 BLK COLESVILLE RD', '10800 BLK GEORGIA AVE', '10800 BLK NB COLUMBIA PIKE', '10800 BLOCK AMHERST AVE', '10800 BLOCK AMHERST AVENUE', '10800 BLOCK OF AMHERST AVE', '10800 BLOCK OF MACARTHUR BLVD', '10800 BLOCK WESTLAKE DR', '10800 FALLS RD', '10800 FALLS ROAD', '10800 FALLS ROAD (HOLE 11)', '10800 GEORGI AVENUE', '10800 GEORGIA AVE', '10800 GEORGIA AVE AND 2300 WINDHAM AVE', '10800 GEORGIA AVE SILVER SPRING, MD', '10800 GEORGIA AVENUE', '10800 GLOXINIA DR', '10800 LOCKWOOD DR / RTE 29', '10800 LOCKWOOD DRIVE', '10800BLK LOCKWOOD DR', '10801 BLOCK OF MACARTHUR BLVD', '10801 GLEN RD', '10801 LOCKRIDGE', '10801 LOCKWOOD DR', '10801 LOCKWOOD DRIVE', '10801 MACARTHUR BLVD', '10802 GAINSBOROUGH RD', '10808 MONTROSE AVE', '10809 OLD GEORGETOWN RD', '10810 COLUMBIA PIKE', '10810 CONNECTICUT AVE', '10810 DARNESTOWN RD', '10810 DARNESTOWN ROAD', '10810 DARNESTWON ROAD', '10811 GEORGIA AVE', '10818 NEWPORT MILL RD', '10819 MADISON ST', '10820 GEORGIA AVE', '10820 GEORGIA AVE.', '10820 GEORGIA AVENUE', '10821 AMHERST AVE', '10821 MARGATE RD', '10832 GEORGIA AVE, WHEAT', '10839 GEORGIA AVE', '10839 GEORGIA AVENUE', '10851 AMHERST AVENUE', '10855 AMHERST AVE', '1086 RUATAN ST', '1086 TRAVIS LN', '10860 BETHESDA CHURCH RD', '10880 SYMPHONY PARK', '10881 LOCKWOOD DR', '10884 LOCKWOOD DR / 10898 MEADOWHILL RD', '108@ GEORGIA AVE', '108@ WARFIELD RD', '108@BURTFIELD RD', '108@MULLINIX MILL RD', '108@OLD VIC BLVD', '108AND OLD BALTIMORE RD', '108AND PRINCE PHILIP DR', '109 / 28', '109 / BIG WOODS', '109 / JERUSALEM RD', '109 @ 270 SB RAMP', '109 @ COMUS', '109 AND FISHER AVE', '109 AND PRINCE PHILLIP', '109 CROYDON CT', '109 E DIAMOND AVE', '109 EAST DIAMOND', '109 EAST DIAMOND AVE, GAITHERSBURG', '109 EMORY WOODS CT', '109 MIDDLE POINT COURT', '109 S. SUMMIT AVE', '109 SELLMAN', '109 UNIVERSITY BLVD W', '109/ COMUS', '109/ SELLMAN', '109/COMUS', '109/MOHAWK RUN', '10900 BLK BETHESDA CHURCH RD', '10900 BLK BETHESDA CHURCH RD EB', '10900 BLK BETHESDA CHURCH RD WB', '10900 BLK GEORGIA AVE (NB)', '10900 BLK OF BETHESDA CHURCH RD', '10900 BLK OF BETHESDA W/', '10900 BLK OF BETHESDA W/B', '10900 BLK OF GAINSBOROUGH RD', '10900 BLK WEST LAKE DRIVE', '10900 BLK WESTLAKE DR', '10900 BLK WESTLAKE DR, N/B', '10900 BLOCK BETESDA CHURCH RD WB', '10900 BLOCK BETHESDA CHURCH RD WB', '10900 BLOCK BETHESDA CHURCH ROAD', '10900 BLOCK GEORGIA AVENUE', '10900 BLOCK NEW HAMPSHIRE AVE', '10900 BLOCK OF DARNESTOWN RD', '10900 BLOCK OF W/B DARNESTOWN RD', '10900 BLOCK WESTLAKE DR', '10900 INWOOD AVE', '10900 ROCKVILLE PIKE', '10900 WATKINS MIL RD', '10900 WESTLAKE DR', '10900 WESTLAKE DRIVE', '10900BLK WESTLAKE DR', '10901 AMHERST AVE', '10901 BLK WESTLAKE DR', '10901 DARNESTOWN', '10901 GEORGIA AVE', '10901 GEORGIA AVE.', '10901 GEORGIA AVENUE', '10901 WEST LAKE DR', '10901 WESTLAKE', '10901 WESTLAKE DR', '10901 WESTLAKE DR.', '10901 WESTLAKE DRIVE', '10901 WESTLAKE DRIVE (MCPS BUS DEPOT)', '10903 AMHERST AVE', '10903 NEW HAMPSHIRE AVE', '10904 BETHESDA CHURCH RD', '10904 BETHESDA CHURCH RD WB', '10904 BETHESDA CHURCH ROAD', '10904 DAMASCUS CHURCH RD', '10905 AMHERST AVE', '10905 BARNWOOD LANE', '10907 AMHERST AVE', '10907AMHERST AVE., WHEATON MD', '10908 PINEYMEETING HOUSE RD', '10908 RAMPART WAY', '10910 BETHESDA CHURCH RD', '10910 NEW HAMPSHIRE AVE', '10910 OLD GEORGETOWN RD / 6000 LUX LA ,M', '109101 WESTLAKE DRIVE', '10914 GEORGIA AVE', '10914 GEORGIA AVE WHEATON MD 20902', '10920 INWOOD AVE. SILVER SPRING, MD.', '10924 NEW HAMPSHIRE AVE', '10925 AMHERST AVE', '1093 ROCKVILLE PIKE', '1093 ROCKVILLE PIKE, ROCKVILLE MD', '10937 ROCKY MOUNT WASY', '10949 AMHERST', '1098 KERWIN RD SILVER SPRING, MD', '10TH AVE @ OSAGE ST', '10TH AVENUE @ NAVAHOE DR', '11 DE SELLUM AVE', '11 E. DIAMOND AVE', '11 ELLSWORTH HEIGHTS ST', '11 FRANKLIN AVE', '11 MANOR SPRING COURT', '11 NAPA VALLEY ROAD', '11 NORTH WASHINGTON STREET', '110 DALE', '110 MEEM AVE.', '110 ODENDHAL AVE', '110 ODENHAL AVE', '110 SCHUYLER RD.', '110 UNIVERSITY BLVD SILVER SPRING', '110 UNIVERSITY BLVD W', '110 UNIVERSITY BLVD W (POST OFFICE)', '1100 ALLISON DR / 1500 LEWIS AVE ,RO', '1100 BLK BRIGGS CHANEY RD', '1100 BLK CLOPPER RD', '1100 BLK CRESTHAVEN DR', '1100 BLK EAST WEST HWY', '1100 BLK MAPLE AVE', '1100 BLK ROCKVILLE PIKE', '1100 BLOCK S/B FREDERICK RD', '1100 BLOCK VALLEYVIEW AVE', '1100 BLOCK VEIRS MILL RD', '1100 BONIFANT ST', '1100 BRIGGS CHANNEY RD', '1100 CORLISS ST', '1100 EAST WEST HIGHWAY', '1100 LEWIS AVE', '1100 OLNEY SANDY SPRING ROAD/ 17898 NORW', '1100 ROCKVILLE', '1100 ROCKVILLE PIK / 100 TALBOTT ST', '1100 ROCKVILLE PIKE', '1100 VEIRS MILL RD @ EDMONSTON DR', '1100 WAYNE AVE', '11000 BLK VIERS MILL RD', '11000 BLOCK DARNESTOWN RD', '11000 BLOCK GEORGIA AVE', '11000 BLOCK GRANDVIEW AVE', '11000 BLOCK OF GEORGIA AVE', '11000 BLOCK SUNCREST ROAD', '11000 MARCLIFF RD / 6300 TUCKERMAN LA ,M', '11000 NEW HAMPSHIRE AVE', '11000 NEWPORT MILL ROAD', '11000 OLD GEORGETOWN RD / 6100 TUCKERMAN', '11001GLEN RD', '11005 NEWPORT MILL RD', '11006 NEWPORT MILL RD', '11006 VEIRS MILL RD', '11006 VEIRS MILL ROAD', '11006 VIERS MILL ROAD', '11009 AMHERST AVE', '1101 CHISWELL LANE', '1101 CLOPPER RD', '1101 LAMBERTON DR', '1101 WOOTTON PKWY', '11010 ROCKVILLE PIKE', '11010 VEIRS MILL RD', '11010 VEIRS MILL ROAD', '11010 VIERS MILL RD', '11016 NEW HAMPSHIRE AVENUE', '11017 TEREVA CT', '1102 LAMBERTON DR', '11022 BURNLEY TERRACE', '11023 GRASSY KNOLL TER', '11024 GRASSY KNOLL TERRACE', '11025 LOCKWOOD DR.', '1103 CHRESTHAVEN DR', '1103 QUEBEC ST', '1103 QUEBEC STREET', '11030 VEIRS MILL RD', "11</t>
         </is>
@@ -927,18 +1031,28 @@
       <c r="P8" t="n">
         <v>73031</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>77.0429933333333</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>73031</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>10374357</v>
       </c>
-      <c r="S8" t="n">
+      <c r="W8" t="n">
         <v>275727</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['-73.4501783333333', '-74.7999233333333', '-76.0514883333333', '-76.64085', '-76.6973983333333', '-76.7599316666667', '-76.8055083333333', '-76.8056633333333', '-76.8059216666667', '-76.837895', '-76.8577516666667', '-76.910315', '-76.91044', '-76.9107066666667', '-76.915005', '-76.91548', '-76.9159516666667', '-76.916185', '-76.917005', '-76.9170833333333', '-76.9173283333333', '-76.9175883333333', '-76.91885', '-76.918875', '-76.9189033333333', '-76.9190366666667', '-76.9191616666667', '-76.9193433333333', '-76.9197166666667', '-76.9200633333333', '-76.9202533333333', '-76.92028', '-76.9204216666667', '-76.92054', '-76.92058', '-76.9206483333333', '-76.9206683333333', '-76.920895', '-76.9209116666667', '-76.92092', '-76.9209383333333', '-76.9209583333333', '-76.9210566666667', '-76.9211266666667', '-76.9211816666667', '-76.9211933333333', '-76.9213383333333', '-76.9213666666667', '-76.92149', '-76.9217716666667', '-76.921825', '-76.9218583333333', '-76.9219416666667', '-76.9219633333333', '-76.9219783333333', '-76.9220383333333', '-76.9220833333333', '-76.9221033333333', '-76.9223766666667', '-76.9224033333333', '-76.9224183333333', '-76.9224416666667', '-76.922465', '-76.9225166666667', '-76.92258', '-76.9228516666667', '-76.9230916666667', '-76.9232233333333', '-76.923235', '-76.9234266666667', '-76.9236066666667', '-76.9244016666667', '-76.9247733333333', '-76.9248866666667', '-76.9253316666667', '-76.925605', '-76.9256416666667', '-76.9258216666667', '-76.92606', '-76.9267666666667', '-76.9272833333333', '-76.9276716666667', '-76.9277766666667', '-76.92785', '-76.92807', '-76.9281783333333', '-76.928475', '-76.9285583333333', '-76.9286316666667', '-76.9286566666667', '-76.928725', '-76.9287383333333', '-76.92875', '-76.928765', '-76.9287666666667', '-76.9291983333333', '-76.9295733333333', '-76.9296366666667', '-76.92965', '-76.929795', '-76.9299683333333', '-76.930035', '-76.930055', '-76.930065', '-76.9300716666667', '-76.9300916666667', '-76.9300983333333', '-76.9301083333333', '-76.9301283333333', '-76.9301533333333', '-76.9301683333333', '-76.93019', '-76.9301916666667', '-76.93022', '-76.9302333333333', '-76.9302583333333', '-76.9302666666667', '-76.9302733333333', '-76.9303083333333', '-76.9303616666667', '-76.93037', '-76.9304316666667', '-76.9304333333333', '-76.930435', '-76.9304616666667', '-76.930465', '-76.9304733333333', '-76.9304966666667', '-76.930525', '-76.9305433333333', '-76.93056', '-76.930665', '-76.9307033333333', '-76.93071', '-76.93079', '-76.9308016666667', '-76.9308116666667', '-76.9309033333333', '-76.930915', '-76.9309283333333', '-76.9310466666667', '-76.9310533333333', '-76.9310666666667', '-76.9311433333333', '-76.9311583333333', '-76.9312216666667', '-76.9312366666667', '-76.9313433333333', '-76.9314016666667', '-76.9314066666667', '-76.9314116666667', '-76.9314333333333', '-76.93146', '-76.9315633333333', '-76.9315866666667', '-76.9317683333333', '-76.9318233333333', '-76.9318283333333', '-76.931885', '-76.93196', '-76.9319733333333', '-76.9320633333333', '-76.9321333333333', '-76.9322', '-76.9322766666667', '-76.9322983333333', '-76.93232', '-76.932325', '-76.93234', '-76.9323833333333', '-76.9324516666667', '-76.9324816666667', '-76.9324866666667', '-76.9325116666667', '-76.9325383333333', '-76.932545', '-76.93264', '-76.93265', '-76.9326816666667', '-76.9327183333333', '-76.93274', '-76.9327666666667', '-76.9327766666667', '-76.9327833333333', '-76.9327883333333', '-76.9328133333333', '-76.932825', '-76.932875', '-76.9328783333333', '-76.9328833333333', '-76.9329566666667', '-76.9330166666667', '-76.9331133333333', '-76.9331183333333', '-76.93313', '-76.933215', '-76.9334766666667', '-76.9335116666667', '-76.9335166666667', '-76.93354', '-76.93359', '-76.9336433333333', '-76.933665', '-76.9336683333333', '-76.9337016666667', '-76.933745', '-76.933755', '-76.9337683333333', '-76.93377', '-76.9337716666667', '-76.9337916666667', '-76.9337933333333', '-76.9337983333333', '-76.9338033333333', '-76.933825', '-76.9338333333333', '-76.9338466666667', '-76.933875', '-76.93389', '-76.9339416666667', '-76.934', '-76.934045', '-76.9340566666667', '-76.9340983333333', '-76.9341183333333', '-76.934125', '-76.9341333333333', '-76.934155', '-76.9341933333333', '-76.9342583333333', '-76.9342883333333', '-76.934295', '-76.9343166666667', '-76.934335', '-76.9343666666667', '-76.9343883333333', '-76.93451', '-76.9345333333333', '-76.9345366666667', '-76.93461', '-76.9346116666667', '-76.9346133333333', '-76.934615', '-76.9346466666667', '-76.9346666666667', '-76.9347016666667', '-76.93471', '-76.9347316666667', '-76.93477', '-76.9347733333333', '-76.9348166666667', '-76.9348516666667', '-76.9348883333333', '-76.9349733333333', '-76.9349766666667', '-76.935065', '-76.93507', '-76.935115', '-76.9351566666667', '-76.9351833333333', '-76.9352116666667', '-76.9352316666667', '-76.9352416666667', '-76.9353016666667', '-76.93531', '-76.93544', '-76.93552', '-76.9355666666667', '-76.9356483333333', '-76.9356933333333', '-76.9358133333333', '-76.9358233333333', '-76.93585', '-76.9359233333333', '-76.935955', '-76.9359966666667', '-76.93604', '-76.9360583333333', '-76.93609', '-76.9361233333333', '-76.93614', '-76.9361566666667', '-76.9361933333333', '-76.9362533333333', '-76.9362583333333', '-76.9363133333333', '-76.9363433333333', '-76.936355', '-76.936475', '-76.936525', '-76.936535', '-76.9365466666667', '-76.9366016666667', '-76.93662', '-76.9366483333333', '-76.93669', '-76.93671', '-76.936715', '-76.9368983333333', '-76.9369283333333', '-76.936945', '-76.9369516666667', '-76.9369733333333', '-76.936995', '-76.937085', '-76.9370866666667', '-76.937115', '-76.937155', '-76.9371716666667', '-76.9371833333333', '-76.937185', '-76.9372033333333', '-76.9372133333333', '-76.937215', '-76.9372166666667', '-76.937225', '-76.93723', '-76.93725', '-76.937255', '-76.9372683333333', '-76.9372716666667', '-76.937275', '-76.9372783333333', '-76.9372966666667', '-76.93731', '-76.9373183333333', '-76.9373233333333', '-76.937325', '-76.9373266666667', '-76.9373283333333', '-76.9373316666667', '-76.9373333333333', '-76.93734', '-76.9373583333333', '-76.9373783333333', '-76.9373933333333', '-76.9373966666667', '-76.9374233333333', '-76.9374733333333', '-76.9375333333333', '-76.9376316666667', '-76.9379016666667', '-76.9379083333333', '-76.9379916666667', '-76.9380166666667', '-76.938085', '-76.93809', '-76.9381', '-76.938105', '-76.9381333333333', '-76.938135', '-76.938145', '-76.93821', '-76.9382216666667', '-76.93826', '-76.9383683333333', '-76.9384', '-76.9384833333333', '-76.9385116666667', '-76.938525', '-76.938545', '-76.9385933333333', '-76.938595', '-76.9386133333333', '-76.9386966666667', '-76.9387166666667', '-76.9387266666667', '-76.9387683333333', '-76.9387733333333', '-76.938785', '-76.938795', '-76.9388783333333', '-76.9388983333333', '-76.9389433333333', '-76.9389966666667', '-76.9391316666667', '-76.939155', '-76.93917', '-76.9391783333333', '-76.9392016666667', '-76.9392333333333', '-76.9394083333333', '-76.9394116666667', '-76.93942', '-76.939435', '-76.9394683333333', '-76.9394816666667', '-76.9395316666667', '-76.9396333333333', '-76.9396433333333', '-76.939665', '-76.9397383333333', '-76.9397566666667', '-76.9397633333333', '-76.93977', '-76.9397816666667', '-76.939795', '-76.9398283333333', '-76.9398316666667', '-76.9398383333333', '-76.939845', '-76.9398466666667', '-76.9398516666667', '-76.9398566666667', '-76.9398616666667', '-76.9398633333333', '-76.9398733333333', '-76.9398783333333', '-76.9398833333333', '-76.9398866666667', '-76.9398883333333', '-76.9398916666667', '-76.939895', '-76.9399', '-76.9399033333333', '-76.939905', '-76.9399066666667', '-76.9399083333333', '-76.9399116666667', '-76.939915', '-76.9399166666667', '-76.9399333333333', '-76.939935', '-76.9399466666667', '-76.9399483333333', '-76.9399516666667', '-76.9399566666667', '-76.9399583333333', '-76.939965', '-76.9399716666667', '-76.9399766666667', '-76.93999', '-76.9400033333333', '-76.9400083333333', '-76.9400266666667', '-76.9400283333333', '-76.9400766666667', '-76.9400866666667', '-76.9400966666667', '-76.9401483333333', '-76.94022', '-76.9402216666667', '-76.9402483333333', '-76.9402516666667', '-76.94026', '-76.9402616666667', '-76.9402666666667', '-76.9403366666667', '-76.9403383333333', '-76.9403733333333', '-76.940395', '-76.9405266666667', '-76.940565', '-76.9407416666667', '-76.9408516666667', '-76.9408616666667', '-76.94092', '-76.94097', '-76.9410866666667', '-76.9410983333333', '-76.9412883333333', '-76.941295', '-76.9413083333333', '-76.9413316666667', '-76.9414533333333', '-76.9414716666667', '-76.9415083333333', '-76.94156', '-76.94157', '-76.9415766666667', '-76.941675', '-76.941695', '-76.9417033333333', '-76.941815', '-76.9418433333333', '-76.94185', '-76.94186', '-76.9419683333333', '-76.9420016666667', '-76.942025', '-76.9420983333333', '-76.942275', '-76.9423366666667', '-76.9423383333333', '-76.9423966666667', '-76.942425', '-76.94282', '-76.9428833333333', '-76.9428916666667', '-76.9429083333333', '-76.9429283333333', '-76.9429316666667', '-76.9429416666667', '-76.9430583333333', '-76.943105', '-76.94318', '-76.9432433333333', '-76.9432583333333', '-76.943295', '-76.9432966666667', '-76.94331', '-76.9433333333333', '-76.9433366666667', '-76.9434383333333', '-76.9434916666667', '-76.94355', '-76.9435883333333', '-76.9436433333333', '-76.943755', '-76.94377', '-76.9438016666667', '-76.9438633333333', '-76.94393', '-76.9439366666667', '-76.9441233333333', '-76.9441466666667', '-76.944195', '-76.9442583333333', '-76.9442633333333', '-76.9442733333333', '-76.9443166666667', '-76.9443183333333', '-76.944355', '-76.9443766666667', '-76.9444516666667', '-76.9445116666667', '-76.944565', '-76.9445883333333', '-76.9446083333333', '-76.94461', '-76.94467', '-76.944675', '-76.944695', '-76.944795', '-76.9447966666667', '-76.94481', '-76.9448566666667', '-76.9448633333333', '-76.9448783333333', '-76.9448983333333', '-76.9449083333333', '-76.944945', '-76.9449716666667', '-76.9449766666667', '-76.9450016666667', '-76.945005', '-76.9450283333333', '-76.9450583333333', '-76.9450716666667', '-76.9450883333333', '-76.9451316666667', '-76.9451383333333', '-76.9451666666667', '-76.9451716666667', '-76.9452183333333', '-76.9453166666667', '-76.945335', '-76.94536', '-76.9453866666667', '-76.9454116666667', '-76.9454383333333', '-76.9454566666667', '-76.945475', '-76.9454966666667', '-76.9454983333333', '-76.9455183333333', '-76.945565', '-76.9455683333333', '-76.9456083333333', '-76.9456183333333', '-76.9456283333333', '-76.945635', '-76.9457383333333', '-76.94574', '-76.94575', '-76.9457516666667', '-76.9457583333333', '-76.945805', '-76.9458783333333', '-76.9458966666667', '-76.9459233333333', '-76.9459266666667', '-76.9459316666667', '-76.94594', '-76.9460266666667', '-76.9461533333333', '-76.9461583333333', '-76.946165', '-76.94626', '-76.9463433333333', '-76.946395', '-76.9464633333333', '-76.9464766666667', '-76.9465', '-76.946515', '-76.9465583333333', '-76.94656', '-76.9465616666667', '-76.9465766666667', '-76.9465783333333', '-76.9466633333333', '-76.946665', '-76.946675', '-76.9466866666667', '-76.9466933333333', '-76.946745', '-76.946755', '-76.94677', '-76.94678', '-76.94682', '-76.94683', '-76.94684', '-76.9468733333333', '-76.9469', '-76.9469283333333', '-76.9469366666667', '-76.9469683333333', '-76.946985', '-76.94699', '-76.9469916666667', '-76.9469983333333', '-76.9470233333333', '-76.9470466666667', '-76.9470916666667', '-76.9471983333333', '-76.94733', '-76.9473383333333', '-76.9473866666667', '-76.94739', '-76.9474016666667', '-76.94742', '-76.94754', '-76.947605', '-76.9476166666667', '-76.94762', '-76.9476333333333', '-76.9476466666667', '-76.9476583333333', '-76.94766', '-76.9476816666667', '-76.9476933333333', '-76.9477283333333', '-76.947735', '-76.9478283333333', '-76.9478516666667', '-76.9479516666667', '-76.9480216666667', '-76.9480566666667', '-76.9481683333333', '-76.948235', '-76.94825', '-76.9483116666667', '-76.9483216666667', '-76.9483266666667', '-76.9483333333333', '-76.9483616666667', '-76.9483866666667', '-76.9484816666667', '-76.94852', '-76.94857', '-76.9485766666667', '-76.9486133333333', '-76.9486316666667', '-76.94868', '-76.948715', '-76.948735', '-76.9487433333333', '-76.9488383333333', '-76.9488816666667', '-76.9489516666667', '-76.949025', '-76.9490416666667', '-76.94913', '-76.9491516666667', '-76.9492266666667', '-76.94924', '-76.949255', '-76.949265', '-76.9493083333333', '-76.949325', '-76.94948', '-76.9497683333333', '-76.9498966666667', '-76.9499033333333', '-76.9499166666667', '-76.9499966666667', '-76.950075', '-76.95009', '-76.9500966666667', '-76.9501266666667', '-76.9501733333333', '-76.950195', '-76.9502083333333', '-76.9502416666667', '-76.9502566666667', '-76.9502933333333', '-76.9503116666667', '-76.95035', '-76.9503966666667', '-76.9504083333333', '-76.9504183333333', '-76.9504366666667', '-76.9505133333333', '-76.95053', '-76.9505483333333', '-76.9505916666667', '-76.9505966666667', '-76.9506083333333', '-76.9506583333333', '-76.9506983333333', '-76.9507083333333', '-76.95073', '-76.9507783333333', '-76.9507916666667', '-76.9507983333333', '-76.9508216666667', '-76.95084', '-76.9508433333333', '-76.95086', '-76.95087', '-76.9509066666667', '-76.9509316666667', '-76.950935', '-76.9509533333333', '-76.951005', '-76.95102', '-76.9510333333333', '-76.9511566666667', '-76.9512166666667', '-76.9512266666667', '-76.9512283333333', '-76.9513516666667', '-76.9513583333333', '-76.9514116666667', '-76.9514966666667', '-76.9515616666667', '-76.951595', '-76.9516116666667', '-76.951615', '-76.9516283333333', '-76.951675', '-76.9517366666667', '-76.951785', '-76.9517933333333', '-76.95185', '-76.9518516666667', '-76.9518666666667', '-76.951875', '-76.9518933333333', '-76.9519016666667', '-76.951915', '-76.9519166666667', '-76.9519266666667', '-76.95193', '-76.9519416666667', '-76.9519433333333', '-76.9519533333333', '-76.9519683333333', '-76.9519816666667', '-76.9519833333333', '-76.9519883333333', '-76.95199', '-76.9519933333333', '-76.952005', '-76.9520416666667', '-76.9520883333333', '-76.9521366666667', '-76.952145', '-76.9521533333333', '-76.9521833333333', '-76.95219', '-76.9522016666667', '-76.952205', '-76.9522133333333', '-76.9522216666667', '-76.9522433333333', '-76.9522566666667', '-76.95227', '-76.9522783333333', '-76.9522933333333', '-76.9522966666667', '-76.9523', '-76.9523183333333', '-76.95233', '-76.9523333333333', '-76.9523433333333', '-76.9523466666667', '-76.9524016666667', '-76.9524233333333', '-76.95244', '-76.952445', '-76.95245', '-76.9525133333333', '-76.952535', '-76.95254', '-76.9525666666667', '-76.9525733333333', '-76.952575', '-76.95259', '-76.9526033333333', '-76.9526233333333', '-76.9526316666667', '-76.9526433333333', '-76.9526716666667', '-76.9527033333333', '-76.9527716666667', '-76.952805', '-76.9528116666667', '-76.952815', '-76.9528166666667', '-76.952835', '-76.9528483333333', '-76.9528516666667', '-76.9528816666667', '-76.9528883333333', '-76.952895', '-76.9528966666667', '-76.9529083333333', '-76.95291', '-76.9529183333333', '-76.9529366666667', '-76.9529466666667', '-76.952965', '-76.9529683333333', '-76.9529716666667', '-76.9530483333333', '-76.9530683333333', '-76.953125', '-76.9531633333333', '-76.9531666666667', '-76.9531883333333', '-76.9532166666667', '-76.95322', '-76.9532583333333', '-76.9532716666667', '-76.9533233333333', '-76.953335', '-76.9533383333333', '-76.95337', '-76.9533766666667', '-76.9533966666667', '-76.9534016666667', '-76.9534116666667', '-76.9534133333333', '-76.9534166666667', '-76.953435', '-76.9534516666667', '-76.9534683333333', '-76.953475', '-76.9534766666667', '-76.9534833333333', '-76.9535016666667', '-76.9535283333333', '-76.95353', '-76.9535316666667', '-76.9535333333333', '-76.95354', '-76.95355', '-76.9535866666667', '-76.9536', '-76.953645', '-76.953665', '-76.9536666666667', '-76.9537483333333', '-76.9537766666667', '-76.9537866666667', '-76.9538116666667', '-76.9538433333333', '-76.953845', '-76.95385', '-76.9538583333333', '-76.9538816666667', '-76.9538916666667', '-76.9539183333333', '-76.9539333333333', '-76.953935', '-76.9539483333333', '-76.9539566666667', '-76.953965', '-76.9539783333333', '-76.9539833333333', '-76.95399', '-76.9539966666667', '-76.9540566666667', '-76.9540583333333', '-76.95408', '-76.9540866666667', '-76.9540983333333', '-76.954125', '-76.9541266666667', '-76.9541433333333', '-76.9541583333333', '-76.9541666666667', '-76.95417', '-76.954225', '-76.95423', '-76.9542683333333', '-76.9542866666667', '-76.9543033333333', '-76.9543466666667', '-76.9543483333333', '-76.9543516666667', '-76.9543616666667', '-76.95438', '-76.95439', '-76.9544316666667', '-76.9544566666667', '-76.9544583333333', '-76.954475', '-76.9544833333333', '-76.9545066666667', '-76.9545183333333', '-76.9545616666667', '-76.954575', '-76.95458', '-76.9545933333333', '-76.95461', '-76.9546216666667', '-76.9546283333333', '-76.9546916666667', '-76.954695', '-76.954775', '-76.9548383333333', '-76.95484', '-76.9548666666667', '-76.9549083333333', '-76.9549483333333', '-76.9549533333333', '-76.954985', '-76.9549966666667', '-76.9550233333333', '-76.9550516666667', '-76.9550666666667', '-76.9550683333333', '-76.9551066666667', '-76.955155', '-76.9552016666667', '-76.9552233333333', '-76.9552283333333', '-76.95525', '-76.9553133333333', '-76.95532', '-76.955335', '-76.9554416666667', '-76.9554666666667', '-76.9554983333333', '-76.9555116666667', '-76.955535', '-76.9555416666667', '-76.9555516666667', '-76.95558', '-76.95562', '-76.955645', '-76.955655', '-76.9556683333333', '-76.9556866666667', '-76.9558116666667', '-76.9558516666667', '-76.9559033333333', '-76.955905', '-76.955945', '-76.9559566666667', '-76.95597', '-76.9559866666667', '-76.9560266666667', '-76.9560366666667', '-76.9560466666667', '-76.95612', '-76.9561583333333', '-76.9561633333333', '-76.9561683333333', '-76.95618', '-76.9561966666667', '-76.9562383333333', '-76.9562583333333', '-76.95627', '-76.9563366666667', '-76.95634', '-76.9564216666667', '-76.9564533333333', '-76.9564716666667', '-76.9564966666667', '-76.9565466666667', '-76.9566', '-76.95664', '-76.9566533333333', '-76.956695', '-76.9567166666667', '-76.9567333333333', '-76.9567516666667', '-76.9567566666667', '-76.9567816666667', '-76.9567916666667', '-76.9567933333333', '-76.9568083333333', '-76.9568316666667', '-76.956885', '-76.9569766666667', '-76.95698', '-76.9570283333333', '-76.957045', '-76.9570533333333', '-76.9570766666667', '-76.957105', '-76.9571083333333', '-76.957165', '-76.9572483333333', '-76.9572583333333', '-76.95727', '-76.9572716666667', '-76.9572733333333', '-76.9573', '-76.957335', '-76.9573783333333', '-76.9573933333333', '-76.9574433333333', '-76.9574683333333', '-76.95749', '-76.957505', '-76.9575083333333', '-76.9575133333333', '-76.9575166666667', '-76.9575183333333', '-76.957535', '-76.9575816666667', '-76.9575916666667', '-76.9577283333333', '-76.9577683333333', '-76.9578233333333', '-76.957895', '-76.9579066666667', '-76.9579083333333', '-76.9580316666667', '-76.9580383333333', '-76.9580616666667', '-76.9580866666667', '-76.958115', '-76.958205', '-76.9582266666667', '-76.9582316666667', '-76.9582433333333', '-76.95827', '-76.95829', '-76.9582916666667', '-76.95834', '-76.9583716666667', '-76.9583866666667', '-76.9584183333333', '-76.9584516666667', '-76.9584783333333', '-76.95849', '-76.9585716666667', '-76.9585783333333', '-76.9585883333333', '-76.958635', '-76.9586433333333', '-76.9586533333333', '-76.95873', '-76.9587333333333', '-76.9587466666667', '-76.9588516666667', '-76.9588716666667', '-76.9591933333333', '-76.9592033333333', '-76.9592333333333', '-76.9592383333333', '-76.9592516666667', '-76.9592616666667', '-76.9593016666667', '-76.9593066666667', '-76.9594516666667', '-76.9596033333333', '-76.9596333333333', '-76.9597183333333', '-76.95976', '-76.9597916666667', '-76.9598116666667', '-76.9598416666667', '-76.959905', '-76.960065', '-76.9600716666667', '-76.96008', '-76.960115', '-76.960145', '-76.9602033333333', '-76.9602083333333', '-76.9602216666667', '-76.960245', '-76.96026', '-76.9602633333333', '-76.9603683333333', '-76.9603716666667', '-76.9603766666667', '-76.9603883333333', '-76.96045', '-76.9604633333333', '-76.96048', '-76.9605783333333', '-76.960615', '-76.9606416666667', '-76.96066', '-76.96067', '-76.9606883333333', '-76.96069', '-76.9607083333333', '-76.9607516666667', '-76.9607583333333', '-76.9608333333333', '-76.960835', '-76.9608833333333', '-76.9608883333333', '-76.960895', '-76.9608966666667', '-76.9609116666667', '-76.9609183333333', '-76.9609266666667', '-76.9611', '-76.9611033333333', '-76.9611383333333', '-76.961155', '-76.961245', '-76.9612566666667', '-76.9612783333333', '-76.9612866666667', '-76.9613516666667', '-76.96139', '-76.9614416666667', '-76.9615866666667', '-76.9616716666667', '-76.961715', '-76.961765', '-76.9617716666667', '-76.9618733333333', '-76.9618883333333', '-76.9619683333333', '-76.961985', '-76.962005', '-76.962015', '-76.9620483333333', '-76.9620533333333', '-76.9620683333333', '-76.9620733333333', '-76.9620916666667', '-76.9620966666667', '-76.9621816666667', '-76.9621866666667', '-76.9621916666667', '-76.9622266666667', '-76.9622466666667', '-76.9622583333333', '-76.9622933333333', '-76.962355', '-76.9623883333333', '-76.9624133333333', '-76.9624633333333', '-76.9624833333333', '-76.9625066666667', '-76.962515', '-76.9626066666667', '-76.9626766666667', '-76.9627883333333', '-76.9628733333333', '-76.9628983333333', '-76.9629283333333', '-76.9629466666667', '-76.9630716666667', '-76.96312', '-76.9632366666667', '-76.963315', '-76.963355', '-76.9633966666667', '-76.963475', '-76.9635116666667', '-76.96356', '-76.963615', '-76.9636533333333', '-76.963655', '-76.96366', '-76.9637516666667', '-76.9639016666667', '-76.9639716666667', '-76.963975', '-76.9640116666667', '-76.964025', '-76.9640866666667', '-76.9642166666667', '-76.96422', '-76.9643183333333', '-76.9643233333333', '-76.9643866666667', '-76.964415', '-76.9644433333333', '-76.9644516666667', '-76.9645633333333', '-76.96461', '-76.96463', '-76.9647216666667', '-76.96481', '-76.9648216666667', '-76.9648733333333', '-76.9648783333333', '-76.9649033333333', '-76.96492', '-76.9650316666667', '-76.96504', '-76.9650966666667', '-76.9651783333333', '-76.9651866666667', '-76.9652316666667', '-76.96527', '-76.9653333333333', '-76.965335', '-76.965365', '-76.9653783333333', '-76.9653816666667', '-76.9654016666667', '-76.9654033333333', '-76.96542', '-76.9654366666667', '-76.9654816666667', '-76.9655416666667', '-76.965665', '-76.965685', '-76.9657266666667', '-76.96586', '-76.9659033333333', '-76.9659966666667', '-76.966045', '-76.966075', '-76.9661933333333', '-76.96627', '-76.9662766666667', '-76.9662816666667', '-76.9662966666667', '-76.96632', '-76.966335', '-76.96636', '-76.9665166666667', '-76.96652', '-76.9665216666667', '-76.9665433333333', '-76.9665866666667', '-76.96659', '-76.9666033333333', '-76.9666083333333', '-76.9666183333333', '-76.9667183333333', '-76.9667383333333', '-76.9667566666667', '-76.9667916666667', '-76.9669316666667', '-76.966945', '-76.9669966666667', '-76.9670466666667', '-76.967055', '-76.9670683333333', '-76.9671016666667', '-76.9671766666667', '-76.9671933333333', '-76.967225', '-76.9672683333333', '-76.9672733333333', '-76.9672766666667', '-76.9672933333333', '-76.9673183333333', '-76.9673433333333', '-76.9673466666667', '-76.9673566666667', '-76.9674883333333', '-76.9675083333333', '-76.967515', '-76.9675366666667', '-76.9676183333333', '-76.9676383333333', '-76.9676783333333', '-76.96774', '-76.9678083333333', '-76.967815', '-76.9678766666667', '-76.967925', '-76.9679433333333', '-76.967955', '-76.9679966666667', '-76.9681966666667', '-76.9682516666667', '-76.968265', '-76.96828', '-76.968285', '-76.9683166666667', '-76.9683633333333', '-76.968465', '-76.96853', '-76.968655', '-76.9686816666667', '-76.96869', '-76.968705', '-76.9687433333333', '-76.9687683333333', '-76.9688266666667', '-76.96888', '-76.9689033333333', '-76.9689283333333', '-76.9689366666667', '-76.9689966666667', '-76.9690433333333', '-76.969045', '-76.9690933333333', '-76.9690983333333', '-76.9691', '-76.9691516666667', '-76.9691583333333', '-76.9691633333333', '-76.9691866666667', '-76.969205', '-76.9692133333333', '-76.969215', '-76.9692266666667', '-76.9692533333333', '-76.9692633333333', '-76.9692783333333', '-76.9692916666667', '-76.9692966666667', '-76.9693066666667', '-76.969345', '-76.9693566666667', '-76.9694016666667', '-76.969425', '-76.96945', '-76.9694966666667', '-76.96952', '-76.9695766666667', '-76.9696933333333', '-76.96976', '-76.9698016666667', '-76.969805', '-76.9698516666667', '-76.9698616666667', '-76.9698733333333', '-76.96989', '-76.9698966666667', '-76.9699266666667', '-76.9699316666667', '-76.9699516666667', '-76.969995', '-76.9700033333333', '-76.970045', '-76.97007', '-76.9701', '-76.9701116666667', '-76.9702233333333', '-76.970235', '-76.9702466666667', '-76.9702616666667', '-76.9702983333333', '-76.9703083333333', '-76.9703333333333', '-76.970365', '-76.9703783333333', '-76.9704083333333', '-76.970455', '-76.9704916666667', '-76.9705083333333', '-76.9705116666667', '-76.9705533333333', '-76.9706383333333', '-76.9707', '-76.9707166666667', '-76.9707283333333', '-76.970735', '-76.9707816666667', '-76.97081', '-76.9708916666667', '-76.970895', '-76.97094', '-76.9709683333333', '-76.97105', '-76.9710683333333', '-76.9710866666667', '-76.971095', '-76.97114', '-76.97116', '-76.9711833333333', '-76.971185', '-76.9712966666667', '-76.9713333333333', '-76.971335', '-76.9713933333333', '-76.9714183333333', '-76.9715583333333', '-76.9715983333333', '-76.97161', '-76.9716683333333', '-76.9716816666667', '-76.97172', '-76.97173', '-76.9718', '-76.9718183333333', '-76.9718366666667', '-76.9718383333333', '-76.9718633333333', '-76.9719116666667', '-76.97207', '-76.9721066666667', '-76.9721316666667', '-76.9725133333333', '-76.972525', '-76.97255', '-76.9727583333333', '-76.9728183333333', '-76.97294', '-76.9729616666667', '-76.973115', '-76.9731783333333', '-76.9732133333333', '-76.9733283333333', '-76.973425', '-76.97349', '-76.97356', '-76.9736266666667', '-76.9740383333333', '-76.97405', '-76.9740733333333', '-76.9741783333333', '-76.9742283333333', '-76.9742866666667', '-76.9746166666667', '-76.9746366666667', '-76.97467', '-76.9749033333333', '-76.97502', '-76.9750966666667', '-76.97524', '-76.975245', '-76.9753916666667', '-76.975405', '-76.97545', '-76.975455', '-76.97546', '-76.975475', '-76.97549', '-76.97551', '-76.9755283333333', '-76.975535', '-76.9755833333333', '-76.97562', '-76.9756216666667', '-76.97564', '-76.9756516666667', '-76.9756533333333', '-76.9756616666667', '-76.9756666666667', '-76.9756733333333', '-76.9759083333333', '-76.97593', '-76.9759716666667', '-76.9760333333333', '-76.9760716666667', '-76.976075', '-76.9760783333333', '-76.9761866666667', '-76.9762616666667', '-76.976285', '-76.97636', '-76.9763616666667', '-76.976405', '-76.9764183333333', '-76.9764266666667', '-76.976435', '-76.9764466666667', '-76.9764633333333', '-76.9764716666667', '-76.9764733333333', '-76.9764883333333', '-76.9764933333333', '-76.9764966666667', '-76.976505', '-76.97651', '-76.97653', '-76.9765466666667', '-76.9765516666667', '-76.9765566666667', '-76.9765583333333', '-76.9765633333333', '-76.9765683333333', '-76.9765816666667', '-76.9765833333333', '-76.97659', '-76.97661', '-76.9766416666667', '-76.9766516666667', '-76.9766783333333', '-76.9766916666667', '-76.976705', '-76.9767216666667', '-76.9767233333333', '-76.976745', '-76.9767666666667', '-76.97677', '-76.976775', '-76.9767766666667', '-76.9767916666667', '-76.976795', '-76.9768166666667', '-76.9768283333333', '-76.97687', '-76.9768766666667', '-76.9768783333333', '-76.97688', '-76.9769016666667', '-76.9769033333333', '-76.976905', '-76.9769166666667', '-76.9769283333333', '-76.97693', '-76.9769316666667', '-76.9769333333333', '-76.9769366666667', '-76.9769483333333', '-76.976955', '-76.97696', '-76.9769633333333', '-76.977', '-76.9770183333333', '-76.9770233333333', '-76.9770533333333', '-76.9770583333333', '-76.97706', '-76.9770866666667', '-76.9770883333333', '-76.9770983333333', '-76.9771166666667', '-76.9771183333333', '-76.9771416666667', '-76.97717', '-76.9771766666667', '-76.9771816666667', '-76.9772183333333', '-76.9772266666667', '-76.97723', '-76.977235', '-76.9772583333333', '-76.9772666666667', '-76.9772933333333', '-76.9773283333333', '-76.9773483333333', '-76.9773533333333', '-76.9773816666667', '-76.9773966666667', '-76.977445', '-76.977465', '-76.9774783333333', '-76.977525', '-76.9775383333333', '-76.9775683333333', '-76.9775716666667', '-76.9775916666667', '-76.9775966666667', '-76.9776333333333', '-76.9776466666667', '-76.977655', '-76.977685', '-76.9776966666667', '-76.9777083333333', '-76.9777216666667', '-76.9777233333333', '-76.9777533333333', '-76.9777583333333', '-76.97777', '-76.977775', '-76.9777916666667', '-76.977795', '-76.9778033333333', '-76.9778633333333', '-76.977865', '-76.9778716666667', '-76.9778733333333', '-76.97789', '-76.9778966666667', '-76.9779366666667', '-76.9779433333333', '-76.9779483333333', '-76.9779633333333', '-76.9779683333333', '-76.9779733333333', '-76.978', '-76.9780516666667', '-76.9780616666667', '-76.9780733333333', '-76.97808', '-76.978085', '-76.9781133333333', '-76.978115', '-76.9781233333333', '-76.9781416666667', '-76.9781533333333', '-76.97817', '-76.9782016666667', '-76.9782783333333', '-76.9782866666667', '-76.978315', '-76.97832', '-76.97835', '-76.9783566666667', '-76.978375', '-76.9783783333333', '-76.9783866666667', '-76.9783883333333', '-76.97839', '-76.9783966666667', '-76.9784216666667', '-76.9784233333333', '-76.978435', '-76.9784416666667', '-76.978445', '-76.9784983333333', '-76.97851', '-76.9785183333333', '-76.978525', '-76.9785283333333', '-76.9785333333333', '-76.9785383333333', '-76.9785433333333', '-76.978565', '-76.97857', '-76.9785783333333', '-76.9785866666667', '-76.9785983333333', '-76.97861', '-76.9786133333333', '-76.9786183333333', '-76.97862', '-76.978635', '-76.9786383333333', '-76.9786483333333', '-76.978655', '-76.9786583333333', '-76.97866', '-76.9786683333333', '-76.9786866666667', '-76.9786933333333', '-76.9786983333333', '-76.9787266666667', '-76.9787333333333', '-76.9787683333333', '-76.9787766666667', '-76.9787783333333', '-76.97883', '-76.97884', '-76.9788733333333', '-76.9788866666667', '-76.978915', '-76.978925', '-76.9789366666667', '-76.9789783333333', '-76.9789816666667', '-76.97899', '-76.9790016666667', '-76.9790116666667', '-76.9790166666667', '-76.9790333333333', '-76.9790683333333', '-76.9790766666667', '-76.97908', '-76.9790816666667', '-76.9791266666667', '-76.9791283333333', '-76.9791516666667', '-76.97916', '-76.979165', '-76.9791933333333', '-76.979205', '-76.97921', '-76.979215', '-76.97926', '-76.979265', '-76.9792766666667', '-76.97931', '-76.9793166666667', '-76.9793216666667', '-76.979345', '-76.9793516666667', '-76.9793633333333', '-76.9793666666667', '-76.9793683333333', '-76.9793883333333', '-76.9794', '-76.979415', '-76.979435', '-76.9794683333333', '-76.9794716666667', '-76.97948', '-76.9794883333333', '-76.9795016666667', '-76.9795216666667', '-76.9795416666667', '-76.979545', '-76.9795633333333', '-76.9795716666667', '-76.9795766666667', '-76.9795933333333', '-76.9795966666667', '-76.9796', '-76.9796016666667', '-76.9796066666667', '-76.9796166666667', '-76.9796366666667', '-76.9796483333333', '-76.9796833333333', '-76.9796883333333', '-76.97971', '-76.9797233333333', '-76.979725', '-76.979755', '-76.9797583333333', '-76.97976', '-76.9797983333333', '-76.9798016666667', '-76.9798066666667', '-76.979825', '-76.9798333333333', '-76.97984', '-76.9798583333333', '-76.97986', '-76.9798716666667', '-76.9798766666667', '-76.97989', '-76.97991', '-76.9799166666667', '-76.97993', '-76.979945', '-76.9800066666667', '-76.9800183333333', '-76.9800266666667', '-76.9800316666667', '-76.9800666666667', '-76.9800866666667', '-76.9801083333333', '-76.98013', '-76.9801883333333', '-76.9802416666667', '-76.9802533333333', '-76.9802683333333', '-76.980275', '-76.9802816666667', '-76.9802933333333', '-76.9802966666667', '-76.9803066666667', '-76.9803466666667', '-76.9803583333333', '-76.9804166666667', '-76.98042', '-76.980435', '-76.9804433333333', '-76.9804566666667', '-76.9804583333333', '-76.980495', '-76.9805', '-76.9805033333333', '-76.9805116666667', '-76.980535', '-76.9805366666667', '-76.9805416666667', '-76.9805466666667', '-76.98055', '-76.980551666</t>
         </is>
@@ -997,18 +1111,28 @@
       <c r="P9" t="n">
         <v>73031</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>77.1871616666667</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>73031</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>10970178</v>
       </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>294061</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>['-71.2857083333333', '-71.53712', '-72.51148', '-75.0692383333333', '-76.0514333333333', '-76.0766966666667', '-76.35512', '-76.5287', '-76.6104133333333', '-76.6670333333333', '-76.6674366333333', '-76.6932616666667', '-76.693275', '-76.6932933333333', '-76.69347', '-76.6936183333333', '-76.6936616666667', '-76.69371', '-76.7124483333333', '-76.76579', '-76.77032', '-76.7803043', '-76.7803566333333', '-76.7804104333333', '-76.81772', '-76.8177466666667', '-76.817845', '-76.817905', '-76.8331283333333', '-76.834035', '-76.8403716666667', '-76.8578283333333', '-76.8582683333333', '-76.8597733333333', '-76.8599250166667', '-76.8599398', '-76.8599801166667', '-76.8600333333333', '-76.8600633333333', '-76.86189', '-76.8674216666667', '-76.86922', '-76.870875', '-76.8727633333333', '-76.8756466666667', '-76.878865', '-76.881565', '-76.8816866666667', '-76.8818083333333', '-76.8818466666667', '-76.8820066666667', '-76.8821133333333', '-76.8914382', '-76.8948116666667', '-76.9052116666667', '-76.9052233333333', '-76.9052266666667', '-76.9052366666667', '-76.9052466666667', '-76.905255', '-76.907635', '-76.90767', '-76.9076747333333', '-76.9084383333333', '-76.9084683333333', '-76.908965', '-76.9092783333333', '-76.909885', '-76.9098883333333', '-76.9099433333333', '-76.91027545', '-76.9103', '-76.9104094833333', '-76.91044', '-76.9104478', '-76.9104769333333', '-76.9104963666667', '-76.9105152166667', '-76.9105966666667', '-76.9107016666667', '-76.9107531', '-76.9107833333333', '-76.910825', '-76.9111933333333', '-76.9111933666667', '-76.9114416666667', '-76.9115152166667', '-76.9119859833333', '-76.9120883333333', '-76.9121083333333', '-76.9121124333333', '-76.9122916666667', '-76.912325', '-76.9126240833333', '-76.9128133333333', '-76.9132660666667', '-76.9132683333333', '-76.9133333333333', '-76.9133366666667', '-76.9135633333333', '-76.9137433333333', '-76.913785', '-76.9139233333333', '-76.9141305166667', '-76.91428115', '-76.91434055', '-76.9143933333333', '-76.9144016666667', '-76.9144166666667', '-76.91454', '-76.914565', '-76.9146433333333', '-76.9146533333333', '-76.91472', '-76.9148557333333', '-76.91486', '-76.91497855', '-76.915035', '-76.91511', '-76.9151466666667', '-76.91522', '-76.9152366666667', '-76.915245', '-76.91525855', '-76.9153166666667', '-76.9153466666667', '-76.9153483333333', '-76.915395', '-76.9154191666667', '-76.9154212666667', '-76.91543', '-76.9154609166667', '-76.9154866666667', '-76.9155773166667', '-76.9156633333333', '-76.9156766666667', '-76.9157116166667', '-76.9157898166667', '-76.9158919166667', '-76.9158946333333', '-76.9159166666667', '-76.9159883333333', '-76.91619485', '-76.9162372666667', '-76.9162483333333', '-76.9162816666667', '-76.9163593833333', '-76.9164619166667', '-76.9164825166667', '-76.9165116666667', '-76.91651415', '-76.9165283333333', '-76.9165366666667', '-76.9166216666667', '-76.91676', '-76.9167785166667', '-76.9168571', '-76.9168783333333', '-76.9169116666667', '-76.9169616666667', '-76.9169966666667', '-76.9170033333333', '-76.91707', '-76.9170707666667', '-76.9171366666667', '-76.9171768166667', '-76.9171827', '-76.91724695', '-76.917255', '-76.91725555', '-76.9172816666667', '-76.9173216666667', '-76.9173379666667', '-76.91736', '-76.91737295', '-76.9173833333333', '-76.917395', '-76.917405', '-76.9174233333333', '-76.9174333333333', '-76.9174801666667', '-76.917485', '-76.9174868333333', '-76.9174916666667', '-76.917495', '-76.9175030333333', '-76.9175033333333', '-76.9175306833333', '-76.9175737', '-76.9175979', '-76.9176483333333', '-76.91766', '-76.9176983333333', '-76.9177066666667', '-76.9177083333333', '-76.91775', '-76.9177533333333', '-76.9178', '-76.917815', '-76.9178241666667', '-76.9178279166667', '-76.9178380666667', '-76.91784', '-76.9178430333333', '-76.91784615', '-76.9178493666667', '-76.9178916666667', '-76.9179116666667', '-76.9179195833333', '-76.9179483333333', '-76.9179683333333', '-76.9179842833333', '-76.918', '-76.918005', '-76.9180166666667', '-76.9180178833333', '-76.9180433333333', '-76.91806', '-76.9180683333333', '-76.918095', '-76.9180983333333', '-76.918135', '-76.9181632166667', '-76.9182004833333', '-76.918205', '-76.9182116666667', '-76.9182497333333', '-76.9182616666667', '-76.9182796', '-76.9183108', '-76.9184116666667', '-76.9184233333333', '-76.9184316666667', '-76.9184433333333', '-76.9184616666667', '-76.9185215833333', '-76.91855', '-76.9186349', '-76.918705', '-76.9187392333333', '-76.9187766666667', '-76.91879', '-76.9188433333333', '-76.9188466666667', '-76.91885', '-76.9188566666667', '-76.9188633333333', '-76.9189016666667', '-76.9189117166667', '-76.918915', '-76.9189338', '-76.9189383333333', '-76.9189649', '-76.9189716666667', '-76.9189821833333', '-76.9189924333333', '-76.919005', '-76.9190216666667', '-76.919025', '-76.9190616666667', '-76.9190653', '-76.919075', '-76.9190833333333', '-76.9190859', '-76.9190885833333', '-76.9190916666667', '-76.9191016666667', '-76.919125', '-76.91913', '-76.9191383333333', '-76.91914295', '-76.919143', '-76.9191633333333', '-76.919165', '-76.9191715666667', '-76.91918', '-76.9191969666667', '-76.9191983333333', '-76.91922', '-76.9192216666667', '-76.9192233333333', '-76.91924', '-76.91924335', '-76.9192483333333', '-76.9192616666667', '-76.919265', '-76.9192716666667', '-76.9192766666667', '-76.9192816666667', '-76.9192825166667', '-76.919295', '-76.9193083333333', '-76.91932475', '-76.919325', '-76.91933', '-76.9193303666667', '-76.9193383333333', '-76.9193433333333', '-76.919355', '-76.9193633333333', '-76.919365', '-76.9193764', '-76.9193833333333', '-76.9193883333333', '-76.9193983333333', '-76.9194105333333', '-76.9194114333333', '-76.9194137833333', '-76.9194183333333', '-76.919425', '-76.9194255', '-76.9194433333333', '-76.91946', '-76.9194716666667', '-76.9194807', '-76.91949575', '-76.9194966666667', '-76.9194983333333', '-76.9195033833333', '-76.91951', '-76.9195103833333', '-76.9195116666667', '-76.9195133333333', '-76.9195147', '-76.91952', '-76.9195294166667', '-76.9195383333333', '-76.9195407166667', '-76.9195445333333', '-76.9195466666667', '-76.9195565', '-76.9195666666667', '-76.9195674333333', '-76.9195733333333', '-76.9195816666667', '-76.9195905166667', '-76.919595', '-76.9195971166667', '-76.91960335', '-76.9196216666667', '-76.9196316666667', '-76.9196366666667', '-76.9196404166667', '-76.9196483333333', '-76.91965', '-76.9196566666667', '-76.9196616666667', '-76.919665', '-76.91966595', '-76.9196766666667', '-76.9196783333333', '-76.9196966666667', '-76.9197022666667', '-76.9197034333333', '-76.9197366666667', '-76.9197398333333', '-76.9197416666667', '-76.919745', '-76.9197533333333', '-76.9197559166667', '-76.9197669833333', '-76.91977', '-76.9197966666667', '-76.9198016666667', '-76.9198083333333', '-76.91982', '-76.9198256666667', '-76.9198383333333', '-76.9198483333333', '-76.919875', '-76.9198766666667', '-76.91990215', '-76.9199033333333', '-76.9199081666667', '-76.9199095', '-76.9199244666667', '-76.9199266666667', '-76.919935', '-76.9199366666667', '-76.9199377', '-76.919945', '-76.9199466666667', '-76.9199616666667', '-76.91997', '-76.919975', '-76.9199764', '-76.9199783333333', '-76.9199816666667', '-76.919985', '-76.9200032833333', '-76.920005', '-76.92001', '-76.9200119333333', '-76.92003', '-76.92004', '-76.9200492', '-76.9200530833333', '-76.9200683333333', '-76.9200833333333', '-76.9200944666667', '-76.9201008166667', '-76.9201182333333', '-76.9201183333333', '-76.92012', '-76.9201358833333', '-76.9201393', '-76.9201437', '-76.9201438166667', '-76.9201533333333', '-76.9201749333333', '-76.9201816666667', '-76.9201883333333', '-76.9201953833333', '-76.9201988833333', '-76.92019975', '-76.92020625', '-76.920225', '-76.9202316666667', '-76.9202335166667', '-76.9202383333333', '-76.92023845', '-76.9202672', '-76.9202716666667', '-76.9202766666667', '-76.9202783333333', '-76.92028395', '-76.9203066666667', '-76.92030815', '-76.9203087', '-76.9203136', '-76.9203428166667', '-76.920355', '-76.9203583333333', '-76.92035905', '-76.92037', '-76.9203733333333', '-76.9203833333333', '-76.9203882', '-76.9203922', '-76.9203978166667', '-76.9204066666667', '-76.9204105333333', '-76.9204183333333', '-76.9204283333333', '-76.9204458333333', '-76.920455', '-76.92046', '-76.92049', '-76.9204902333333', '-76.9205141', '-76.9205202166667', '-76.9205478333333', '-76.920565', '-76.920575', '-76.9205877166667', '-76.9205941333333', '-76.9205983333333', '-76.9206083333333', '-76.9206166666667', '-76.9206216666667', '-76.920635', '-76.9206416666667', '-76.9206433333333', '-76.920645', '-76.92065', '-76.9206566666667', '-76.9206616666667', '-76.920665', '-76.920675', '-76.9206798166667', '-76.9206816666667', '-76.9206851333333', '-76.9206866666667', '-76.9206972333333', '-76.9206983333333', '-76.9207083333333', '-76.9207112', '-76.9207116666667', '-76.92072165', '-76.9207283333333', '-76.9207416666667', '-76.9207433333333', '-76.920745', '-76.9207583333333', '-76.92075965', '-76.9207633333333', '-76.9207663666667', '-76.92077245', '-76.9207783333333', '-76.92078025', '-76.9207816666667', '-76.9207966666667', '-76.9208', '-76.9208179166667', '-76.9208183333333', '-76.9208360333333', '-76.9208400666667', '-76.920845', '-76.9208533333333', '-76.9208550333333', '-76.92087025', '-76.9208773833333', '-76.9208816666667', '-76.920885', '-76.9208866666667', '-76.9208933333333', '-76.9209002666667', '-76.9209003166667', '-76.9209075166667', '-76.9209083333333', '-76.9209129', '-76.9209133333333', '-76.9209166666667', '-76.92092725', '-76.9209333333333', '-76.9209416666667', '-76.9209466666667', '-76.9209577', '-76.9209609333333', '-76.9209672333333', '-76.9209683333333', '-76.92097635', '-76.9209783333333', '-76.92099495', '-76.920995', '-76.9210088833333', '-76.9210233333333', '-76.92102365', '-76.921025', '-76.9210366666667', '-76.92104', '-76.9210417166667', '-76.92104285', '-76.9210516666667', '-76.921055', '-76.921075', '-76.9210783333333', '-76.9210889', '-76.9210933333333', '-76.9210966666667', '-76.9211120166667', '-76.92111655', '-76.9211216666667', '-76.9211283333333', '-76.92113', '-76.9211366666667', '-76.92114', '-76.9211482333333', '-76.9211533333333', '-76.92115835', '-76.92116', '-76.921165', '-76.9211666666667', '-76.9211783333333', '-76.9211816666667', '-76.9211918666667', '-76.9212020833333', '-76.92120565', '-76.92122455', '-76.9212315', '-76.9212416666667', '-76.9212552666667', '-76.9212622666667', '-76.921265', '-76.9212695166667', '-76.9212766666667', '-76.9212816666667', '-76.9212866833333', '-76.92132', '-76.9213227333333', '-76.92132325', '-76.921325', '-76.9213328666667', '-76.92136', '-76.9213616666667', '-76.9213666666667', '-76.9213787833333', '-76.9213820833333', '-76.9213835666667', '-76.9213871333333', '-76.92139', '-76.921395', '-76.9214184', '-76.9214196166667', '-76.9214333333333', '-76.9214383333333', '-76.92144525', '-76.9214554', '-76.921456', '-76.9214568333333', '-76.9214753666667', '-76.9214816666667', '-76.9214933333333', '-76.9214950333333', '-76.9214975333333', '-76.921505', '-76.9215074166667', '-76.9215306666667', '-76.921545', '-76.9215633333333', '-76.9215692166667', '-76.9215868666667', '-76.92159', '-76.92159595', '-76.9216174333333', '-76.9216193833333', '-76.9216266666667', '-76.92163195', '-76.92166', '-76.9216616666667', '-76.9216697', '-76.92168', '-76.9216866666667', '-76.9216905333333', '-76.9216916666667', '-76.9217339166667', '-76.9217505666667', '-76.92175215', '-76.921765', '-76.9217706166667', '-76.92177275', '-76.921805', '-76.921825', '-76.9218254', '-76.92182915', '-76.9218324833333', '-76.9218360666667', '-76.9218370833333', '-76.92183745', '-76.9218466666667', '-76.9218483333333', '-76.9218533333333', '-76.9218565833333', '-76.9218566666667', '-76.92185725', '-76.9218643166667', '-76.9218666666667', '-76.9218708', '-76.92188', '-76.921895', '-76.9219048333333', '-76.92191', '-76.9219203166667', '-76.921925', '-76.9219252', '-76.9219259666667', '-76.9219283333333', '-76.9219284666667', '-76.9219305333333', '-76.9219332', '-76.9219333333333', '-76.9219352833333', '-76.9219366666667', '-76.92194', '-76.9219433333333', '-76.9219454', '-76.92195', '-76.92195405', '-76.9219783333333', '-76.922', '-76.9220048833333', '-76.9220133333333', '-76.92202495', '-76.922025', '-76.92203065', '-76.92203075', '-76.9220338166667', '-76.92203475', '-76.9220383666667', '-76.9220415333333', '-76.9220423', '-76.9220431666667', '-76.92204875', '-76.9220516666667', '-76.9220526833333', '-76.9220535666667', '-76.9220538666667', '-76.92205605', '-76.9220568333333', '-76.9220600666667', '-76.9220676666667', '-76.9220766333333', '-76.9220783333333', '-76.9220783666667', '-76.9220785833333', '-76.92208', '-76.9221066666667', '-76.9221101', '-76.9221211', '-76.9221229833333', '-76.922125', '-76.9221344', '-76.9221359', '-76.9221379333333', '-76.9221386333333', '-76.9221483333333', '-76.9221563333333', '-76.9221593166667', '-76.92216085', '-76.9221633666667', '-76.9221646', '-76.9221699166667', '-76.9221700666667', '-76.9221716666667', '-76.9221812', '-76.9221837666667', '-76.9221983', '-76.9222016666667', '-76.9222148666667', '-76.9222166666667', '-76.9222201166667', '-76.9222222333333', '-76.9222233', '-76.9222233333333', '-76.9222333333333', '-76.92223395', '-76.9222430333333', '-76.9222469333333', '-76.9222471666667', '-76.9222481333333', '-76.9222554333333', '-76.92225605', '-76.9222666666667', '-76.922275', '-76.9222866666667', '-76.9222883333333', '-76.9222953166667', '-76.922296', '-76.9222961666667', '-76.92230235', '-76.9223054833333', '-76.9223070666667', '-76.9223083333333', '-76.92230845', '-76.9223099666667', '-76.9223183333333', '-76.9223216666667', '-76.9223287', '-76.9223311833333', '-76.9223420166667', '-76.9223433333333', '-76.9223442', '-76.9223443', '-76.9223460333333', '-76.9223533333333', '-76.92235585', '-76.9223631166667', '-76.9223648', '-76.9223657', '-76.9223694833333', '-76.9223704833333', '-76.9223705666667', '-76.9223716666667', '-76.922385', '-76.9223866666667', '-76.9223917666667', '-76.92239455', '-76.9223946833333', '-76.9223966666667', '-76.9224017666667', '-76.9224116666667', '-76.9224133333333', '-76.9224139', '-76.9224216666667', '-76.92242955', '-76.92243', '-76.9224319333333', '-76.9224366666667', '-76.9224384166667', '-76.922445', '-76.9224458', '-76.9224483333333', '-76.92245', '-76.9224533333333', '-76.922455', '-76.9224585333333', '-76.9224681833333', '-76.9224701833333', '-76.9224737833333', '-76.9224779166667', '-76.92248', '-76.9224860333333', '-76.9225014333333', '-76.9225033333333', '-76.9225043666667', '-76.9225283333333', '-76.9225307833333', '-76.9225333333333', '-76.922535', '-76.92253795', '-76.9225407666667', '-76.9225433333333', '-76.9225438166667', '-76.9225478166667', '-76.9225543333333', '-76.9225566666667', '-76.9225683333333', '-76.9225778', '-76.9225855333333', '-76.9225916666667', '-76.92259515', '-76.9226016666667', '-76.9226032', '-76.922605', '-76.922615', '-76.9226166666667', '-76.9226183333333', '-76.9226233333333', '-76.922625', '-76.9226266666667', '-76.9226316666667', '-76.9226333333333', '-76.9226366666667', '-76.92264145', '-76.9226433333333', '-76.9226466666667', '-76.92265', '-76.9226516666667', '-76.922655', '-76.92266', '-76.9226642333333', '-76.922665', '-76.9226666666667', '-76.9226716666667', '-76.9226766666667', '-76.9226783333333', '-76.92268', '-76.9226816666667', '-76.9226833333333', '-76.9226866666667', '-76.9226883333333', '-76.9226933333333', '-76.9226944333333', '-76.922695', '-76.9227', '-76.9227016666667', '-76.9227033333333', '-76.922705', '-76.9227053333333', '-76.9227066666667', '-76.92270765', '-76.92271', '-76.9227107666667', '-76.9227116666667', '-76.9227125166667', '-76.9227133333333', '-76.92271495', '-76.9227193', '-76.9227252666667', '-76.9227276833333', '-76.9227316666667', '-76.92275', '-76.9227583333333', '-76.92276075', '-76.9227610166667', '-76.922775', '-76.9227821333333', '-76.9227883333333', '-76.92279', '-76.9227916666667', '-76.9227933333333', '-76.9227966666667', '-76.9227997333333', '-76.9228083333333', '-76.9228133333333', '-76.9228180333333', '-76.92281825', '-76.9228183333333', '-76.9228266666667', '-76.9228283333333', '-76.9228333333333', '-76.922835', '-76.9228398333333', '-76.9228404333333', '-76.9228407166667', '-76.9228433333333', '-76.9228447', '-76.9228516666667', '-76.9228683333333', '-76.922885', '-76.9228909333333', '-76.9228921666667', '-76.9228975333333', '-76.9228988', '-76.92291', '-76.9229194', '-76.9229214333333', '-76.9229216666667', '-76.9229255333333', '-76.9229433333333', '-76.9229477833333', '-76.92296045', '-76.9229655833333', '-76.9229666666667', '-76.9229693333333', '-76.9229726333333', '-76.922995', '-76.9229950166667', '-76.92301', '-76.9230547166667', '-76.9230766666667', '-76.9230883166667', '-76.9230916666667', '-76.9230942333333', '-76.9231165666667', '-76.9231180833333', '-76.92312', '-76.9231283333333', '-76.9231316666667', '-76.9231433333333', '-76.92314495', '-76.9231467', '-76.923155', '-76.9231583333333', '-76.923165', '-76.9231683333333', '-76.9231766666667', '-76.9231896666667', '-76.9231966666667', '-76.923205', '-76.9232067333333', '-76.9232184666667', '-76.9232345', '-76.9232483333333', '-76.9232533333333', '-76.923255', '-76.9232566666667', '-76.9232616666667', '-76.9232745333333', '-76.923275', '-76.9232766666667', '-76.92329', '-76.923305', '-76.9233066666667', '-76.9233083333333', '-76.92331', '-76.9233133666667', '-76.9233189666667', '-76.9233411666667', '-76.923345', '-76.9233457666667', '-76.9233582', '-76.9234266666667', '-76.9234283333333', '-76.9234432666667', '-76.9234433333333', '-76.92344735', '-76.9234633333333', '-76.9234651333333', '-76.92348', '-76.9234916', '-76.923495', '-76.9234997166667', '-76.9235222166667', '-76.9235568833333', '-76.9235733333333', '-76.9235766666667', '-76.92358', '-76.9235883333333', '-76.9236083333333', '-76.9236127833333', '-76.9236161333333', '-76.923645', '-76.9236551333333', '-76.9236616666667', '-76.9236631666667', '-76.923675', '-76.9236883333333', '-76.92369855', '-76.9237121166667', '-76.9237133333333', '-76.92374305', '-76.9237454166667', '-76.9237559166667', '-76.92377', '-76.923775', '-76.9237779166667', '-76.92379085', '-76.9238195666667', '-76.9238233333333', '-76.92383', '-76.9238415166667', '-76.9238417', '-76.9238666666667', '-76.9239103833333', '-76.9239231833333', '-76.92394', '-76.92394135', '-76.9239483333333', '-76.9239633333333', '-76.9239816666667', '-76.924002', '-76.92400905', '-76.9240171333333', '-76.9240256166667', '-76.9240333333333', '-76.9240366666667', '-76.92403895', '-76.9240565166667', '-76.9240666666667', '-76.9240802833333', '-76.9241133333333', '-76.9241294', '-76.9241479166667', '-76.92418625', '-76.9242016666667', '-76.9242171833333', '-76.9242174166667', '-76.9242583333333', '-76.9242616666667', '-76.9242670166667', '-76.9242733166667', '-76.9242783333333', '-76.92428455', '-76.924305', '-76.9243152333333', '-76.9243266666667', '-76.9243366666667', '-76.9243550833333', '-76.92436', '-76.9243889333333', '-76.9243981833333', '-76.92441', '-76.9244316666667', '-76.9244498666667', '-76.92445255', '-76.9244851666667', '-76.9244909166667', '-76.9245291166667', '-76.924535', '-76.9245599166667', '-76.9245672333333', '-76.9245866666667', '-76.92460975', '-76.92461', '-76.9246171166667', '-76.9246223', '-76.9246383333333', '-76.9246762166667', '-76.9246876333333', '-76.9247324666667', '-76.9247382', '-76.9247464666667', '-76.92475', '-76.9247656', '-76.9247867666667', '-76.9247883333333', '-76.9247886833333', '-76.9248025833333', '-76.924815', '-76.9248216666667', '-76.9248788333333', '-76.9249016666667', '-76.9249068166667', '-76.9249325166667', '-76.924975', '-76.925005', '-76.9250133333333', '-76.9250416666667', '-76.9250433333333', '-76.9250490666667', '-76.9250933333333', '-76.9250983333333', '-76.9251183333333', '-76.9251666666667', '-76.9251733333333', '-76.92519', '-76.9252358666667', '-76.92524', '-76.9252616666667', '-76.9252916666667', '-76.9253030166667', '-76.9253366666667', '-76.9253516666667', '-76.9253623666667', '-76.92536365', '-76.9253722833333', '-76.9253747', '-76.9254017666667', '-76.92542', '-76.9254281166667', '-76.9254416666667', '-76.9254616666667', '-76.9254817666667', '-76.9254966666667', '-76.925505', '-76.9255516833333', '-76.92556645', '-76.9255759666667', '-76.925585', '-76.9256183333333', '-76.9256375', '-76.9256433333333', '-76.9256533333333', '-76.9256933333333', '-76.92570745', '-76.92573', '-76.9257426833333', '-76.9257576666667', '-76.9257834166667', '-76.9257956333333', '-76.92583395', '-76.9258449666667', '-76.9258553833333', '-76.9258560166667', '-76.9258716666667', '-76.92589', '-76.9258944333333', '-76.9259000666667', '-76.925909', '-76.9259327333333', '-76.9259466666667', '-76.9259816666667', '-76.9259848166667', '-76.92601', '-76.9260518166667', '-76.9260616666667', '-76.9260624833333', '-76.9260686833333', '-76.9260942666667', '-76.926125', '-76.9261280833333', '-76.9261468666667', '-76.9261533333333', '-76.9261716666667', '-76.926175', '-76.9262045833333', '-76.92622895', '-76.9262404', '-76.92624455', '-76.9262483333333', '-76.9262484', '-76.92626', '-76.92628855', '-76.92631', '-76.9263166666667', '-76.9263383333333', '-76.9263438833333', '-76.9263457833333', '-76.9263466666667', '-76.9263516666667', '-76.9263591666667', '-76.9263966666667', '-76.9264083333333', '-76.92642', '-76.9264218833333', '-76.92643835', '-76.92644', '-76.9264416666667', '-76.9264466666667', '-76.9264641166667', '-76.9264816666667', '-76.92652955', '-76.92657255', '-76.9265912166667', '-76.92659165', '-76.9266116666667', '-76.9266313833333', '-76.9266394', '-76.9266416666667', '-76.926645', '-76.9266462', '-76.9266474333333', '-76.9266566666667', '-76.9266595', '-76.9266683333333', '-76.9266966666667', '-76.92670055', '-76.9267033333333', '-76.9267195333333', '-76.9267572833333', '-76.9267616666667', '-76.92677', '-76.9267795166667', '-76.92678', '-76.9267815166667', '-76.9267916666667', '-76.926805', '-76.9268083333333', '-76.9268133666667', '-76.9268266666667', '-76.9268459', '-76.9268711', '-76.9268824833333', '-76.9269129333333', '-76.9269633333333', '-76.9269883333333', '-76.9269985833333', '-76.9270016666667', '-76.9270066666667', '-76.9270316666667', '-76.9270333333333', '-76.9270412666667', '-76.9270466666667', '-76.92705', '-76.9270583333333', '-76.9270605166667', '-76.9270833333333', '-76.9270916666667', '-76.9270933333333', '-76.9271116666667', '-76.9271233333333', '-76.9271283333333', '-76.9271333333333', '-76.9271416666667', '-76.927145', '-76.9271666666667', '-76.9271683333333', '-76.92717', '-76.9271833333333', '-76.927185', '-76.9271883166667', '-76.9271933333333', '-76.92719485', '-76.927195', '-76.927245', '-76.92726', '-76.9272848333333', '-76.9273177833333', '-76.92734325', '-76.9273617166667', '-76.9273633333333', '-76.9273660833333', '-76.9273684166667', '-76.9273954333333', '-76.92741', '-76.9274216666667', '-76.9274241166667', '-76.9274373666667', '-76.9274533333333', '-76.927455', '-76.927495', '-76.9274983333333', '-76.9275065166667', '-76.9275144333333', '-76.9276166666667', '-76.9276226166667', '-76.92762435', '-76.927625', '-76.9276261333333', '-76.9276483333333', '-76.9276516666667', '-76.9276543833333', '-76.9276782666667', '-76.9276866666667', '-76.9276964', '-76.9276983333333', '-76.9277033333333', '-76.92772', '-76.927725', '-76.9277516666667', '-76.9277736833333', '-76.92779345', '-76.9277953', '-76.9277969166667', '-76.92783255', '-76.9278412666667', '-76.9278462', '-76.9278566', '-76.9279016666667', '-76.9279215166667', '-76.92792615', '-76.9279487833333', '-76.92795165', '-76.9279516666667', '-76.927975', '-76.928015', '-76.9280183333333', '-76.928025', '-76.9280316666667', '-76.9280366666667', '-76.928045', '-76.9280483333333', '-76.92804845', '-76.9280486666667', '-76.928065', '-76.9280716666667', '-76.9280733333333', '-76.928095', '-76.9280983333333', '-76.9280992666667', '-76.9281164666667', '-76.9281232666667', '-76.92813085', '-76.9281333333333', '-76.928135', '-76.9281369', '-76.92815', '-76.92816', '-76.9281701', '-76.9281739833333', '-76.92821', '-76.9282169', '-76.92822', '-76.9282383333333', '-76.9282470333333', '-76.9282486', '-76.9282516666667', '-76.9282597', '-76.9282672833333', '-76.92828095', '-76.9282867833333', '-76.9282933333333', '-76.9282987833333', '-76.9282994', '-76.9282995666667', '-76.9282996166667', '-76.9283027', '-76.92830625', '-76.9283083333333', '-76.9283135833333', '-76.9283166666667', '-76.92832', '-76.9283216666667', '-76.9283233333333', '-76.92832355', '-76.9283283833333', '-76.9283295', '-76.92833', '-76.9283384333333', '-76.9283395666667', '-76.92834', '-76.9283566666667', '-76.9283643333333', '-76.9283666666667', '-76.92836825', '-76.9283733333333', '-76.9283759833333', '-76.928385', '-76.9283874166667', '-76.9284060333333', '-76.9284107166667', '-76.9284283333333', '-76.9284494666667', '-76.92845895', '-76.9284666666667', '-76.9284783333333', '-76.9284807833333', '-76.9284885333333', '-76.92849055', '-76.9284939333333', '-76.92849665', '-76.9284966666667', '-76.9285066666667', '-76.9285166666667', '-76.9285307666667', '-76.9285333333333', '-76.9285483333333', '-76.92856', '-76.9285679666667', '-76.9285711166667', '-76.9285951666667', '-76.9285988833333', '-76.9286066666667', '-76.92861', '-76.9286152833333', '-76.9286258833333', '-76.9286283333333', '-76.9286483333333', '-76.9286603166667', '-76.9286616666667', '-76.928665', '-76.928675', '-76.9286916666667', '-76.9287033333333', '-76.9287054833333', '-76.9287066666667', '-76.9287083333333', '-76.9287086', '-76.92871345', '-76.928715', '-76.9287195833333', '-76.9287204', '-76.92872395', '-76.9287249833333', '-76.9287283333333', '-76.9287333333333', '-76.9287348', '-76.9287349833333', '-76.9287356666667', '-76.9287366666667', '-76.9287417333333', '-76.9287448833333', '-76.9287466666667', '-76.9287483333333', '-76.9287582', '-76.9287595166667', '-76.928765', '-76.9287661833333', '-76.92876895', '-76.928775', '-76.9287872833333', '-76.9287883333333', '-76.9287888833333', '-76.9288002333333', '-76.9288066666667', '-76.92882', '-76.9288233333333', '-76.9288333333333', '-76.92884', '-76.9288423333333', '-76.9288633333333', '-76.9288716666667', '-76.9288833333333', '-76.92888635', '-76.928895', '-76.92890835', '-76.9289266666667', '-76.9289466666667', '-76.9289483333333', '-76.92895', '-76.9289534333333', '-76.92898', '-76.9289828666667', '-76.9290043333333', '-76.9290166666667', '-76.9290216666667', '-76.92904', '-76.92904085', '-76.9290462166667', '-76.9290616666667', '-76.9290766666667', '-76.9290783333333', '-76.9290829666667', '-76.9291016666667', '-76.9291033333333', '-76.929135', '-76.9291466666667', '-76.9291483333333', '-76.9291488333333', '-76.9291516666667', '-76.9291541166667', '-76.9291616666667', '-76.9291666666667', '-76.929175', '-76.9291766666667', '-76.9291866666667', '-76.9291916666667', '-76.9291933333333', '-76.9291942333333', '-76.9292227333333', '-76.9292245333333', '-76.92925445', '-76.92925915', '-76.92926', '-76.92929', '-76.92929875', '-76.9293233333333', '-76.9293238333333', '-76.929325', '-76.929345', '-76.92934875', '-76.9293666666667', '-76.9293783333333', '-76.92938', '-76.9293838666667', '-76.9293863833333', '-76.929395', '-76.9294083333333', '-76.92941', '-76.9294189333333', '-76.9294449166667', '-76.929445', '-76.9294460333333', '-76.929475', '-76.9294794333333', '-76.92948', '-76.9294909166667', '-76.9294966666667', '-76.9295193333333', '-76.9295316666667', '-76.9295416666667', '-76.9295433333333', '-76.9295482666667', '-76.9295483333333', '-76.9295533333333', '-76.929555', '-76.9295566666667', '-76.9295784', '-76.929585', '-76.9296022666667', '-76.92960235', '-76.9296033333333', '-76.9296066166667', '-76.9296199666667', '-76.92962095', '-76.92963', '-76.9296333333333', '-76.9296440166667', '-76.9296566666667', '-76.929675', '-76.9296783333333', '-76.9296833333333', '-76.929685', '-76.929715', '-76.92971785', '-76.92972405', '-76.9297416666667', '-76.9297533333333', '-76.929755', '-76.9297616666667', '-76.92977', '-76.9297783333333', '-76.92979', '-76.9297930333333', '-76.9297933333333', '-76.9297967333333', '-76.9298', '-76.9298033333333', '-76.9298083333333', '-76.9298184', '-76.92982', '-76.9298266666667', '-76.9298416333333', '-76.9298466666667', '-76.92985', '-76.9298543', '-76.9298616666667', '-76.9298633333333', '-76.929865', '-76.9298683333333', '-76.92987', '-76.9298742333333', '-76.9298783333333', '-76.929885', '-76.9298866666667', '-76.9298917166667', '-76.9298933333333', '-76.9298945', '-76.9298981666667', '-76.9298983333333', '-76.9299033333333', '-76.929905', '-76.9299083333333', '-76.9299164', '-76.9299255333333', '-76.9299353', '-76.9299379333333', '-76.9299397166667', '-76.92994', '-76.9299410166667', '-76.9299433333333', '-76.9299483333333', '-76.9299516666667', '-76.9299651666667', '-76.92997', '-76.9299733333333', '-76.9299788666667', '-76.92998', '-76.9299816666667', '-76.92998825', '-76.92999', '-76.9299916666667', '-76.929995', '-76.92999575', '-76.9299960333333', '-76.9299983333333', '-76.92999975', '-76.9300051333333', '-76.9300083333333', '-76.9300133', '-76.930015', '-76.9300161166667', '-76.9300161833333', '-76.93002', '-76.9300216666667', '-76.930025', '-76.9300266666667', '-76.930031', '-76.9300366666667', '-76.9300383333333', '-76.93004', '-76.9300424833333', '-76.9300433333333', '-76.9300449', '-76.9300466666667', '-76.9300527833333', '-76.9300533333333', '-76.9300616666667', '-76.930065', '-76.9300655666667', '-76.9300666666667', '-76.9300683333333', '-76.9300716666667', '-76.9300866666667', '-76.9300933333333', '-76.9301066666667', '-76.9301133333333', '-76.9301218333333', '-76.9301233333333', '-76.9301245', '-76.9301273833333', '-76.9301289333333', '-76.93013155', '-76.9301316666667', '-76.9301333333333', '-76.9301366666667', '-76.93014', '-76.9301476333333', '-76.93015', '-76.9301533333333', '-76.9301566333333', '-76.93016875', '-76.9301733333333', '-76.9301766666667', '-76.93019', '-76.930195', '-76.9301966666667', '-76.9302033333333', '-76.930205', '-76.9302066666667', '-76.9302116666667', '-76.93022', '-76.9302221666667', '-76.9302233333333', '-76.9302316666667', '-76.9302335', '-76.9302366666667', '-76.9302383333333', '-76.9302462666667', '-76.93025', '-76.9302533333333', '-76.93025445', '-76.93026', '-76.9302616666667', '-76.930275', '-76.9302783333333', '-76.93028', '-76.9302881166667', '-76.9302933333333', '-76.9302934', '-76.9303', '-76.9303033333333', '-76.930306', '-76.9303166666667', '-76.9303167666667', '-76.9303170833333', '-76.9303325833333', '-76.9303383333333', '-76.9303416666667', '-76.9303439833333', '-76.9303461833333', '-76.9303490833333', '-76.93035', '-76.9303516833333', '-76.9303574', '-76.93035755', '-76.9303583333333', '-76.93036', '-76.9303616666667', '-76.930365', '-76.9303683333333', '-76.9303716666667', '-76.9303718166667', '-76.93037735', '-76.93038', '-76.9303833333333', '-76.93039', '-76.930395', '-76.9303966666667', '-76.9303995666667', '-76.9304033333333', '-76.930405', '-76.9304116666667', '-76.9304136833333', '-76.930415', '-76.9304249666667', '-76.9304266666667', '-76.93043', '-76.9304538166667', '-76.9304566666667', '-76.9304592', '-76.930475', '-76.9304774833333', '-76.9304866666667', '-76.9304883333333', '-76.9304933333333', '-76.9304935833333', '-76.9304966666667', '-76.9304982333333', '-76.9304983333333', '-76.9305016666667', '-76.930505', '-76.9305066666667', '-76.9305120666667', '-76.9305174333333', '-76.93052', '-76.930525', '-76.9305383333333', '-76.9305416666667', '-76.93055195', '-76.9305533333333', '-76.930561', '-76.9305616666667', '-76.930565', '-76.93057', '-76.9305783333333', '-76.9305820333333', '-76.930595', '-76.9305969666667', '-76.9305976', '-76.9306016666667', '-76.9306021333333', '-76.9306033333333', '-76.9306066666667', '-76.9306083333333', '-76.9306142833333', '-76.930615', '-76.9306168', '-76.93061925', '-76.9306293333333', '-76.93063', '-76.9306316666667', '-76.930635', '-76.9306383333333', '-76.9306416666667', '-76.9306433333333', '-76.9306516666667', '-76.93066', '-76.9306766666667', '-76.9306833333333', '-76.9306857', '-76.93069', '-76.9306983333333', '-76.9307', '-76.9307033333333', '-76.9307074', '-76.93071', '-76.9307109333333', '-76.9307152166667', '-76.9307207833333', '-76.930725', '-76.9307366666667', '-76.9307433333333', '-76.93074965', '-76.9307583333333', '-76.9307616666667', '-76.9307666666667', '-76.9307682333333', '-76.9307795666667', '-76.9307816666667', '-76.9307866666667', '-76.9307883333333', '-76.93079465', '-76.9308116666667', '-76.9308166666667', '-76.9308211333333', '-76.9308233333333', '-76.9308266666667', '-76.93082833</t>
         </is>
@@ -1067,18 +1191,32 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
+        <v>826266</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>1652532</v>
       </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>1</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>['No']</t>
         </is>
@@ -1137,18 +1275,32 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>796235</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>1682563</v>
       </c>
-      <c r="S11" t="n">
+      <c r="W11" t="n">
         <v>2</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>['No', 'Yes']</t>
         </is>
@@ -1207,18 +1359,32 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>816903</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>1661895</v>
       </c>
-      <c r="S12" t="n">
+      <c r="W12" t="n">
         <v>2</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>['No', 'Yes']</t>
         </is>
@@ -1277,18 +1443,32 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>811432</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>1667366</v>
       </c>
-      <c r="S13" t="n">
+      <c r="W13" t="n">
         <v>2</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>['No', 'Yes']</t>
         </is>
@@ -1347,18 +1527,32 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>826076</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>1652722</v>
       </c>
-      <c r="S14" t="n">
+      <c r="W14" t="n">
         <v>2</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>['No', 'Yes']</t>
         </is>
@@ -1417,18 +1611,32 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>799705</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>1679093</v>
       </c>
-      <c r="S15" t="n">
+      <c r="W15" t="n">
         <v>2</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>['No', 'Yes']</t>
         </is>
@@ -1487,18 +1695,32 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>826162</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>1652636</v>
       </c>
-      <c r="S16" t="n">
+      <c r="W16" t="n">
         <v>2</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>['No', 'Yes']</t>
         </is>
@@ -1557,18 +1779,32 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>819644</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>1659154</v>
       </c>
-      <c r="S17" t="n">
+      <c r="W17" t="n">
         <v>2</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>['No', 'Yes']</t>
         </is>
@@ -1627,18 +1863,32 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>824589</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>1654209</v>
       </c>
-      <c r="S18" t="n">
+      <c r="W18" t="n">
         <v>2</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>['No', 'Yes']</t>
         </is>
@@ -1697,18 +1947,32 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>826147</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>1652651</v>
       </c>
-      <c r="S19" t="n">
+      <c r="W19" t="n">
         <v>2</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>['No', 'Yes']</t>
         </is>
@@ -1767,18 +2031,32 @@
       <c r="P20" t="n">
         <v>59</v>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>XX</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>727168</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
         <v>1652414</v>
       </c>
-      <c r="S20" t="n">
+      <c r="W20" t="n">
         <v>69</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>['AB', 'AK', 'AL', 'AR', 'AS', 'AZ', 'BC', 'CA', 'CO', 'CT', 'DC', 'DE', 'FL', 'GA', 'GU', 'HI', 'IA', 'ID', 'IL', 'IN', 'IT', 'KS', 'KY', 'LA', 'MA', 'MB', 'MD', 'ME', 'MH', 'MI', 'MN', 'MO', 'MS', 'MT', 'NB', 'NC', 'ND', 'NE', 'NF', 'NH', 'NJ', 'NM', 'NS', 'NV', 'NY', 'OH', 'OK', 'ON', 'OR', 'PA', 'PE', 'PQ', 'PR', 'QC', 'RI', 'SC', 'SD', 'TN', 'TX', 'US', 'UT', 'VA', 'VI', 'VT', 'WA', 'WI', 'WV', 'WY', 'XX']</t>
         </is>
@@ -1837,18 +2115,32 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>29 - Unknown</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>02 - Automobile</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>713368</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
         <v>12730595</v>
       </c>
-      <c r="S21" t="n">
+      <c r="W21" t="n">
         <v>33</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>['01 - Motorcycle', '02 - Automobile', '03 - Station Wagon', '04 - Limousine', '05 - Light Duty Truck', '06 - Heavy Duty Truck', '07 - Truck/Road Tractor', '08 - Recreational Vehicle', '09 - Farm Vehicle', '10 - Transit Bus', '11 - Cross Country Bus', '12 - School Bus', '13 - Ambulance', '13 - Ambulance(Emerg)', '14 - Ambulance', '14 - Ambulance(Non-Emerg)', '15 - Fire Vehicle', '15 - Fire(Emerg)', '16 - Fire(Non-Emerg)', '17 - Police(Emerg)', '18 - Police Vehicle', '18 - Police(Non-Emerg)', '19 - Moped', '20 - Commercial Rig', '21 - Tandem Trailer', '22 - Mobile Home', '23 - Travel/Home Trailer', '24 - Camper', '25 - Utility Trailer', '26 - Boat Trailer', '27 - Farm Equipment', '28 - Other', '29 - Unknown']</t>
         </is>
@@ -1907,18 +2199,32 @@
       <c r="P22" t="n">
         <v>5201</v>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>54188</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
         <v>3282229</v>
       </c>
-      <c r="S22" t="n">
+      <c r="W22" t="n">
         <v>252</v>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>['0', '10', '1001', '1003', '1004', '1005', '1006', '1007', '1008', '1009', '1010', '1012', '1013', '1014', '1071', '1076', '1088', '11', '1111', '1145', '1186', '1196', '1197', '1199', '12', '1299', '1312', '1357', '1368', '1411', '1478', '1549', '1616', '1665', '1776', '1865', '1879', '1886', '1887', '1894', '1900', '1920', '1925', '1930', '1931', '1932', '1936', '1951', '1952', '1953', '1957', '1958', '1962', '1963', '1964', '1965', '1966', '1967', '1968', '1969', '1970', '1971', '1972', '1973', '1974', '1975', '1976', '1977', '1978', '1979', '1980', '1981', '1982', '1983', '1984', '1985', '1986', '1987', '1988', '1989', '1990', '1991', '1992', '1993', '1994', '1995', '1996', '1997', '1998', '1999', '2000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '2020', '2021', '2022', '2023', '2024', '2025', '2031', '2033', '2040', '2044', '205', '2050', '2055', '2066', '2077', '2088', '2090', '2091', '2096', '2099', '2100', '2101', '2102', '2103', '2104', '2105', '211', '2110', '2112', '2179', '220', '2200', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2258', '2295', '2331', '2373', '2442', '2452', '2500', '2502', '2511', '2773', '2901', '2911', '2912', '2913', '2914', '2919', '2941', '2986', '2991', '2992', '2993', '2994', '2995', '2996', '2997', '2998', '3002', '3003', '3004', '3005', '3007', '3008', '3010', '3013', '3014', '3096', '3104', '3111', '3113', '3201', '3244', '3316', '3373', '3435', '3503', '3510', '3517', '3574', '3776', '3790', '3802', '3861', '3886', '4', '4046', '4122', '4200', '4209', '4313', '4515', '4580', '4706', '5', '5004', '5005', '5237', '5256', '5257', '5265', '5300', '5338', '5397', '5421', '5450', '5456', '5470', '5603', '5709', '5772', '5843', '6', '6153', '620', '6338', '6838', '7266', '7513', '7575', '798', '8', '8615', '8739', '9', '9035', '93', '9382', '95', '9510', '9563', '97', '9867', '9999']</t>
         </is>
@@ -1977,18 +2283,32 @@
       <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>`TOYOTA</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>89653</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
         <v>4137831</v>
       </c>
-      <c r="S23" t="n">
+      <c r="W23" t="n">
         <v>2762</v>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>["'NISSAN", ',EX', ',LEXUS', '-', '----', '....', '00', '0000', '0LDS', '0LDSMOBILE', '1990', '1995', '1999', '1=TOYT', '2000XK8', '2004', '2005', '2006', '2007', '2010', '2011', '2013', '2014', '2AC9011', '2AF9852', '2AN5185', '2BD3611', '2DR', '2S', '3', '325', '325I', '36V663', '3FNY97', '3MD4389', '4 DR', '4 RUNNERTOYOTA', '4D', '4DOOR', '4DR', '4RUNNER', '4S', '4STOYOTA', '5AF4097', '5AJ8506', '5BL2341', '6BR9831', '70000', '7BE9868', '8BD1682', '99', '9BT8644', '9CAZ95', ';EXU', 'A', 'A URA', 'ACC', 'ACCENT', 'ACCORD', 'ACCU', 'ACCUR', 'ACCURA', 'ACIRA', 'ACORA', 'ACRA', 'ACRU', 'ACRUA', 'ACRURA', 'ACU', 'ACUA', 'ACUAR', 'ACUARA', 'ACUFRA', 'ACUIRA', 'ACUR', 'ACUR G', 'ACUR TL', 'ACURA', 'ACURA 4D', 'ACURA 4S', 'ACURA TK', 'ACURA TL', 'ACURA4DR', 'ACURAX', 'ACURRA', 'ACURS', 'ACURU', 'ACURUA', 'ACURVAL', 'ACURVAL1996', 'ACURVAL2003', 'ACURVAL2004', 'ACURVAL2008', 'ACURVAL2010', 'ACUTA', 'ACUURA', 'ACYRA', 'ACYUA', 'ADILLAC', 'ADLY', 'ADUI', 'ADVA', 'ADVENGER', 'AEILLA', 'AGA', 'AIDI', 'AIRS', 'ALERO', 'ALFA', 'ALFA ROMEO', 'ALTIMA', 'AM GENERAL', 'AMC', 'AMER', 'AMERICAN', 'AMMO', 'AMO', 'ANDE', 'AOTAO', 'APRI', 'APRIL', 'APRILIA', 'APRILLA', 'APRILLIA', 'ARCURA', 'ARISING', 'ASM', 'AST', 'ASTO', 'ASTON MARTIN', 'ASTRO', 'ASTRO MARTIN', 'ATM', 'AU', 'AUBU', 'AUCI', 'AUCRA', 'AUD', 'AUDDI', 'AUDI', 'AUDIE', 'AUDII', 'AUDIO', 'AUDIQ', 'AUDIVAL2008', 'AUDIVAL2011', 'AUDO', 'AUDU', 'AUDY', 'AUGI', 'AUI', 'AUID', 'AUIDI', 'AUR', 'AURA', 'AURRA', 'AUTO', 'AVALON', 'AVANTI', 'AVCURA', 'AVUR', 'AVURA', 'B,W', 'B0W', 'BAJA', 'BARCH', 'BART', 'BARTLEY', 'BASH', 'BASHAN', 'BEAMER', 'BELMONT', 'BEND', 'BENT', 'BENTLEY', 'BENTLY', 'BENZ', 'BETERBUILT', 'BETT', 'BICYCLE', 'BIG', 'BIG TEX', 'BIGT', 'BIGTEX', 'BINTELLI', 'BIUCK', 'BIUICK', 'BLACK', 'BLK', 'BLUE', 'BLUE BIRD', 'BM', 'BMC', 'BMD', 'BME', 'BMI', 'BMQBMW', 'BMS', 'BMV', 'BMW', 'BMW CN', 'BMW MINI', 'BMW2S', 'BMW740SI', 'BMWV', 'BMWVAL1995', 'BMWVAL2006', 'BMWVAL2007', 'BMWVAL2009', 'BMWVAL2011', 'BMWX1', 'BMW`', 'BMW`1', 'BMX', 'BNW', 'BNZ', 'BOMW', 'BONA', 'BOSS', 'BOUN', 'BOX TRUCK', 'BRAN', 'BRAVO', 'BRI', 'BRI MAR', 'BRI-MAR', 'BRIM', 'BRIMAR', 'BRMA', 'BRMR', 'BRP', 'BRUICK', 'BTEX', 'BUCIK', 'BUCK', 'BUEL', 'BUELL', 'BUI', 'BUI CK', 'BUIC', 'BUIC2', 'BUICJ', 'BUICK', 'BUICK 4S', 'BUICK TK', 'BUICK VAN', 'BUICK \\', 'BUICK`', 'BUICL', 'BUIICK', 'BUIK', 'BUIX', 'BULL', 'BUS', 'BUTL', 'BUUICK', 'BUYANG', 'BW', 'BWI', 'BWM', 'BWN', 'BWW', 'BYUN', 'C300', 'CAAB', 'CAADILLAC', 'CAD', 'CADA', 'CADALAC', 'CADALIC', 'CADALLAC', 'CADALLIAC', 'CADALLIC', 'CADD', 'CADDI', 'CADDIE', 'CADDILAC', 'CADDILLAC', 'CADDY', 'CADI', 'CADI SUV', 'CADIALLAC', 'CADIL', 'CADILAC', 'CADILACGT', 'CADILACK', 'CADILIAC', 'CADILLA', 'CADILLAC', 'CADILLACE', 'CADILLAIC', 'CADILLIAC', 'CADILLIC', 'CADILLLAC', 'CADIVAL2014', 'CADL', 'CADLI', 'CADLLAC', 'CADO', 'CADU', 'CADULLAC', 'CADY', 'CAFILLAC', 'CAIDILAC', 'CAILLAC', 'CAM', 'CAMA', 'CAMARO', 'CAMRY', 'CAN AM', 'CAON', 'CAPRICE', 'CARAVAN', 'CARG', 'CARGO', 'CARGO MATE', 'CARR', 'CARRY', 'CARRY ON', 'CARY', 'CASI', 'CAT', 'CATALAC', 'CATR', 'CBR', 'CCC', 'CCHEVY', 'CDILLAC', 'CEHEVROLET', 'CEHV', 'CEHVROLET', 'CEHVY', 'CEV', 'CEVEROLET', 'CEVROLET', 'CEVY', 'CGEVY', 'CH', 'CHAN', 'CHAVY', 'CHE', 'CHE V', 'CHE VY', 'CHEB', 'CHEBROLET', 'CHEBY', 'CHEC', 'CHECK', 'CHECROLET', 'CHECY', 'CHEEVY', 'CHEEY', 'CHEN', 'CHENY', 'CHER', 'CHEROKEE', 'CHEROLET', 'CHEROVET', 'CHERVOLET', 'CHERVROLET', 'CHEV', 'CHEV  PICKUP', 'CHEV (GEO)', 'CHEV GEO', 'CHEV IMPALA', 'CHEV.', 'CHEV/GEO', 'CHEVE', 'CHEVERLET', 'CHEVERLOT', 'CHEVERLOTTE', 'CHEVEROLET', 'CHEVEROLT', 'CHEVEY', 'CHEVF', 'CHEVL', 'CHEVOLET', 'CHEVOLETE', 'CHEVOLLET', 'CHEVOLRET', 'CHEVORELT', 'CHEVORLET', 'CHEVORLETT', 'CHEVORLEY', 'CHEVOROLET', 'CHEVQ', 'CHEVR', 'CHEVRELET', 'CHEVRLET', 'CHEVRLETE', 'CHEVRLO', 'CHEVRLOTE', 'CHEVRO', 'CHEVRO;ET', 'CHEVROET', 'CHEVROLE', 'CHEVROLEET', 'CHEVROLER', 'CHEVROLERT', 'CHEVROLET', 'CHEVROLETE', 'CHEVROLETTE', 'CHEVROLETY', 'CHEVROLEY', 'CHEVROLLET', 'CHEVROLLETE', 'CHEVROLRET', 'CHEVROLT', 'CHEVROLTET', 'CHEVROLVER', 'CHEVROOET', 'CHEVROOLET', 'CHEVRPLET', 'CHEVRY', 'CHEVT', 'CHEVTOLET', 'CHEVU', 'CHEVVAL1984', 'CHEVVAL1997', 'CHEVVAL2001', 'CHEVVAL2002', 'CHEVVAL2003', 'CHEVVAL2007', 'CHEVVAL2013', 'CHEVVAL2014', 'CHEVVY', 'CHEVY', 'CHEVY GEO', 'CHEVY I', 'CHEVY SUB', 'CHEVY TRAVERSE', 'CHEVY VAN', 'CHEVY4DR', 'CHEVYROLET', 'CHEY', 'CHEYSLER', 'CHEYV', 'CHHEVY', 'CHHRYSLER', 'CHON', 'CHONGOING', 'CHR', 'CHREY', 'CHRIS', 'CHRISL', 'CHRISLER', 'CHRISTLER', 'CHRL', 'CHRRYSLER', 'CHRS', 'CHRSLER', 'CHRSLY', 'CHRSLYER', 'CHRSY', 'CHRSYLER', 'CHRSYSLER', 'CHRTSLER', 'CHRUS', 'CHRUSLER', 'CHRUSTLER', 'CHRV', 'CHRVEROLET', 'CHRVROLET', 'CHRY', 'CHRY TK', 'CHRY.', 'CHRYL', 'CHRYLER', 'CHRYLSER', 'CHRYS', 'CHRYSELER', 'CHRYSER', 'CHRYSKER', 'CHRYSL', 'CHRYSLAR', 'CHRYSLEER', 'CHRYSLER', 'CHRYSLER 300', 'CHRYSLERQ', 'CHRYSLERT', 'CHRYSLET', 'CHRYSLEY', 'CHRYSLLER', 'CHRYSLR', 'CHRYSLTER', 'CHRYSLYER', 'CHRYSTLAR', 'CHRYSTLE', 'CHRYSTLER', 'CHRYSTLET', 'CHRYVAL2000', 'CHRYVAL2006', 'CHRYVAL2007', 'CHRYXLER', 'CHRYYSLER', 'CHTY', 'CHTYSLER', 'CHUANL', 'CHV', 'CHVE', 'CHVEOLET', 'CHVEROLET', 'CHVEY', 'CHVRLOLET', 'CHVROLET', 'CHVY', 'CHVYE', 'CHWVY', 'CHY', 'CHYR', 'CHYRL', 'CHYRS', 'CHYRSLER', 'CHYRSTLER', 'CHYRYSLER', 'CHYS', 'CHYSLER', 'CIDI', 'CIMC', 'CIVIC', 'CJEV', 'CJEVROLET', 'CJEVY', 'CK', 'CMC', 'CNEV', 'CNRY', 'COAC', 'COACHMEN', 'COBALT', 'COBRA', 'COGAR', 'COLCO', 'COLUMBIA', 'CONCORDE', 'CONT', 'CONTINENTAL', 'CONV', 'COOLSTER', 'COOPER', 'COPPER', 'COROLLA', 'CORVETTE', 'COTC', 'COUGAR', 'COXS', 'CPI', 'CRAFTSMAN', 'CRAN', 'CRANE', 'CRANE CARRIER', 'CRCA', 'CRHRSLER', 'CRHRY', 'CRHY', 'CRHYSLER', 'CRNE', 'CRRY', 'CRRYSLER', 'CRUZ', 'CRV', 'CRY', 'CRYH', 'CRYLSER', 'CRYN', 'CRYO', 'CRYS', 'CRYSLER', 'CRYSLR', 'CRYSTLER', 'CUEVY', 'CURA', 'CUST', 'CVEV', 'CVEVROLET', 'CYCC', 'CYRSLER', 'CYSLER', 'CYSTLER', 'D &amp; D TRAILER', 'D0DGE', 'DA', 'DADG', 'DADGE', 'DAEW', 'DAEWO', 'DAEWOO', 'DAIMLER', 'DAKOTA', 'DANG FONG', 'DANZ', 'DASH', 'DATS', 'DATSUN', 'DCION', 'DDGE', 'DDODGE', 'DEALER', 'DEISEL', 'DELRAY', 'DEMATA', 'DF4958', 'DIAM', 'DIAMOND STAR', 'DIAMOND T', 'DIAMONDBACK', 'DIDG', 'DIDGE', 'DISCOVERY', 'DLR', 'DLR TAG DODGE', 'DM', 'DMW', 'DOD', 'DODB', 'DODDE', 'DODDGE', 'DODE', 'DODEGE', 'DODG', 'DODG CARAVAN', 'DODGE', 'DODGE RAM', 'DODGECHEVY', 'DODGEE', 'DODGEG', 'DODGEQ', 'DODGGE', 'DODGR', 'DODGVAL2006', 'DODGVAL2008', 'DODGVAL2012', 'DODGVAL2013', 'DODGVAL2014', 'DODHE', 'DODKE', 'DODODGE', 'DOGD', 'DOGDE', 'DOGE', 'DOGG', 'DOGGE', 'DONDE', 'DONF', 'DONG', 'DONGFANG', 'DOODGE', 'DORD', 'DORS', 'DOSGE', 'DOTSON', 'DTKON', 'DUCA', 'DUCAT', 'DUCATI', 'DUCOTI', 'DUKATI', 'DUMP', 'DYKO', 'DYKON', 'E-TON BEAMER', 'E320', 'E350', 'EADU', 'EAGL', 'EAGLE', 'EASY', 'ECLIPSE', 'ECOLINE', 'ECON', 'EDMP', 'EEP', 'EGIL', 'ELANTRA', 'ELDO', 'ELGI', 'EM', 'EPD', 'EPO', 'ERIC', 'ERZ', 'ES-DUMP', 'ESCALADE', 'ESCO', 'ESCORT', 'ETO', 'ETON', 'EVEREST', 'EXPEDITION', 'EXTREEM SCOOTER', 'EXTREME', 'EZ DUMPER', 'EZDU', 'F0RD', 'F550FORD', 'FABRIQUE', 'FACE', 'FAOTAO', 'FED EX TK', 'FERR', 'FERRARI', 'FFORD', 'FHRT', 'FHTL', 'FIAT', 'FIATVAL2012', 'FINN', 'FIRD', 'FLAT', 'FLY SCOOTER', 'FLYER', 'FMC', 'FOD', 'FODE', 'FODR', 'FOED', 'FOEDQ', 'FOOD', 'FOORD', 'FOR', 'FORC', 'FORD', 'FORD CAB', 'FORD CROWN VIC', 'FORD E250', 'FORD EXPEDITION', 'FORD F450', 'FORD FUSION', 'FORD MUSTANG', 'FORD SUV', 'FORD T', 'FORD TK', 'FORD VAN', 'FORD1', 'FORD5', 'FORDCN', 'FORDD', 'FORDE', 'FORDQ', 'FORDVAL1998', 'FORDVAL2000', 'FORDVAL2002', 'FORDVAL2004', 'FORDVAL2006', 'FORDVAL2007', 'FORDVAL2008', 'FORDVAL2010', 'FORDVAL2011', 'FORDVAL2012', 'FORED', 'FORF', 'FORJ', 'FORK', 'FORS', 'FORT', 'FOSTI', 'FPHT', 'FPRD', 'FRD', 'FRDFORD', 'FRE', 'FREI', 'FREIGHLINER', 'FREIGHLNR', 'FREIGHT', 'FREIGHT DS', 'FREIGHT HAULER', 'FREIGHT LINER', 'FREIGHT LNR', 'FREIGHT VAN', 'FREIGHTER', 'FREIGHTL', 'FREIGHTLINE', 'FREIGHTLINEER', 'FREIGHTLINER', 'FREIGHTLINRT', 'FREIGHTLNR', 'FREIGHTTK', 'FRG', 'FRGHT', 'FRGHTLINER', 'FRGT', 'FRHT', 'FRHT TK', 'FRHTLNER', 'FRHY', 'FRIE', 'FRIEGHTLINER', 'FRIGHTLINER', 'FRITO LAY TK', 'FRLI', 'FROD', 'FRORD', 'FRRW', 'FRT', 'FRT LINER', 'FRTL', 'FTL', 'FTLR', 'FTR', 'FUJI', 'FUSO', 'GATOR', 'GC', 'GDAN', 'GEIO', 'GENE', 'GENERAL MOTOR', 'GENERAL MOTORS', 'GENEVAL2002', 'GENEVAL2008', 'GENU', 'GENUI', 'GENUINE', 'GENUINE SCOOTER', 'GEO', 'GEO(CHEVY)', 'GEO/CHEVY', 'GIANT', 'GIL', 'GILL', 'GILLEG', 'GILLIG', 'GILLIG LLC', 'GILLIS', 'GIO', 'GM', 'GMC', 'GMC TK', 'GMC TRUCK', 'GMF', 'GMG', 'GMS', 'GMV', 'GMX', 'GMZ', 'GNC', 'GOCO', 'GOE', 'GOLD', 'GOLDEN BEE', 'GONDA', 'GORD', 'GORRILLA', 'GRAND', 'GRAND CHEROKEE', 'GRAND MARQ', 'GRAND MARQUIS', 'GRAY', 'GRUMAN', 'GRUMMAN', 'GT', 'H0ND', 'H0NDA', 'H6NDA', 'HACKNEY', 'HAND', 'HANDA', 'HARI', 'HARL', 'HARL DAV', 'HARLEY', 'HARLEY DAV', 'HARLEY DAVID', 'HARLEY DAVIDSON', 'HARLEY-DAVIDSON', 'HARLEYDAVIDSON', 'HAUL', 'HAWK', 'HD', 'HD TRUCK', 'HEAVY DUTY', 'HEIL', 'HEV', 'HHONDA', 'HHYUNDA', 'HHYUNDAI', 'HIA', 'HIND', 'HINDA', 'HINO', 'HIOND', 'HIONDA', 'HISS', 'HIUNDAY', 'HMC', 'HMDE', 'HND', 'HNDA', 'HNO', 'HNODA', 'HOADA', 'HOBDA', 'HOCNDA', 'HODA', 'HODDA', 'HODNA', 'HOHD', 'HOIDNA', 'HOINDA', 'HOLM', 'HOMD', 'HOMDA', 'HOME', 'HOME MADE', 'HOMEMADE', 'HOMS', 'HON', 'HON DA', 'HONA', 'HONAD', 'HONADA', 'HOND', 'HONDA', 'HONDA  2D', 'HONDA 2S', 'HONDA 4D', 'HONDA 4DR', 'HONDA B', 'HONDA CIVIC', 'HONDA CIVIV', 'HONDA CRV', 'HONDA ELEMENT', 'HONDA ODYSSEY', 'HONDA1', 'HONDA2D', 'HONDA2DR', 'HONDA4', 'HONDAA', 'HONDAC', 'HONDACIB=', 'HONDACIV', 'HONDACRV', 'HONDAD', 'HONDAHYUNDAI', 'HONDAI', 'HONDAQ', 'HONDASILVER', 'HONDAY', 'HONDA]', 'HONDA`', 'HONDDA', 'HONDQ', 'HONDS', 'HONDSA', 'HONDVA', 'HONDVAL', 'HONDVAL1994', 'HONDVAL1996', 'HONDVAL1998', 'HONDVAL1999', 'HONDVAL2000', 'HONDVAL2003', 'HONDVAL2005', 'HONDVAL2006', 'HONDVAL2007', 'HONDVAL2008', 'HONDVAL2009', 'HONDVAL2012', 'HONDVAL2013', 'HONDVAL2014', 'HONDY', 'HOND`', 'HONF', 'HONG', 'HONGA', 'HONHDA', 'HONND', 'HONNDA', 'HONODA', 'HONS', 'HONSA', 'HONTD', 'HOONDA', 'HPNDA', 'HTUNDAI', 'HUAND', 'HUCA', 'HUDAYI', 'HUDS', 'HUDSON', 'HUINDAY', 'HUMAN', 'HUMAN BEING', 'HUMER', 'HUMM', 'HUMMER', 'HUN', 'HUND', 'HUNDA', 'HUNDAI', 'HUNDAY', 'HUNDAYI', 'HUNDI', 'HUNDY', 'HUNDYAI', 'HUNDYI', 'HUNI', 'HUNY', 'HUUNDAI', 'HUY', 'HUYAND', 'HUYANDAI', 'HUYDAI', 'HUYN', 'HUYNA', 'HUYND', 'HUYNDAI', 'HUYNDAY', 'HUYNDI', 'HUYNDIA', 'HUYUND', 'HUYUNDA', 'HUYUNDAI', 'HUYUNDI', 'HUZH', 'HWK', 'HY', 'HYAN', 'HYANDAI', 'HYANDAU', 'HYANDI', 'HYANDIA', 'HYANDUI', 'HYAUNDAI', 'HYDR', 'HYDU', 'HYINDAI', 'HYN', 'HYND', 'HYNDA', 'HYNDAI', 'HYNDAY', 'HYNDI', 'HYNDIA', 'HYNDUAI', 'HYNI', 'HYNNDAI', 'HYNU', 'HYNUDAI', 'HYNUNDAI', 'HYTR', 'HYU', 'HYU N', 'HYU NDAI', 'HYU NDIA', 'HYUADAI', 'HYUANDAI', 'HYUANDI', 'HYUD', 'HYUDA', 'HYUDAI', 'HYUDDAI', 'HYUDIA', 'HYUMDAI', 'HYUN', 'HYUN DAI', 'HYUNA', 'HYUNADAI', 'HYUNAI', 'HYUNANDI', 'HYUND', 'HYUNDA', 'HYUNDA5', 'HYUNDAI', 'HYUNDAI/', 'HYUNDAII', 'HYUNDAIN', 'HYUNDAIQ', 'HYUNDAIR', 'HYUNDAIW', 'HYUNDAI`', 'HYUNDAO', 'HYUNDAU', 'HYUNDAY', 'HYUNDDIA', 'HYUNDHI', 'HYUNDI', 'HYUNDIA', 'HYUNDOIA', 'HYUNDUI', 'HYUNDY', 'HYUNNDAI', 'HYUNUDAI', 'HYUNVA', 'HYUNVAL2000', 'HYUNVAL2005', 'HYUNVAL2008', 'HYUNVAL2010', 'HYUNVAL2011', 'HYUNVAL2012', 'HYUNVAL2014', 'HYUUN', 'HYUUNDAI', 'HYYNDAI', 'HYYUNDA', 'I FINITI', 'IC', 'ICEB', 'IFIN', 'IFINI', 'IFINITI', 'IFINITY', 'IHC', 'IKIA', 'IMC', 'IMPALA', 'IMPALACHEVY', 'IMPE', 'INCOLN', 'INF', 'INFI', 'INFIINITI', 'INFIINTI', 'INFIITI', 'INFIITIT', 'INFIITY', 'INFIMITI', 'INFIN', 'INFINI', 'INFINIETE', 'INFINIITI', 'INFININTI', 'INFINIT', 'INFINITE', 'INFINITI', 'INFINITIE', 'INFINITIF', 'INFINITII', 'INFINITIT', 'INFINITU', 'INFINITY', 'INFINITYI', 'INFINNITY', 'INFINTE', 'INFINTI', 'INFINTIT', 'INFINTY', 'INFIT', 'INFITI', 'INFITNITE', 'INFITY', 'INFIVA', 'INFIVAL2010', 'INFN', 'INFNIITI', 'INFNITI', 'INFNTI', 'INFONITI', 'INFT', 'INI', 'INIF', 'INIFINIT', 'INIFINITI', 'INIFINITY', 'INIFITI', 'INIFNITY', 'ININITY', 'INIT', 'INT', "INT'L", 'INTE', 'INTENATIONAL', 'INTER', 'INTERCHANGEABLE', 'INTERN', 'INTERNA', 'INTERNAT', 'INTERNATINAL', 'INTERNATION', 'INTERNATIONA', 'INTERNATIONAL', 'INTERNATIONAL D', 'INTERNATL', 'INTERNL', 'INTERTATIONAL', 'INTL', 'INTNL', 'INTO', 'INTR', 'INVINITI', 'ION', 'ISAN', 'ISSAN', 'ISSUZU', 'ISU', 'ISUK', 'ISUKU', 'ISUSU', 'ISUZ', 'ISUZ TK', 'ISUZI', 'ISUZO', 'ISUZU', 'ISUZU RODEO', 'ISUZUE', 'ISUZUI', 'ISUZVAL1998', 'ISZ', 'ISZU', 'ISZUU', 'ISZUZU', 'ITSUBISHI', 'IUSUZU', 'IUZU', 'IVEC', 'IZU', 'IZUSU', 'IZUZ', 'IZUZU', 'JAG', 'JAGR', 'JAGU', 'JAGUA', 'JAGUAR', 'JAGUVAL1991', 'JAHUAR', 'JANGUAR', 'JANUAR', 'JAOTAO', 'JAQUAR', 'JATAO', 'JAUG', 'JAUGUAR', 'JAYCO', 'JEE', 'JEED', 'JEEF', 'JEEM', 'JEEO', 'JEEP', 'JEEP 4D', 'JEEP TK', 'JEEPD', 'JEEPP', 'JEEPQ', 'JEEPSUV', 'JEEPVAL1998', 'JEEPVAL1999', 'JEEPVAL2010', 'JEEPVAL2014', 'JEET', 'JEFF', 'JEP', 'JEPP', 'JETTA', 'JIA', 'JIALING', 'JJEEP', 'JMPOWERSPORTS', 'JMST', 'JMSTAR POWER SP', 'JOHN DEERE', 'JOND', 'JONDA', 'JONWAY', 'JRTR', 'JUGAR', 'JYUNDAI', 'KA', 'KAASAKI', 'KAI', 'KAITONG', 'KAKA', 'KALW', 'KARA', 'KAUF', 'KAUFMAN', 'KAW', 'KAWA', 'KAWAS', 'KAWASACKI', 'KAWASAKI', 'KAWASKI', 'KAWC', 'KAWI', 'KAWK', 'KAWSAKI', 'KEEP', 'KEEWAY', 'KEN', 'KEN WORTH', 'KENDON', 'KENILWORTH', 'KENIWERTH', 'KENIWORTH', 'KENOWORTH', 'KENTWORTH', 'KENW', 'KENWOOD', 'KENWORT', 'KENWORTH', 'KENWOTH', 'KENWTR', 'KEXS', 'KEXUS', 'KI', 'KIA', 'KIA OPTIMA', 'KIAV', 'KIAVAL2004', 'KIAVAL2005', 'KIAVAL2007', 'KIDA', 'KINC', 'KING RING', 'KINGRING', 'KINO', 'KIS', 'KMCO', 'KRAFT', 'KRYS', 'KTM', 'KW', 'KWAK', 'KWASAKI', 'KWDT', 'KYCO', 'KYMC', 'KYMCO', 'L300', 'LA JOLLA', 'LA ND ROVER', 'LAM', 'LAMB', 'LAMBO', 'LAMBORGHINI', 'LAMO', 'LAND', 'LAND  ROVER', 'LAND OVER', 'LAND RANGER', 'LAND RAOVER', 'LAND ROER', 'LAND ROV', 'LAND ROVER', 'LAND ROVR', 'LAND RVER', 'LAND RVR', 'LANDCRU', 'LANDCRUSIER', 'LANDDROVER', 'LANDOVER', 'LANDR', 'LANDRO', 'LANDROV', 'LANDROVER', 'LANDRVR', 'LANDVAL2013', 'LANK', 'LANR', 'LANROVER', 'LARO', 'LDRV', 'LEEXUS', 'LEIKE', 'LES', 'LESL', 'LEUS', 'LEUX', 'LEVUS', 'LEX', 'LEXAS', 'LEXES', 'LEXI', 'LEXIS', 'LEXIUS', 'LEXO', 'LEXS', 'LEXSUS', 'LEXU', 'LEXUA', 'LEXUAS', 'LEXUC', 'LEXUD', 'LEXUE', 'LEXUES', 'LEXUS', 'LEXUS 4S', 'LEXUSQ', 'LEXUSTR', 'LEXUUS', 'LEXUVAL1992', 'LEXUVAL2003', 'LEXUVAL2004', 'LEXUVAL2006', 'LEXUX', 'LEXUXS', 'LEXUXUS', 'LEXUZ', 'LEXXUS', 'LEXZ', 'LEZUS', 'LIA', 'LIC', 'LICN', 'LICOLIN', 'LICOLN', 'LIEBHERR', 'LIN', 'LINC', 'LINC TRUCK', 'LINCILN', 'LINCILNBL', 'LINCL', 'LINCLN', 'LINCLON', 'LINCO', 'LINCOL', 'LINCOLIN', 'LINCOLN', 'LINCOLNN', 'LINCON', 'LINCONLN', 'LINCVAL2000', 'LINCVAL2001', 'LINGYU', 'LINK', 'LINNC', 'LINNCOLN', 'LINVOLN', 'LLEX', 'LLV', 'LND ROVER', 'LND RVR', 'LNDR', 'LNDROVER', 'LNDRVR', 'LNRR', 'LOAD', 'LOAD TRAIL', 'LOBO', 'LODA', 'LODAL', 'LONCIN 110CC', 'LONCOLN', 'LONGBO', 'LORI', 'LOTU', 'LOTUS', 'LOUTUS', 'LRD400', 'LROV', 'LRXUS', 'LTE', 'LUXU', 'LUXUS', 'LXUS', 'LYMOUTH', 'LYNX', 'M BENZ', 'M-BENZ', 'M/BENZ', 'M34Z', 'MAC', 'MACK', 'MACL', 'MAD', 'MADA', 'MADD', 'MADZ', 'MADZA', 'MADZDA', 'MAIL', 'MAKE', 'MALIBU', 'MARC', 'MARMON', 'MARYLAND', 'MARZ', 'MASARATTI', 'MASD', 'MASDA', 'MASE', 'MASERAII', 'MASERATI', 'MASERATTI', 'MASERITI', 'MASR', 'MAST', 'MASTER', 'MASTERCRAFT', 'MASTERLOAD', 'MASTERTRACK', 'MASTERTRAK', 'MASZ', 'MATL', 'MATR', 'MATRIX', 'MAVDA', 'MAXD', 'MAXDA', 'MAXIMA', 'MAXUM', 'MAZ', 'MAZA', 'MAZADA', 'MAZD', 'MAZD SW', 'MAZDA', 'MAZDA 6', 'MAZDA3', 'MAZDAD', 'MAZDA`', 'MAZDVA', 'MAZDVAL1999', 'MAZDVAL2004', 'MAZDVAL2007', 'MAZDVAL2011', 'MAZDVAL2014', 'MAZDZ', 'MAZFA', 'MAZRA', 'MAZS', 'MAZSA', 'MAZZDA', 'MB', 'MBENZ', 'MBW', 'MBY', 'MC', 'MCELRATH', 'MCI', 'MCIN', 'MD', 'MDX', 'MEBE', 'MEBZ', 'MECE', 'MECEDES', 'MECEDEZ', 'MECRURY', 'MECURT', 'MECURY', 'MEERCEDES', 'MEES', 'MEITIAN', 'MER', 'MER URY', 'MER/BENZ', 'MERB', 'MERBENZ', 'MERC', 'MERC BENZ', 'MERC BNZ', 'MERC DODGE', 'MERC. BENZ', 'MERCADE BENZ', 'MERCADE-BENZ', 'MERCADES', 'MERCADES-BENZ', 'MERCADEZ', 'MERCB', 'MERCBEN', 'MERCCURY', 'MERCD', 'MERCDES', 'MERCDZ', 'MERCE', 'MERCE-BENZ', 'MERCEADES', 'MERCED', 'MERCEDE', 'MERCEDEA', 'MERCEDEC', 'MERCEDED', 'MERCEDEDS', 'MERCEDEES', 'MERCEDES', 'MERCEDES AMG', 'MERCEDES BANZ', 'MERCEDES BEMZ', 'MERCEDES BEN', 'MERCEDES BENX', 'MERCEDES BENZ', 'MERCEDES MENZ', 'MERCEDES TK', 'MERCEDES-BENS', 'MERCEDES-BENZ', 'MERCEDES-BNZ', 'MERCEDESBENZ', 'MERCEDEX', 'MERCEDEZ', 'MERCEDEZ BENS', 'MERCEDEZ BENZ', 'MERCEDEZ BNZ', 'MERCEDEZ-BENZ', 'MERCEDEZ/AMG', 'MERCEDEZQ', 'MERCEDS', 'MERCEDZ', 'MERCEEDES', 'MERCENDES', 'MERCERDES', 'MERCESDES', 'MERCESED', 'MERCEZ', 'MERCHURY', 'MERCIDEZ', 'MERCQ', 'MERCRUY', 'MERCU', 'MERCUCY', 'MERCUR', 'MERCURAY', 'MERCURI', 'MERCURT', 'MERCURY', 'MERCUY', 'MERCVAL2000', 'MERCVAL2001', 'MERCVAL2004', 'MERCVAL2011', 'MERCVAL2012', 'MERCVAL2013', 'MERCVAL2014', 'MERCY', 'MERCYRT', 'MERCZ', 'MERCZDEZ', 'MERD', 'MERECEDES', 'MERK', 'MERQ', 'MERQUIS', 'MERS', 'MERSEDES', 'MERSEDES-BENZ', 'MERURY', 'MERVEDES', 'MERVEDEZ', 'MERX', 'MERXZ', 'MERZ', 'MERZ B', 'MERZ BENZ', 'MERZ-BENX', 'MERZADES', 'MERZADEZ', 'MERZB', 'MERZD', 'MERZE', 'MERZEDES', 'MERZEDS', 'MERZS', 'METRO', 'METROPOLITAN', 'MEZ', 'MEZDA', 'MG', 'MI/F', 'MI/FU', 'MIAT', 'MIFU', 'MIITS', 'MIITSUBISHI', 'MILL', 'MIMI', 'MIN', 'MIN COOPER', 'MINC', 'MINI', 'MINI CN', 'MINI COOP', 'MINI COOPER', 'MINIBIKE', 'MINICOOP', 'MINICOOPER', 'MINII', 'MININ', 'MINIVAL2011', 'MINIVAL2013', 'MINNI', 'MINO', 'MIRS', 'MIS', 'MISA', 'MISBSHI', 'MISS', 'MISSAN', 'MISSUBISHI', 'MIST', 'MISTH', 'MISTI', 'MISTS', 'MISTSUBISHI', 'MISTU', 'MISTUBISHI', 'MISTUBUISHI', 'MISUBISHI', 'MIT', 'MITCH', 'MITI', 'MITIBISHI', 'MITIS', 'MITISBISHI', 'MITISHBSHI', 'MITISHIBISHI', 'MITISIBISHI', 'MITISUBISHI', 'MITISUBUSHI', 'MITS', 'MITS.', 'MITSABUSHI', 'MITSB', 'MITSBISHI', 'MITSBISHII', 'MITSBUISHI', 'MITSBUSHI', 'MITSH', 'MITSHUBISHI', 'MITSI', 'MITSIBISH', 'MITSIBISHI', 'MITSIBUSHI', 'MITSIUBISHI', 'MITSU', 'MITSUB', 'MITSUBASHI', 'MITSUBESHI', 'MITSUBICHI', 'MITSUBIGHI', 'MITSUBIHI', 'MITSUBIISHI', 'MITSUBISGU', 'MITSUBISH', 'MITSUBISHI', 'MITSUBISHI N-24', 'MITSUBISHIT', 'MITSUBISHI`', 'MITSUBISHU', 'MITSUBISHUI', 'MITSUBISI', 'MITSUBISIH', 'MITSUBISIU', 'MITSUBITSHI', 'MITSUBSHI', 'MITSUBSHI2DR', 'MITSUBUISHI', 'MITSUBUSHI', 'MITSUBUSHU', 'MITSUH.', 'MITSUIBISHI', 'MITSUISHI', 'MITSUSHI', 'MITSVAL2001', 'MITSVAL2006', 'MITSVAL2014', 'MITT', 'MITTS', 'MITTSIBTI', 'MITTSUBISHI', 'MITU', 'MITUBISHI', 'MITUSBISHI', 'MITUSHISHI', 'MITXS', 'MITXUBISHI', 'MITZ', 'MITZIBISHI', 'MITZU', 'MITZUBISHI', 'MIZUBISHI', 'MMERCEDES', 'MMERZ', 'MNI', 'MNNI', 'MNW', 'MODD', 'MODZ', 'MONDA', 'MONGOOSE', 'MONT', 'MONTECARLO', 'MOPED', 'MORGAN', 'MORI', 'MOTIVE', 'MOTO GUZZI', 'MOTOBRAVO', 'MOTOR', 'MOTOR SCOOTER', 'MOTORELI', 'MOTORIZED', 'MOTOVOX', 'MOTSUBISHI', 'MOZDA', 'MRC BENZ', 'MRCB', 'MRCD', 'MRCEDES', 'MRCEDES-BENZ', 'MRCEDEZ', 'MRCERDEZ', 'MRCURY', 'MRCY', 'MREC', 'MRECEDES', 'MRECEDEZ', 'MRECURY', 'MREZ', 'MRRZ', 'MRZ', 'MRZD', 'MSTR', 'MT', 'MTIS', 'MTS', 'MTT', 'MTZ', 'MUMMER', 'MURC', 'MURCRY', 'MURCURY', 'MURRAY', 'MUSTANG', 'MVAG', 'MW', 'MZADA', 'MZD', 'MZDA', 'N/A', 'NA', 'NAZDA', 'NDMC', 'NECR', 'NEO', 'NEON', 'NERCEDES', 'NERCURY', 'NERZ', 'NEW FLUER', 'NEW FLYER', 'NEW HOLLAND', 'NEW YORKER', 'NEWFLYER', 'NEXT', 'NFLY', 'NIAAN', 'NIAASAN', 'NIDSSAN', 'NIFINITI', 'NII', 'NIIS', 'NIISAN', 'NIISS', 'NIISSAN', 'NIISSIAN', 'NIITRO', 'NIMR', 'NINGBO', 'NINSAN', 'NIS', 'NISAAN', 'NISAN', 'NISD', 'NISIAN', 'NISN', 'NISS', 'NISS 4S', 'NISS.', 'NISSA', 'NISSA N', 'NISSAAN', 'NISSAB', 'NISSAK', 'NISSAM', 'NISSAN', 'NISSAN 4DR', 'NISSAN 4S', 'NISSAN FRONTEIR', 'NISSAN FRONTIER', 'NISSAN HD', 'NISSAN QUEST', 'NISSAN SENTRA', 'NISSANA', 'NISSANM', 'NISSANMAXIMA', 'NISSANN', 'NISSANS', 'NISSANSENTRA', 'NISSAN`', 'NISSAS', 'NISSASN', 'NISSAV', 'NISSEN', 'NISSIAN', 'NISSINA', 'NISSN', 'NISSNA', 'NISSON', 'NISSS', 'NISSSAN', 'NISSVAL1999', 'NISSVAL2005', 'NISSVAL2007', 'NISSVAL2011', 'NISSVAL2012', 'NISSVAL2013', 'NISSVAL2014', 'NISSVAN', 'NISU', 'NITS', 'NIXX', 'NIZZAN', 'NMW', 'NNISSAN', 'NNT', 'NO VEHICLE', 'NOISSAN', 'NOND', 'NONE', 'NOSSAN', 'NPR', 'NSS', 'NSSAN', 'NSSSAN', 'NT', 'NUS', 'NUSSAN', 'NYUNDAI', 'ODGE', 'ODLS', 'ODS', 'ODYSSEY', 'OIYOTA', 'OLD', 'OLD MOBILE', 'OLDESMOBILE', 'OLDMOBILE', 'OLDMOBLIE', 'OLDS', 'OLDS MOBILE', 'OLDSMOBIL', 'OLDSMOBILE', 'OLDSMOBILE`', 'OLDSMOBOLE', 'OLDSMOILE', 'OLDSVAL1994', 'OLS', 'OLSMOBILE', 'OND', 'ONDA', 'OPTIMA', 'ORD', 'ORI', 'ORINO', 'ORIO', 'ORION', 'ORKH', 'OTHER', 'OTHR', 'OUTB', 'OYOTA', 'OYOYA', 'P0NTIAC', 'PAAM', 'PACE', 'PACE SPORT', 'PAGSTA', 'PAMR', 'PASEO', 'PASSAT', 'PATH', 'PB', 'PEACE SPORTS', 'PED', 'PEDESTRIAN', 'PENSKE', 'PEOPLE', 'PEQU', 'PERM', 'PERO', 'PERSON', 'PET', 'PETE', 'PETEBULIT', 'PETER', 'PETER CON', 'PETERB', 'PETERBELT', 'PETERBILT', 'PETERBLT', 'PETERBU;LT', 'PETERBUILT', 'PETERBULIT', 'PETERBULT', 'PEUG', 'PHB', 'PIAGGIO', 'PIER SPEED', 'PINT', 'PJTM', 'PJTR', 'PLMONTH', 'PLMOUTH', 'PLMTH', 'PLUMOUTH', 'PLY', 'PLYM', 'PLYMONTH', 'PLYMOTH', 'PLYMOUTH', 'PLYMOUYH', 'PLYMUTH', 'PLYN', 'PMW', 'PNT', 'POCH', 'POINT', 'POINTIAC', 'POLA', 'POMT', 'POMTIAC', 'PONATIAC', 'PONIAC', 'PONIATIC', 'PONIT', 'PONITAC', 'PONT', 'PONT.', 'PONT4S', 'PONTAC', 'PONTAIC', 'PONTANIC', 'PONTATIC', 'PONTI', 'PONTIA', 'PONTIAC', 'PONTIACC', 'PONTIACE', 'PONTIACQ', 'PONTIAC`', 'PONTIAN', 'PONTIAV', 'PONTIC', 'PONTICA', 'PONTOAC', 'PONTVAL2000', 'PONTVAL2006', 'PONY', 'PONYIAC', 'POONTIAC', 'POPNTIAC', 'POR', 'PORC', 'PORCH', 'PORCHA', 'PORCHE', 'PORCHIA', 'PORCSHE', 'PORECHE', 'PORS', 'PORSC', 'PORSCE', 'PORSCGE', 'PORSCH', 'PORSCHE', 'PORSH', 'PORSH1', 'PORSHE', 'POSH', 'POTIAC', 'PREI', 'PREM', 'PREMIER', 'PREV', 'PREVOST', 'PRIUS', 'PRRSC', 'PRRSCHE', 'PT', 'PTR8', 'PTRB', 'PTRB TK', 'PYLMOUTH', 'PYMOUTH', 'QIANG JIAN', 'QLDS', 'QLINK', 'QUALITY', 'QUALITY STEEL', 'QUIC', 'QX4', 'R', 'RAM', 'RAMB', 'RANG', 'RANG ROV', 'RANG ROVER', 'RANGE', 'RANGE  ROVER', 'RANGE R', 'RANGE ROV', 'RANGE ROVER', 'RANGE ROVR', 'RANGE RVR', 'RANGER', 'RANGER ROVER', 'RANGEROVER', 'RANGERVR', 'RANGROVER', 'RANGSUV', 'RANNGE', 'RAV 4', 'RAV4', 'RAVE', 'RED', 'RENEGADE', 'RIDE ON', 'RIDE-ON', 'RIELLA', 'RNG ROVER', 'ROAD', 'ROCK', 'ROGE', 'ROGUENISSAN', 'ROKETA', 'ROLCE ROYCE', 'ROLL', 'ROLLS', 'ROLLS ROYCE', 'ROLLS-ROYCE', 'RORD', 'ROUTER', 'ROV', 'ROVER', 'ROYC', 'ROYOTA', 'RYDER', 'S', 'S M E', 'SAA', 'SAAB', 'SAABVAL2008', 'SAABVAL2010', 'SABARU', 'SABB', 'SABLE', 'SABU', 'SABURU', 'SARURN', 'SAT', 'SATARN', 'SATN', 'SATR', 'SATRN', 'SATRUN', 'SATU', 'SATUN', 'SATUR', 'SATUREN', 'SATURM', 'SATURN', 'SATURN SW', 'SATURNE', 'SATURRN', 'SATUVAL2002', 'SAURN', 'SAUTN', 'SAYURN', 'SCENIC VIEW', 'SCHOOL', 'SCHOOL BUS', 'SCHWINN', 'SCI', 'SCID', 'SCIO', 'SCION', 'SCION/TOYOTA', 'SCOIN', 'SCOOTER', 'SCUR', 'SCURA', 'SCWINN', 'SEBRING', 'SEDAN', 'SENTRA', 'SHANGHAI', 'SHANGHAI JIMSTA', 'SHANGHAI MEITAN', 'SHANGHAI SHENKE', 'SHANHAIE', 'SHOR', 'SHORELANDER', 'SICAN', 'SICO', 'SICON', 'SIEN', 'SILVER', 'SILVERADO', 'SION', 'SISSAN', 'SIZI', 'SKY INC', 'SKYL', 'SMAR', 'SMART', 'SMART CAR', 'SMARTC', 'SMARTCAR', 'SMARVAL', 'SME', 'SMITH', 'SMRT', 'SNPR', 'SOL', 'SOLARA', 'SONATA', 'SONATAHYUNDAI', 'SPECIALIZED', 'SPNR', 'SPRINTER', 'SQUINOX', 'SSAB', 'SSR', 'SSSB', 'STAR', 'STAR TRANS', 'STARCRAFT', 'STATURN', 'STAURN', 'STCR', 'STEERLING', 'STER', 'STERILITY', 'STERL', 'STERLIG', 'STERLING', 'STIRLING', 'STLG', 'STR', 'STRATUS', 'STRG', 'STRN', 'STURN', 'SU', 'SU BARU', 'SUA', 'SUARU', 'SUB', 'SUBA', 'SUBAARU', 'SUBABU', 'SUBAR', 'SUBARA', 'SUBARAU', 'SUBARBU', 'SUBARI', 'SUBARO', 'SUBARU', 'SUBARU S/W', 'SUBARUA', 'SUBARUI', 'SUBARY', 'SUBAU', 'SUBAUR', 'SUBAVAL1999', 'SUBAVAL2000', 'SUBAVAL2006', 'SUBAVAL2011', 'SUBAVAL2012', 'SUBAVAL2014', 'SUBBARU', 'SUBBURU', 'SUBERO', 'SUBERU', 'SUBR', 'SUBRARU', 'SUBRAU', 'SUBRU', 'SUBS', 'SUBSRU', 'SUBU', 'SUBUARU', 'SUBUR', 'SUBURA', 'SUBURAU', 'SUBURBAN', 'SUBURI', 'SUBURU', 'SUDA', 'SUEDE', 'SUIZ', 'SUKI', 'SUNA', 'SUNL', 'SUNNY', 'SUPE', 'SUPERIOR', 'SUPERLINE', 'SUPM', 'SUPR', 'SUPREMO', 'SURARU', 'SURB', 'SURE', 'SUSK', 'SUSU', 'SUSUBARU', 'SUSUKI', 'SUSZ', 'SUTURN', 'SUV', 'SUXI', 'SUZ', 'SUZ1', 'SUZI', 'SUZIK', 'SUZIKI', 'SUZIUKI', 'SUZKI', 'SUZU', 'SUZUIKI', 'SUZUK', 'SUZUKI', 'SUZUKI AERIO', 'SUZUKII', 'SUZUKI`', 'SUZUKKI', 'SUZUKU', 'SX4', 'SXION', 'T0Y0TA', 'T0YOT', 'T0YT', 'T6OYOTA', 'TACOMA', 'TAGA', 'TAIW', 'TAIWAN GOLDEN B', 'TAIZ', 'TAIZHOU', 'TAIZHOU CHUANL', 'TAIZHOU CITY', 'TAO', 'TAO TAO', 'TAO TAO 50', 'TAO TAO SCOOTER', 'TAOATO', 'TAOI', 'TAOT', 'TAOTA', 'TAOTAN', 'TAOTAO', 'TAOTAO50', 'TAOTARO', 'TAOTOA50', 'TATT', 'TAURUA', 'TAURUS', 'TAYOTAYO', 'TBU', 'TELSA', 'TESL', 'TESLA', 'TESLLA', 'TESLVAL2014', 'TEST', 'TEXTTRON', 'TGB', 'THOM', 'THOMA', 'THOMAS', 'THOMAS BUILT', 'THOMAS BUS', 'THOMOS', 'THOMPSON', 'TI=OYOTA', 'TIYITA', 'TIYOT', 'TIYT', 'TK', 'TLINER', 'TNT', 'TNTL', 'TOATOA', 'TOAY', 'TOMAS', 'TOMOS', 'TOOTA', 'TOOYOTA', 'TOOYT', 'TOP', 'TOP BRAND', 'TOPB', 'TORA', 'TORD', 'TOROTA', 'TOT', 'TOTO', 'TOTOA', 'TOTOT', 'TOTOTA', 'TOTOYA', 'TOTOYOT', 'TOTOYTA', 'TOTY', 'TOTYA', 'TOTYOA', 'TOTYOTA', 'TOTYT', 'TOTYTA', 'TOUOTA', 'TOUT', 'TOUY', 'TOW', 'TOWM', 'TOWN', 'TOWN &amp; COUNTRY', 'TOWN AND COUNTR', 'TOWN N COUNTRY', 'TOY', 'TOY0A', 'TOY0TA', 'TOYA', 'TOYATA', 'TOYATO', 'TOYITA', 'TOYO', 'TOYO SCION', 'TOYO(SCION)', 'TOYOA', 'TOYOAT', 'TOYOATA', 'TOYOATO', 'TOYOOTA', 'TOYORA', 'TOYOT', 'TOYOT SUV', 'TOYOTA', 'TOYOTA (SCION)', 'TOYOTA 4DR', 'TOYOTA 4S', 'TOYOTA C', 'TOYOTA CAMRY', 'TOYOTA P', 'TOYOTA PRIUS', 'TOYOTA SCION', 'TOYOTA SIENNA', 'TOYOTA TK', 'TOYOTA/SCION', 'TOYOTAA', 'TOYOTAL', 'TOYOTAO', 'TOYOTAQ', 'TOYOTAS', 'TOYOTAT', 'TOYOTA`', 'TOYOTA``', 'TOYOTO', 'TOYOTOA', 'TOYOTQ', 'TOYOTRA', 'TOYOTS', 'TOYOTSA', 'TOYOTTA', 'TOYOTY', 'TOYOTYA', 'TOYOUA', 'TOYOUTA', 'TOYOVA', 'TOYOVAL1991', 'TOYOVAL1992', 'TOYOVAL1995', 'TOYOVAL1996', 'TOYOVAL1998', 'TOYOVAL2000', 'TOYOVAL2001', 'TOYOVAL2002', 'TOYOVAL2003', 'TOYOVAL2004', 'TOYOVAL2005', 'TOYOVAL2007', 'TOYOVAL2008', 'TOYOVAL2009', 'TOYOVAL2010', 'TOYOVAL2011', 'TOYOVAL2012', 'TOYOVAL2013', 'TOYOVAL2014', 'TOYOY', 'TOYOYA', 'TOYOYT', 'TOYOYTA', 'TOYP', 'TOYPTA', 'TOYR', 'TOYT', 'TOYT  SCION', 'TOYT / SCION', 'TOYT 4S', 'TOYT SCION', 'TOYT/SCION', 'TOYT=OTA', 'TOYTA', 'TOYTO', 'TOYTOA', 'TOYTOTA', 'TOYTQ', 'TOYTTA', 'TOYTTK', 'TOYT`', 'TOYY', 'TOYYOTA', 'TPY', 'TPYOTA', 'TPYPTA', 'TPYT', 'TPYTA', 'TRACTOR TRAILER', 'TRAI', 'TRAILER', 'TRAILOR', 'TRANSIT', 'TRASH', 'TREK', 'TREM', 'TRI', 'TRIP', 'TRIU', 'TRIUMPH', 'TRL', 'TRUCK', 'TRUM', 'TTOYOTA', 'TYOT', 'TYOTA', 'TYOTAO', 'TYT', 'TYUNDAI', 'U', 'U HAUL', 'UD', 'UD DS', 'UD TRUCK', 'UD/ NISSAN', 'UDI', 'UDT', 'UDUMP', 'UHAUL', 'UNIT', 'UNITED MOTORS', 'UNK', 'UNKMC', 'UNKNOWN', 'UPS', 'US POST OFF', 'US POST OFFICE', 'USUZU', 'UTIL', 'UTILITY', 'UU', 'V OLVO', 'V W', 'V0LV', 'VA', 'VACR', 'VADILAC', 'VALL', 'VALTSWAGON', 'VAN', 'VAN HOOL T2145', 'VANH', 'VANHOOL', 'VCTY', 'VELOCITY', 'VENT', 'VENTO', 'VERMEER', 'VESP', 'VESPA', 'VESPA/PIAGGIO', 'VHEV', 'VHEVROLET', 'VHEVY', 'VHRY', 'VIAGGIO', 'VICTORY', 'VICTORY TRAILER', 'VICTY', 'VILK', 'VILKW', 'VILV', 'VILVO', 'VIP', 'VK', 'VLKS', 'VLKSWA', 'VLKSWAGON', 'VLVO', 'VM', 'VNFORD', 'VO;K', 'VO;KS', 'VOIKS', 'VOK', 'VOKLS', 'VOKS', 'VOKSWAGEN', 'VOKSWAGON', 'VOL', 'VOLCO', 'VOLK', 'VOLK SW', 'VOLK W', 'VOLK WAGON', 'VOLK.', 'VOLKAWAGEN', 'VOLKD', 'VOLKESWAGEN', 'VOLKESWAGON', 'VOLKKSWAGON', 'VOLKS', 'VOLKS WAG', 'VOLKS WAGAN', 'VOLKS WAGEN', 'VOLKS WAGON', 'VOLKSBLUE', 'VOLKSEWAGON', 'VOLKSSWAGON', 'VOLKSVAGEN', 'VOLKSW', 'VOLKSWA', 'VOLKSWAEN', 'VOLKSWAG', 'VOLKSWAGAN', 'VOLKSWAGEB', 'VOLKSWAGEN', 'VOLKSWAGN', 'VOLKSWAGO', 'VOLKSWAGON', 'VOLKSWAGONQ', 'VOLKSWAGOON', 'VOLKSWAGWEN', 'VOLKSWAHEN', 'VOLKSWAON', 'VOLKSWGN', 'VOLKSWGON', 'VOLKVAL', 'VOLKVAL2006', 'VOLKVAL2010', 'VOLKVAL2011', 'VOLKVAL2013', 'VOLKVAL2014', 'VOLKW', 'VOLKWAG', 'VOLKWAGEN', 'VOLKWAGON', 'VOLKWAGSON', 'VOLKWASGEN', 'VOLKWGN', 'VOLKZWAGEN', 'VOLLKSWAGON', 'VOLO', 'VOLOV', 'VOLS', 'VOLSK', 'VOLSKWAGEN', 'VOLSSWAGON', 'VOLSW', 'VOLSWAGEN', 'VOLSWAGON', 'VOLTS', 'VOLTSWAGON', 'VOLTSWAGOON', 'VOLV', 'VOLV0', 'VOLVA', 'VOLVE', 'VOLVI', 'VOLVL', 'VOLVO', 'VOLVOE', 'VOLVOO', 'VOLVO`', 'VOLVS', 'VOLVSWAGEN', 'VOLVVAL1990', 'VOLVVAL2006', 'VOLVVAL2007', 'VOLVVAL2011', 'VOLVVAL2013', 'VONROAD', 'VORK', 'VOVL', 'VOVLO', 'VOVO', 'VPG', 'VPG/U NAME IT', 'VULC', 'VVOLVO', 'VW', 'VW9', 'WABA', 'WABASH', 'WEHA', 'WELL', 'WEST', 'WEST TK', 'WESTERN', 'WESTERN STA', 'WESTERN STAR', 'WG', 'WHITE', 'WHITE GMC', 'WHITEGMC', 'WHITENISSAN', 'WILDFIRE', 'WOLK', 'WOLKSWAGEN', 'WOLKSWAGON', 'WOLSWAGON', 'WORH', 'WORK', 'WORKHORSE', 'WRKH', 'WSTR', 'WTD2680', 'WV', 'WYLIE &amp; SON', 'X', 'X5BMW', 'XCHRV', 'XEF9688', 'XHEVY', 'XIAMEN XIASHING', 'XINGYUE', 'XX', 'XXXX', 'YAHAHA', 'YAHAMA', 'YAHMAHA', 'YAMA', 'YAMAH', 'YAMAHA', 'YAMAYA', 'YHUNDAI', 'YOTOA', 'YOTOTA', 'YOYO', 'YOYOTA', 'YOYOYA', 'YOYT', 'YTOYOTA', 'YUKON', 'YUN', 'YUNDAI', 'YY150-19', 'Z71', 'ZHEJIANG', 'ZHEJIANG JONWAY', 'ZHEJIANG KAIKAI', 'ZHESING QIUG', 'ZHNG', 'ZHONGNENG', 'ZNEN', 'ZUMA', 'ZUZU', '`DODGE', '`LINC', '`TOYOTA']</t>
         </is>
@@ -2047,18 +2367,32 @@
       <c r="P24" t="n">
         <v>32</v>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>~~4DR TL</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>4S</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>94664</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>3958341</v>
       </c>
-      <c r="S24" t="n">
+      <c r="W24" t="n">
         <v>13848</v>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>['(COMCAST)', '(SCION) TC', '(SW) PASSAT', '-', '---', '-----', '.', '...', '.....', '00', '01', '02', '05', '07', '070', '0DYSSES', '0DYSSEY', '0E9', '1', '1 TON', '1 TONJ', '1.8T', '100', '100 CS', '1000', '1000 SPORT BIKE', '100CS QUATTRO', '100S', '108SD', '1125CR', '113', '1199', '11S', '1200 CC', '123', '123I', '125', '1250', '125CC', '125I', '128', '128 I', '1281', '128I', '128I 2D', '128I 4S', '128I CN', '128S 2D', '130', '130 T', '1300', '1300R', '135', '135 I', '135 I CONV', '135I', '135I CN', '135IS', "14' BOX TK", '15', '15 250', '150', '150 CC MTR CYCL', '150 VAN', '1500', '1500  RAMPICKUP', '1500 4D', '1500 P/U', '1500 PICK UP', '1500 PICKUP', '1500 PU', '1500 RAM', '1500 TAG3/14', '1500 TK', '1500 VAN', '1500 XL', '1500 Z71', '150CC', '150E', '150S', '15250', '1528', '1800 CS', '18T', '18T 4S', '18W', '190 E', '190D', '190E', '199', '1AK9035', '1G3', '1GNEL19W9YB1762', '1H', '1LX', '1S', '1S 250', '1S 300', '1S250', '1S300', '2', '2  DOOR', '2 (HATCHBACK)', '2 2D', '2 4S', '2 COUPE SS', '2 DOOE', '2 DOOR', '2 DOOR COUPE', '2 DOOR HATCHBAC', '2 DOOR RSX', '2 DOORS', '2 DR', '2 DR CPE', '2 DR SEDAN', '2 FOOR', '2 HB', '2 WHEEL', '2-D', '2-DOOR', '2-DOOR PICK UP', '2.0', '2.0 T', '2.0 T CC', '2.0 TSI', '2.0CC', '2.0CL', '2.0T', '2.0T  4S', '2.0T 4D', '2.0T-4 DOOR', '2.0TSI', '2.2 CL', '2.2 CL CP', '2.2CI', '2.2CL', '2.3', '2.3 CL', '2.3 CL 2D', '2.3 T 4D', '2.3 TL', '2.3CL', '2.3CL  DR', '2.3CL 2S', '2.3T', '2.3T 4S', '2.4', '2.5', '2.5 CL', '2.5 GOLF', '2.5 RL', '2.5 SE', '2.5 SL', '2.5 TL', '2.5 XTYPE', '2.5/4SW', '2.5RABIT', '2.5S', '2.5SE', '2.5SL', '2.5TL', '2.5TL  4DR', '2.6', '2.7T', '2.7T 4S', '2.8', '2.8 4/S', '2.8CL', '2.O T', '2.O T 4S', '2.OT', '2/S', '20', '20 SERIES', '200', '200 2D', '200 4D', '200 4S', '200 LIMITED', '200 LX', '2000', '2002', '2004', '2005', '2006', '2007', '2008', '200C', '200EX', '200EX 2S', '200M', '200S', '200S 4S', '200SX', '200X', '200`', '20SI', '20T', '20X6', '20ZX', '21TH', '220', '220SE', '225I', '228 I', '228I', '22C', '22CL', '23', '230', '2300LP BOX', '2325CI', '2328I', '235', '235.I', '235I', '238', '23CL', '23T', '24', '240', '240 4D', '240 4S', '240 DL', '240 GL', '240 SE (SW)', '240.0L', '240/SX', '2400', '240D', '240DL', '240DL 4S', '240GL', '240GL 4S', '240S', '240SDX', '240SX', '240SX 2D', '240SX 2DR', '240SX 2S', '240SX CONV', '244DL', '24CEX', '24I', '24T', '25 TL        4D', '250', '250 TRUCK', '250 VAN', '2500', '2500  HD', '2500 / VAN', '2500 DIESEL PU', '2500 DSL', '2500 HD', '2500 P/U', '2500 PICK UP', '2500 PU', '2500 PU TK', '2500 RAM P/U', '2500 SHC', '2500 SILVERADO', '2500 TK', '2500 VAN', '2500 VN', '2500HD', '2500HD / TRK', '2500HD PU', '250C', '250H', '258', '25I', '25RS', '25S', '25TL', '25V', '25Z', '260', '260 HD', '2600', '268', '268 BOX TK', '28', '280', '280 SE', '280SE', '280ZX', '28I', '2A', '2C', '2CL', '2CV', '2D', '2D / 200', '2D ACCORD', '2D BUG', '2D CAM', '2D CARRERA', '2D CARRERA S', '2D CIVIC', '2D CIVIC EX', '2D CN', '2D CONV', '2D CONVERT', '2D CONVT', '2D COOPER', '2D COUPE', '2D GRAND PRIX', '2D HITCHBK', '2D HTCHBK', '2D INTEGRA', '2D MIATA', '2D MUSTANG', '2D PICKUP', '2D PRIUS', '2D RSX', '2D S.5', '2D SCION', '2D SEDAN', '2D SL', '2D TC', '2D-SOLARA', '2D/ COBALT', '2D/BUGW', '2D/CONV', '2D/SCION', '2DC', '2DOOR', '2DOOR/CONV', '2DR', '2DR   CARRERA', '2DR  /MUSTANG', '2DR / CIVIC', '2DR / RSX', '2DR / SOLARA', '2DR 3000GT', '2DR 325', '2DR 328', '2DR 328I', '2DR 335', '2DR 911', '2DR A4', '2DR A5', '2DR ACCENT', '2DR ACCORD', '2DR ALTIMA', '2DR C70', '2DR CAMARO', '2DR CARRERA', '2DR CELICA', '2DR CHALLENGER', '2DR CIVIC', '2DR CN', '2DR CNV', '2DR COBALT', '2DR CONV', '2DR CONV M30', '2DR CONVERT', '2DR CONVRT', '2DR COOPER', '2DR CORVETTE', '2DR COV CAMARO', '2DR CR-Z', '2DR ECHO', '2DR ECLIPSE', '2DR ELANTRA', '2DR ESCORT', '2DR FIREB', '2DR FRS', '2DR G35', '2DR G37', '2DR GENESIS', '2DR GOLF', '2DR GRAND AM', '2DR GRAND PRIX', '2DR GT', '2DR GTI', '2DR HATCH', '2DR HATCHBACK', '2DR IS250', '2DR IS350', '2DR LEGEN', '2DR MONTE CARLO', '2DR MUDTANG', '2DR MUST', '2DR MUSTANG', '2DR PRELUDE', '2DR RSX', '2DR SC400', '2DR SEBRING', '2DR SEDAN', '2DR SENTRA', '2DR SKYE', '2DR SLK280', '2DR SOLARA', '2DR TC', '2DR THUNDERB', '2DR TK', '2DR TRANS AM', '2DR VELOSETER', '2DR VELOSTER', '2DR Z4', '2DR/CONV', '2DRTIBURON', '2DS', '2DSD', '2DT', '2DWHITE', '2EDR', '2F', '2H', '2H  370Z', '2H  S5', '2H - MONTE CARL', '2H / FIT', '2H / MUSTANG', '2H 328I', '2H 330CI', '2H ACCORD', '2H ALT', '2H CAMARO', '2H CAVALIER', '2H CIVIC', '2H COBALT', '2H COOPER', '2H COUPE', '2H ECLIPSE', '2H MONTE CARLO', '2H MUSTANG', '2H SOLARA', '2H TC', '2H VELOSTER', '2H VERSA', '2MUSTANG 2D', '2S', '2S   REGAL', '2S  350 Z', '2S  ACC', '2S  ECHO', '2S  INTEG', '2S  RSX', '2S - 3.0CL', '2S - ACCORD', '2S - ALERO', '2S - CAMARO', '2S - CELICA', '2S - CIVIC', '2S - CN', '2S - ECLIPSE', '2S - INTEGRA', '2S - MUSTANG', '2S /  325TI', '2S / 3.2CL', '2S / ACCORD', '2S / CIVIC', '2S / CLK320', '2S / CLK350', '2S / COOPER', '2S / GL500', '2S / RSX', '2S / SCION', '2S / SPECTRA', '2S / STRATUS', '2S / SUNFIRE', '2S / VERSA', '2S / YARIS', '2S 2.5', '2S 3.2CL', '2S 300Z', '2S 318', '2S 323CI', '2S 325', '2S 328CI', '2S 328I', '2S 350 Z', '2S 370Z', '2S 500', '2S 645CI', '2S ACC', '2S ACCENT', '2S ACCORD', '2S ALTIMA', '2S BEETLE', '2S BERETTA', '2S BRABUS', '2S BUG', '2S C230', '2S CAMARO', '2S CAMARO SS', '2S CAMRY', '2S CAVALIER', '2S CELICA', '2S CIV', '2S CIVIC', '2S CIVIC HB', '2S CLK320', '2S CLK550', '2S CN', '2S COBALT', '2S COBALT SS', '2S CONVERT', '2S CONVERTIBLE', '2S COOPER', '2S COOPER S', '2S CORVETTE', '2S COUPE', '2S CR-Z', '2S CROSSSFIRE', '2S CRX', '2S E350', '2S ECHO', '2S ECLIPSE', '2S ELANTRA', '2S ELDORADO', '2S EOS', '2S FOCUS', '2S FORTE', '2S FR-5', '2S G35', '2S G5', '2S GRAND AM', '2S GT', '2S GTI', '2S INSIGHT', '2S INTEGRA', '2S IQ', '2S LEGEND', '2S M3', '2S MATRIX', '2S MINI', '2S MONTE CARLO', '2S MUST GT LOUD', '2S MUSTANG', '2S PRELUDE', '2S PRELUDE TRIC', '2S RED', '2S RSX', '2S RX8', '2S SALEEN MUSTA', '2S SCION', '2S SCION TC', '2S SEDAN', '2S SOLARA', '2S SPORTC', '2S TC', '2S TERCEL', '2S TESTAROSSA', '2S TIBURON', '2S TL', '2S TRANS AM', '2S TT', '2S WAGON', '2S WRN', '2S XA', '2S YARIS', '2S, MINI', '2S, XS', '2S-2DOOR', '2S-ACCENT', '2S-ACCORD', '2S-ACURA', '2S-BUG', '2S-CELICA', '2S-CIVIC', '2S-CLK320', '2S-COBALT', '2S-COOPER', '2S-CPE', '2S-GOLF', '2S-NEON', '2S-SCION', '2S-TC', '2S/', '2S/2.5 RABIT', '2S/3000', '2S/330CI', '2S/335I', '2S/ACCORD', '2S/CIVIC', '2S/CIVIV', '2S/CLK320', '2S/CNV', '2S/COOP', '2S/ECLIPSE', '2S/G37', '2S/GRAND PRIX', '2S/IMPRESA', '2S/INSIGHT', '2S/M3', '2S/MUSTANG', '2S/RX8', '2S/SOLARA', '2S/SOLSTICE', '2S/TERCEL', '2SBEETLE', '2SL', '2SMUSTANG', '2SR', '2SRSX', '2SSOLARA', '2STUBURON', '2TL', '2VRW5DG6BR69144', '2W', '2X', '2X2 HATCHBACK', '2Z', '3', '3    4DOOR', '3   4DR', '3  2.5', '3  4DR', '3  4H', '3  4S', '3 (4 DOOR)', '3 (4S)', '3 - 4DOOR', '3 / 4S', '3 2.5', '3 2.5 4D', '3 320', '3 4 DR', '3 4D', '3 4D SDN', '3 4DOOR', '3 4DQ', '3 4DR', '3 4S', '3 5RL', '3 AXLE TRUCK/TR', '3 DOOR', '3 HATCH', '3 HATCHBACK', '3 HB 4D', '3 SERIES', '3 SERIES  4DR', '3 SERIES 4D', '3 SERIES 4DR', '3 SERIES WAGON', '3 SPEED', '3 SW', '3,5 RL', '3,5RL', '3--4DR', '3-0', '3-SERIES', '3.0', '3.0 2S', '3.0 4DR', '3.0 CL', '3.0 S TYPE', '3.01', '3.0CL', '3.0CL 2S', '3.1.8I', '3.2', '3.2  TL', '3.2  TL  4DR', '3.2 2D', '3.2 CL', '3.2 CL 4D', '3.2 CL S', '3.2 CL-S', '3.2 CLS', '3.2 TL', '3.2 TL  4DR', '3.2 TL (4D)', '3.2 TL 4D', '3.2 TL 4DR', '3.2 TL 4S', '3.2 TL-S', '3.2 TL-S 4S', '3.2 TLS', '3.20', '3.25', '3.25 TL', '3.27', '3.28I', '3.2CL', '3.2CL 2S', '3.2L', '3.2L 4S', '3.2SE', '3.2T', '3.2T 4DR SEDAN', '3.2T 4S', '3.2TI', '3.2TL', '3.2TL  4S', '3.2TL 4D', '3.2TL 4DR', '3.2TL 4S', '3.2TL-S', '3.2TLRS', '3.2TLS', '3.35I', '3.4TL', '3.5', '3.5 4D', '3.5 AL', '3.5 RL', '3.5 RL   4DR', '3.5 RL 4D', '3.5 SR', '3.5 TS', '3.5AL', '3.5CL', '3.5HL', '3.5KL', '3.5L', '3.5RL', '3.5RL - 4DR', '3.5RL 4S', '3.5SL', '3.5SR', '3.5TL', '3.6', '3.6 CTS', '3.6L', '3.7', '3.7 LIMITED', '3.7 SUV', '3.7L', '3.O', '3.OCL', '3.OT', '30', '30  4S', '30 4S', '300', '300   4DR', '300  SRT8', '300 - 4S', '300 4 DR', '300 4D', '300 4DR', '300 4DS', '300 4S', '300 C', '300 CD', '300 CE 2S', '300 CO', '300 D', '300 D 4D', '300 DIESEL', '300 E', '300 ES', '300 LIMITED', '300 SD', '300 SDL', '300 SE', '300 SEDAN DIESE', '300 SER', '300 SERIES', '300 SL', '300 SOL TURBO', '300 SRT 4DR', '300 SRT8', '300 SW', '300 TE', '300 Z', '300#', '300/ 4S', '300/4DR', '3000', '3000 GT', '30000GT', '3000D', '3000GT', '3000GT 2 DOOR', '3000GT 2S', '3005E', '300C', '300C 4S', '300CD', '300CD 2D', '300CE', '300D', '300D 4DR', '300E', '300E 4DR', '300E 4S', '300EES', '300ES', '300F', '300GS', '300IS', '300L', '300LSD', '300M', '300M  4DR', '300M 4S', '300RX', '300S', '300S 4S', '300SD', '300SD 4S', '300SE', '300SE 4D', '300SEL', '300SERIES 2DR', '300SL', '300SX', '300TD', '300TE', '300X', '300Z', '300ZX', '300ZX 2D', '300ZXX', '301', '305Z', '30CL', '30I', '30M', '30T', '31', '313IS', '315I', '318', '318 4S', '318 I', '318 I   4S', '318 IS', '3181', '318I', '318I 2S', '318I 4D', '318I CN', '318IS', '318T', '318TI', '32 V', '32 V NORTHSTAR', '32.TL', '320', '320 CLK', '320 I', '320 SUV', '320CLK', '320I', '320I 4S', '320LS', '320ML', '320XI', '320Z', '321', '322', '323', '323 2D', '323 CI', '323 CI 2S', '323 I', '323 IS', '323 XL', '3231', '323CI', '323I', '323I  CN', '323I 2S', '323I 4 DR', '323I 4S', '323IS', '323XI', '324I', '325', '325  2DR', '325  4S', '325 2D', '325 4DR', '325 4S', '325 CI', '325 CI 2D', '325 E', '325 G1', '325 I', '325 I  4DR', '325 IS', '325 SW', '325 WAGON', '325 XI', '325.I', '3250', '3251', '3251S', '325C', '325C1', '325CI', '325CI 2D', '325CI 2S', '325CI CN', '325E', '325I', '325I  4DR', '325I - 4S', '325I 4D', '325I 4DR', '325I 4S', '325I CNVRTBL', '325I CONV', '325I CONVERTABL', '325I-  4DR', '325I-4', '325I5', '325IS', '325IX', '325L', '325LS', '325X1', '325XI', '325XI 4D SDN', '325XL', '326', '326 CI', '326 XI', '326CI', '326I', '326XI', '328', '328  4DR', '328 1', '328 2DR', '328 4D', '328 4S', '328 CI', '328 CONVERT', '328 I', '328 I 4S', '328 XI', '328.1', '328.I', '328/SW', '3281', '3288I', '328CI', '328D', '328I', '328I  4DR', '328I  SW', '328I 2 DOOR', '328I 2D', '328I 2DR', '328I 2S', '328I 4D', '328I 4DR', '328I 4S', '328I CN', '328I CONV', '328I CONV.', '328I CONVERT.', '328I CV', '328I STA WAG', '328IS', '328IX', '328SI', '328TL', '328X1', '328XI', '328XI  4D', '328XI 4 DOOR', '328XI 4DR', '328XI 4S', '328XI SEDAN', '328XI-4 DOOR', '328XL', '329I', '32BI', '32CL', '32I', '32SI', '32T', '32TL', '32V', '32V NORTHSTAR', '330', '330 2/S', '330 2S', '330 CI', '330 CI 2S', '330 CL', '330 CN', '330 I', '330 I 4DR', '330 XI', '3300ZX', '3301', '3301 4D', '330CI', '330CI 2DR', '330ES', '330I', '330I 4DR', '330I 4S', '330IX', '330TI', '330X1', '330XI', '330XI  4DR', '330XI 4D', '330XI 4S', '330XL', '330ZI', '331', '3320', '334', '335', '335 2D', '335 4D', '335 CNV', '335 I', '335 X I', '335 XI', '3350', '3351', '335CI', '335D', '335E', '335I', '335I 2S', '335I 4D', '335I 4DR', '335I 4S', '335I CONV', '335I CONVERT', '335I CONVERTIBL', '335I CV', '335IS', '335X1', '335XI', '335XI 4D', '335XI TURBO', '336I', '336XI', '337', '338', '338 4DR', '338I', '33I', '33OI', '340', '340 SW', '340EX', '340GL', '340I', '340X 2S', '340ZX', '34DR', '35', '35 XI 4DR', '350', '350 /4S', '350 E', '350 SUV', '350 TK', '350 Z', '350 Z 2 DOOR', '350 Z CONVT', '3500', '3500  GVW 10001', '3500 / VAN', '3500 BOX TRUCK', '3500 DS', '3500 GVW 10000', '3500 GVW 1100', '3500 GVW 11000', '3500 GVW 11400', '3500 GVW 12000', '3500 GVW 13000', '3500 GVW 14000', '3500 GVW 16000', '3500 GVW10500', '3500 GVW11160', '3500 GVW115000', '3500 GVW12000', '3500 HD', '3500 P/U', '3500 PU', '3500 RAM', '3500 RAM TRUCK', '3500 STAKE BODY', '3500 TK', '3500 UTILITY VN', '3500 VAN', '3500 VN', '3500HD', '3500HD GVW12500', '3500HD GVW13000', '3500HD GVW15000', '350C', '350HD', '350I', '350I GT', '350S', '350SDL', '350Z', '350Z 2H', '350Z 2S', '350Z CN', '350Z CONV', '350ZX', '351', '3530I', '355I', '35G', '35I', '35M', '35OZ', '35RL', '35SE', '35X', '35XL', '35Z', '360', '360 4D', '370', '370 Z', '370G', '370Z', '370Z 2D', '371', '379', '37S', '380', '380 SL', '3800', '3800 4S', '380C', '380SL', '381I', '383I', '385CI', '385I', '388', '3C', '3CP', '3D', '3D / YARIS', '3DC', '3DOOR', '3DR', '3E20', '3E50', '3I8', '3L2TL', '3OCL', '3OO', '3R', '3S', '3S 300', '3S 350', '3S 4S', '3S300H', '3S5D', '3SERIES', '3SERIRES', '3SPEED', '3TL', '3X', '3X SUV', '3X470', '3`', '4', '4  DOOR', '4 ACCORD', '4 D', '4 D00R', '4 DDOOR', '4 DOOOR', '4 DOOR', '4 DOOR  CALIBER', '4 DOOR - 3.5RL', '4 DOOR -SUV', '4 DOOR 626', '4 DOOR SEDAN', '4 DOORQ', '4 DOR', '4 DORR', '4 DOUR', '4 DPPR', '4 DR', '4 DR  MKS', '4 DR CIVIC', '4 DR COROLLA', '4 DR CP', '4 DR HATCHBACK', '4 DR SDN', '4 DR SEDAN', '4 DR SUV', '4 DR TRK', '4 DR-', '4 DROOR', '4 HATCH', '4 MATIC', '4 MATIC (SUV)', '4 RUNER', '4 RUNNER', '4 RUNNER SU', '4 RUNNER TK', '4 RUNNERS', '4 S', '4 SEDAN', '4 SERIES', '4 SW', '4 VDOOR', '4 WHEELER', '4 X 4', '4 X4', '4*4', '4-D', '4-DOOR', '4-RUNNER', '4-RUNNER SU', '4-S', '4-SDN', '4.0', '4.0 LITRE', '4.0 S-TYPE', '4.0 SE', '4.0SE', '4.3', '4.6SE', '4.OL', '4/2', '4/S', '400', '400 E', '400 H', '400 SE', '400 SEL', '4000', '4000 GVW 11000', '4000S', '400E', '400E 4D', '400H', '400SE', '400SEL', '42', '420', '420 SEL', '420 SEL 4S', '4200', '4200 DS', '420SE', '420SEL', '425', '425003X8A', '428', '4281', '428I', '428I 4D', '430', '4300', '4300 TRASH TK', '433I 2DR', '435', '435I', '43ZF13C31U41074', '440', '4400', '4400 DUMP', '442', '44S', '45', '450', '4500', '4500 DS', '4500 TK', '450H', '450SEL', '450SL', '4600', '46A', '47', '470', '4700', '470LX', '480 TOW TRUCK', '49', '4900', '49CC SCOOTER', '4A', '4A - GALANT', '4A C', '4A4', '4ACCORD', '4B', '4BR', '4CIVIC', '4COROLLA', '4COROLLAS', '4D', '4D   75X', '4D   COROLLA', '4D   SUV', '4D - NOVA', '4D / A4', '4D / ACCORD', '4D / ALTIMA', '4D / CIVIC', '4D / COROLLA', '4D / CROSSTOUR', '4D / HIGHLANDER', '4D / SANTAFE', '4D / SW', '4D 1LX', '4D 240', '4D 3', '4D 3.2 TL', '4D 300D', '4D 745LI', '4D 75X', '4D A4', '4D ACCORD', '4D ALTIMA', '4D AVALON', '4D CAMRY', '4D CHARGER', '4D CIVIC', '4D CIVIC LX', '4D COROLLA', '4D CRUZE', '4D CUBE', '4D DEVILLE', '4D ELANTRA', '4D ES', '4D ES300', '4D EX', '4D FORTE', '4D G25X', '4D GALANT', '4D GLI', '4D HB', '4D HIGHLANDER', '4D HYBRID', '4D INTESSA', '4D ION', '4D JETTA', '4D LEGACY', '4D MALIBU', '4D MAXIMA', '4D MKX', '4D ML320', '4D OLDER MODEL', '4D PARK AVE', '4D S', '4D SDN', '4D SEDAN', '4D SEDAN DEBADG', '4D SEDEAN', '4D SEDN', '4D SENTRA', '4D SL1', '4D SONATA', '4D SUV', '4D SW', '4D SW A4', '4D TAURUS', '4D TK', '4D TL', '4D TOWN CAR', '4D V6 XLS', '4D VERSA', '4D WRANGLER', '4D-ALTIMA', '4D-CIVIC', '4D-PROTEGE', '4D-SPO', '4D-SUV', '4D-SW', '4D-TK', '4D/ 300', '4D/200', '4D/328I', '4D/COROLLA', '4D/CTS', '4D/SL2', '4D/SW', '4D2', '4D4', '4DDR', '4DE', '4DL', '4DOOR', '4DOOR BLACK', '4DOOR TRK', '4DOORS', '4DR', '4DR  / RX300', '4DR  3 SERIES', '4DR  5 SERIES', '4DR  6', '4DR  ACCORD', '4DR  ECHO', '4DR  FUSION', '4DR  M35', '4DR  MARQUIS', '4DR  PRIUS', '4DR  SENTRA', '4DR  SUV', '4DR  TL', '4DR / 2.5TL', '4DR / A4', '4DR / ACCORD', '4DR / AVENGER', '4DR / BLAZER', '4DR / CAMRY', '4DR / CIVIC', '4DR / COBALT', '4DR / CONCORDE', '4DR / COROLLA', '4DR / CR-V', '4DR / DURANGO', '4DR / ES300', '4DR / ES350', '4DR / FOCUS', '4DR / FUSION', '4DR / GENESIS', '4DR / GOLF', '4DR / LIBERTY', '4DR / LS', '4DR / M35X', '4DR / MATRIX', '4DR / MAZDA3', '4DR / ML350', '4DR / PILOT', '4DR / PRIUS', '4DR / ROGUE', '4DR / SENTRA', '4DR / SORENTO', '4DR / SPRT', '4DR / TAHOE', '4DR / TL', '4DR / VUE', '4DR / WRSNGLER', '4DR 250', '4DR 3', '4DR 3.2TL', '4DR 300', '4DR 300SE', '4DR 325', '4DR 325I', '4DR 328I', '4DR 330I', '4DR 335I', '4DR 3SERIES', '4DR 4WD', '4DR 5', '4DR 5 SERIES', '4DR 500', '4DR 528', '4DR 528I', '4DR 530I', '4DR 530XI', '4DR 535', '4DR 540I', '4DR 550I', '4DR 5HUNDRED', '4DR 6', '4DR 740', '4DR 745I', '4DR 940GL', '4DR A 4', '4DR A3', '4DR A4', '4DR A6', '4DR A7', '4DR ACC', '4DR ACCENT', '4DR ACCORD', '4DR ALTIMA', '4DR AVALON', '4DR AVENGER', '4DR AVEO', '4DR AZERA', '4DR C60', '4DR C63', '4DR CAB', '4DR CALIBER', '4DR CAMR', '4DR CAMRY', '4DR CAPRICE', '4DR CC 2.0', '4DR CENTURY', '4DR CHARGER', '4DR CIVIC', '4DR CIVICQ', '4DR CLA250', '4DR CONT', '4DR CONTINENTAL', '4DR CONTOUR', '4DR CONV', '4DR COROLLA', '4DR CROWN VIC', '4DR CRUZE', '4DR CTS', '4DR CUTLASS', '4DR DART', '4DR DTS', '4DR E300', '4DR E320', '4DR E350', '4DR E430', '4DR ELANTRA', '4DR ELENTRA', '4DR ES', '4DR ES 350', '4DR ES300', '4DR ES330', '4DR ES350', '4DR FESTIVA', '4DR FIT', '4DR FOCUS', '4DR FORTE', '4DR FUSION', '4DR G35', '4DR G37', '4DR G6', '4DR GALANT', '4DR GOLF', '4DR GRAN MARQUI', '4DR GRAND M', '4DR GRAND MARC', '4DR GRAND MARQU', '4DR GRAND PRIX', '4DR GS300', '4DR GTI', '4DR HATCH', '4DR HATCH BACK', '4DR HB', '4DR HHR', '4DR I3', '4DR I30', '4DR IMPALA', '4DR INTEGRA', '4DR IS', '4DR J30', '4DR JEEP', '4DR JETTA', '4DR LACROSSE', '4DR LANCER', '4DR LASALLE', '4DR LEAF', '4DR LEGACY', '4DR M', '4DR M35', '4DR M35X', '4DR M5', '4DR MALIBU', '4DR MATRIX', '4DR MAX', '4DR MAXIMA', '4DR MAZ6', '4DR MAZDA 2', '4DR MAZDA 3', '4DR MAZDA 6', '4DR MAZDA3', '4DR MIRAGE', '4DR MKZ', '4DR NEON', '4DR OPTIMA', '4DR PASSAT', '4DR PICKUP', '4DR PRIUS', '4DR PRIZIM', '4DR PRIZM', '4DR PROTEGE', '4DR PT C', '4DR PT CRUISER', '4DR REGAL', '4DR RIO', '4DR RL', '4DR RORENZA', '4DR S', '4DR S420', '4DR S55', '4DR S550', '4DR S60', '4DR S70', '4DR S80', '4DR SDN', '4DR SE-R', '4DR SEBRING', '4DR SEDAN', '4DR SENTRA', '4DR SL', '4DR SLS', '4DR SONATA', '4DR SPORT', '4DR STRATUS', '4DR SUV', '4DR SX4', '4DR TAURUS', '4DR TAXI', '4DR TC', '4DR TERCEL', '4DR TL', '4DR TL-S', '4DR TOWN CAR', '4DR TRAIL BLAZ', '4DR TRK', '4DR TSX', '4DR VAN', '4DR VERANO', '4DR VERSA', '4DR VIBE', '4DR VOLT', '4DR WRANGLER', '4DR WRX', '4DR X-TYPE', '4DR XB', '4DR XB SCION', '4DR XD', '4DR YARIS', '4DR ZEPHYR', '4DR- IMPALA', '4DR-ACC', '4DR/COROLLA', '4DR250', '4DR5', '4DRH', '4DROO', '4DROOR', '4DRQ', '4DRS', '4DRSW', '4DR`', '4DR```', '4DS', '4DS / COROLLA', '4DSD', '4DSW', '4DT', '4E320', '4F', '4H', '4H / COROLLA', '4H / PRIUS', '4H 3', '4H 32V NORTHSTA', '4H 535I', '4H ACCORD', '4H ALTIMA', '4H COOPER', '4H COROLLA', '4H CR VC', '4H CROSSTOUR', '4H ELANTRA', '4H FIT', '4H FUSION', '4H G37', '4H GOLF', '4H GTI', '4H JETTA', '4H PRIUS', '4H SCION XB', '4H VERSA', '4H-PASSAT', '4H/3', '4HYBRID', '4MATCI', '4MATIC', '4MATIC -TK', '4PASSAT', '4PD', '4R', '4RAV', '4RD', '4RNNER', '4RNR', '4RNR 4D', '4RU', '4RUMMER', '4RUN', '4RUN SUV', '4RUN TK', '4RUNER', '4RUNN', '4RUNNDER', '4RUNNE', '4RUNNER', '4RUNNER  SUV', '4RUNNER (SUV)', '4RUNNER 4D', '4RUNNER AR5 V8', '4RUNNER SU', '4RUNNER SUV', '4RUNNER TK', '4RUNNER VN', '4RUNNER/SUV', '4RUNNERK', '4RUNNIER', '4RUNNNER', '4RUNNWE', '4RUUNER', '4S', '4S   3', '4S   A8', '4S  (AVALON)', '4S  240', '4S  3', '4S  300', '4S  6', '4S  A4', '4S  ACCORD', '4S  AURA', '4S  AVALON', '4S  CAMRY', '4S  CIVIC', '4S  CLS550', '4S  E320', '4S  G20', '4S  JETTA', '4S  M3', '4S  M5', '4S  MAXIMA', '4S  NEON', '4S  PASSAT', '4S  S40', '4S  SENTRA', '4S  SONATA', '4S  TL', '4S  TSX', '4S  X 2.5', '4S  XB', '4S (RENTAL)', '4S - 300 E', '4S - 328I', '4S - ACCORD', '4S - ALTIMA', '4S - AURA', '4S - AVALON', '4S - CALIBER', '4S - CAMRY', '4S - CAPRICE', '4S - CAROLLA', '4S - CIVIC', '4S - COROLLA', '4S - FOCUS', '4S - FUSION', '4S - G6', '4S - GALANT', '4S - GALLANT', '4S - GRAND AM', '4S - IMPALA', '4S - JETTA', '4S - LANCER', '4S - LEGEND', '4S - MAG', '4S - MALIBU', '4S - OPTIMA', '4S - PASSAT', '4S - PROTEGE', '4S - RABBITT', '4S - S430', '4S - SCION', '4S - SENTRA', '4S - TAURUS', '4S - TL', '4S /  G35X', '4S / 325I', '4S / 335XI', '4S / 545I', '4S / A4', '4S / ACCENT', '4S / ACCORD', '4S / ALTIMA', '4S / AVALON', '4S / AVEO', '4S / AZERA', '4S / C230', '4S / C240', '4S / CAMRY', '4S / CIVIC', '4S / COLBALT', '4S / CONCORDE', '4S / CONTINENTA', '4S / CONTOUR', '4S / COROLLA', '4S / DEVILLE', '4S / E320', '4S / ELANTRA', '4S / ES300', '4S / ES330', '4S / FOCUS', '4S / FUSION', '4S / G6', '4S / GALANT', '4S / GOLF', '4S / GRAND AM', '4S / INTRIGUE', '4S / JETTA', '4S / LHS', '4S / LUMINA', '4S / MALIBU', '4S / MAXIMA', '4S / MILAN', '4S / PARK AVE', '4S / PASSAT', '4S / PROTEGE', '4S / PT CRUISER', '4S / RL', '4S / S60', '4S / SEBRING', '4S / SENTRA', '4S / SONATA', '4S / SPECTRA', '4S / STRATUS', '4S / TAURUS', '4S / TXS', '4S / V70 XC', '4S / YARIS', '4S /30I', '4S 1900', '4S 2', '4S 2.5TL', '4S 200', '4S 3', '4S 3 SERIES', '4S 3.2TL', '4S 3.5 RL', '4S 3.5TL', '4S 300', '4S 318', '4S 318I', '4S 323', '4S 323I', '4S 325', '4S 325 I', '4S 325I', '4S 325XI', '4S 328', '4S 328I', '4S 32V SLS', '4S 330', '4S 335I', '4S 355XI', '4S 4 DOOR', '4S 4RUNNER', '4S 525', '4S 528I', '4S 530', '4S 530I', '4S 530XI', '4S 6', '4S 626', '4S 740', '4S 745I', '4S 745LI', '4S 750', '4S 750LI', '4S 760', '4S 850', '4S 93', '4S A4', '4S A6', '4S A6 3.2', '4S A8L', '4S ABY', '4S ACC', '4S ACCENT', '4S ACCIRD', '4S ACCOD', '4S ACCORD', '4S AERIO', '4S ALANTRA', '4S ALERO', '4S ALT', '4S ALTIMA', '4S AMG', '4S AURA', '4S AVALON', '4S AVENGER', '4S AVENGERQ', '4S AVEO', '4S AZERA', '4S C-230', '4S C230', '4S C240', '4S C280', '4S C300', '4S CAB', '4S CALIBER', '4S CAM', '4S CAMARY', '4S CAMERY', '4S CAMRE', '4S CAMRY', '4S CAMRY CAB', '4S CANRY', '4S CAPRICE', '4S CAVALIER', '4S CELEBRITY', '4S CENTURY', '4S CHAR', '4S CHARGER', '4S CIV', '4S CIVIC', '4S CIVIC HY', '4S CIVIC SI', '4S CLASSIC', '4S COBALT', '4S COOPER', '4S COR', '4S COROLL', '4S COROLLA', '4S CORROLA', '4S CR VC', '4S CROWN  VIC', '4S CROWN VIC', '4S CRUZ', '4S CRUZE', '4S CTS', '4S CTS4', '4S CV TAXI', '4S DEVILLE', '4S DIAMANTE', '4S DTS', '4S DYNASTY', '4S E320', '4S E32D', '4S E350', '4S E420', '4S E5', '4S E63', '4S ECHO', '4S EIGHTY EIGHT', '4S ELANTRA', '4S ELENTRA', '4S ES 300', '4S ES 350', '4S ES300', '4S ES330', '4S ES350', '4S ES400', '4S ESTEEM', '4S EX', '4S FIESTA', '4S FIT', '4S FOCUS', '4S FORENZA', '4S FORESTER', '4S FORTE', '4S FUSION', '4S G MARQ', '4S G-35S', '4S G35', '4S G35X', '4S G37', '4S G37X', '4S G6', '4S GALANT', '4S GALLANT', '4S GENESIS', '4S GOLF', '4S GOLG', '4S GR MARQ', '4S GRAND AM', '4S GRAND CHEROK', '4S GRAND MARQUI', '4S GRAND P', '4S GRAND PRIX', '4S GRAY', '4S GS300', '4S GS350', '4S GTI', '4S HATCH', '4S HYUNDAI', '4S I30', '4S I35', '4S ILX', '4S IMPALA', '4S IMPEZA', '4S IMPEZA WRX', '4S IMPREZA', '4S INSIGHT', '4S INSPIRE', '4S INTEGRA', '4S INTRGUE', '4S ION', '4S IS 350', '4S IS250', '4S IS350', '4S JETTA', '4S L30', '4S LACROSSE', '4S LANCER', '4S LANSER', '4S LE', '4S LEGACY', '4S LEGEND', '4S LS', '4S LS400', '4S LS430', '4S LS460L', '4S LUMINA', '4S LX', '4S M3', '4S M35X', '4S M37S', '4S M37X', '4S M45', '4S MALBU', '4S MALIBU', '4S MALIBU TAXI', '4S MATRIX', '4S MAX', '4S MAXIMA', '4S MAZ 3', '4S MAZDA 3', '4S MAZDA 6', '4S MDX', '4S MILAN', '4S MIRAGE', '4S MKS', '4S MKZ', '4S MONTEGO', '4S MONTERO', '4S NEON', '4S ODYSEEY', '4S OPTIMA', '4S OUTBACK', '4S PASSAT', '4S PC', '4S PRISM', '4S PRIUS', '4S PRIZM', '4S PROTEGE', '4S PRUIS', '4S PRUS', '4S PT CRUISER', '4S Q35', '4S Q5', '4S RAV 4', '4S RAV4', '4S RIO', '4S RIO5', '4S RL', '4S ROGUE', '4S RX-8', '4S S TYPE', '4S S-TYPE', '4S S40', '4S S500', '4S S501', '4S S550', '4S S60', '4S S70', '4S S80', '4S SABLE', '4S SCION', '4S SEBRING', '4S SENTRA', '4S SEPHIA', '4S SJ', '4S SK', '4S SONATA', '4S SPARK', '4S SPECTRA', '4S SPIRIT', '4S ST', '4S STRATUS', '4S STRETCH', '4S STS', '4S STYPE R', '4S SUV', '4S SUV ML320', '4S SW', '4S SX4', '4S TAHOE', '4S TARUS', '4S TAURUS', '4S TAURUS SE', '4S TAXI', '4S TERCEL', '4S TK', '4S TL', '4S TL 3.2', '4S TOWN CAR', '4S TOYOTA', '4S TROOPER', '4S TRUCK', '4S TSX', '4S V70 XC', '4S VERSA', '4S VIBE', '4S WRANGLER', '4S WRX MODIFIED', '4S X-TYPE', '4S XA SCION', '4S XB', '4S XB 4DR', '4S XG350L', '4S XTS', '4S XTS4', '4S XTYPE', '4S YARIS', '4S-', '4S- ALTIMA', '4S- COROLLA', '4S- MALIBU', '4S--E550', '4S-2.7T', '4S-3.2TL', '4S-325I', '4S-32V', '4S-35', '4S-ACCORD', '4S-ALTIMA', '4S-AVALON', '4S-AZERA', '4S-C300', '4S-CAMRY', '4S-CARAVAN', '4S-CIVIC', '4S-COBALT', '4S-COROLLA', '4S-E320', '4S-E350', '4S-EDGE', '4S-ELANTRA', '4S-ES350', '4S-FOCUS', '4S-FORENZA', '4S-G35', '4S-GALANT', '4S-GOLF', '4S-GRAND PRIX', '4S-IMPALA', '4S-IS300', '4S-JETTA', '4S-LS', '4S-LUCERNE', '4S-MALIBU', '4S-MATRIX', '4S-MAXIMA', '4S-MYSTIQUE', '4S-NEON', '4S-OPTIMA', '4S-PASSAT', '4S-PRIUS', '4S-PRIZM', '4S-S 70', '4S-S 80', '4S-S40', '4S-S80', '4S-SENTRA', '4S-SONATA', '4S-SPECTRA', '4S-TL', '4S-VENZA', '4S-XB', '4S/ CAMRY', '4S/ CIVIC', '4S/ SENTRA', '4S/ TL', '4S/ YARIS', '4S/323', '4S/330', '4S/335I', '4S/350', '4S/525', '4S/530', '4S/93', '4S/95', '4S/95  2.3T', '4S/A4', '4S/A6', '4S/ACCENT', '4S/ACCORD', '4S/ALTIMA', '4S/AZERA', '4S/BMW', '4S/C240', '4S/CAMRY', '4S/CHARGER', '4S/CIVIC', '4S/COROLLA', '4S/CV', '4S/E500', '4S/ELANTRA', '4S/EOS', '4S/ES330', '4S/ES350', '4S/EVOLUTION', '4S/FOCUS', '4S/FUSION', '4S/GS', '4S/IMPALA', '4S/IS250', '4S/JETTA', '4S/LS480', '4S/M45', '4S/M5', '4S/MALIBU', '4S/MAXIMA', '4S/MAZDA 6', '4S/MR EVO', '4S/MYSTIQUE', '4S/ODESSY', '4S/PASSAT', '4S/PRIUS', '4S/S550', '4S/S8', '4S/SENTRA', '4S/SL2', '4S/SONATA', '4S/SRT8', '4S/TC', '4S/TL', '4S/TOWNCAR', '4S/TSX', '4S/XA', '4S/XTYPE', '4S/YARIS', '4S350SL', '4S528I', '4S======MATRIX', '4SACCORD', '4SALTIMA', '4SB', '4SC230', '4SC300', '4SCAMRY', '4SCAVALIER', '4SCIVIC', '4SCOROLLA', '4SD', '4SEDAN', '4SELANTRA', '4SENTRA', '4SES200', '4SES300', '4SFOCUS', '4SINA', '4SJETTA', '4SPRIUS', '4SQ', '4SR', '4SS', '4SSENTRA', '4SSONATA', '4STL', '4STSX', '4SVERSA', '4SVOLT', '4SW', '4SYARIS', '4S`', '4UNNER', '4W', '4W MURANO', '4WD', '4WD TK', '4WHEELER`', '4X', '4X$', '4X4', '4X4  SLT  TK', '4X4 1500 SLT', '4X4 3.7L', '4X4 5.7L', '4X4 CHEROKEE', '4X4 LIMITED', '4X4 LTD', '4X4 PICKUP', '4X4 PKTK W/ CAB', '4X4 SU', '4X4 SUV', '4X4 TK', '4X4 TRUC', '4X4 TRUCK', '4X4 VN', '4X4SPORT', '5', '5   SW', '5  4S', '5 430', '5 DOOR', '5 HUNDRED', '5 MINIVAN', '5 SERIES', '5 SERIES 4D', '5 SERIES 4S', '5 SERIRS', '5 SUV', '5 SW', '5 SW/MV', '5 WAGON', '5-150', '5-5', '5-HUND', '5-SERIES', '5.28', '5.281', '5.28I', '5.35I', '5.40I', '5.6 SE', '5.7', '5.7 L LIMITED', '50', '50 CC', '50 JR', '50 SCOOTER', '50 SPORT', '500', '500  MIDGIT CAR', '500 2D', '500 2S', '500 4DR', '500 LIMITED', '500 SEL', '500 SL', '500C', '500CC', '500L', '500SEC', '500SEL', '500SL', '500SL 2S', '504I', '50CC', '50CC SCOOTER', '50S', '510', '5150', '520', '520I', '5221', '52314M6', '523I', '523I 4S', '524', '525', '525 4S', '525 I', '525 IT', '525 TL', '525 XI', '525.I', '5251', '525I', '525I  4DR', '525I 4DR', '525I 4S', '525I STATION WA', '525SI', '525X1', '525XI', '525XL', '526', '526 4D SEDAN', '526I', '528', '528  XI', '528 4D', '528 4DR', '528 4S', '528 I', '5281', '528E', '528I', '528I  4DR', '528I 4D', '528I 4S', '528I SW', '528I X5/16', '528T', '528XI', '528XL', '52I5', '530', '530 4S', '530 I', '530 XI', '5301', '530I', '530I  4D', '530I  4DR', '530I 4DR', '530I 4S', '530X1', '530XI', '530XI 4S', '530XL', '531', '535', '535 4D', '535 4S', '535 I', '535 SUV', '535 XI', '535 XI  SW', '535 XI 4S', '5350', '5351', '535D', '535I', '535I 4D', '535I 4DR', '535I 4S', '535I-4S', '535XI', '535XI 4S', '53778M2', '538 I', '540', '540 I', '540 I 4S', '5401', '540I', '540I 4S', '540I SW', '540I- 4DR', '540IT', '545', '545.1', '545CI', '545I', '545I 4D', '545I/4D', '548I', '54DR', '55 300', '550', '550 I', '550 TT', '5500', '5500HD', '5501', '550I', '550I 4S', '5550', '555D', '560', '560 SEC', '560 SEL', '5600', '560I', '560SEL', '560SEL 4S', '560SL', '563', '570 4S', '580', '585 4DR', '5D', '5D HB', '5D XB SCION', '5D-XD', '5DOOR', '5DR', '5FF0', '5FNRL38646B4265', '5H', '5LG', '5RX', '5RX4', '5S', '5S FOCUS', '5S PT CRUS', '5S-FIT', '5SERIES', '5SP', '5TH AVE', '5TH AVE 4S', '5X4', '6', '6    4S', '6   4DR', '6  - 4 DOOR', '6  FOUR DOOR', '6 4 DOOR', '6 4D', '6 4DR', '6 4S', '6 SERIES', '6 V6', '6 WAGON', '6.0', '600', '600 F4', '600 MC', '600 SERIES', '6000', '600CBR', '600CC', '600F4', '600RR', '620T', '625', '626', '626 4DR', '626 4S', '626 LX', '626 LX-VS', '626LX', '628I', '630I', '635', '635 CSI', '635I', '635XI', '636', '636`', '637S', '637X', '640', '640 CONV', '640I', '645', '645 CI', '645 CL', '645CI', '645CI (2D)', '645CI 2DR', '645I', '646CI', '650', '650 CONV', '650 I', '6500', '6500 DUMP', '650CI', '650I', '650I 2DR', '650R', '659I', '660', '6650', '6700', '675', '675 TRIPLE', '675CC SPORT', '676M795', '680', '6AA8403', '6AC3955', '6FJP65', '6FNY34', '6G 4S', '6S', '6S350', '7 SER', '7 SERIES', '7.40IL', '7.50', '70', '70 LI', '700', '700 SERIES', '724', '730', '7300 / DT466', '730I', '735', '735I', '735I 4S', '73944Z', '740', '740 4/S', '740 4D', '740 4S', '740 GL', '740 GLE', '740 I', '740 IL', '740 LI 4DR', '740 TI', '740 TURBO', '740 TURBO 4S', '740/4S', '7401', '740GL', '740GL 4S', '740GLE', '740I', '740I 4S', '740II', '740IL', '740IL 4DR', '740IL 4S', '740L', '740LI', '740TL', '745', '745  4DR', '745 LI', '745I', '745I 4D', '745I 4S', '745LI', '745LI 4S', '746I', '749GLE', '74O', '74X', '75', '750', '750 4S', '750 I', '750 L', '750 LI', '7500', '750I', '750I 4D', '750I 4DR', '750I 4S', '750IL', '750L', '750LI', '750LI 4S', '75X', '760', '760 LI', '7600 DUMP TK', '7600 REAR LOADER', '760IL', '760LI', '77S', '7957DA', '7AP8943', '7L', '7SERRIES', '7SX', '8.0CL', '80', '800', '800-GOTJUNK TK', '807', '823I', '825', '83 X 12 DUMP', '840', '840 CI', '840CI', '845CI', '848', '850', '850 4D', '850 4S', '850 GLT', '850 S/W', '850 SLT  4DR', '850 SW', '850 WAGON', '8500', '850CI', '850GLT', '850I', '850I CONV', '850R', '850R 4S', '85D', '860', '870', '88', '88 4D', '88 4S', '88 LS', '880', '8AN3192', '8BF3095', '8DVN05', '9', '9  3', '9 2.0T', '9 3', '9 5 4DR', '9-2X', '9-3', '9-5', '9-5 AERO', '9.3', '9.5', '9.5  2.3T', '9/3', '9/5', '90', '900', '900 S', '900 SE', '900 TURBO', '900 TURBO  2S', '9000', '9000CSE', '900RR', '900S', '900S 4S', '900SE', '90S', '910', '911', '911  2DR CONV', '911 2DR', '911 CARRERA', '911 CARRERA S', '911 STYLE GT', '911 TURBO S', '919 MC', '924S', '928S', '929', '92L603', '92X', '93', '93  2.0T', '93  4DR', '93  CONVERTABLE', '93 (2.0T)', '93 2.0', '93 2.0T 4D', '93 4D', '93 4DR', '93 4S', '93 AERO', '93 AERO 4S', '93 CONV', '93 CONVERTABLE', '93 CONVERTIBLE', '93 CV', '93 SW', '93, 4SEDAN', '93-4S', '935I', '93A', '93S', '93T', '940', '940 SW', '940GL', '940SE', '944', '944S', '95', '95 2.3T', '95 4S', '95 AERO', '95 SEDAN', '95 STATION WAG', '95 SW', '950', '95AERO', '95B', '960', '960 4D', '960 SW', '968', '97', '97X', '97X  SUV', '98', '980', '980 TS', '99', '9BY6899', '9OO SE', '9S', ';PRIUS', '?', 'A', 'A 6', 'A 7', 'A2', 'A225', 'A25', 'A3', 'A3 SW', 'A4', 'A4   (4S)', 'A4  4D', 'A4  4DR', 'A4  4S', 'A4  DR', 'A4 - 4 DOOR', 'A4 - 4S', 'A4 2.0', 'A4 2.0T', 'A4 2.OT', 'A4 4 DOOR', 'A4 4 DOORS', 'A4 4D', 'A4 4DOOR', 'A4 4DR', 'A4 4S', 'A4 CN', 'A4 CONV', 'A4 CONVERTIBLE', 'A4 CV', 'A4 SEDAN', 'A4 SW', 'A4 WAGON', 'A4- 4DR', 'A42 4S', 'A4A', 'A4Q', 'A5', 'A5 2D', 'A5 2H', 'A5 2S', 'A5 COUPE', 'A5L', 'A5U', 'A6', 'A6   4DR', 'A6  4DR', 'A6 - 4DR', 'A6 2.7T', 'A6 27T', 'A6 4 DR', 'A6 4D', 'A6 4S', 'A6 STATOINWAGON', 'A6 WAG.', 'A6 WAGON', 'A7', 'A7 4D', 'A8', 'A8 4S', 'A8 SW', 'A8, 4S', 'A84S', 'A8L', 'AACCENT', 'AACCORD', 'AACORD', 'AB1', 'ABERTH', 'ABS', 'AC', 'AC70', 'ACADIA', 'ACADIA / 4DR', 'ACADIA 4DSUV', 'ACADIA SUV', 'ACADIA`', 'ACAIDA', 'ACC', 'ACC 2D', 'ACC 2S', 'ACC 4D', 'ACC 4S', 'ACC SPORT', 'ACCCORD', 'ACCD', 'ACCDENT', 'ACCEL', 'ACCEN', 'ACCENR', 'ACCENT', 'ACCENT  4DR', 'ACCENT - 2S', 'ACCENT - 4S', 'ACCENT 2D', 'ACCENT 2DR', 'ACCENT 2S', 'ACCENT 3D', 'ACCENT 3S', 'ACCENT 4D', 'ACCENT 4DR', 'ACCENT 4S', 'ACCENT 5D HB', 'ACCENT GL', 'ACCENT GS', 'ACCERT', 'ACCET', 'ACCIRD', 'ACCIRD 4DR', 'ACCLAIM', 'ACCLAIM 4S', 'ACCO', 'ACCOD', 'ACCOED', 'ACCOERD', 'ACCOORD', 'ACCOR', 'ACCORD', 'ACCORD   SX', 'ACCORD  2DR', 'ACCORD  4D', 'ACCORD  4DR', 'ACCORD  LX', 'ACCORD  WAGON', 'ACCORD (COUPE)', 'ACCORD - 2DR', 'ACCORD - 2S', 'ACCORD - 4S', 'ACCORD / 4DR', 'ACCORD / 4DS', 'ACCORD / 4S', 'ACCORD 2D', 'ACCORD 2DR', 'ACCORD 2DS', 'ACCORD 2S', 'ACCORD 4 DOOR', 'ACCORD 4 DR', 'ACCORD 4D', 'ACCORD 4D SDN', 'ACCORD 4DG', 'ACCORD 4DR', 'ACCORD 4S', 'ACCORD 4SW', 'ACCORD COUPE', 'ACCORD CP', 'ACCORD CROSSTOU', 'ACCORD DX', 'ACCORD E', 'ACCORD EX', 'ACCORD EX 4D', 'ACCORD LX', 'ACCORD LX 4D', 'ACCORD LX 4S', 'ACCORD RD', 'ACCORD RS', 'ACCORD S/W', 'ACCORD SD', 'ACCORD SE', 'ACCORD SPORT', 'ACCORD SW', 'ACCORD TURBO', 'ACCORD V6', 'ACCORD V6 4S', 'ACCORD WAGON', 'ACCORD-4S', 'ACCORD/ 2S', 'ACCORD/ 4DR', 'ACCORD/ 4S', 'ACCORD/2D', 'ACCORD/2S', 'ACCORD/CROSS', 'ACCORD/SW',</t>
         </is>
@@ -2117,18 +2451,32 @@
       <c r="P25" t="n">
         <v>1746</v>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>YELLOW</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>160809</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
         <v>4160325</v>
       </c>
-      <c r="S25" t="n">
+      <c r="W25" t="n">
         <v>27</v>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>['BEIGE', 'BLACK', 'BLUE', 'BLUE, DARK', 'BLUE, LIGHT', 'BRONZE', 'BROWN', 'CAMOUFLAGE', 'CHROME', 'COPPER', 'CREAM', 'GOLD', 'GRAY', 'GREEN', 'GREEN, DK', 'GREEN, LGT', 'MAROON', 'MULTICOLOR', 'N/A', 'ORANGE', 'PINK', 'PURPLE', 'RED', 'SILVER', 'TAN', 'WHITE', 'YELLOW']</t>
         </is>
@@ -2187,18 +2535,32 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Citation</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>408819</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
         <v>6106525</v>
       </c>
-      <c r="S26" t="n">
+      <c r="W26" t="n">
         <v>4</v>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>['Citation', 'ESERO', 'SERO', 'Warning']</t>
         </is>
@@ -2257,18 +2619,32 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>21-801.1</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>112244</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>7340414</v>
       </c>
-      <c r="S27" t="n">
+      <c r="W27" t="n">
         <v>944</v>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>['10-303(a)', '10-309(a)', '10-309(c)', '10-310(c)', '10-319.2', '10-320(a)', '10-406(b)', '10-410(2)', '10-501(b)', '11-107.62(0b)', '11-1527.0(8a)', '11-172.20(0a)', '11-172.20(2a)', '11-172.30(0)', '11-172.33(4b)', '11-172.50(2a)', '11-172.50(2a2)', '11-172.51(6)', '11-172.51(9)', '11-177.80(4)', '11-177.81(7)', '11-177.81(7e)', '11-177.83(4)', '11-180.41(5a)', '11-383.23', '11-383.3B', '11-383.91(a)', '11-383.93(b)', '11-390.11', '11-390.21', '11-390.35', '11-391.11(a)', '11-391.11(b2)', '11-391.15', '11-391.1C', '11-391.41(a)', '11-392.10(a)', '11-392.11', '11-392.14', '11-392.16', '11-392.2', '11-392.22', '11-392.33', '11-392.3A', '11-392.4A', '11-392.5A', '11-392.5A(3)', '11-392.60', '11-392.71(a)', '11-392.8', '11-392.80(a)', '11-392.82', '11-392.9', '11-392.9(a)', '11-393.1', '11-393.10(0b)', '11-393.10(0c)', '11-393.10(4a)', '11-393.10(4b)', '11-393.10(6b)', '11-393.10(6c)', '11-393.11(0a)', '11-393.11(2)', '11-393.11(8)', '11-393.12(8)', '11-393.13(0)', '11-393.13(4)', '11-393.20(1a)', '11-393.20(3)', '11-393.20(5a)', '11-393.20(5c)', '11-393.20(7c)', '11-393.20(7e)', '11-393.20(9d)', '11-393.28', '11-393.30', '11-393.33', '11-393.40(a)', '11-393.41', '11-393.42', '11-393.43', '11-393.45(a)', '11-393.46(a)', '11-393.47', '11-393.48', '11-393.51(a)', '11-393.60', '11-393.62', '11-393.65', '11-393.70', '11-393.71', '11-393.75(a)', '11-393.75(a3)', '11-393.75(b)', '11-393.75(c)', '11-393.75(f)', '11-393.75(h1)', '11-393.78', '11-393.80', '11-393.81', '11-393.83', '11-393.84', '11-393.86', '11-393.87', '11-393.9', '11-393.95(a)', '11-393.95(a2)', '11-393.95(f)', '11-395.13(c)', '11-395.13(d)', '11-395.3B(1)', '11-395.8A', '11-395.8E', '11-395.8F', '11-395.8K', '11-396.1', '11-396.13', '11-396.3', '11-396.3(a)', '11-396.3A', '11-396.7', '11-396.9(d2)', '11-396.9C(2)', '11-396.9C(3)', '12-301(11)', '12-301(c)', '12-301(e)', '12-301(f)', '12-301(j)', '12-301(l2)', '13-101.1', '13-106(d2)', '13-111(b)', '13-111(e)', '13-112(a)', '13-112(c)', '13-112(e)', '13-113(b)', '13-113(c)', '13-113.2(c)', '13-113.2(d)', '13-113.2(g)', '13-117(a)', '13-118(a)', '13-118(b)', '13-203(b)', '13-205(b)', '13-401(b)', '13-401(b1)', '13-401(c)', '13-401(d)', '13-401(e)', '13-401(f)', '13-401(g)', '13-401(h)', '13-401(i)', '13-401(j)', '13-401(k)', '13-402(a1)', '13-402(a2)', '13-402.1(e1)', '13-402.1(e2)', '13-403', '13-409(a)', '13-409(b)', '13-410(c5)', '13-410(e2)', '13-411(a)', '13-411(b1)', '13-411(b2)', '13-411(c)', '13-411(c1)', '13-411(c2)', '13-411(d)', '13-411(e)', '13-411(f)', '13-411(g)', '13-411(h)', '13-411.1(b)', '13-411.1(c)', '13-414(a)', '13-414(b)', '13-415(a)', '13-415(b)', '13-415(c)', '13-415(d)', '13-415(e)', '13-415(f)', '13-415(g)', '13-415(h)', '13-420(b)', '13-423(a)', '13-501(a)', '13-501(b)', '13-501(c)', '13-501(e)', '13-502(a)', '13-502(b)', '13-503(e)', '13-506(c12)', '13-604(a)', '13-604(b)', '13-604(c)', '13-605', '13-606(c)', '13-607(b)', '13-607(d)', '13-607(e)', '13-607(f)', '13-616(i)', '13-616.1(f1)', '13-616.1(f2)', '13-616.1(h2)', '13-616.2(c2)', '13-616.2(d2)', '13-616.2(e2)', '13-616.2(f1)', '13-620(b)', '13-620(c)', '13-620(d)', '13-625(e)', '13-629', '13-701(a)', '13-701(b)', '13-702(a)', '13-702(b)', '13-703(a)', '13-703(b)', '13-703(c)', '13-703(d)', '13-703(e)', '13-703(f)', '13-703(g)', '13-703(h)', '13-704(b)', '13-708(a)', '13-708(b)', '13-918(b)', '13-920(i)', '13-920(j)', '13-921(d2)', '13-936.2(e1)', '13-936E(2i)', '13-936E(2iI)', '13-940(c)', '13-946(c)', '14-102(a)', '14-102(b)', '14-103(a)', '14-103(b)', '14-104(a)', '14-104(b)', '14-104(c)', '14-104(d)', '14-105(e)', '14-106(a)', '14-107(b)', '14-107(c)', '14-107(d)', '14-107(f)', '14-107(g)', '14-107(j)', '14-107(k)', '14-108(a)', '14-110(b)', '14-110(c)', '14-110(d)', '14-110(e)', '14-110(f)', '14-110(g)', '15-111(a)', '15-302(a)', '15-311.2(c1)', '15-311.2(c3)', '15-311.2(c4)', '15-312(a)', '15-314(g)', '15-402(a)', '15-602', '15-802', '16-101(a)', '16-101(b)', '16-104.1(b)', '16-104.1(c)', '16-104.1(d)', '16-105(b1)', '16-105(b2)', '16-105(c)', '16-111.1(f)', '16-112(b)', '16-112(c)', '16-112(d)', '16-112(e)', '16-113(h)', '16-113(i)', '16-113(j)', '16-113(k)', '16-114(b)', '16-114(d)', '16-115(f)', '16-115(g)', '16-115(h)', '16-116(a)', '16-116(b)', '16-116(c)', '16-122(c)', '16-201', '16-205(e15)', '16-211(a)', '16-211(b)', '16-211(c)', '16-211(d)', '16-211(e)', '16-301(a)', '16-301(b)', '16-301(c)', '16-301(d)', '16-301(e)', '16-301(f)', '16-301(g)', '16-301(h)', '16-301(i)', '16-301(j)', '16-301(k)', '16-301(l)', '16-301(m)', '16-301(n)', '16-301(o)', '16-301(p)', '16-301(q)', '16-302', '16-303(a)', '16-303(b)', '16-303(c)', '16-303(d)', '16-303(e)', '16-303(f)', '16-303(g)', '16-303(h)', '16-303(i)', '16-304(a)', '16-304(b)', '16-305(a)', '16-305(b)', '16-804', '16-807(a)', '16-807(e2)', '16-808(a3)', '16-808(a5)', '16-808(a6)', '16-808(a7)', '16-808(a91)', '16-808(b1)', '16-808(c)', '16-810(d)', '16-813(a)', '16-815(a)', '16-815(b)', '16-815(c)', '16-816(b)', '17-104', '17-104.1', '17-106(b)', '17-106(d)', '17-107', '17-110', '18-103(a)', '18-103(c)', '18-106(a)', '18-106(b)', '20-102(a1)', '20-102(a2)', '20-102(b1)', '20-103(a)', '20-103(b)', '20-104(a)', '20-104(b)', '20-104(c)', '20-104(d)', '20-105(a)', '20-105(b)', '20-105(c)', '20-105.1', '20-106', '20-107(a)', '20-107(b)', '20-107(d)', '20-108', '21-1001(a)', '21-1001(b)', '21-1001(c)', '21-1003(aa)', '21-1003(b)', '21-1003(c)', '21-1003(cc)', '21-1003(d)', '21-1003(dd)', '21-1003(e)', '21-1003(f)', '21-1003(g)', '21-1003(h)', '21-1003(j)', '21-1003(k)', '21-1003(l)', '21-1003(m)', '21-1003(n)', '21-1003(o)', '21-1003(p)', '21-1003(q)', '21-1003(r)', '21-1003(s)', '21-1003(u)', '21-1003(v)', '21-1004(a)', '21-1004(b)', '21-1004(e)', '21-1004.1(a)', '21-1004.1(c)', '21-1005(d)', '21-1005(f)', '21-1006(b)', '21-103(a)', '21-103(b)', '21-104(b)', '21-106(c)', '21-106(c3I)', '21-107(c)', '21-10A04(4)', '21-10A04A(2)', '21-10A04A(5)', '21-10A04A(7)', '21-10A05A(1)', '21-1101(a)', '21-1101(b)', '21-1102(a)', '21-1102(b)', '21-1103(a)', '21-1104(a)', '21-1104(b)', '21-1104(c)', '21-1104(d)', '21-1105(a)', '21-1105(b)', '21-1106(a)', '21-1107(b1)', '21-1107(b2)', '21-1108(a)', '21-1109(a)', '21-1109(b)', '21-1110', '21-1111(a)', '21-1111(b)', '21-1111(c)', '21-1111(d)', '21-1112', '21-1112.1(a)', '21-1114(a)', '21-1114(c)', '21-1114(d)', '21-1115(a)', '21-1116(a)', '21-1116(b)', '21-1117(b)', '21-1117(c)', '21-1117(d)', '21-1119(d)', '21-1120(a)', '21-1120(b)', '21-1120(c)', '21-1121(c)', '21-1122(c)', '21-1123(a2)', '21-1124(c)', '21-1124.1(b)', '21-1124.2(c1)', '21-1124.2(c2)', '21-1124.2(d2)', '21-1124.3', '21-1125(1)', '21-1125(2)', '21-1125(3)', '21-1125(4)', '21-1127(a)', '21-1127(b2)', '21-1128', '21-1129', '21-1201(b)', '21-1203(b)', '21-1203(c)', '21-1205(a)', '21-1205(b)', '21-1205(c)', '21-1205.1(a)', '21-1205.1(b)', '21-1205.1(b1)', '21-1205.1(b2)', '21-1205.1(b3)', '21-1205.1(c)', '21-1205.1(d)', '21-1207(a)', '21-1207(b)', '21-1207(d)', '21-1208(e)', '21-1209(a1)', '21-1209(a2)', '21-1209(b)', '21-1209(d)', '21-1210(a)', '21-1210(b)', '21-1302(a)', '21-1302(b)', '21-1302(d)', '21-1302(g)', '21-1303(c)', '21-1303(d)', '21-1303(e)', '21-1305(a)', '21-1306(b)', '21-1306(c)', '21-1306.1(b)', '21-1306.1(c)', '21-1404(a)', '21-1405(a)', '21-1406', '21-1407', '21-1408(a)', '21-1408(b)', '21-1409', '21-1412(c)', '21-1412(d)', '21-1413(b)', '21-201(a1)', '21-201(a2)', '21-202(c)', '21-202(e)', '21-202(h)', '21-202(h1)', '21-202(h2)', '21-202(i1)', '21-202(i2)', '21-202(j)', '21-202(k)', '21-202(l)', '21-202(m)', '21-203(c)', '21-203(d)', '21-204(b)', '21-204(c)', '21-204(d)', '21-204(f)', '21-204.1', '21-205(a)', '21-205(c)', '21-207(b)', '21-209', '21-209(2)', '21-209(3)', '21-2091(i)', '21-2091(ii)', '21-2091(iiI)', '21-301(a)', '21-301(b)', '21-301(c)', '21-302(b)', '21-303(b)', '21-303(c)', '21-303(d)', '21-303(e)', '21-304(b)', '21-304(c)', '21-305', '21-307(b)', '21-307(c)', '21-307(d)', '21-308(a)', '21-308(b)', '21-309(b)', '21-309(c)', '21-309(d)', '21-309(e)', '21-309(f)', '21-309(g)', '21-309(h)', '21-309(i)', '21-310(a)', '21-310(e)', '21-311(1)', '21-311(2)', '21-311(3)', '21-312(a)', '21-313(b)', '21-314(b)', '21-401', '21-401.1', '21-402(a)', '21-402(b)', '21-403(b)', '21-403(c)', '21-403(d)', '21-404(a)', '21-404(b)', '21-404(d)', '21-404(e)', '21-404.1(a)', '21-404.1(b)', '21-405(a)', '21-405(b)', '21-405(c)', '21-405(d)', '21-405(e1)', '21-405(e2)', '21-502(a2)', '21-502(b)', '21-502(c)', '21-503(a)', '21-503(b)', '21-503(c)', '21-503(d)', '21-504(a)', '21-504(b)', '21-504(c)', '21-505', '21-506(a)', '21-506(b)', '21-507(a)', '21-507G3I(i1)', '21-508', '21-509(a)', '21-509(c)', '21-509(d)', '21-511(a1)', '21-511(a3)', '21-601(a)', '21-601(b)', '21-601(c)', '21-601(d)', '21-602(a)', '21-602(b)', '21-603(a)', '21-603(b)', '21-604(a)', '21-604(b)', '21-604(c)', '21-604(d)', '21-604(e)', '21-605(a)', '21-605(b)', '21-605(c)', '21-606(b)', '21-606(c)', '21-703(d)', '21-703.1', '21-705(a)', '21-705(b)', '21-705(c)', '21-705(d)', '21-706(a)', '21-706(b)', '21-707(a)', '21-707(b)', '21-707(c)', '21-707(d)', '21-707(e)', '21-707(f)', '21-801(a)', '21-801(b)', '21-801(c)', '21-801(d)', '21-801(e)', '21-801(f)', '21-801(g)', '21-801(h)', '21-801.1', '21-802.1', '21-803.1(e)', '21-804(a)', '21-804(b)', '21-804(c)', '21-805(a)', '21-805(d)', '21-805.1(a)', '21-806(b)', '21-901.1(a)', '21-901.1(b)', '21-901.2', '21-902(a1)', '21-902(a2)', '21-902(a3)', '21-902(b1)', '21-902(b2)', '21-902(c1)', '21-902(c3)', '21-902(d1)', '21-902(d2)', '21-902.1', '21-903(c)', '21-904(b1)', '21-904(b2)', '21-904(b3)', '21-904(c1)', '21-904(c2)', '21-904(c3)', '21-904(d1)', '21-904(e2)', '22-101(a)', '22-104', '22-105(a)', '22-105(b)', '22-201.1', '22-201.2', '22-203(b)', '22-203(c)', '22-203(d)', '22-204(a)', '22-204(b)', '22-204(d)', '22-204(e)', '22-204(f)', '22-205(a)', '22-206(a)', '22-206(b)', '22-206(c)', '22-208', '22-209(a)', '22-209(b)', '22-210(c)', '22-211(a)', '22-211(b)', '22-211(c)', '22-211(d)', '22-213(d)', '22-213(e)', '22-214(a)', '22-214(b)', '22-214(c)', '22-215(a)', '22-215.1(1)', '22-215.1(2)', '22-216', '22-217(a)', '22-217(b)', '22-217(c)', '22-218(c)', '22-218(e)', '22-218(f)', '22-219(a)', '22-219(b)', '22-219(c)', '22-219(d)', '22-219(e)', '22-219(f)', '22-219(g)', '22-221(b)', '22-221(c)', '22-221(e)', '22-221(f)', '22-221(g)', '22-221(h)', '22-221(j)', '22-221(l22)', '22-221(l23)', '22-222(a)', '22-222(b)', '22-222(c)', '22-223(a)', '22-223(b)', '22-223(c)', '22-224.1', '22-225', '22-226(a)', '22-226(b)', '22-227(a)', '22-227(b)', '22-227(c)', '22-227(d)', '22-227(e)', '22-227(f)', '22-228(a)', '22-230(b)', '22-230(c)', '22-301(b)', '22-301(c)', '22-301(d)', '22-301(e)', '22-301(i)', '22-301(k)', '22-303', '22-401(b)', '22-401(c)', '22-401(e)', '22-402(a)', '22-402(b)', '22-402(c)', '22-402(c1)', '22-402.1(a)', '22-403(a)', '22-403(b)', '22-403(c)', '22-404(a)', '22-404(b)', '22-404(c)', '22-404.1(b)', '22-404.3(a)', '22-405(a)', '22-405(b)', '22-405(d)', '22-405.2(a)', '22-405.2(b)', '22-406(b)', '22-406(c)', '22-406(d)', '22-406(e)', '22-406(f)', '22-406(i1)', '22-406(i3)', '22-407(a)', '22-407(d)', '22-408(a)', '22-408(b)', '22-408(c)', '22-408(d)', '22-410(d)', '22-412(a)', '22-412(b)', '22-412.2(d)', '22-412.2(e)', '22-412.2(g)', '22-412.3(b)', '22-412.3(c)', '22-412.3(c2)', '22-412.3(c3)', '22-412.4', '22-413(a)', '22-413(b)', '22-413(d)', '22-414', '22-602(a)', '22-602(b)', '22-609(a)', '22-609(b)', '22-611(b)', '23-104', '23-109(b)', '23-109(i)', '23-109(j)', '23-109(k)', '23-302', '23-302(c)', '24-101(b)', '24-103(a)', '24-103(b)', '24-104', '24-105(b)', '24-105(c1)', '24-105(c21)', '24-106(b)', '24-106(c)', '24-106(e)', '24-106.1(b)', '24-106.1(d1)', '24-106.1(d2)', '24-106.1(e2)', '24-106.1(f)', '24-106.2(a)', '24-106.2(d)', '24-107(b1)', '24-107(b2)', '24-107(b3)', '24-107(b4)', '24-107(d)', '24-107(h)', '24-108(a1)', '24-111(d)', '24-112(e2)', '24-202', '25-108(b)', '25-108(c)', '25-111(d)', '25-111(g)', '25-112(b3)', '25-202', '25-202(a1)', '25-202(a2)', '26-102(a)', '26-102(b)', '26-203', '26-305(d1)', '27-105(c1)', '27-107(d)', '27-107(f)', '50', '51', '52', '53', '54*', '55', '55*', '56*', '57*', '58', '59', '60*', '61', '61*', '62*', '64*', '65*', '66*', '67', '68*', '69*', '7-705(a23)', '7-705(b1)', '7-705(b3)', '7-705(b4)', '7-705(b5)', '7-705(b8)', '7-705(f1)', '70', '70*', '71*', '72', '73*', '74', '76*', '77', '78*', '79*', '8-409(e)', '8-409(i)', '80*', '81', '82*', '83*', '84*', '85', '86*', '87*', '88*', '89', '9-220', '9-220(a)', '9-337(a)', '90']</t>
         </is>
@@ -2327,18 +2703,32 @@
       <c r="P28" t="n">
         <v>42633</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>Transportation Article</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
+        <v>773657</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
         <v>17160118</v>
       </c>
-      <c r="S28" t="n">
+      <c r="W28" t="n">
         <v>2</v>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>['Maryland Rules', 'Transportation Article']</t>
         </is>
@@ -2397,18 +2787,32 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R29" t="n">
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>807756</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>1671042</v>
       </c>
-      <c r="S29" t="n">
+      <c r="W29" t="n">
         <v>2</v>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>['No', 'Yes']</t>
         </is>
@@ -2467,18 +2871,32 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>WHITE</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
+        <v>313316</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
         <v>4648072</v>
       </c>
-      <c r="S30" t="n">
+      <c r="W30" t="n">
         <v>6</v>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>['ASIAN', 'BLACK', 'HISPANIC', 'NATIVE AMERICAN', 'OTHER', 'WHITE']</t>
         </is>
@@ -2537,18 +2955,32 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>826266</v>
-      </c>
-      <c r="S31" t="n">
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>550770</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>826266</v>
+      </c>
+      <c r="W31" t="n">
         <v>3</v>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>['F', 'M', 'U']</t>
         </is>
@@ -2607,18 +3039,32 @@
       <c r="P32" t="n">
         <v>61</v>
       </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>`BALTIMORE</t>
-        </is>
-      </c>
-      <c r="R32" t="n">
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>SILVER SPRING</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>202558</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
         <v>8846202</v>
       </c>
-      <c r="S32" t="n">
+      <c r="W32" t="n">
         <v>5792</v>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>['.', '. POTOMAC', '00', '13211 CLAXTON DR', '19033 GROTTO LN', '19405 BATTLERIDGE WY', '1ST ST NW UNIT S', '20009', '2S', '3707 CHEVY CHASE', 'ABBOTTSTOWN', 'ABELL', 'ABERDEEN', 'ABILENE', 'ABINGDON', 'ABINGTON', 'ABIQUIU', 'ABITA SPRINGS', 'ABSECON', 'ACCOKEEK', 'ACCOKEET', 'ACCOMACK', 'ACKWORTH', 'ACOCEEK', 'ACTON', 'ACWORTH', 'ADAMASTOWN', 'ADAMSTOWN', 'ADDISON', 'ADELFI', 'ADELPHI', 'ADELPHI MD', 'ADELPHIA', 'ADELPI', 'ADEPHI', 'ADEPHIA', 'ADLEPHI', 'AFTON', 'AGAWAM', 'AHOSKIE', 'AHSTON', 'AIEA', 'AIKEN', 'AILVER SPRING', 'AIRVILLE', 'AKRON', 'ALABASTER', 'ALACHUA', 'ALAMEDA', 'ALAMOSA', 'ALANTA', 'ALAXANDRIA', 'ALBANY', 'ALBEMARLE', 'ALBERTVILLE', 'ALBION', 'ALBUQUERQUE', 'ALBURGH', 'ALBURQUERQUE', 'ALBURTIS', 'ALBUUQUERQUE', 'ALCOA', 'ALDAN', 'ALDELPHI', 'ALDEN', 'ALDEPHI', 'ALDIE', 'ALEANDRIA', 'ALECANDRIA', 'ALEXADRIA', 'ALEXANDER', 'ALEXANDER CITY', 'ALEXANDERIA', 'ALEXANDIA', 'ALEXANDRA', 'ALEXANDRAI', 'ALEXANDREIA', 'ALEXANDRI', 'ALEXANDRIA', 'ALEXANFRIA', 'ALGONQUIN', 'ALHAMBRA', 'ALIQUIPPA', 'ALISO VIEJO', 'ALLEN', 'ALLENDALE', 'ALLENTOWN', 'ALLERTON', 'ALLISON PARK', 'ALLSTON', 'ALMA', 'ALPHARETTA', 'ALPINE', 'ALRINGTON', 'ALTADENA', 'ALTAMONTE SPGS', 'ALTAMONTE SPRGS', 'ALTON', 'ALTONA', 'ALTOONA', 'ALUM BANK', 'ALUM CREEK', 'ALVIN', 'AMARILLO', 'AMBLER', 'AMELIA', 'AMERICAN CYN', 'AMES', 'AMESBURY', 'AMHERST', 'AMISSVILLE', 'AMITYVILLE', 'AMPLE', 'AMSTERDAM', 'ANACORTES', 'ANAHEIM', 'ANAHEIM HILLS', 'ANAHIEM', 'ANANDALE', 'ANAPOLIS', 'ANCHORAGE', 'ANDERSON', 'ANGIER', 'ANN ARBOR', 'ANN HARBOR', 'ANNA', 'ANNADALE', 'ANNANDALE', 'ANNAPOLIS', 'ANNAPOLIS JUNCTION', 'ANNE ARUNDEL', 'ANNEDALE', 'ANNISTON', 'ANNVILLE', 'ANOKA', 'ANTELOPE', 'ANTHONY', 'ANTIOCH', 'APACHE JUNCTION', 'APEX', 'APO AP', 'APOLLO', 'APOLLO BEACH', 'APOPKA', 'APPLE VALLEY', 'APPLETON', 'APPOMATTOX', 'APT 101 BURTONSVILLE', 'APT 12', 'APT 3 WASHINGTON', 'APT 933 COLUMBIA', 'APT#1', 'AQUASCO', 'ARBUTUS', 'ARCADIA', 'ARCATA', 'ARCHBALD', 'ARDEN', 'ARDMORE', 'ARELINGTON', 'ARITON', 'ARKINGTON', 'ARLINGTION', 'ARLINGTON', 'ARLINGTON HEIGHTS', 'ARLINGTON VA', 'ARLINGTON4', 'ARLLINGTON', 'ARLUNGTON', 'ARMAGH', 'ARMONK', 'ARNOLD', 'ARTEMAS', 'ARVERNE', 'ASBURN', 'ASBURTON', 'ASBURY PARK', 'ASHBURN', 'ASHBURTON LN', 'ASHEVILLE', 'ASHLAND', 'ASHMEADE RD', 'ASHTON', 'ASHVILLE', 'ASLIP', 'ASPEN', 'ASPEN HILL', 'ASPERS', 'ASTON', 'ASTORIA', 'ATCO', 'ATHENS', 'ATLANTA', 'ATLANTIC', 'ATLANTIC BEACH', 'ATLANTIC CITY', 'ATLANTIS', 'ATOKA', 'ATTLEBORO', 'AUBURN', 'AUBURN HILLS', 'AUBURNDALE', 'AUDUBON', 'AUGUSTA', 'AURORA', 'AUSTELL', 'AUSTIN', 'AUTRYVILLE', 'AVALON', 'AVE', 'AVE NW', 'AVELLA', 'AVENEL', 'AVENTURA', 'AVENUE', 'AVIDSONVILLE', 'AVON', 'AVON PARK', 'AVONDALE', 'AVONDALE EST', 'AYDEN', 'AYLETT', 'AZUSA', 'BABYLON', 'BACONTON', 'BADEN', 'BAELETON', 'BAETHESDA', 'BAILEYS CROSSROADS', 'BAINBRIDGE', 'BAINBRIDGE ISLAND', 'BAITHERSBURG', 'BAKER CITY', 'BAKERSFIELD', 'BAL HARBOUR', 'BAL HRBOUR', 'BALA CYNWYD', 'BALCH SPRINGS', 'BALDWIN', 'BALDWINSVILLE', 'BALITMORE', 'BALLSTON LAKE', 'BALLSTON SPA', 'BALLWIN', 'BALNDESBURG', 'BALTIMOE', 'BALTIMORE', 'BALTIMORE CITY', 'BALTIOMORE', 'BALTIOMRE', 'BALTIORE', 'BALTMIORE', 'BALTMORE', 'BALWDIN', 'BAMBERG', 'BANDERA', 'BANGOR', 'BANNING', 'BAR HARBOR', 'BARBOURSVILLE', 'BARBOURVILLE', 'BARHAMSVILLE', 'BARNARD', 'BARNEGAT', 'BARNESVILLE', 'BARNEY', 'BARNSBORO', 'BARNSVILLE', 'BARNWELL', 'BARRINGTON', 'BARRYTOWN', 'BARSTOW', 'BARTLETT', 'BARTON', 'BASKING RIDGE', 'BASKINGRIDGE', 'BASSETT', 'BASYE', 'BATAVIA', 'BATH', 'BATHESDA', 'BATON ROUGE', 'BATTLE CREEK', 'BAXTER', 'BAY CITY', 'BAY HARBOR IS', 'BAY SHORE', 'BAY VILLAGE', 'BAYAMON', 'BAYONNE', 'BAYPORT', 'BAYSHORE', 'BAYSIDE', 'BAYTOWN', 'BAYVILLE', 'BEACHWOOD', 'BEACON', 'BEACONSFIELD', 'BEALETON', 'BEALLESVILLE', 'BEALLSVILLE', 'BEALSVILLE', 'BEAN STATION', 'BEAR', 'BEARTON', 'BEAUFORT', 'BEAUMONT', 'BEAVER', 'BEAVER CREEK', 'BEAVER DAM', 'BEAVER FALLS', 'BEAVERDAM', 'BEAVERTON', 'BEAVERTOWN', 'BECHTELSVILLE', 'BECK WOODS', 'BECKLEY', 'BEDFORD', 'BEDFORD HEIGHTS', 'BEDFORD HEIGTHS', 'BEDFORD HTS', 'BEECH GROVE', 'BEECH ISLAND', 'BEHESDA', 'BEHTESDA', 'BEL  AIR', 'BEL AIR', 'BEL ALTON', 'BELAIR', 'BELALTON', 'BELCAMP', 'BELEVILLE', 'BELGRADE', 'BELL GARDENS', 'BELLAIRE', 'BELLBROOK', 'BELLE GLADE', 'BELLE MEAD', 'BELLE VERNON', 'BELLEAIR', 'BELLEAIR BEACH', 'BELLEFONTAINE', 'BELLEFONTE', 'BELLEVIEW', 'BELLEVILLE', 'BELLEVUE', 'BELLFLOWER', 'BELLINGHAM', 'BELLMAWR', 'BELLMORE', 'BELLWOOD', 'BELMAR', 'BELMONT', 'BELOIT', 'BELSTVILLE', 'BELSVILLE', 'BELTESVILLE', 'BELTON', 'BELTSVILE', 'BELTSVILLE', 'BELTSVILLE, MD', 'BELTSVILLLE', 'BELTSVILLVE', 'BELTVILLE', 'BELTZVILLE', 'BELVIDERE', 'BELYSVILLE', 'BEMIDJI', 'BEND', 'BENDERSVILLE', 'BENEDICT', 'BENNETSVILLE', 'BENSALEM', 'BENTLEYVILLE', 'BENTON', 'BERGENFIELD', 'BERKELEY', 'BERKELEY HGHTS', 'BERKELEY HGTS', 'BERKELEY HTS', 'BERKELEY LAKE', 'BERKELEY SPGS', 'BERKELEY SPRINGS', 'BERKLEY HEIGHT', 'BERKLEY SPRINGS', 'BERLIN', 'BERMANTOWN', 'BERRIEN SPRINGS', 'BERRYVILLE', 'BERWICK', 'BERWIN HEIGHTS', 'BERWYN', 'BERWYN HEIGHTS', 'BERWYN HIEGHTS', 'BESSEMER', 'BESSEMER CITY', 'BESTHEDA', 'BETEHSDA', 'BETESDA', 'BETGESDA', 'BETHANY', 'BETHANY BEACH', 'BETHEDA', 'BETHEL', 'BETHEL PARK', 'BETHESA', 'BETHESD', 'BETHESDA', 'BETHESDAD', 'BETHESDAMD', 'BETHESDAY', 'BETHESDN POTOMAC', 'BETHESDSA', 'BETHLEHAM', 'BETHLEHEM', 'BETHSDA', 'BETHUNE', 'BEVERLY', 'BEVERLY HILLS', 'BEXLEY', 'BEYJESDA', 'BIG COVE TANN', 'BIG LAKE', 'BIG POOL', 'BIG SKY', 'BIG STONE GAP', 'BIGFORK', 'BIGLERVILLE', 'BILLINGS', 'BILOXI', 'BINGHAMTON', 'BIRCH RUN', 'BIRD IN HAND', 'BIRDSBORO', 'BIRGMINGHAM', 'BIRMINGHAM', 'BIRNAMWOOD', 'BISHOPVILLE', 'BISMARCK', 'BLACK CAYON CITY', 'BLACK CREEK', 'BLACK HAWK', 'BLACKLICK', 'BLACKSBURG', 'BLACKSTONE', 'BLACKWOOD', 'BLADENBURG', 'BLADENSBBURG', 'BLADENSBURG', 'BLADENSURG', 'BLAINE', 'BLAIRSVILLE', 'BLAKSBURG', 'BLANDASBURG', 'BLANDENSBURG', 'BLASDELL', 'BLOOMFIELD', 'BLOOMFIELD HILLS', 'BLOOMING GROVE', 'BLOOMINGDALE', 'BLOOMINGTON', 'BLOOMSBURG', 'BLOXOM', 'BLTSVILLE', 'BLUE BELL', 'BLUE RIDGE', 'BLUE RIDGE SMT', 'BLUE RIVER', 'BLUE SMOKE DRIVE', 'BLUEFIELD', 'BLUEMONT', 'BLUFF CITY', 'BLUFFINGTON', 'BLUFFTON', 'BLYTHEWOOD', 'BOALSBURG', 'BOARDMAN', 'BOCA RATON', 'BOCA ROTON', 'BOGOTA', 'BOHEMIA', 'BOILING SPGS', 'BOILING SPRGS', 'BOILINGBROOK', 'BOISE', 'BOLIVAR', 'BOLLING AFB', 'BOLTON', 'BOND ST', 'BONITA SPRINGS', 'BOOMER', 'BOONE', 'BOONSBORO', 'BOONVILLE', 'BOOTHWYN', 'BORDENTOWN', 'BORING', 'BOSSIER CITY', 'BOSTON', 'BOTDS', 'BOTHELL', 'BOULDER', 'BOUNTIFUL', 'BOVEY', 'BOW', 'BOWIE', 'BOWIEL', 'BOWLER', 'BOWLING AFB', 'BOWLING GREEN', 'BOWMAN', 'BOXBOROUGH', 'BOYCE', 'BOYD', 'BOYDS', 'BOYDSLAUREL', 'BOYDSMD', 'BOYERTOWN', 'BOYLE', 'BOYNTON BCH', 'BOYNTON BEACH', 'BOYS', 'BOYTON BEACH', 'BOZEMAN', 'BOZMAN', 'BRACKENRIDGE', 'BRADDOCK HEIGHTS', 'BRADDOCK HIGHTS', 'BRADDOCK HTS', 'BRADENTON', 'BRADENVILLE', 'BRADFORD', 'BRAINTREE', 'BRAMBLETON', 'BRAMPTON', 'BRANDENBURG', 'BRANDON', 'BRANDWINE', 'BRANDY STATION', 'BRANDYWINE', 'BRANFORD', 'BRATTLEBORO', 'BREA', 'BREAUX BRIDGE', 'BRECKSVILLE', 'BREENBELT', 'BREEZEWOOD', 'BREMEN', 'BREMERTON', 'BREMO BLUFF', 'BRENTWOOD', 'BREWER', 'BREWERTON', 'BREWSTER', 'BRIARCLIFF', 'BRIARCLIFF MAN', 'BRIARWOOD', 'BRICK', 'BRIDGEHAMPTON', 'BRIDGEPORT', 'BRIDGETON', 'BRIDGEVILLE', 'BRIDGEWATER', 'BRIGHTON', 'BRIGHTWOOD', 'BRINKLOW', 'BRISTOL', 'BRISTOL HILL LANE', 'BRISTOW', 'BRLTSVILLE', 'BROAD RUN', 'BROADALBIN', 'BROADLANDS', 'BROADWAY', 'BROCKTON', 'BRODHEADSVILLE', 'BRODNAX', 'BROKEN ARROW', 'BROKVILLE', 'BRONWOOD', 'BRONX', 'BRONXVILLE', 'BROOK PARK', 'BROOKEEVILLE', 'BROOKESVILLE', 'BROOKEVIILE', 'BROOKEVILE', 'BROOKEVILLE', 'BROOKEVILLE RD', 'BROOKEVILLE,', 'BROOKEVILLW', 'BROOKEVYILLE', 'BROOKFIELD', 'BROOKHAVEN', 'BROOKINGS', 'BROOKLINE', 'BROOKLYN', 'BROOKLYN PARK', 'BROOKLYNN', 'BROOKPARK', 'BROOKSVILLE', 'BROOKVILLE', 'BROOKYLN', 'BROOMALL', 'BROOMFIELD', 'BROSELEY', 'BROWNS MILLS', 'BROWNS SUMMIT', 'BROWNSBURG', 'BROWNSVILLE', 'BRROKLYN', 'BRUCE', 'BRUCETON MILLS', 'BRUINSWICK', 'BRUNSWICK', 'BRYAN', 'BRYANS ROAD', 'BRYANS ROAD CHURCH', 'BRYANT', 'BRYANTOWN', 'BRYN MAWR', 'BRYSON CITY', 'BUCKEYE', 'BUCKEYSTOWN', 'BUCKHANNON', 'BUCKINGHAM', 'BUCKLEY', 'BUCYRUS', 'BUDA', 'BUDD LAKE', 'BUENA', 'BUENA PARK', 'BUENOS AIRES', 'BUFFALO', 'BUFORD', 'BUHL', 'BULLHEAD CITY', 'BUMPASS', 'BUNKER HILL', 'BUNN', 'BURBANK', 'BURIEN', 'BURK', 'BURKE', 'BURKITTSVILLE', 'BURLINGAME', 'BURLINGTON', 'BURLINGTON TWP', 'BURNHAM', 'BURNSVILLE', 'BURTNSVILLE', 'BURTON', 'BURTONHILL DR', 'BURTONSILLE', 'BURTONSIVLLE', 'BURTONSVILE', 'BURTONSVILLE', 'BURTONSVILLE20866', 'BURTONSVILLEQ', 'BURTONSVILLLE', 'BURTONSVILLT', 'BURTONSVULLE', 'BURTSONVILLE', 'BUSHKILL', 'BUSHNELL', 'BUSKIRK', 'BUTLER', 'BUTNER', 'BUTONSVILLE', 'BUTTE', 'BUTTE CITY', 'BUXTON', 'BUZZARDS BAY', 'C ISLIP', 'C LARKSBURG', 'CABIN JOHN', 'CABINS', 'CABOT', 'CADE', 'CAEN', 'CALABASAS', 'CALDWELL', 'CALEXICO', 'CALGARY', 'CALHOUN', 'CALIFON', 'CALIFORNIA', 'CALLAO', 'CALLAWAY', 'CALLICOON', 'CALUMET CITY', 'CALVERTON', 'CAMARILLO', 'CAMBRIA HEIGHTS', 'CAMBRIA HTS', 'CAMBRIDGE', 'CAMDEN', 'CAMDEN WYOMING', 'CAMDEN-WYOMING', 'CAMERON', 'CAMERON PARK', 'CAMILLUS', 'CAMP  SPRINGS', 'CAMP CONNELL', 'CAMP HILL', 'CAMP LEJEUNE', 'CAMP SPRING', 'CAMP SPRINGS', 'CAMPBELL', 'CAMPLIN', 'CANAL WINCHESTER', 'CANAL WINCHST', 'CANAL WNCHSTR', 'CANANDAIGUA', 'CANDIAC', 'CANDLER', 'CANISTEO', 'CANNINGTON', 'CANOGA PARK', 'CANONSBURG', 'CANTON', 'CANTONSVILLE', 'CANVAS', 'CANYON COUNTRY', 'CANYON LAKE', 'CAP HEIGHTS', 'CAPE CANAVERAL', 'CAPE CHARLES', 'CAPE CORAL', 'CAPE ELIZABETH', 'CAPE GIRARDEAU', 'CAPE MAY', 'CAPITAL  HGTS', 'CAPITAL HEIGHTS', 'CAPITAL HGTS', 'CAPITAL HIGHTS', 'CAPITAOL HEIGHTS', 'CAPITOL  HGTS', 'CAPITOL GEIGHTS', 'CAPITOL HEIGHTS', 'CAPITOL HEIGHTS DR', 'CAPITOL HGHTS', 'CAPITOL HGTS', 'CAPITOL HIEGHTS', 'CAPITOL HIGHTS', 'CAPIYOL HEIGHTS', 'CAPON BRIDGE', 'CAPTIOL HEIGHTS', 'CAPTOL HEIGHTS', 'CARBONDALE', 'CARDIFF', 'CARET', 'CARLE PLACE', 'CARLETT', 'CARLISLE', 'CARLKSVILLE', 'CARLSBAD', 'CARLSTADT', 'CARMAX', 'CARMEL', 'CARMICHAEL', 'CARNAGIE', 'CARNATION', 'CARNEGIE', "CARNEY'S POINT", 'CAROL STREAM', 'CAROLINA', 'CAROLINA BEACH', 'CARPENTERSVILLE', 'CARRBORO', 'CARROLL', 'CARROLLTON', 'CARSON', 'CARTERET', 'CARTERSVILLE', 'CARTHAGE', 'CARVER', 'CARY', 'CASCADE', 'CASCO', 'CASHTOWN', 'CASPER', 'CASS LAKE', 'CASSELBERRY', 'CASSELMAN', 'CASTLE BLVD', 'CASTLE HAYNE', 'CASTLE ROCK', 'CASTLETON', 'CASTRO VALLEY', 'CASWELL BEACH', 'CATASAUQUA', 'CATHARPIN', 'CATHEDRAL', 'CATHEDRAL CTY', 'CATHEDRAL CY', 'CATLETT', 'CATONSVILLE', 'CATOSNVILLE', 'CAVALIER', 'CAVE CREEK', 'CAVE JUNCTION', 'CAVETOWN', 'CAYTONSVILLE', 'CAZENOVIA', 'CC', 'CCOLLEGE PARK', 'CEDAR', 'CEDAR FALLS', 'CEDAR GROVE', 'CEDAR HILLS', 'CEDAR KNOLLS', 'CEDAR PARK', 'CEDAR RAPIDS', 'CEDARBURG', 'CELINA', 'CENTENNIAL', 'CENTER VALLEY', 'CENTERBURG', 'CENTERVILLE', 'CENTRAL CITY', 'CENTRAL FALLS', 'CENTRAL ISLIP', 'CENTRE HALL', 'CENTREVILE', 'CENTREVILL', 'CENTREVILLE', 'CENTURY', 'CGEVY CHASE', 'CHADDS FORD', 'CHAGRIN FALLS', 'CHALFONT', 'CHALK RIVER', 'CHALMETTE', 'CHAMBERSBURG', 'CHAMBLEE', 'CHAMPAIGN', 'CHANDLER', 'CHANTILLY', 'CHAPARRAL', 'CHAPEL HILL', 'CHAPLIN', 'CHAPTICO', 'CHARDON', 'CHARGRIN FALLS', 'CHARLEROI', 'CHARLES CITY', 'CHARLES TOWN', 'CHARLESTON', 'CHARLESTOWN', 'CHARLEVOIX', 'CHARLOTTE', 'CHARLOTTE CH', 'CHARLOTTE HALL', 'CHARLOTTESVILLE', 'CHARLOTTESVILLS', 'CHARLOTTSVILLE', 'CHARLSTOWN', 'CHAROLLETTE', 'CHARSTON', 'CHATHAM', 'CHATTAHOOCHEE', 'CHATTANOOGA', 'CHATTAROY', 'CHAVY CHASE', 'CHEBOYGAN', 'CHEEKTOWAGA', 'CHELSEA', 'CHELTENHAM', 'CHERRY HILL', 'CHERRY POINT', 'CHERVERLY', 'CHERVY CHASE', 'CHESAPEAK BCH', 'CHESAPEAK BEACH', 'CHESAPEAKE', 'CHESAPEAKE BEACH', 'CHESHIRE', 'CHESNEE', 'CHEST SPRINGS', 'CHESTER', 'CHESTER GAP', 'CHESTER SPGS', 'CHESTER SPRGS', 'CHESTER SPRINGS', 'CHESTERFIELD', 'CHESTERLAND', 'CHESTERTOWN', 'CHESTNUT HILL COVE', 'CHESTNUT RIDGE', 'CHESWICK', 'CHEVER', 'CHEVERLY', 'CHEVERLYSANDY SPRING', 'CHEVERY CHASE', 'CHEVU CHASE', 'CHEVUY CHASE', 'CHEVY  CHASE', 'CHEVY CHADE', 'CHEVY CHAE', 'CHEVY CHAS', 'CHEVY CHASE', 'CHEVY CHASEE', 'CHEVY CHASER', 'CHEVYCHASE', 'CHEYENNE', 'CHEYNEY', 'CHICAGE', 'CHICAGO', 'CHICKASHA', 'CHICO', 'CHICOPEE', 'CHIGAGO', 'CHIGWELL', 'CHILLUM', 'CHINA', 'CHINCOTEAGUE', 'CHINO', 'CHINO HILLS', 'CHISTLEHURST', 'CHQMPAIGN', 'CHRISTIANA', 'CHRISTIANSBURG', 'CHRISTMAS', 'CHULA VISTA', 'CHURCH HILL', 'CHURCHTON', 'CHURCHVILLE', 'CICERO', 'CINCINNATI', 'CINNAMINSON', 'CINNCINATI', 'CITRONELLE', 'CITRUS SPRINGS', 'CLACKAMAS', 'CLAIBORNE', 'CLAIRTON', 'CLAKRSBURG', 'CLAKSBURG', 'CLARCKSBURG', 'CLARCKSBURGE', 'CLAREMONT', 'CLAREMORE', 'CLARENCE CNTR', 'CLARION', 'CLARKBURG', 'CLARKKSBURG', 'CLARKS GREEN', 'CLARKS SUMMIT', 'CLARKSBILLE', 'CLARKSBIRG', 'CLARKSBORO', 'CLARKSBRUG', 'CLARKSBURG', 'CLARKSBURGH', 'CLARKSBURGQ', 'CLARKSBUURG', 'CLARKSDALE', 'CLARKSTON', 'CLARKSUBRG', 'CLARKSVILLE', 'CLARRKSBURG', 'CLARSBURG', 'CLARSKBURG', 'CLAY', 'CLAYMONT', 'CLAYSBURG', 'CLAYTON', 'CLAYVILLE', 'CLEAR BROOK', 'CLEAR SPRING', 'CLEARFIELD', 'CLEARVILLE', 'CLEARWATER', 'CLEARWATER BCH', 'CLEARWATER BEACH', 'CLEMENTON', 'CLEMENTS', 'CLEMMONS', 'CLEMSON', 'CLEONA', 'CLERMONT', 'CLEVELAND', 'CLEVELAND HEIGHTS', 'CLEVELAND HTS', 'CLIFFORD TWP', 'CLIFFSIDE PARK', 'CLIFTOM', 'CLIFTON', 'CLIFTON HTS', 'CLIFTON PARK', 'CLIFTON SPRNGS', 'CLINCHCO', 'CLINTON', 'CLINTON TOWNSHIP', 'CLIO', 'CLIVE', 'CLOSTER', 'CLOUMBIA', 'CLOVERDALE', 'CLOVIS', 'CLRKSBURG', 'CLYDE', 'CLYMER', 'CLYO', 'CMP PENDLETON', 'COAL VALLEY', 'COATESVILLE', 'COATS', 'COBB ISLAND', 'COCHRANVILLE', 'COCKEYSVILLE', 'COCOA', 'COCOA BEACH', 'COCONUT CREEK', 'COCONUT GROVE', 'COEBURN', 'COFFEEVILLE', 'COGAN STATION', 'COLCHESTER', 'COLD SPRING', 'COLDWATER', 'COLEEGE PARK', 'COLEGE PARK', 'COLES POINT', 'COLESVILLE', 'COLLEEGBILLE', 'COLLEG PARK', 'COLLEGE GROVE', 'COLLEGE PARK', 'COLLEGE PARK AVE', 'COLLEGE PARK N', 'COLLEGE PLACE', 'COLLEGE POINT', 'COLLEGE PT', 'COLLEGE STATION', 'COLLEGEDALE', 'COLLEGEVILLE', 'COLLEYVILLE', 'COLLIERSVILLE', 'COLLIERVILLE', 'COLLINGDALE', 'COLLINGSWOOD', 'COLLINSVILLE', 'COLLOEGE PARK', 'COLMAR MANOR', 'COLO SPRGS', 'COLOGNE', 'COLOMBIA', 'COLOMBUS', 'COLONIA', 'COLONIAL BEACH', 'COLONIAL HEIGHTS', 'COLORA', 'COLORADO SPRINGS', 'COLRAIN', 'COLSTRIP', 'COLTON', 'COLTS NECK', 'COLUBIA', 'COLUMBAS', 'COLUMBIA', 'COLUMBIA =', 'COLUMBIA STA', 'COLUMBIANA', 'COLUMBIQ', 'COLUMBUS', 'COLUMVIA', 'COMFORT', 'COMMACK', 'COMMERCE', 'COMMERCE CITY', 'COMMERCE CY', 'COMPTON', 'COMUS', 'CONCHOHOCKEN', 'CONCORD', 'CONENTRY', 'CONKLIN', 'CONNELLSVILLE', 'CONOWINGO', 'CONROE', 'CONSHOHOCKEN', 'CONVENT STATIO', 'CONVERSE', 'CONVINGTON', 'CONWAY', 'CONYERS', 'CONYNGHAM', 'COOKESVILLE', 'COOKEVILLE', 'COOKSVILLE', 'COOKVILLE', 'COON RAPIDS', 'COOPER CITY', 'COOPERSBURG', 'COPIAGUE', 'COPLAY', 'COPPERAS COVE', 'COPPERTON', 'CORAL GABLES', 'CORAL SPG', 'CORAL SPRING', 'CORAL SPRINGS', 'CORALVILLE', 'CORAM', 'CORAOPOLIS', 'CORBIN', 'CORCORAN', 'CORDOBA ST', 'CORDOVA', 'CORE', 'CORNELIUS', 'CORNING', 'CORNWALL HUDSON', 'COROLLA', 'CORONA', 'CORPUS CHRISTI', 'CORPUS CRISTI', 'CORRALES', 'CORRIGANVILLE', 'CORRYTON', 'CORTEZ', 'CORTLAND', 'CORTLANDT MANOR', 'CORTLANDT MNR', 'CORVALLIS', 'COSHOCTON', 'COSTA MESA', 'COSTA RICA', 'COTTAGE CITY', 'COTTAGE GROVE', 'COUDERSPORT', 'COUNTRY CLUB HILLS', 'COURTLAND', 'COURTLAND MANOR', 'COVENTRY', 'COVINA', 'COVINGTON', 'COYLE', 'CPERRY HALL', 'CRAIGSVILLE', 'CRANBERRY TWP', 'CRANBURY', 'CRANDFORD', 'CRANSTON', 'CREEDMOOR', 'CRESCENT CITY', 'CRESSKILL', 'CRESSONA', 'CRESTVIEW', 'CRESTWOOD', 'CRETE', 'CREVE COEUR', 'CREWE', 'CRFTON', 'CRIMORA', 'CRISFIELD', 'CROFT', 'CROFTON', 'CROPWELL', 'CROSS JUNCTION', 'CROSSVILLE', 'CROTON HDSN', 'CROTON ON HDN', 'CROTON ON HDSN', 'CROWLEY', 'CROWNSVILLE', 'CROZET', 'CROZIER', 'CRYSTAL CITY', 'CRYSTAL RIVER', 'CRYSTAL SPG', 'CT APT M', 'CTR CONWAY', 'CUBA', 'CUDAHY', 'CULIMBIA', 'CULLMAN', 'CULPEPER', 'CULPEPPER', 'CULVER CITY', 'CUMBERLAND', 'CUMMING', 'CUMMINGS', 'CUPERTINO', 'CURTIS BAY', 'CUSTER', 'CUTLER BAY', 'CUYAHOGA FALLS', 'CYPRESS', 'DACULA', 'DAGSBORO', 'DAHLGREN', 'DAHLONEGA', 'DAISYTOWN', 'DALE CITY', 'DALEVILLE', 'DALLAS', 'DALLASTOWN', 'DALTON', 'DALY CITY', 'DALZELL', 'DAMACSUS', 'DAMACUS', 'DAMASCUC', 'DAMASCUCS', 'DAMASCUS', 'DAMASCUSQ', 'DAMMASCUS', 'DAMSACUS', 'DANBURY', 'DANDRIDGE', 'DANIA BEACH', 'DANVILLE', 'DAPHNE', 'DARBY', 'DARDANELLE', 'DARENESTOWN', 'DARIEN', 'DARLINGTON', 'DARLINTON', 'DARNESTOWN', 'DARNESTOWND', 'DARNSTOWN', 'DARTMOUTH', 'DAVENPORT', 'DAVIDSON', 'DAVIDSONVILLE', 'DAVIDSVILLE', 'DAVIE', 'DAVIS', 'DAWSON SPRINGS', 'DAYTIN', 'DAYTON', 'DAYTONA BEACH', 'DAYTONA BEACH SHORES', 'DC', 'DE WITT', 'DEALE', 'DEARBORN', 'DEARBORN HEIGHTS', 'DEATSVILLE', 'DECATUR', 'DEDHAM', 'DEER PARK', 'DEERFIELD', 'DEERFIELD BEACH', 'DEERING', 'DEERWOOD', 'DEFIANCE', 'DEKALB', 'DEL CITY', 'DEL MAR', 'DEL RAY', 'DEL REY OAKS', 'DELAND', 'DELAPLANE', 'DELAVAN', 'DELCO', 'DELMAR', 'DELPHI', 'DELRAY BEACH', 'DELTA', 'DELTONA', 'DEMAREST', 'DEMASCUS', 'DENHAM SPRINGS', 'DENMARK', 'DENNISON', 'DENSION', 'DENTON', 'DENVER', 'DENVILLE', 'DEPTFORD', 'DERMANTOWN', 'DEROOD', 'DERWOD', 'DERWODD', 'DERWOOD', 'DES MOINES', 'DES PLAINES', 'DESOTO', 'DESTIN', 'DETOUR', 'DETROIT', 'DEWEY BEACH', 'DEWITT', 'DEXTER', 'DEXTER CITY', 'DIAMOND BAR', 'DIBERVILLE', 'DICKERSN', 'DICKERSON', 'DICKINSON', 'DILLINER', 'DILLON', 'DILLONVALE', 'DILLSBURG', 'DILLWYN', 'DIMOCK', 'DINGMANS FERRY', 'DISCOVERY BAY', 'DISPUTANTA', 'DISRICT HEIGHTS', 'DIST HEIGHTS', 'DISTRCT HEIGHTS', 'DISTRICT', 'DISTRICT  HEIGHTS', 'DISTRICT HEIGHT', 'DISTRICT HEIGHTS', 'DISTRICT HEIGTS', 'DISTRICT HIGHTS', 'DISTRICT HTS', 'DISTRICT OF COLUMBIA', 'DISTRICTHEIGHTS', 'DISTRICTS HEIGHTS', 'DISTRITO NACIONAL', 'DITTMER', 'DIX HILLS', 'DIXON', 'DMASCUS', 'DOBBS FERRY', 'DOGLASVILLE', 'DONIPHAN', 'DONNA', 'DORAL', 'DORCAS', 'DORCHESTER', 'DOTHAN', 'DOUBLE OAK', 'DOUBS', 'DOUGLAS', 'DOUGLASSVILLE', 'DOUGLASVILLE', 'DOVER', 'DOWELL', 'DOWNINGTOWN', 'DOYLESTOWN', 'DR #103', 'DRACUT', 'DRESDEN', 'DRESHER', 'DREWRYVILLE', 'DREXEL HILL', 'DRUMS', 'DRWOOD', 'DRY FORK', 'DS PLAINES', 'DSRT HOT SPGS', 'DU BOIS', 'DUARTE', 'DUBLIN', 'DUDLEY', 'DUESSELDORF', 'DULLES', 'DULLUTH', 'DULUTH', 'DUMFRIES', 'DUMMERSTON', 'DUNBAR', 'DUNCANNON', 'DUNCANVILLE', 'DUNDALK', 'DUNGANNON', 'DUNKALK', 'DUNKIRK', 'DUNLAP', 'DUNMORE', 'DUNN', 'DUNN LORING', 'DUNNELLON', 'DUNWOODY', 'DUPONT', 'DUQUESNE', 'DURHAM', 'DURHAMNC', 'DUXBURY', 'E BOSTON', 'E BRUNSWICK', 'E CHATHAM', 'E FALLOWFIELD', 'E HARTFORD', 'E NEWARK', 'E NORTHPORT', 'E ORANGE', 'E PALO ALTO', 'E PATCHOGUE', 'E PROVIDENCE', 'E ROCHESTER', 'E RUTHERFORD', 'E SCHODACK', 'E SETAUKET', 'E STROUDSBURG', 'E WALPOLE', 'E WEYMOUTH', 'E. WINDSOR', 'EAGAN', 'EAGLE', 'EAGLE BUTTE', 'EAGLE PASS', 'EAGLE ROCK', 'EAGLEVILLE', 'EARLYSVILLE', 'EASLEY', 'EAST AMHERST', 'EAST AURORA', 'EAST BERLIN', 'EAST BRUNSWICK', 'EAST CLEVEAND', 'EAST ELMHURST', 'EAST FREDERICK', 'EAST FREEDOM', 'EAST HAMPTON', 'EAST HARTFORD', 'EAST LANSING', 'EAST LIVERPOOL', 'EAST MEADOW', 'EAST NEW MARKET', 'EAST NORRITON', 'EAST NORTHPORT', 'EAST ORANGE', 'EAST POINT', 'EAST SYRACUSE', 'EAST WINDSOR', 'EASTON', 'EASTOVER', 'EASTPOINTE', 'EASTVILLE', 'EATONTON', 'EATONVILLE', 'EBENSBURG', 'EDEN', 'EDEN PRAIRIE', 'EDGARTOWN', 'EDGEMERE', 'EDGEMOOR', 'EDGERTON', 'EDGEWATER', 'EDGEWATER PARK', 'EDGEWOOD', 'EDINBURG', 'EDISON', 'EDLLICOTT CITY', 'EDMOND', 'EDMONDS', 'EDMONSTON', 'EDMONTON', 'EDWARDS', 'EFFINGHAM', 'EFFORT', 'EGDEWATER', 'EGG HARBOR CTY', 'EGG HARBOR TWP', 'EGLIN AFB', 'EL CAJON', 'EL CERRITO', 'EL PASO', 'ELBERT', 'ELDERBURG', 'ELDERSBURG', 'ELGIN', 'ELICOT CITY', 'ELICOTT CITY', 'ELIDA', 'ELIICOTT', 'ELIOT', 'ELIZABETH', 'ELIZABETH CITY', 'ELIZABETHTON', 'ELIZABETHTOWN', 'ELK GROVE', 'ELK HORN', 'ELKHART', 'ELKHORN', 'ELKINS', 'ELKINS PARK', 'ELKIRIDGE', 'ELKONS', 'ELKRIDGE', 'ELKTON', 'ELKWOOD', 'ELLABELL', 'ELLENDALE', 'ELLENVILLE', 'ELLENWOOD', 'ELLICOT  CITY', 'ELLICOT CITY', 'ELLICOTT', 'ELLICOTT  CITY', 'ELLICOTT CITY', 'ELLICOTT CUTY', 'ELLIOCOTT CITY', 'ELLIOTT CITY', 'ELLISTON', 'ELLOREE', 'ELLSWORTH', 'ELM CITY', 'ELMA', 'ELMENDORF', 'ELMHURST', 'ELMHURST TWP', 'ELMIRA', 'ELMONT', 'ELMORE', 'ELON', 'ELWOOD', 'ELYRIA', 'EMERALD ISLE', 'EMERYVILLE', 'EMMAUS', 'EMMETT', 'EMMITSBURG', 'EMPORIA', 'ENCINITAS', 'ENCINO', 'ENDICOTT', 'ENERGY', 'ENFIELD', 'ENGLEWOOD', 'ENGLEWOOD CLFS', 'ENID', 'ENOLA', 'ENWELL', 'EOYERSFORD', 'EPHRATA', 'EPPING', 'ERDENHEIM', 'ERIAL', 'ERIE', 'ERIN', 'ERMANTOWN', 'ERWIN', 'ESMONT', 'ESPANOLA', 'ESSEX', 'ESSEX FELLS', 'ESTANCIA', 'ESTELL MANOR', 'ESTERO', 'ETHESDA', 'ETLAN', 'ETNA', 'ETOBICOKE', 'ETTERS', 'EUCLID', 'EUGENE', 'EULESS', 'EUTAW', 'EVANS', 'EVANS CITY', 'EVANS MILLS', 'EVANSTON', 'EVANSVILLE', 'EVERETT', 'EVERGREEN', 'EVINGTON', 'EWA BEACH', 'EWING', 'EXETER', 'EXTON', 'FABER', 'FACTORYVILLE', 'FAIFAX', 'FAIR LAWN', 'FAIRBANK', 'FAIRBANKS', 'FAIRBORN', 'FAIRBURN', 'FAIRFAX', 'FAIRFAX STATION', 'FAIRFIELD', 'FAIRHAVEN', 'FAIRLESS HLS', 'FAIRMONT', 'FAIRMONT HEIGHTS', 'FAIRMOUNT HEIGHTS', 'FAIRPLAY', 'FAIRPORT', 'FAIRVIEW', 'FAISON', 'FAITHERSBURG', 'FALL CHURCH', 'FALL RIVER', 'FALLCHURCH', 'FALLING WATERS', 'FALLON', 'FALLS CHURCH', 'FALLS MILLS', 'FALLSCHURCH', 'FALLSTON', 'FALMOUTH', 'FALSOM', 'FANWOOD', 'FAR ROCKAWAY', 'FARMINGDALE', 'FARMINGTON', 'FARMINGTON HILLS', 'FARMINGVILLE', 'FARNHAM', 'FARRAGUT', 'FARRELL', 'FAULKNER', 'FAWN GROVE', 'FAYETTESVILLE', 'FAYETTEVILLE', 'FAYETTEVLLE', 'FAYETTVILLE', 'FAYETVILLE', 'FEDERAL WAY', 'FEDERALSBURG', 'FELICITY', 'FELTON', 'FENNVILLE', 'FENTON', 'FENWICK ISLAND', 'FERGUS FALLS', 'FERN PARK FL', 'FERNANDINA BCH', 'FERNANDINA BEACH', 'FERRIS', 'FFRAMINGHAM', 'FIELDBROOK', 'FILLMORE', 'FINDLAY', 'FINKSBURG', 'FISGERS', 'FISHER', 'FISHER ISLAND', 'FISHERS', 'FISHERSVILLE', 'FISHERTOWN', 'FITCHBURG', 'FLAGLER BEACH', 'FLAGSTAFF', 'FLANDERS', 'FLASS CHURCH', 'FLAT ROCK', 'FLEETWOOD', 'FLEMING ISLAND', 'FLEMINGTON', 'FLETCHER', 'FLINSTONE', 'FLINT', 'FLINT HILL', 'FLINTSTONE', 'FLORAL PARK', 'FLORENCE', 'FLORHAM PK', 'FLORHAMPRK', 'FLORIDA', 'FLORISSANT', 'FLOSSMOOR', 'FLOWER MOUND', 'FLOWERING TREE TER', 'FLOWERY', 'FLOWOOD', 'FLOYD', 'FLUSHING', 'FOLLANSBEE', 'FOLSOM', 'FONTANA', 'FORD CITY', 'FOREST', 'FOREST GLEN', 'FOREST HEIGHTS', 'FOREST HGT', 'FOREST HILL', 'FOREST HILLS', 'FOREST PARK', 'FORESTILLE', 'FORESTVILLE', 'FORESTVILLW', 'FORKED RIVER', 'FORRESTVILLE', 'FORT ASHBY', 'FORT BELVOIR', 'FORT BENNING', 'FORT BLISS', 'FORT BRAGG', 'FORT BRNNING', 'FORT CAMPBELL', 'FORT DETRICK', 'FORT DRUM', 'FORT EDWARD', 'FORT EUSTIS', 'FORT GEORGE G MEADE', 'FORT GORDON', 'FORT HOOD', 'FORT HOWARD', 'FORT HUNT RD', 'FORT KENT', 'FORT KNOX', 'FORT LAUDERDALE', 'FORT LEE', 'FORT LEONARDWOOD', 'FORT LEWIS', 'FORT LOUDON', 'FORT MEAD', 'FORT MEADE', 'FORT MEADEW', 'FORT MILL', 'FORT MYER', 'FORT MYERS', 'FORT PIERCE', 'FORT POLK', 'FORT RICHARDSON', 'FORT RILEY', 'FORT SAM HOUSTON', 'FORT SILL', 'FORT SMITH', 'FORT STEWART', 'FORT VALLEY', 'FORT WAINWRIGHT', 'FORT WALTON BEACH', 'FORT WASHIGTON', 'FORT WASHINGTON', 'FORT WASHINGTOWN', 'FORT WASHINTON', 'FORT WASHNGTON', 'FORT WAYNE', 'FORT WIRTH', 'FORT WORT', 'FORT WORTH', 'FORTH WASHINGTON', 'FORTY FORT', 'FOSTER CITY', 'FOUNTAIN', 'FOXBOROUGH', 'FPO', 'FRACKVILLE', 'FRAMINGHAM', 'FRANCESVILLE', 'FRANCONIA', 'FRANKFORD', 'FRANKFORT', 'FRANKLIN', 'FRANKLIN PARK', 'FRANKLIN PK', 'FRANKLIN SQ', 'FRANKLIN SQUARE', 'FRANKLINTON', 'FRANKLINVILLE', 'FRANKTOWN', 'FRASER', 'FRAZIER PARK', 'FRE505ERICK', 'FRED', 'FREDERCK', 'FREDERECK', 'FREDERICA', 'FREDERICK', 'FREDERICK RD', 'FREDERICKM', 'FREDERICKSBRG', 'FREDERICKSBURG', 'FREDERICTHURMONTK', 'FREDERIK', 'FREDERIKSTED', 'FREDERIVK', 'FREDONIA', 'FREDRICK', 'FREDRICKSBURG', 'FREDRIVK', 'FREE UNION', 'FREEHOLD', 'FREELAND', 'FREEPORT', 'FREMONT', 'FRENCHTOWN', 'FRESH MEADOWS', 'FRESNO', 'FRIDLEY', 'FRIEDENS', 'FRIENDSHIP', 'FRIENDSVILLE', 'FRIES', 'FRIONA', 'FRISCO', 'FRONT ROYAL', 'FROSTBURG', 'FROSTPROOF', 'FRUIT HEIGHTS', 'FRUITLAND', 'FSTRVL TRVOSE', 'FT CAMPBELL', 'FT CARSON', 'FT COLLINS', 'FT IRWIN', 'FT LAUDERALE', 'FT LAUDERDALE', 'FT MEAD', 'FT MEADE', 'FT MYERS', 'FT PIERCE', 'FT SALONGA', 'FT SAM HOUSTON', 'FT STEWART', 'FT THOMAS', 'FT WALTON BCH', 'FT WALTON BEACH', 'FT WASGINGTON', 'FT WASH', 'FT WASHGINTON', 'FT WASHIMGTON', 'FT WASHINGTON', 'FT WORTH', 'FT. KNOX', 'FT. LAUDERDALE', 'FT. MEADE', 'FT. WASHINGTON', 'FT.LAUDERDALE', 'FULKS RUN', 'FULLERTON', 'FULT0M', 'FULTON', 'FUNKSTOWN', 'FUQUAY VARINA', 'FURLONG', 'G', 'GA', 'GA5THERSB4RG', 'GAAITHERSBURG', 'GADSDEN', 'GAERMANTOWN', 'GAHANNA', 'GAIHERSBURG', 'GAIHTERSBURG', 'GAIITHERSBIRG', 'GAIITHERSBURG', 'GAILERSBURG', 'GAINESV ILLE', 'GAINESVILLE', 'GAINSVILLE', 'GAINTHERSBURG', 'GAITEHRSBURG', 'GAITERSBURG', 'GAITH', 'GAITH.', 'GAITHBERSBURG', 'GAITHERBURG', 'GAITHERERSBURG', 'GAITHERESBURG', 'GAITHERRSBURG', 'GAITHERSB URG', 'GAITHERSBBURG', 'GAITHERSBERG', 'GAITHERSBIRG', 'GAITHERSBORG', 'GAITHERSBOURG', 'GAITHERSBRG', 'GAITHERSBUBRG', 'GAITHERSBUEG', 'GAITHERSBUERG', 'GAITHERSBUG', 'GAITHERSBUR', 'GAITHERSBURD', 'GAITHERSBURG', 'GAITHERSBURG MD', 'GAITHERSBURG, MD', 'GAITHERSBURG,MD', 'GAITHERSBURGH', 'GAITHERSBURGMD', 'GAITHERSBURGQ', 'GAITHERSBURRG', 'GAITHERSBYRG', 'GAITHERSGBURG', 'GAITHERSGURG', 'GAITHERSNURG', 'GAITHERSRBUG', 'GAITHERSRBURG', 'GAITHERSSBURG', 'GAITHERSUBRG', 'GAITHERSUBURG', 'GAITHERSURG', 'GAITHESBURG', 'GAITHESRBURG', 'GAITHRBURG', 'GAITHRSBURG', 'GAITHSBURG', 'GAITHURSBURG', 'GAITRSBURG', 'GAITTHERSBURG', 'GAIYHERSBURG', 'GALAX', 'GALENA', 'GALESVILLE', 'GALLATIN', 'GALLOWAY', 'GALLUP', 'GALVESTON', 'GALWAY', 'GAMBRILLS', 'GAOTHERSBURG', 'GAP', 'GARDEN CITY', 'GARDEN GROVE', 'GARDEN PLAIN', 'GARDENA', 'GARDNERS', 'GARFIELD', 'GARLAND', 'GARLAND RD', 'GARMANTOWN', 'GARNER', 'GARNERVILLE', 'GARNET VALLEY', 'GARRET PARK', 'GARRETT PARK', 'GARRISON', 'GARYSBURG', 'GASBURG', 'GASTONIA', 'GATHERABURG', 'GATHERSBUG', 'GATHERSBURG', 'GATIEHRSBURG', 'GATIHERSBURG', 'GATITHERSBURG', 'GATLINBURG', 'GCLARKSBURG', 'GEDRMANTOWN', 'GEERAMNTOWN', 'GEERMANTOWN', 'GEISMAR', 'GEITHERSBURG', 'GEMANTOWN', 'GENESEE', 'GENEVA', 'GEORGETOWN', 'GERAMANTOWN', 'GERAMNTOWN', 'GERANTOWN', 'GERM', 'GERMAANTOWN', 'GERMAMTOWN', 'GERMANOTWN', 'GERMANOWN', 'GERMANRTOWN', 'GERMANTOEN', 'GERMANTON', 'GERMANTONW', 'GERMANTORWN', 'GERMANTOW', 'GERMANTOWM', 'GERMANTOWN', 'GERMANTOWN MD', 'GERMANTOWN,MD', 'GERMANTOWNMD', 'GERMANTOWNN', 'GERMANTOWNQ', 'GERMANTWN', 'GERMANTWON', 'GERMANYOWN', 'GERMATNOWN', 'GERMATOWN', 'GERMENTOWN', 'GERMMANTOWN', 'GERMNATOWN', 'GERMNTOWN', 'GERMNTWN', 'GERMONTOWN', 'GERNANTOWN', 'GERRARDSTOWN', 'GETTYSBURG', 'GETZVILLE', 'GGAITHERSBURG', 'GIAHTERSBURG', 'GIATHERSBURG', 'GIBSON ISLAND', 'GIBSONIA', 'GIBSONTON', 'GIBSONVILLE', 'GILBERT', 'GILBERTSVILLE', 'GILROY', 'GILTNER', 'GITHERSBURG', 'GLADE SPRING', 'GLADE VALLEY', 'GLADSTONE', 'GLASSBORO', 'GLASTONBURY', 'GLEEN DALE', 'GLEMELG', 'GLEN ALEN', 'GLEN ALLEN', 'GLEN ARDEN', 'GLEN ARM', 'GLEN BERNIE', 'GLEN BURNIE', 'GLEN CAMPBELL', 'GLEN COVE', 'GLEN DALE', 'GLEN ECHO', 'GLEN GARDNER', 'GLEN MILLS', 'GLEN OAKS', 'GLEN ROCK', 'GLEN WOOD', 'GLENARDEN', 'GLENBURNIE', 'GLENDALE', 'GLENDALE HEIGHTS', 'GLENELG', 'GLENGARY', 'GLENMONT', 'GLENMOORE', 'GLENN BURNIE', 'GLENN DALE', 'GLENN DALE AVE', 'GLENN DALLE', 'GLENN HEIGHTS', 'GLENNDALE', 'GLENOLDEN', 'GLENS FALLS', 'GLENSHAW', 'GLENSIDE', 'GLENVIEW', 'GLENVILLE', 'GLENWOOD', 'GLENWWOD', 'GLOUCESTER', 'GLOUCESTER POINT', 'GLOUCHESTER', 'GLYNDON', 'GOLDEN', 'GOLDEN VALLEY', 'GOLDSBORO', 'GOLDVEIN', 'GOLETA', 'GONZALES', 'GOODLETTSVILLE', 'GOODVIEW', 'GOODYEAR', 'GORDON', 'GORDONSVILLE', 'GORE', 'GOSHEN', 'GOULD', 'GOUVERNEUR', 'GOVANS', 'GRAFTON', 'GRAHAM', 'GRAIN VALLEY', 'GRAMBLING', 'GRANBY', 'GRAND BLANC', 'GRAND HAVEN', 'GRAND ISLAND', 'GRAND JCTN', 'GRAND PRAIRIE', 'GRAND PRARIE', 'GRAND RAPIDS', 'GRAND TERRACE', 'GRANDVIEW', 'GRANDVILLE', 'GRANGER', 'GRANITE CITY', 'GRANITEVILLE', 'GRANTHAM', 'GRANTS PASS', 'GRANTSVILLE', 'GRANVILLE', 'GRASONVILLE', 'GRAY', 'GRAYSON', 'GRAYSONVILLE', 'GREAT CACAPON', 'GREAT FALLS', 'GREAT MILLS', 'GREAT NECK', 'GREAT VALLEY', 'GREATNECK', 'GREEN BAY', 'GREEN BELT', 'GREEN COVE SPRINGS', 'GREEN LANE', 'GREEN SPRING', 'GREENACRES', 'GREENBELLT', 'GREENBELT', 'GREENBRAE', 'GREENCASTLE', 'GREENEVILLE', 'GREENFILD TWP', 'GREENFLD CTR', 'GREENGELT', 'GREENLAND', 'GREENLEAF', 'GREENPORT', 'GREENSBORO', 'GREENSBURG', 'GREENTOWN', 'GREENUP', 'GREENVILLE', 'GREENWD VLG', 'GREENWICH', 'GREENWOOD', 'GREMANTOWN', 'GRENBELT', 'GRETNA', 'GRIFFIN', 'GRIFTON', 'GRONDINES', 'GROSSE', 'GROSSE ILE', 'GROSSE POINT PARK', 'GROSSE POINTE', 'GROSSE POINTE FARMS', 'GROSSE POINYE FARMS', 'GROTON', 'GROTTOES', 'GROVE CITY', 'GROVER BEACH', 'GROVESPRING', 'GROVETOWN', 'GRUNDY', 'GT BARRINGTON', 'GUANICA', 'GUILFORD', 'GULF BREEZE', 'GULF SHORES', 'GULFPORT', 'GURLEY', 'GUTEMBER', 'GUYTON', 'GWENN OAK', 'GWYN OAK', 'GWYNN OAK', 'GWYNN OAK BA', 'GWYNNOAK', 'GYNN OAK', 'GYWWN', 'HACIENDA HGTS', 'HACIENDA HTS', 'HACKENSACK', 'HACKETTSTOWN', 'HADDON TWP', 'HADDONFIELD', 'HADLEY', 'HAEGERSTOWN', 'HAGEERSTOWN', 'HAGERSTOOWN', 'HAGERSTOWM', 'HAGERSTOWN', 'HAGERSTOWN MD', 'HAGERXSTOWN', 'HAHIRA', 'HAINES', 'HAINES CITY', 'HAITHERSBURG', 'HALE THORPE', 'HALETHORE', 'HALETHORPE', 'HALETHORPE ST', 'HALETHROPE', 'HALIFAX', 'HALLANDALE', 'HALLANDALE BEACH', 'HALLIEFORD', 'HALLTOWN', 'HALTHORPE', 'HAMBURG', 'HAMDEN', 'HAMERSVILLE', 'HAMILTON', 'HAMLET', 'HAMMOND', 'HAMMONDSPORT', 'HAMMONTON', 'HAMPSTEAD', 'HAMPTON', 'HAMPTONBURGH', 'HANCEVILLE', 'HANCOCK', 'HANFORD', 'HANNA CITY', 'HANOVER', 'HANOVER PARK', 'HANSCOM AFB', 'HARBESON', 'HARBOR CITY', 'HARDWOOD', 'HARDY', 'HARISBURG', 'HARKER HEIGHTS', 'HARLEYSVILLE', 'HARLEYSVILLLE', 'HARLEYVILLE', 'HARLINGEN', 'HARMANS', 'HARMONY', 'HARPERS FERRY', 'HARPERSS FERRY', 'HARRIMAN', 'HARRINGTON', 'HARRINGTON PK', 'HARRISBURG', 'HARRISON', 'HARRISON CITY', 'HARRISON VLY', 'HARRISONBURG', 'HARTFIELD', 'HARTFORD', 'HARTFORD AVE.', 'HARTSDALE', 'HARTSVILLE', 'HARTWICK', 'HARVARD', 'HARVEST', 'HARVEY', 'HARVEYS LAKE', 'HARWICH', 'HARWOOD', 'HASLET', 'HASLETT', 'HASTINGS', 'HATBORO', 'HATFIELD', 'HATTIESBURG', 'HAUPPAUGE', 'HAVELOCK', 'HAVERFORD', 'HAVERHILL', 'HAVERTOWN', 'HAVRE', 'HAVRE DE GRACE', 'HAWLEY', 'HAWTHORNE', 'HAY MARKET', 'HAYATTSVILLE', 'HAYMARKET', 'HAYNESVILLE', 'HAYTTSVILLE', 'HAYWARD', 'HAYWOOD', 'HAZELTON', 'HAZELWOOD', 'HAZLET', 'HAZLETON', 'HEALDSBURG', 'HEATH', 'HEATH SPRGS', 'HEATH SPRINGS', 'HEATHSVILLE', 'HEBRON', 'HEDGESILLE', 'HEDGESVILLE', 'HELENA', 'HELENA MT', 'HELL', 'HELLERTOWN', 'HELMETTA', 'HEMPSTEAD', 'HENDERSON', 'HENDERSONVILLE', 'HENDON', 'HENRICO', 'HENRIETA', 'HENRYETTA', 'HEPHZIBAH', 'HERCULES', 'HERDON', 'HERMANTOWN', 'HERMITAGE', 'HERMOSA', 'HERNA', 'HERNANDO', 'HERNDON', 'HERRIMAN', 'HERRINGTON', 'HERSHEY', 'HERTFORD', 'HESPERIA', 'HIALEAH', 'HIAWASEE', 'HIAWASSEE', 'HICKMAN ST.', 'HICKORY', 'HICKSVILLE', 'HIGH POINT', 'HIGHLAND', 'HIGHLAND BCH', 'HIGHLAND BEACH', 'HIGHLAND HEIGHTS', 'HIGHLAND HTS', 'HIGHLAND OARK', 'HIGHLAND PARK', 'HIGHLAND PK', 'HIGHLAND SPRINGS', 'HIGHLANDS', 'HIGHLANDTOWN', 'HIGHLND RCH', 'HIGHMORE', 'HIGHPOINT', 'HIGHWOOD', 'HILL CREST HEIGHTS', 'HILLCREST', 'HILLCREST HEIGHTS', 'HILLCREST HGTS', 'HILLCREST HIGHTS', 'HILLCREST HTS', 'HILLIARD', 'HILLSBORO', 'HILLSBOROUGH', 'HILLSIDE', 'HILTON HEAD', 'HILTON HEAD ISLAN', 'HILTON HEAD ISLAND', 'HINGHAM', 'HINSDALE', 'HIRAM', 'HIXSON', 'HLSBOROUGH TWP', 'HO-HO-KUS', 'HOBART', 'HOBBS', 'HOBE SOUND', 'HOBOKEN', 'HOCKESSIN', 'HODGENVILLE', 'HOFFMAN ESTATES', 'HOISINGTON', 'HOLBROOK', 'HOLDEN', 'HOLIDAY', 'HOLLADAY', 'HOLLAND', 'HOLLIDAYSBURG', 'HOLLIS', 'HOLLISTON', 'HOLLOMAN AFB', 'HOLLY', 'HOLLY HILL', 'HOLLY SPRINGS', 'HOLLYHILL', 'HOLLYWOOD', 'HOLMDEL', 'HOLMES', 'HOLT', 'HOLYOKE', 'HOLYWOOD', 'HOMELESS', 'HOMESTEAD', 'HOMEWOOD', 'HOMOSASSA', 'HOMRWOOD', 'HONESDALE', 'HONEY BROOK', 'HONOLULU', 'HOOKSETT', 'HOOKSTOWN', 'HOOVER', 'HOPE MILLS', 'HOPE VALLEY', 'HOPEWELL', 'HOPEWELL JCT', 'HOPKINS', 'HOPKINTON', 'HORNELL', 'HORSEHEADS', 'HORSHAM', 'HOSCHTON', 'HOT SPRINGS', 'HOT SPRINGS NTL', 'HOUGHTON', 'HOUMA', 'HOUSTON', 'HOUTZDALE', 'HOWARD', 'HOWARD BEACH', 'HOWARDSVILLE', 'HOWELL', 'HOY', 'HSAMDEN', 'HSTINGONHUDSON', 'HUBER HEIGHTS', 'HUBERT', 'HUDDLESTON', 'HUDSON', 'HUEYTOWN', 'HUGER', 'HUGGINS', 'HUGHESVILLE', 'HUGO', 'HULL', 'HUMBLE', 'HUME', 'HUMMELSTOWN', 'HUNT', 'HUNT VALLEY', 'HUNTERSVILLE', 'HUNTERTOWN', 'HUNTINGDON', 'HUNTINGDON VLY', 'HUNTINGDONN VLY', 'HUNTINGOWN', 'HUNTINGTH', 'HUNTINGTON', 'HUNTINGTON BEACH', 'HUNTINGTON BH', 'HUNTINGTON PARK', 'HUNTINGTOWN', 'HUNTSVILLE', 'HURLOCK', 'HURON', 'HURRICANE', 'HURST', 'HUSTLE', 'HUSTON', 'HUSTONTOWN', 'HUTCHINSON', 'HVRE DE GRACE', 'HYAATTSVILLLE', 'HYARRSVILLE', 'HYASSTVILLE', 'HYASTTSVILLE', 'HYATESVILLE', 'HYATSSVILLE', 'HYATSVILLE', 'HYATTASVILLE', 'HYATTAVILLE', 'HYATTESVILLE', 'HYATTS9VILLE', 'HYATTS</t>
         </is>
@@ -2677,18 +3123,32 @@
       <c r="P33" t="n">
         <v>11</v>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>XX</t>
-        </is>
-      </c>
-      <c r="R33" t="n">
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>747594</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
         <v>1652510</v>
       </c>
-      <c r="S33" t="n">
+      <c r="W33" t="n">
         <v>67</v>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>['AB', 'AK', 'AL', 'AR', 'AZ', 'BC', 'CA', 'CO', 'CT', 'DC', 'DE', 'FL', 'GA', 'GU', 'HI', 'IA', 'ID', 'IL', 'IN', 'IT', 'KS', 'KY', 'LA', 'MA', 'MB', 'MD', 'ME', 'MI', 'MN', 'MO', 'MS', 'MT', 'NB', 'NC', 'ND', 'NE', 'NF', 'NH', 'NJ', 'NM', 'NS', 'NV', 'NY', 'OH', 'OK', 'ON', 'OR', 'PA', 'PQ', 'PR', 'QC', 'RI', 'SC', 'SD', 'SK', 'TN', 'TX', 'US', 'UT', 'VA', 'VI', 'VT', 'WA', 'WI', 'WV', 'WY', 'XX']</t>
         </is>
@@ -2747,18 +3207,32 @@
       <c r="P34" t="n">
         <v>929</v>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>XX</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>718704</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
         <v>1650674</v>
       </c>
-      <c r="S34" t="n">
+      <c r="W34" t="n">
         <v>69</v>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>['AB', 'AK', 'AL', 'AR', 'AS', 'AZ', 'BC', 'CA', 'CO', 'CT', 'DC', 'DE', 'FL', 'GA', 'GU', 'HI', 'IA', 'ID', 'IL', 'IN', 'IT', 'KS', 'KY', 'LA', 'MA', 'MB', 'MD', 'ME', 'MI', 'MN', 'MO', 'MS', 'MT', 'NB', 'NC', 'ND', 'NE', 'NF', 'NH', 'NJ', 'NM', 'NS', 'NV', 'NY', 'OH', 'OK', 'ON', 'OR', 'PA', 'PE', 'PQ', 'PR', 'QC', 'RI', 'SC', 'SD', 'SK', 'TN', 'TX', 'US', 'UT', 'VA', 'VI', 'VT', 'WA', 'WI', 'WV', 'WY', 'XX']</t>
         </is>
@@ -2817,18 +3291,32 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>S - License Plate Recognition</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>A - Marked Patrol</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>668884</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
         <v>14220175</v>
       </c>
-      <c r="S35" t="n">
+      <c r="W35" t="n">
         <v>19</v>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>['A - Marked Patrol', 'B - Unmarked Patrol', 'C - Marked VASCAR', 'D - Unmarked VASCAR', 'E - Marked Stationary Radar', 'F - Unmarked Stationary Radar', 'G - Marked Moving Radar (Stationary)', 'H - Unmarked Moving Radar (Stationary)', 'I - Marked Moving Radar (Moving)', 'J - Unmarked Moving Radar (Moving)', 'K - Aircraft Assist', 'L - Motorcycle', 'M - Marked (Off-Duty)', 'N - Unmarked (Off-Duty)', 'O - Foot Patrol', 'P - Mounted Patrol', 'Q - Marked Laser', 'R - Unmarked Laser', 'S - License Plate Recognition']</t>
         </is>
@@ -2887,18 +3375,28 @@
       <c r="P36" t="n">
         <v>73031</v>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>(77.0429933333333, 39.100655)</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>73031</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>24357475</v>
       </c>
-      <c r="S36" t="n">
+      <c r="W36" t="n">
         <v>408259</v>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>['(-73.4501783333333, 40.1118216666667)', '(-74.7999233333333, 39.2395133333333)', '(-76.0514883333333, 38.8968416666667)', '(-76.64085, 39.4496066666667)', '(-76.6973983333333, 39.32599)', '(-76.7599316666667, 39.361065)', '(-76.8055083333333, 39.205925)', '(-76.8056633333333, 39.2060116666667)', '(-76.8059216666667, 39.205855)', '(-76.837895, 39.04619)', '(-76.8577516666667, 39.1015166666667)', '(-76.910315, 39.106105)', '(-76.91044, 39.109775)', '(-76.9107066666667, 39.1055883333333)', '(-76.915005, 39.1062766666667)', '(-76.91548, 39.1062066666667)', '(-76.9159516666667, 39.1061116666667)', '(-76.916185, 39.10626)', '(-76.917005, 39.106025)', '(-76.9170833333333, 39.1060466666667)', '(-76.9173283333333, 39.1060216666667)', '(-76.9175883333333, 39.1060233333333)', '(-76.91885, 39.1319583333333)', '(-76.918875, 39.106035)', '(-76.9189033333333, 39.132015)', '(-76.9190366666667, 39.106375)', '(-76.9191616666667, 39.10572)', '(-76.9193433333333, 39.1063633333333)', '(-76.9197166666667, 39.1065833333333)', '(-76.9200633333333, 39.1067583333333)', '(-76.9202533333333, 39.1301716666667)', '(-76.92028, 39.1067716666667)', '(-76.9204216666667, 39.106975)', '(-76.92054, 39.1041633333333)', '(-76.92058, 39.107)', '(-76.9206483333333, 39.1064933333333)', '(-76.9206683333333, 39.1069716666667)', '(-76.920895, 39.1062833333333)', '(-76.9209116666667, 39.1069766666667)', '(-76.92092, 39.106985)', '(-76.9209383333333, 39.1071866666667)', '(-76.9209583333333, 39.1061966666667)', '(-76.9210566666667, 39.107255)', '(-76.9211266666667, 39.12896)', '(-76.9211816666667, 39.1059966666667)', '(-76.9211933333333, 39.1073633333333)', '(-76.9213383333333, 39.107505)', '(-76.9213666666667, 39.10756)', '(-76.92149, 39.1075583333333)', '(-76.9217716666667, 39.1079866666667)', '(-76.921825, 39.10794)', '(-76.9218583333333, 39.1079533333333)', '(-76.9219416666667, 39.108025)', '(-76.9219633333333, 39.1080616666667)', '(-76.9219783333333, 39.1080816666667)', '(-76.9220383333333, 39.1081133333333)', '(-76.9220833333333, 39.1081733333333)', '(-76.9221033333333, 39.1276116666667)', '(-76.9223766666667, 39.1084333333333)', '(-76.9224033333333, 39.108445)', '(-76.9224183333333, 39.1084366666667)', '(-76.9224416666667, 39.1085816666667)', '(-76.922465, 39.12719)', '(-76.9225166666667, 39.108535)', '(-76.92258, 39.10857)', '(-76.9228516666667, 39.1088716666667)', '(-76.9230916666667, 39.1094666666667)', '(-76.9232233333333, 39.1258716666667)', '(-76.923235, 39.099335)', '(-76.9234266666667, 39.1095416666667)', '(-76.9236066666667, 39.099805)', '(-76.9244016666667, 39.11017)', '(-76.9247733333333, 39.1237033333333)', '(-76.9248866666667, 39.110465)', '(-76.9253316666667, 39.1107633333333)', '(-76.925605, 39.1108666666667)', '(-76.9256416666667, 39.1221233333333)', '(-76.9258216666667, 39.1217783333333)', '(-76.92606, 39.111005)', '(-76.9267666666667, 39.11158)', '(-76.9272833333333, 39.1184166666667)', '(-76.9276716666667, 39.111405)', '(-76.9277766666667, 39.11145)', '(-76.92785, 39.11143)', '(-76.92807, 39.1114733333333)', '(-76.9281783333333, 39.1144166666667)', '(-76.928475, 39.1119266666667)', '(-76.9285583333333, 39.1142083333333)', '(-76.9286316666667, 39.0766566666667)', '(-76.9286566666667, 39.113715)', '(-76.928725, 39.1124316666667)', '(-76.9287383333333, 39.113455)', '(-76.92875, 39.1133433333333)', '(-76.928765, 39.1113916666667)', '(-76.9287666666667, 39.1135533333333)', '(-76.9291983333333, 39.1117816666667)', '(-76.9295733333333, 39.07796)', '(-76.9296366666667, 39.11096)', '(-76.92965, 39.1112633333333)', '(-76.929795, 39.07849)', '(-76.9299683333333, 39.0797866666667)', '(-76.930035, 39.0799833333333)', '(-76.930055, 39.1116983333333)', '(-76.930065, 39.0799116666667)', '(-76.9300716666667, 39.0801516666667)', '(-76.9300916666667, 39.080055)', '(-76.9300983333333, 39.08011)', '(-76.9301083333333, 39.0797866666667)', '(-76.9301283333333, 39.0803616666667)', '(-76.9301533333333, 39.0802666666667)', '(-76.9301683333333, 39.1100616666667)', '(-76.93019, 39.080275)', '(-76.9301916666667, 39.0803533333333)', '(-76.93022, 39.0804166666667)', '(-76.9302333333333, 39.08048)', '(-76.9302583333333, 39.11008)', '(-76.9302666666667, 39.0806266666667)', '(-76.9302733333333, 39.1093416666667)', '(-76.9303083333333, 39.11011)', '(-76.9303616666667, 39.081)', '(-76.93037, 39.1120883333333)', '(-76.9304316666667, 39.109495)', '(-76.9304333333333, 39.1117883333333)', '(-76.930435, 39.1088066666667)', '(-76.9304616666667, 39.0816166666667)', '(-76.930465, 39.1117916666667)', '(-76.9304733333333, 39.0809533333333)', '(-76.9304966666667, 39.0822666666667)', '(-76.930525, 39.0812166666667)', '(-76.930525, 39.0813716666667)', '(-76.9305433333333, 39.1096033333333)', '(-76.93056, 39.0814883333333)', '(-76.930665, 39.1093516666667)', '(-76.9307033333333, 39.109305)', '(-76.93071, 39.08342)', '(-76.93079, 39.1090566666667)', '(-76.9308016666667, 39.0837566666667)', '(-76.9308116666667, 39.1081733333333)', '(-76.9309033333333, 39.108905)', '(-76.930915, 39.11174)', '(-76.9309283333333, 39.1080233333333)', '(-76.9310466666667, 39.1085716666667)', '(-76.9310533333333, 39.10777)', '(-76.9310666666667, 39.1077616666667)', '(-76.9310666666667, 39.1085316666667)', '(-76.9311433333333, 39.1083416666667)', '(-76.9311583333333, 39.0856983333333)', '(-76.9312216666667, 39.0851866666667)', '(-76.9312366666667, 39.08534)', '(-76.9313433333333, 39.1091466666667)', '(-76.9314016666667, 39.0925733333333)', '(-76.9314066666667, 39.111455)', '(-76.9314116666667, 39.1078983333333)', '(-76.9314333333333, 39.10483)', '(-76.93146, 39.10782)', '(-76.9315633333333, 39.0928616666667)', '(-76.9315866666667, 39.107585)', '(-76.9317683333333, 39.1129933333333)', '(-76.9318233333333, 39.1105133333333)', '(-76.9318283333333, 39.1130283333333)', '(-76.931885, 39.106185)', '(-76.93196, 39.1066433333333)', '(-76.9319733333333, 39.1063833333333)', '(-76.9320633333333, 39.1033566666667)', '(-76.9321333333333, 39.1066133333333)', '(-76.9322, 39.0859166666667)', '(-76.9322766666667, 39.10545)', '(-76.9322983333333, 39.1057966666667)', '(-76.93232, 39.1053866666667)', '(-76.932325, 39.11232)', '(-76.93234, 39.1059266666667)', '(-76.9323833333333, 39.1057783333333)', '(-76.9324516666667, 39.10516)', '(-76.9324816666667, 39.1050516666667)', '(-76.9324866666667, 39.1015033333333)', '(-76.9325116666667, 39.1016533333333)', '(-76.9325383333333, 39.1058383333333)', '(-76.932545, 39.10589)', '(-76.93264, 39.1109066666667)', '(-76.93265, 39.11201)', '(-76.9326816666667, 39.1140016666667)', '(-76.9327183333333, 39.1106416666667)', '(-76.93274, 39.1051416666667)', '(-76.9327666666667, 39.1112666666667)', '(-76.9327766666667, 39.1054433333333)', '(-76.9327833333333, 39.1055583333333)', '(-76.9327883333333, 39.105365)', '(-76.9328133333333, 39.11266)', '(-76.932825, 39.105375)', '(-76.932875, 39.104795)', '(-76.9328783333333, 39.1043583333333)', '(-76.9328833333333, 39.1051783333333)', '(-76.9329566666667, 39.1050766666667)', '(-76.9329566666667, 39.1051366666667)', '(-76.9330166666667, 39.1037333333333)', '(-76.9331133333333, 39.1044416666667)', '(-76.9331183333333, 39.1041616666667)', '(-76.93313, 39.1111366666667)', '(-76.933215, 39.1104566666667)', '(-76.9334766666667, 39.07899)', '(-76.9335116666667, 39.1037366666667)', '(-76.9335166666667, 39.1045883333333)', '(-76.93354, 39.110625)', '(-76.93359, 39.103975)', '(-76.9336433333333, 39.1047383333333)', '(-76.933665, 39.10476)', '(-76.9336683333333, 39.1046766666667)', '(-76.9337016666667, 39.1047666666667)', '(-76.933745, 39.10484)', '(-76.933755, 39.103275)', '(-76.9337683333333, 39.1035566666667)', '(-76.93377, 39.10332)', '(-76.9337716666667, 39.1036383333333)', '(-76.9337916666667, 39.1032866666667)', '(-76.9337933333333, 39.11102)', '(-76.9337983333333, 39.1035233333333)', '(-76.9338033333333, 39.1048533333333)', '(-76.933825, 39.1032066666667)', '(-76.9338333333333, 39.10263)', '(-76.9338466666667, 39.1031883333333)', '(-76.933875, 39.0807583333333)', '(-76.933875, 39.1032583333333)', '(-76.93389, 39.1030666666667)', '(-76.9339416666667, 39.1029833333333)', '(-76.934, 39.1029083333333)', '(-76.934045, 39.1110783333333)', '(-76.9340566666667, 39.08943)', '(-76.9340983333333, 39.0893716666667)', '(-76.9341183333333, 39.1026933333333)', '(-76.934125, 39.0893183333333)', '(-76.9341333333333, 39.0894083333333)', '(-76.934155, 39.1028266666667)', '(-76.9341933333333, 39.1018633333333)', '(-76.9342583333333, 39.1023783333333)', '(-76.9342883333333, 39.1023316666667)', '(-76.934295, 39.102565)', '(-76.9343166666667, 39.1025733333333)', '(-76.934335, 39.10225)', '(-76.9343666666667, 39.10252)', '(-76.9343883333333, 39.1023466666667)', '(-76.93451, 39.1114466666667)', '(-76.9345333333333, 39.10123)', '(-76.9345333333333, 39.1023683333333)', '(-76.9345366666667, 39.095105)', '(-76.93461, 39.10169)', '(-76.9346116666667, 39.1021516666667)', '(-76.9346133333333, 39.1016)', '(-76.934615, 39.094455)', '(-76.9346466666667, 39.10166)', '(-76.9346666666667, 39.0945433333333)', '(-76.9347016666667, 39.1018766666667)', '(-76.93471, 39.09443)', '(-76.93471, 39.10174)', '(-76.9347316666667, 39.10179)', '(-76.93477, 39.1019866666667)', '(-76.9347733333333, 39.08109)', '(-76.9348166666667, 39.1013433333333)', '(-76.9348516666667, 39.1014316666667)', '(-76.9348883333333, 39.1011633333333)', '(-76.9349733333333, 39.1013983333333)', '(-76.9349766666667, 39.1013616666667)', '(-76.935065, 39.1009283333333)', '(-76.93507, 39.0770866666667)', '(-76.935115, 39.1010166666667)', '(-76.9351566666667, 39.1009833333333)', '(-76.9351833333333, 39.1007783333333)', '(-76.9352116666667, 39.1009683333333)', '(-76.9352316666667, 39.10035)', '(-76.9352416666667, 39.10092)', '(-76.9353016666667, 39.1007566666667)', '(-76.93531, 39.1008666666667)', '(-76.93544, 39.1005083333333)', '(-76.93544, 39.1005966666667)', '(-76.93552, 39.1003766666667)', '(-76.9355666666667, 39.0945266666667)', '(-76.9356483333333, 39.1001333333333)', '(-76.9356933333333, 39.0997133333333)', '(-76.9358133333333, 39.0995683333333)', '(-76.9358233333333, 39.108985)', '(-76.93585, 39.0988266666667)', '(-76.9359233333333, 39.0998483333333)', '(-76.935955, 39.108825)', '(-76.9359966666667, 39.0994716666667)', '(-76.93604, 39.0947066666667)', '(-76.9360583333333, 39.0991833333333)', '(-76.93609, 39.0989216666667)', '(-76.9361233333333, 39.0814766666667)', '(-76.93614, 39.09921)', '(-76.9361566666667, 39.0811666666667)', '(-76.9361933333333, 39.0979833333333)', '(-76.9362533333333, 39.085565)', '(-76.9362583333333, 39.0734583333333)', '(-76.9363133333333, 39.098975)', '(-76.9363433333333, 39.098455)', '(-76.936355, 39.09874)', '(-76.936475, 39.0985883333333)', '(-76.936525, 39.0985616666667)', '(-76.936535, 39.0981816666667)', '(-76.9365466666667, 39.0984483333333)', '(-76.9366016666667, 39.097615)', '(-76.93662, 39.0973933333333)', '(-76.9366483333333, 39.0949583333333)', '(-76.93669, 39.0981733333333)', '(-76.93671, 39.0978083333333)', '(-76.936715, 39.0950016666667)', '(-76.9368983333333, 39.0799416666667)', '(-76.9369283333333, 39.0785466666667)', '(-76.936945, 39.0979616666667)', '(-76.9369516666667, 39.097925)', '(-76.9369733333333, 39.0977266666667)', '(-76.936995, 39.0687633333333)', '(-76.937085, 39.0683083333333)', '(-76.9370866666667, 39.0814133333333)', '(-76.9370866666667, 39.0967116666667)', '(-76.937115, 39.0973433333333)', '(-76.937155, 39.1083866666667)', '(-76.9371716666667, 39.06841)', '(-76.9371833333333, 39.068365)', '(-76.937185, 39.06838)', '(-76.9372033333333, 39.0676066666667)', '(-76.9372133333333, 39.0685766666667)', '(-76.937215, 39.06782)', '(-76.937215, 39.0683)', '(-76.9372166666667, 39.0681416666667)', '(-76.9372166666667, 39.0684083333333)', '(-76.937225, 39.0678583333333)', '(-76.937225, 39.0681766666667)', '(-76.93723, 39.0681983333333)', '(-76.93725, 39.0674116666667)', '(-76.937255, 39.0968933333333)', '(-76.9372683333333, 39.0963583333333)', '(-76.9372716666667, 39.0680783333333)', '(-76.937275, 39.0680683333333)', '(-76.9372783333333, 39.0676483333333)', '(-76.9372783333333, 39.0677516666667)', '(-76.9372966666667, 39.0677183333333)', '(-76.93731, 39.06747)', '(-76.9373183333333, 39.0952266666667)', '(-76.9373233333333, 39.067485)', '(-76.937325, 39.0673466666667)', '(-76.9373266666667, 39.0675883333333)', '(-76.9373283333333, 39.0675916666667)', '(-76.9373316666667, 39.0673083333333)', '(-76.9373333333333, 39.0962916666667)', '(-76.93734, 39.0681516666667)', '(-76.9373583333333, 39.0674983333333)', '(-76.9373783333333, 39.0672433333333)', '(-76.9373933333333, 39.06725)', '(-76.9373966666667, 39.0673)', '(-76.9374233333333, 39.06973)', '(-76.9374733333333, 39.06989)', '(-76.9375333333333, 39.069935)', '(-76.9376316666667, 39.0965366666667)', '(-76.9379016666667, 39.0961883333333)', '(-76.9379083333333, 39.07695)', '(-76.9379916666667, 39.0952916666667)', '(-76.9380166666667, 39.0951033333333)', '(-76.938085, 39.0956466666667)', '(-76.93809, 39.0959083333333)', '(-76.9381, 39.0929716666667)', '(-76.938105, 39.0776983333333)', '(-76.9381333333333, 39.0958816666667)', '(-76.938135, 39.0957033333333)', '(-76.938145, 39.0789533333333)', '(-76.93821, 39.0826233333333)', '(-76.9382216666667, 39.0789766666667)', '(-76.93826, 39.10553)', '(-76.9383683333333, 39.079035)', '(-76.9384, 39.0946466666667)', '(-76.9384833333333, 39.0953583333333)', '(-76.9385116666667, 39.0650183333333)', '(-76.9385116666667, 39.0650633333333)', '(-76.938525, 39.0651333333333)', '(-76.938545, 39.0650733333333)', '(-76.9385933333333, 39.077375)', '(-76.938595, 39.1074683333333)', '(-76.9386133333333, 39.0958733333333)', '(-76.9386966666667, 39.0942083333333)', '(-76.9387166666667, 39.0947516666667)', '(-76.9387266666667, 39.094235)', '(-76.9387683333333, 39.0944333333333)', '(-76.9387733333333, 39.094915)', '(-76.938785, 39.0949016666667)', '(-76.938795, 39.0948816666667)', '(-76.9388783333333, 39.09434)', '(-76.9388983333333, 39.0760716666667)', '(-76.9389433333333, 39.0947266666667)', '(-76.9389966666667, 39.0938866666667)', '(-76.9391316666667, 39.0769533333333)', '(-76.939155, 39.093855)', '(-76.93917, 39.0839966666667)', '(-76.9391783333333, 39.072695)', '(-76.9392016666667, 39.0939133333333)', '(-76.9392333333333, 39.076785)', '(-76.9394083333333, 39.0940633333333)', '(-76.9394116666667, 39.1032866666667)', '(-76.93942, 39.0737116666667)', '(-76.939435, 39.0857716666667)', '(-76.9394683333333, 39.09329)', '(-76.9394816666667, 39.09629)', '(-76.9395316666667, 39.0789316666667)', '(-76.9396333333333, 39.07909)', '(-76.9396433333333, 39.0358716666667)', '(-76.939665, 39.0937066666667)', '(-76.9397383333333, 39.1070433333333)', '(-76.9397566666667, 39.1069833333333)', '(-76.9397633333333, 39.10691)', '(-76.93977, 39.1069216666667)', '(-76.9397816666667, 39.1069966666667)', '(-76.939795, 39.0932)', '(-76.939795, 39.10728)', '(-76.9398283333333, 39.1070216666667)', '(-76.9398316666667, 39.1071016666667)', '(-76.9398383333333, 39.1069433333333)', '(-76.939845, 39.1070866666667)', '(-76.9398466666667, 39.076455)', '(-76.9398466666667, 39.107065)', '(-76.9398516666667, 39.10708)', '(-76.9398566666667, 39.107095)', '(-76.9398616666667, 39.107055)', '(-76.9398633333333, 39.107075)', '(-76.9398733333333, 39.10712)', '(-76.9398783333333, 39.107005)', '(-76.9398783333333, 39.10708)', '(-76.9398833333333, 39.1071183333333)', '(-76.9398866666667, 39.0869266666667)', '(-76.9398883333333, 39.1070916666667)', '(-76.9398883333333, 39.1071183333333)', '(-76.9398916666667, 39.1070966666667)', '(-76.939895, 39.107115)', '(-76.9399, 39.107055)', '(-76.9399, 39.1073466666667)', '(-76.9399033333333, 39.1070433333333)', '(-76.9399033333333, 39.10713)', '(-76.939905, 39.10712)', '(-76.9399066666667, 39.1071033333333)', '(-76.9399083333333, 39.1070816666667)', '(-76.9399116666667, 39.1070116666667)', '(-76.9399116666667, 39.1071133333333)', '(-76.9399116666667, 39.1072183333333)', '(-76.939915, 39.1070883333333)', '(-76.939915, 39.1071266666667)', '(-76.9399166666667, 39.1071116666667)', '(-76.9399333333333, 39.1070983333333)', '(-76.939935, 39.1071083333333)', '(-76.9399466666667, 39.1071066666667)', '(-76.9399483333333, 39.1071933333333)', '(-76.9399516666667, 39.1072316666667)', '(-76.9399566666667, 39.1071566666667)', '(-76.9399583333333, 39.1070666666667)', '(-76.9399583333333, 39.107165)', '(-76.939965, 39.1072066666667)', '(-76.9399716666667, 39.1072066666667)', '(-76.9399766666667, 39.107265)', '(-76.93999, 39.1071833333333)', '(-76.9400033333333, 39.10718)', '(-76.9400083333333, 39.1071616666667)', '(-76.9400266666667, 39.107235)', '(-76.9400283333333, 39.1071016666667)', '(-76.9400766666667, 39.07597)', '(-76.9400866666667, 39.107015)', '(-76.9400966666667, 39.1072016666667)', '(-76.9401483333333, 39.0931)', '(-76.94022, 39.07904)', '(-76.9402216666667, 39.107205)', '(-76.9402483333333, 39.0744733333333)', '(-76.9402516666667, 39.09237)', '(-76.94026, 39.0928)', '(-76.9402616666667, 39.0923666666667)', '(-76.9402666666667, 39.0763883333333)', '(-76.9403366666667, 39.0749616666667)', '(-76.9403383333333, 39.0922816666667)', '(-76.9403733333333, 39.0837466666667)', '(-76.940395, 39.0846583333333)', '(-76.9405266666667, 39.0920833333333)', '(-76.940565, 39.0925866666667)', '(-76.9407416666667, 39.07544)', '(-76.9408516666667, 39.076035)', '(-76.9408616666667, 39.0756716666667)', '(-76.94092, 39.0785283333333)', '(-76.94097, 39.0921866666667)', '(-76.9410866666667, 39.0839233333333)', '(-76.9410983333333, 39.084665)', '(-76.9412883333333, 39.097105)', '(-76.941295, 39.0781683333333)', '(-76.9413083333333, 39.0917633333333)', '(-76.9413316666667, 39.0759066666667)', '(-76.9414533333333, 39.0763716666667)', '(-76.9414716666667, 39.0846083333333)', '(-76.9415083333333, 39.0991166666667)', '(-76.94156, 39.0763233333333)', '(-76.94157, 39.0781616666667)', '(-76.9415766666667, 39.1065766666667)', '(-76.941675, 39.0846783333333)', '(-76.941695, 39.0779966666667)', '(-76.9417033333333, 39.0778833333333)', '(-76.941815, 39.0835716666667)', '(-76.9418433333333, 39.0905)', '(-76.94185, 39.07778)', '(-76.94186, 39.0834816666667)', '(-76.9419683333333, 38.9502766666667)', '(-76.9420016666667, 39.084315)', '(-76.942025, 39.112885)', '(-76.9420983333333, 39.0777466666667)', '(-76.942275, 39.0844483333333)', '(-76.9423366666667, 39.077145)', '(-76.9423383333333, 39.080985)', '(-76.9423966666667, 39.0904783333333)', '(-76.942425, 39.0773866666667)', '(-76.94282, 39.0775116666667)', '(-76.9428833333333, 39.0770283333333)', '(-76.9428916666667, 39.0824016666667)', '(-76.9429083333333, 39.0773416666667)', '(-76.9429283333333, 39.0891866666667)', '(-76.9429316666667, 39.089215)', '(-76.9429416666667, 39.0892616666667)', '(-76.9430583333333, 39.0826283333333)', '(-76.943105, 39.0896316666667)', '(-76.94318, 39.0888533333333)', '(-76.9432433333333, 39.0826316666667)', '(-76.9432583333333, 39.082725)', '(-76.943295, 39.0786616666667)', '(-76.9432966666667, 39.0803666666667)', '(-76.94331, 39.0893633333333)', '(-76.9433333333333, 39.07854)', '(-76.9433366666667, 39.099385)', '(-76.9434383333333, 39.0891916666667)', '(-76.9434916666667, 39.08293)', '(-76.94355, 39.0884416666667)', '(-76.9435883333333, 39.08843)', '(-76.9436433333333, 39.0826183333333)', '(-76.943755, 39.0784716666667)', '(-76.94377, 39.082225)', '(-76.9438016666667, 39.0884166666667)', '(-76.9438633333333, 39.0880483333333)', '(-76.94393, 39.05856)', '(-76.9439366666667, 39.0780683333333)', '(-76.9441233333333, 39.0564616666667)', '(-76.9441466666667, 39.08351)', '(-76.944195, 39.0784333333333)', '(-76.9442583333333, 39.0781083333333)', '(-76.9442633333333, 39.05921)', '(-76.9442633333333, 39.0782383333333)', '(-76.9442733333333, 39.0875683333333)', '(-76.9443166666667, 39.0817716666667)', '(-76.9443183333333, 39.0880716666667)', '(-76.944355, 39.082075)', '(-76.9443766666667, 39.078515)', '(-76.9444516666667, 39.0835883333333)', '(-76.9445116666667, 39.0821333333333)', '(-76.944565, 39.0784616666667)', '(-76.9445883333333, 39.0819333333333)', '(-76.9446083333333, 39.0803633333333)', '(-76.94461, 39.0872016666667)', '(-76.94467, 39.0792933333333)', '(-76.944675, 39.0796983333333)', '(-76.944695, 39.08706)', '(-76.944795, 39.0796266666667)', '(-76.9447966666667, 39.07941)', '(-76.94481, 39.0869516666667)', '(-76.9448566666667, 39.081805)', '(-76.9448633333333, 39.08183)', '(-76.9448783333333, 39.08772)', '(-76.9448983333333, 39.0819416666667)', '(-76.9449083333333, 39.0794833333333)', '(-76.944945, 39.0817466666667)', '(-76.9449716666667, 39.0636216666667)', '(-76.9449766666667, 39.05739)', '(-76.9450016666667, 39.0972033333333)', '(-76.945005, 39.081775)', '(-76.9450283333333, 39.057075)', '(-76.9450583333333, 39.061525)', '(-76.9450583333333, 39.0637983333333)', '(-76.9450716666667, 39.0616983333333)', '(-76.9450883333333, 39.0612966666667)', '(-76.9451316666667, 39.08664)', '(-76.9451383333333, 39.081685)', '(-76.9451666666667, 39.1081633333333)', '(-76.9451716666667, 39.0816816666667)', '(-76.9452183333333, 39.0816266666667)', '(-76.9453166666667, 39.0815466666667)', '(-76.945335, 39.08255)', '(-76.94536, 39.079645)', '(-76.94536, 39.0815066666667)', '(-76.9453866666667, 39.0797216666667)', '(-76.9454116666667, 39.0795083333333)', '(-76.9454383333333, 39.0858183333333)', '(-76.9454566666667, 39.0814833333333)', '(-76.945475, 39.0798616666667)', '(-76.9454966666667, 39.08017)', '(-76.9454983333333, 39.0856133333333)', '(-76.9455183333333, 39.108335)', '(-76.945565, 39.079745)', '(-76.9455683333333, 39.0799283333333)', '(-76.9456083333333, 39.0802716666667)', '(-76.9456183333333, 39.0804033333333)', '(-76.9456283333333, 39.0814033333333)', '(-76.945635, 39.0860016666667)', '(-76.9457383333333, 39.0801566666667)', '(-76.94574, 39.0858133333333)', '(-76.94575, 39.08126)', '(-76.9457516666667, 39.0804166666667)', '(-76.9457583333333, 39.0813466666667)', '(-76.945805, 39.0827316666667)', '(-76.9458783333333, 39.0831666666667)', '(-76.9458966666667, 39.0816316666667)', '(-76.9459233333333, 39.0816116666667)', '(-76.9459266666667, 39.0808066666667)', '(-76.9459316666667, 39.0803983333333)', '(-76.94594, 39.0805033333333)', '(-76.9460266666667, 39.080955)', '(-76.9461533333333, 39.08145)', '(-76.9461583333333, 39.0819166666667)', '(-76.946165, 39.0817)', '(-76.94626, 39.08217)', '(-76.9463433333333, 39.082535)', '(-76.946395, 39.09523)', '(-76.9464633333333, 39.0833366666667)', '(-76.9464766666667, 39.0821316666667)', '(-76.9465, 39.0817033333333)', '(-76.946515, 39.08339)', '(-76.9465583333333, 39.081585)', '(-76.94656, 39.081565)', '(-76.9465616666667, 39.0824016666667)', '(-76.9465766666667, 39.08212)', '(-76.9465783333333, 39.0818333333333)', '(-76.9466633333333, 39.0813266666667)', '(-76.946665, 39.082045)', '(-76.946665, 39.0855183333333)', '(-76.946675, 39.081525)', '(-76.9466866666667, 39.082735)', '(-76.9466933333333, 39.0820083333333)', '(-76.946745, 39.0807166666667)', '(-76.946755, 39.080985)', '(-76.94677, 39.0835083333333)', '(-76.94678, 39.1092366666667)', '(-76.94682, 39.081875)', '(-76.94683, 39.0853483333333)', '(-76.94684, 39.0826283333333)', '(-76.9468733333333, 39.0819233333333)', '(-76.9469, 39.0834116666667)', '(-76.9469283333333, 39.0823266666667)', '(-76.9469366666667, 39.081965)', '(-76.9469683333333, 39.0809583333333)', '(-76.946985, 39.0825033333333)', '(-76.94699, 39.0820333333333)', '(-76.9469916666667, 39.0830316666667)', '(-76.9469983333333, 39.080765)', '(-76.9470233333333, 39.0822683333333)', '(-76.9470466666667, 39.0820866666667)', '(-76.9470916666667, 39.0669433333333)', '(-76.9471983333333, 39.082565)', '(-76.94733, 39.08953)', '(-76.9473383333333, 39.08197)', '(-76.9473866666667, 39.0824066666667)', '(-76.94739, 39.0901916666667)', '(-76.9474016666667, 39.08246)', '(-76.94742, 39.083455)', '(-76.94754, 39.0839116666667)', '(-76.947605, 39.082355)', '(-76.947605, 39.0838983333333)', '(-76.9476166666667, 39.0836833333333)', '(-76.94762, 39.082265)', '(-76.9476333333333, 39.0825333333333)', '(-76.9476466666667, 39.0826983333333)', '(-76.9476583333333, 39.0827166666667)', '(-76.94766, 39.0826966666667)', '(-76.9476816666667, 39.0826466666667)', '(-76.9476933333333, 39.0835483333333)', '(-76.9477283333333, 39.0827466666667)', '(-76.947735, 39.0823883333333)', '(-76.9478283333333, 39.0839883333333)', '(-76.9478516666667, 39.0829566666667)', '(-76.9479516666667, 39.0834716666667)', '(-76.9480216666667, 39.097375)', '(-76.9480566666667, 39.0830633333333)', '(-76.9481683333333, 39.09751)', '(-76.948235, 39.0829983333333)', '(-76.94825, 39.0831216666667)', '(-76.9483116666667, 39.0832433333333)', '(-76.9483216666667, 39.0824433333333)', '(-76.9483266666667, 39.0830083333333)', '(-76.9483333333333, 39.0832616666667)', '(-76.9483616666667, 39.0832533333333)', '(-76.9483866666667, 39.0832766666667)', '(-76.9484816666667, 39.0848316666667)', '(-76.94852, 39.0833966666667)', '(-76.94857, 39.1104833333333)', '(-76.9485766666667, 39.0831033333333)', '(-76.9486133333333, 39.0831033333333)', '(-76.9486316666667, 39.0834383333333)', '(-76.94868, 39.0834566666667)', '(-76.948715, 39.0834966666667)', '(-76.948735, 39.0846766666667)', '(-76.9487433333333, 39.082955)', '(-76.9488383333333, 39.08285)', '(-76.9488816666667, 39.0670733333333)', '(-76.9489516666667, 39.08283)', '(-76.949025, 39.0827283333333)', '(-76.949025, 39.0836616666667)', '(-76.9490416666667, 39.0667366666667)', '(-76.94913, 39.1110983333333)', '(-76.9491516666667, 39.0824366666667)', '(-76.9492266666667, 39.0837916666667)', '(-76.94924, 39.0837833333333)', '(-76.949255, 39.0763866666667)', '(-76.949265, 39.0842216666667)', '(-76.9493083333333, 39.0812783333333)', '(-76.949325, 39.08444)', '(-76.94948, 39.0840716666667)', '(-76.9497683333333, 39.0817566666667)', '(-76.9498966666667, 39.0840483333333)', '(-76.9499033333333, 39.0839866666667)', '(-76.9499166666667, 39.0525583333333)', '(-76.9499966666667, 39.052415)', '(-76.950075, 39.0570216666667)', '(-76.95009, 39.0841433333333)', '(-76.9500966666667, 39.0840433333333)', '(-76.9501266666667, 39.105245)', '(-76.9501733333333, 39.0838066666667)', '(-76.950195, 39.08137)', '(-76.9502083333333, 39.086665)', '(-76.9502416666667, 39.1050716666667)', '(-76.9502566666667, 39.0841566666667)', '(-76.9502933333333, 39.1050466666667)', '(-76.9503116666667, 39.0478383333333)', '(-76.95035, 39.08414)', '(-76.9503966666667, 39.0842066666667)', '(-76.9504083333333, 39.0571116666667)', '(-76.9504183333333, 39.08426)', '(-76.9504366666667, 39.08093)', '(-76.9505133333333, 39.0800383333333)', '(-76.95053, 39.1059083333333)', '(-76.9505483333333, 39.080245)', '(-76.9505916666667, 39.08508)', '(-76.9505966666667, 39.0569816666667)', '(-76.9506083333333, 39.0434266666667)', '(-76.9506583333333, 39.08076)', '(-76.9506983333333, 39.0434466666667)', '(-76.9507083333333, 39.0842816666667)', '(-76.95073, 39.0434533333333)', '(-76.9507783333333, 39.057155)', '(-76.9507916666667, 39.0842766666667)', '(-76.9507983333333, 39.0797816666667)', '(-76.9508216666667, 39.0524966666667)', '(-76.95084, 39.0842633333333)', '(-76.9508433333333, 39.08462)', '(-76.95086, 39.0524066666667)', '(-76.95087, 39.07888)', '(-76.9509066666667, 39.0526016666667)', '(-76.9509316666667, 39.08461)', '(-76.950935, 39.0569866666667)', '(-76.9509533333333, 39.0567)', '(-76.951005, 39.0525216666667)', '(-76.95102, 39.08424)', '(-76.9510333333333, 39.0844866666667)', '(-76.9511566666667, 39.0567866666667)', '(-76.9512166666667, 39.043715)', '(-76.9512266666667, 39.0841716666667)', '(-76.9512283333333, 39.0441766666667)', '(-76.9513516666667, 39.0845433333333)', '(-76.9513583333333, 39.0859483333333)', '(-76.9514116666667, 39.083885)', '(-76.9514966666667, 39.0838533333333)', '(-76.9515616666667, 39.0781633333333)', '(-76.951595, 39.0837466666667)', '(-76.9516116666667, 39.0846066666667)', '(-76.951615, 39.0838)', '(-76.9516283333333, 39.0837416666667)', '(-76.951675, 39.0787916666667)', '(-76.9517366666667, 39.0449416666667)', '(-76.951785, 39.044995)', '(-76.9517933333333, 39.0848233333333)', '(-76.95185, 39.0454216666667)', '(-76.9518516666667, 39.0530383333333)', '(-76.9518666666667, 39.0847566666667)', '(-76.951875, 39.0452833333333)', '(-76.9518933333333, 39.0456716666667)', '(-76.9519016666667, 39.0447116666667)', '(-76.951915, 39.045635)', '(-76.9519166666667, 39.08384)', '(-76.9519266666667, 39.0459116666667)', '(-76.95193, 39.0782666666667)', '(-76.9519416666667, 39.056705)', '(-76.9519433333333, 39.08475)', '(-76.9519533333333, 39.0459733333333)', '(-76.9519683333333, 39.0835083333333)', '(-76.9519816666667, 39.0459683333333)', '(-76.9519833333333, 39.0832816666667)', '(-76.9519883333333, 39.04569)', '(-76.95199, 39.0501133333333)', '(-76.9519933333333, 39.04721)', '(-76.952005, 39.044745)', '(-76.9520416666667, 39.0788133333333)', '(-76.9520883333333, 39.0468966666667)', '(-76.9521366666667, 39.0702516666667)', '(-76.952145, 39.0476066666667)', '(-76.9521533333333, 39.04682)', '(-76.9521533333333, 39.070195)', '(-76.9521833333333, 39.0468316666667)', '(-76.95219, 39.0834533333333)', '(-76.9522016666667, 39.0470433333333)', '(-76.952205, 39.0465983333333)', '(-76.9522133333333, 39.04722)', '(-76.9522216666667, 39.0470983333333)', '(-76.9522433333333, 39.0774883333333)', '(-76.9522566666667, 39.04761)', '(-76.95227, 39.047805)', '(-76.9522783333333, 39.0475233333333)', '(-76.9522933333333, 39.0482)', '(-76.9522966666667, 39.0499016666667)', '(-76.9523, 39.0477016666667)', '(-76.9523183333333, 39.078145)', '(-76.95233, 39.0498583333333)', '(-76.9523333333333, 39.049535)', '(-76.9523433333333, 39.0466266666667)', '(-76.9523466666667, 39.0498066666667)', '(-76.9524016666667, 39.0792616666667)', '(-76.9524233333333, 39.0778133333333)', '(-76.95244, 39.0718883333333)', '(-76.952445, 39.0488583333333)', '(-76.952445, 39.08511)', '(-76.95245, 39.0495883333333)', '(-76.9525133333333, 39.0494)', '(-76.9525133333333, 39.0506083333333)', '(-76.952535, 39.049335)', '(-76.95254, 39.0487083333333)', '(-76.9525666666667, 39.050005)', '(-76.9525733333333, 39.0486483333333)', '(-76.952575, 39.0792483333333)', '(-76.95259, 39.0506533333333)', '(-76.9526033333333, 39.04999)', '(-76.9526233333333, 39.0500733333333)', '(-76.9526316666667, 39.0500916666667)', '(-76.9526433333333, 39.05027)', '(-76.9526716666667, 39.0780066666667)', '(-76.9527033333333, 39.0513033333333)', '(-76.9527716666667, 39.0514416666667)', '(-76.952805, 39.0517516666667)', '(-76.9528116666667, 39.05168)', '(-76.952815, 39.0716966666667)', '(-76.9528166666667, 39.0525916666667)', '(-76.952835, 39.0516883333333)', '(-76.9528483333333, 39.0511183333333)', '(-76.9528516666667, 39.051185)', '(-76.9528816666667, 39.0516366666667)', '(-76.9528816666667, 39.0564166666667)', '(-76.9528883333333, 39.0513366666667)', '(-76.952895, 39.056295)', '(-76.9528966666667, 39.0514633333333)', '(-76.9529083333333, 39.0526033333333)', '(-76.95291, 39.0526116666667)', '(-76.9529183333333, 39.0514616666667)', '(-76.9529366666667, 39.05177)', '(-76.9529466666667, 39.0516566666667)', '(-76.952965, 39.0526033333333)', '(-76.9529683333333, 39.0522433333333)', '(-76.9529716666667, 39.0564433333333)', '(-76.9530483333333, 39.0519833333333)', '(-76.9530683333333, 39.05759)', '(-76.953125, 39.05636)', '(-76.9531633333333, 39.05296)', '(-76.9531633333333, 39.0563166666667)', '(-76.9531666666667, 39.0563333333333)', '(-76.9531883333333, 39.0563233333333)', '(-76.9532166666667, 39.0530733333333)', '(-76.95322, 39.0530483333333)', '(-76.9532583333333, 39.07657)', '(-76.9532716666667, 39.0528716666667)', '(-76.9533233333333, 39.0534966666667)', '(-76.953335, 39.053455)', '(-76.9533383333333, 39.0535466666667)', '(-76.95337, 39.076455)', '(-76.9533766666667, 39.0752566666667)', '(-76.9533966666667, 39.0540383333333)', '(-76.9534016666667, 39.0537033333333)', '(-76.9534116666667, 39.0534316666667)', '(-76.9534133333333, 39.056325)', '(-76.9534166666667, 39.0764116666667)', '(-76.953435, 39.0533466666667)', '(-76.9534516666667, 39.07722)', '(-76.9534683333333, 39.0534516666667)', '(-76.953475, 39.053655)', '(-76.9534766666667, 39.053975)', '(-76.9534833333333, 39.0535466666667)', '(-76.9535016666667, 39.0543266666667)', '(-76.9535283333333, 39.0542283333333)', '(-76.95353, 39.054185)', '(-76.9535316666667, 39.0762333333333)', '(-76.9535333333333, 39.0563216666667)', '(-76.95354, 39.0526016666667)', '(-76.95354, 39.07626)', '(-76.95355, 39.0526316666667)', '(-76.9535866666667, 39.054335)', '(-76.9536, 39.0859966666667)', '(-76.953645, 39.0543833333333)', '(-76.953665, 39.0545883333333)', '(-76.9536666666667, 39.0545333333333)', '(-76.9537483333333, 39.0525983333333)', '(-76.9537766666667, 39.054755)', '(-76.9537866666667, 39.07694)', '(-76.9538116666667, 39.0561833333333)', '(-76.9538433333333, 39.0551833333333)', '(-76.953845, 39.0551633333333)', '(-76.95385, 39.0766333333333)', '(-76.9538583333333, 39.056195)', '(-76.953</t>
         </is>

--- a/examples/USA OGD/traffic_violations/profile.xlsx
+++ b/examples/USA OGD/traffic_violations/profile.xlsx
@@ -481,11 +481,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -565,11 +565,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -649,11 +649,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -712,7 +712,7 @@
         <v>826266</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>2478798</v>
@@ -733,11 +733,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -796,7 +796,7 @@
         <v>195587</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>22328965</v>
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -985,39 +985,39 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>float</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>826266</v>
       </c>
       <c r="E8" t="n">
-        <v>826266</v>
+        <v>753235</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>20479185.23292093</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27.1883080750649</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.062565</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>35.22311431160598</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1240.667781808462</v>
       </c>
       <c r="K8" t="n">
-        <v>-1</v>
+        <v>-77.63827000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>-1</v>
+        <v>77.0429933333333</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1065,39 +1065,39 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>float</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>826266</v>
       </c>
       <c r="E9" t="n">
-        <v>826266</v>
+        <v>753235</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-49123279.35645875</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-65.21640571197588</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-77.07792000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.22439373951801</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1240.757914316595</v>
       </c>
       <c r="K9" t="n">
-        <v>-1</v>
+        <v>-94.6109883333333</v>
       </c>
       <c r="L9" t="n">
-        <v>-1</v>
+        <v>77.1871616666667</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1145,11 +1145,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1229,11 +1229,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1313,11 +1313,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1397,11 +1397,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1481,11 +1481,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1565,11 +1565,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1649,11 +1649,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1733,11 +1733,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1817,11 +1817,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1901,11 +1901,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1985,11 +1985,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -2048,7 +2048,7 @@
         <v>727168</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>1652414</v>
@@ -2069,11 +2069,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2132,7 +2132,7 @@
         <v>713368</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>12730595</v>
@@ -2153,39 +2153,39 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>826266</v>
       </c>
       <c r="E22" t="n">
-        <v>826266</v>
+        <v>821065</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1645324890</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2003.891153562751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.24449256791843</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>7611.601483433573</v>
       </c>
       <c r="K22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-1</v>
+        <v>9999</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>54188</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>3282229</v>
@@ -2237,11 +2237,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2300,7 +2300,7 @@
         <v>89653</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>4137831</v>
@@ -2321,11 +2321,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2405,11 +2405,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2468,7 +2468,7 @@
         <v>160809</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>4160325</v>
@@ -2489,11 +2489,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2552,7 +2552,7 @@
         <v>408819</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>6106525</v>
@@ -2573,11 +2573,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2657,11 +2657,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2720,7 +2720,7 @@
         <v>773657</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>17160118</v>
@@ -2741,11 +2741,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2825,11 +2825,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2888,7 +2888,7 @@
         <v>313316</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>4648072</v>
@@ -2909,11 +2909,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2993,11 +2993,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -3056,7 +3056,7 @@
         <v>202558</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>8846202</v>
@@ -3077,11 +3077,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -3140,7 +3140,7 @@
         <v>747594</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>1652510</v>
@@ -3161,11 +3161,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -3224,7 +3224,7 @@
         <v>718704</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>1650674</v>
@@ -3245,11 +3245,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -3308,7 +3308,7 @@
         <v>668884</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>14220175</v>
@@ -3329,11 +3329,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D36" t="n">
